--- a/7班_スプリントバックログ.xlsx
+++ b/7班_スプリントバックログ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\team2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G015A1347\Desktop\Soce\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="166">
   <si>
     <t>番号</t>
   </si>
@@ -1486,6 +1486,117 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>企画書構築</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>企画修正</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤー仕様書</t>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>服仕様書</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤー各種データ仕様書</t>
+    <rPh sb="5" eb="7">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ＵＩ仕様書</t>
+    <rPh sb="2" eb="5">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>シーン仕様書</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タイトル仕様書</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>ロゴシーン仕様書</t>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リザルト仕様書</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレゼン用企画書構築</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キカクショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>企画</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -2314,7 +2425,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_チーム編成_スプリントバックログ（第４）" xfId="1"/>
   </cellStyles>
-  <dxfs count="470">
+  <dxfs count="501">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2401,6 +2512,53 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF33CC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="22"/>
@@ -2443,6 +2601,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="22"/>
@@ -2485,255 +2673,73 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2745,6 +2751,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCCFF99"/>
         </patternFill>
       </fill>
@@ -3038,6 +3079,300 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF7030A0"/>
       </font>
       <fill>
@@ -5236,6 +5571,27 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -6523,7 +6879,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6775,7 +7130,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6816,7 +7170,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6933,7 +7287,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6974,7 +7327,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7091,7 +7444,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7132,7 +7484,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7249,7 +7601,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7290,7 +7641,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7446,7 +7797,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10414,10 +10764,10 @@
   <dimension ref="A1:AL411"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="Q24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10731,111 +11081,111 @@
       <c r="J4" s="95"/>
       <c r="K4" s="96"/>
       <c r="L4" s="13">
-        <f>SUM(L5:L404)</f>
+        <f t="shared" ref="L4:AL4" si="3">SUM(L5:L404)</f>
         <v>0</v>
       </c>
       <c r="M4" s="13">
-        <f>SUM(M5:M404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N4" s="13">
-        <f>SUM(N5:N404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O4" s="13">
-        <f>SUM(O5:O404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P4" s="13">
-        <f>SUM(P5:P404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q4" s="13">
-        <f>SUM(Q5:Q404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R4" s="13">
-        <f>SUM(R5:R404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S4" s="13">
-        <f>SUM(S5:S404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T4" s="13">
-        <f>SUM(T5:T404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U4" s="13">
-        <f>SUM(U5:U404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V4" s="40">
-        <f>SUM(V5:V404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W4" s="43">
-        <f>SUM(W5:W404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X4" s="13">
-        <f>SUM(X5:X404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y4" s="13">
-        <f>SUM(Y5:Y404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z4" s="13">
-        <f>SUM(Z5:Z404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA4" s="40">
-        <f>SUM(AA5:AA404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB4" s="37">
-        <f>SUM(AB5:AB404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC4" s="13">
-        <f>SUM(AC5:AC404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD4" s="13">
-        <f>SUM(AD5:AD404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE4" s="13">
-        <f>SUM(AE5:AE404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF4" s="13">
-        <f>SUM(AF5:AF404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG4" s="40">
-        <f>SUM(AG5:AG404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH4" s="37">
-        <f>SUM(AH5:AH404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI4" s="13">
-        <f>SUM(AI5:AI404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="13">
-        <f>SUM(AJ5:AJ404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK4" s="13">
-        <f>SUM(AK5:AK404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL4" s="13">
-        <f>SUM(AL5:AL404)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10852,7 +11202,7 @@
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" s="9" t="str">
-        <f t="shared" ref="F5:F68" si="3">IF(ISBLANK($B5),"",IF(ISBLANK($H5),"未着手",IF($K5=0,"完了","作業中")))</f>
+        <f t="shared" ref="F5:F68" si="4">IF(ISBLANK($B5),"",IF(ISBLANK($H5),"未着手",IF($K5=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G5" s="4"/>
@@ -10860,7 +11210,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="9" t="str">
-        <f t="shared" ref="K5:K36" ca="1" si="4">IF(ISBLANK(L5)=FALSE,OFFSET(K5,0,COUNTA(L5:AL5)),"")</f>
+        <f t="shared" ref="K5:K36" ca="1" si="5">IF(ISBLANK(L5)=FALSE,OFFSET(K5,0,COUNTA(L5:AL5)),"")</f>
         <v/>
       </c>
       <c r="L5" s="11"/>
@@ -10902,7 +11252,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G6" s="4"/>
@@ -10910,7 +11260,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L6" s="11"/>
@@ -10956,7 +11306,7 @@
         <v>104</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>完了</v>
       </c>
       <c r="G7" s="4">
@@ -11017,7 +11367,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>完了</v>
       </c>
       <c r="G8" s="4">
@@ -11078,7 +11428,7 @@
         <v>104</v>
       </c>
       <c r="F9" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>完了</v>
       </c>
       <c r="G9" s="4">
@@ -11139,7 +11489,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>完了</v>
       </c>
       <c r="G10" s="4">
@@ -11200,7 +11550,7 @@
         <v>104</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>完了</v>
       </c>
       <c r="G11" s="4">
@@ -11261,7 +11611,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G12" s="4"/>
@@ -11269,7 +11619,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L12" s="11"/>
@@ -11315,7 +11665,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G13" s="4"/>
@@ -11323,7 +11673,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L13" s="11"/>
@@ -11365,7 +11715,7 @@
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G14" s="4"/>
@@ -11373,7 +11723,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L14" s="11"/>
@@ -11419,7 +11769,7 @@
         <v>108</v>
       </c>
       <c r="F15" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G15" s="4"/>
@@ -11470,7 +11820,7 @@
         <v>104</v>
       </c>
       <c r="F16" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>完了</v>
       </c>
       <c r="G16" s="4">
@@ -11531,7 +11881,7 @@
         <v>104</v>
       </c>
       <c r="F17" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>完了</v>
       </c>
       <c r="G17" s="4">
@@ -11592,7 +11942,7 @@
         <v>104</v>
       </c>
       <c r="F18" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>完了</v>
       </c>
       <c r="G18" s="4">
@@ -11653,7 +12003,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G19" s="4">
@@ -11665,7 +12015,7 @@
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L19" s="11"/>
@@ -11711,7 +12061,7 @@
         <v>104</v>
       </c>
       <c r="F20" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G20" s="4">
@@ -11723,7 +12073,7 @@
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L20" s="11"/>
@@ -11769,7 +12119,7 @@
         <v>104</v>
       </c>
       <c r="F21" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G21" s="4">
@@ -11781,7 +12131,7 @@
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L21" s="11"/>
@@ -11827,7 +12177,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="9" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="G22" s="4">
@@ -11843,7 +12193,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L22" s="11"/>
@@ -11891,7 +12241,7 @@
         <v>104</v>
       </c>
       <c r="F23" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G23" s="4"/>
@@ -11899,7 +12249,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L23" s="11"/>
@@ -11943,7 +12293,7 @@
         <v>104</v>
       </c>
       <c r="F24" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G24" s="4"/>
@@ -11951,7 +12301,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L24" s="11"/>
@@ -11995,7 +12345,7 @@
         <v>104</v>
       </c>
       <c r="F25" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G25" s="4"/>
@@ -12003,7 +12353,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L25" s="11"/>
@@ -12047,7 +12397,7 @@
         <v>104</v>
       </c>
       <c r="F26" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G26" s="4"/>
@@ -12055,7 +12405,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L26" s="11"/>
@@ -12099,7 +12449,7 @@
         <v>104</v>
       </c>
       <c r="F27" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G27" s="4"/>
@@ -12107,7 +12457,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L27" s="11"/>
@@ -12151,7 +12501,7 @@
         <v>104</v>
       </c>
       <c r="F28" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G28" s="4"/>
@@ -12159,7 +12509,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L28" s="11"/>
@@ -12207,7 +12557,7 @@
         <v>104</v>
       </c>
       <c r="F29" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G29" s="4">
@@ -12217,7 +12567,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L29" s="11"/>
@@ -12261,7 +12611,7 @@
         <v>104</v>
       </c>
       <c r="F30" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G30" s="4"/>
@@ -12269,7 +12619,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L30" s="11"/>
@@ -12321,7 +12671,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L31" s="11"/>
@@ -12363,7 +12713,7 @@
       <c r="D32" s="24"/>
       <c r="E32" s="25"/>
       <c r="F32" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G32" s="4"/>
@@ -12371,7 +12721,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L32" s="11"/>
@@ -12413,7 +12763,7 @@
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
       <c r="F33" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G33" s="4"/>
@@ -12421,7 +12771,7 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L33" s="11"/>
@@ -12463,7 +12813,7 @@
       <c r="D34" s="24"/>
       <c r="E34" s="25"/>
       <c r="F34" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G34" s="4"/>
@@ -12471,7 +12821,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L34" s="11"/>
@@ -12513,7 +12863,7 @@
       <c r="D35" s="24"/>
       <c r="E35" s="25"/>
       <c r="F35" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G35" s="4"/>
@@ -12521,7 +12871,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L35" s="11"/>
@@ -12563,7 +12913,7 @@
       <c r="D36" s="24"/>
       <c r="E36" s="25"/>
       <c r="F36" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G36" s="4"/>
@@ -12571,7 +12921,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L36" s="11"/>
@@ -12613,7 +12963,7 @@
       <c r="D37" s="24"/>
       <c r="E37" s="25"/>
       <c r="F37" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G37" s="4"/>
@@ -12621,7 +12971,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="9" t="str">
-        <f t="shared" ref="K37:K68" ca="1" si="5">IF(ISBLANK(L37)=FALSE,OFFSET(K37,0,COUNTA(L37:AL37)),"")</f>
+        <f t="shared" ref="K37:K68" ca="1" si="6">IF(ISBLANK(L37)=FALSE,OFFSET(K37,0,COUNTA(L37:AL37)),"")</f>
         <v/>
       </c>
       <c r="L37" s="11"/>
@@ -12663,7 +13013,7 @@
       <c r="D38" s="24"/>
       <c r="E38" s="25"/>
       <c r="F38" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G38" s="4"/>
@@ -12671,7 +13021,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L38" s="11"/>
@@ -12713,7 +13063,7 @@
       <c r="D39" s="24"/>
       <c r="E39" s="25"/>
       <c r="F39" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G39" s="4"/>
@@ -12721,7 +13071,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L39" s="11"/>
@@ -12763,7 +13113,7 @@
       <c r="D40" s="24"/>
       <c r="E40" s="25"/>
       <c r="F40" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G40" s="4"/>
@@ -12771,7 +13121,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L40" s="11"/>
@@ -12813,7 +13163,7 @@
       <c r="D41" s="24"/>
       <c r="E41" s="25"/>
       <c r="F41" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G41" s="4"/>
@@ -12821,7 +13171,7 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L41" s="11"/>
@@ -12865,7 +13215,7 @@
         <v>106</v>
       </c>
       <c r="F42" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G42" s="4"/>
@@ -12873,7 +13223,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L42" s="11"/>
@@ -12915,7 +13265,7 @@
       <c r="D43" s="24"/>
       <c r="E43" s="25"/>
       <c r="F43" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G43" s="4"/>
@@ -12923,7 +13273,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L43" s="11"/>
@@ -12965,7 +13315,7 @@
       <c r="D44" s="24"/>
       <c r="E44" s="25"/>
       <c r="F44" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G44" s="4"/>
@@ -12973,7 +13323,7 @@
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L44" s="11"/>
@@ -13015,7 +13365,7 @@
       <c r="D45" s="24"/>
       <c r="E45" s="25"/>
       <c r="F45" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G45" s="4"/>
@@ -13023,7 +13373,7 @@
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L45" s="11"/>
@@ -13058,20 +13408,22 @@
       <c r="A46" s="27">
         <v>42</v>
       </c>
-      <c r="B46" s="19"/>
+      <c r="B46" s="19" t="s">
+        <v>165</v>
+      </c>
       <c r="C46" s="28"/>
       <c r="D46" s="24"/>
       <c r="E46" s="25"/>
       <c r="F46" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>未着手</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L46" s="11"/>
@@ -13106,21 +13458,36 @@
       <c r="A47" s="27">
         <v>43</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
+      <c r="B47" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F47" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>完了</v>
+      </c>
+      <c r="G47" s="4">
+        <v>42843</v>
+      </c>
+      <c r="H47" s="4">
+        <v>42843</v>
+      </c>
+      <c r="I47" s="11">
+        <v>6</v>
+      </c>
+      <c r="J47" s="11">
+        <v>6</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
@@ -13154,21 +13521,34 @@
       <c r="A48" s="27">
         <v>44</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="25"/>
+      <c r="B48" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="28">
+        <v>0</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F48" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G48" s="4"/>
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="G48" s="4">
+        <v>42844</v>
+      </c>
       <c r="H48" s="4"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="I48" s="11">
+        <v>2</v>
+      </c>
+      <c r="J48" s="11">
+        <v>2</v>
+      </c>
+      <c r="K48" s="11">
+        <v>2</v>
       </c>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
@@ -13202,21 +13582,36 @@
       <c r="A49" s="27">
         <v>45</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
+      <c r="B49" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="28">
+        <v>0</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F49" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>作業中</v>
+      </c>
+      <c r="G49" s="4">
+        <v>42844</v>
+      </c>
+      <c r="H49" s="4">
+        <v>42843</v>
+      </c>
+      <c r="I49" s="11">
+        <v>3</v>
+      </c>
+      <c r="J49" s="11">
+        <v>3</v>
+      </c>
+      <c r="K49" s="11">
+        <v>3</v>
       </c>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
@@ -13250,21 +13645,34 @@
       <c r="A50" s="27">
         <v>46</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
+      <c r="B50" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="28">
+        <v>0</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F50" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G50" s="4"/>
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="G50" s="4">
+        <v>42844</v>
+      </c>
       <c r="H50" s="4"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="I50" s="11">
+        <v>3</v>
+      </c>
+      <c r="J50" s="11">
+        <v>3</v>
+      </c>
+      <c r="K50" s="11">
+        <v>3</v>
       </c>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
@@ -13298,21 +13706,34 @@
       <c r="A51" s="27">
         <v>47</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="25"/>
+      <c r="B51" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="28">
+        <v>0</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F51" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G51" s="4"/>
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="G51" s="4">
+        <v>42844</v>
+      </c>
       <c r="H51" s="4"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="I51" s="11">
+        <v>3</v>
+      </c>
+      <c r="J51" s="11">
+        <v>3</v>
+      </c>
+      <c r="K51" s="11">
+        <v>3</v>
       </c>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -13346,21 +13767,34 @@
       <c r="A52" s="27">
         <v>48</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
+      <c r="B52" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="28">
+        <v>0</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F52" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G52" s="4"/>
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="G52" s="4">
+        <v>42845</v>
+      </c>
       <c r="H52" s="4"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="I52" s="11">
+        <v>3</v>
+      </c>
+      <c r="J52" s="11">
+        <v>3</v>
+      </c>
+      <c r="K52" s="11">
+        <v>3</v>
       </c>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
@@ -13394,21 +13828,34 @@
       <c r="A53" s="27">
         <v>49</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="25"/>
+      <c r="B53" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="28">
+        <v>0</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F53" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G53" s="4"/>
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="G53" s="4">
+        <v>42845</v>
+      </c>
       <c r="H53" s="4"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="I53" s="11">
+        <v>3</v>
+      </c>
+      <c r="J53" s="11">
+        <v>3</v>
+      </c>
+      <c r="K53" s="11">
+        <v>3</v>
       </c>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
@@ -13442,21 +13889,34 @@
       <c r="A54" s="27">
         <v>50</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="25"/>
+      <c r="B54" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="28">
+        <v>0</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F54" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G54" s="4"/>
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="G54" s="4">
+        <v>42846</v>
+      </c>
       <c r="H54" s="4"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="I54" s="11">
+        <v>3</v>
+      </c>
+      <c r="J54" s="11">
+        <v>3</v>
+      </c>
+      <c r="K54" s="11">
+        <v>3</v>
       </c>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
@@ -13490,21 +13950,34 @@
       <c r="A55" s="27">
         <v>51</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="25"/>
+      <c r="B55" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="28">
+        <v>0</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F55" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G55" s="4"/>
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="G55" s="4">
+        <v>42846</v>
+      </c>
       <c r="H55" s="4"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="I55" s="11">
+        <v>3</v>
+      </c>
+      <c r="J55" s="11">
+        <v>3</v>
+      </c>
+      <c r="K55" s="11">
+        <v>3</v>
       </c>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
@@ -13538,21 +14011,34 @@
       <c r="A56" s="27">
         <v>52</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="25"/>
+      <c r="B56" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="28">
+        <v>0</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F56" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G56" s="4"/>
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="G56" s="4">
+        <v>42847</v>
+      </c>
       <c r="H56" s="4"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="I56" s="11">
+        <v>3</v>
+      </c>
+      <c r="J56" s="11">
+        <v>3</v>
+      </c>
+      <c r="K56" s="11">
+        <v>3</v>
       </c>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
@@ -13586,21 +14072,34 @@
       <c r="A57" s="27">
         <v>53</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="25"/>
+      <c r="B57" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="28">
+        <v>0</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F57" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G57" s="4"/>
+        <f t="shared" si="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="G57" s="4">
+        <v>42848</v>
+      </c>
       <c r="H57" s="4"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="I57" s="11">
+        <v>6</v>
+      </c>
+      <c r="J57" s="11">
+        <v>6</v>
+      </c>
+      <c r="K57" s="11">
+        <v>6</v>
       </c>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
@@ -13639,7 +14138,7 @@
       <c r="D58" s="24"/>
       <c r="E58" s="25"/>
       <c r="F58" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G58" s="4"/>
@@ -13647,7 +14146,7 @@
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L58" s="11"/>
@@ -13687,7 +14186,7 @@
       <c r="D59" s="24"/>
       <c r="E59" s="25"/>
       <c r="F59" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G59" s="4"/>
@@ -13695,7 +14194,7 @@
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L59" s="11"/>
@@ -13735,7 +14234,7 @@
       <c r="D60" s="24"/>
       <c r="E60" s="25"/>
       <c r="F60" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G60" s="4"/>
@@ -13743,7 +14242,7 @@
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L60" s="11"/>
@@ -13783,7 +14282,7 @@
       <c r="D61" s="24"/>
       <c r="E61" s="25"/>
       <c r="F61" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G61" s="4"/>
@@ -13791,7 +14290,7 @@
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L61" s="11"/>
@@ -13831,7 +14330,7 @@
       <c r="D62" s="24"/>
       <c r="E62" s="25"/>
       <c r="F62" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G62" s="4"/>
@@ -13839,7 +14338,7 @@
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L62" s="11"/>
@@ -13879,7 +14378,7 @@
       <c r="D63" s="24"/>
       <c r="E63" s="25"/>
       <c r="F63" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G63" s="4"/>
@@ -13887,7 +14386,7 @@
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L63" s="11"/>
@@ -13927,7 +14426,7 @@
       <c r="D64" s="24"/>
       <c r="E64" s="25"/>
       <c r="F64" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G64" s="4"/>
@@ -13935,7 +14434,7 @@
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L64" s="11"/>
@@ -13975,7 +14474,7 @@
       <c r="D65" s="24"/>
       <c r="E65" s="25"/>
       <c r="F65" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G65" s="4"/>
@@ -13983,7 +14482,7 @@
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L65" s="11"/>
@@ -14023,7 +14522,7 @@
       <c r="D66" s="24"/>
       <c r="E66" s="25"/>
       <c r="F66" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G66" s="4"/>
@@ -14031,7 +14530,7 @@
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L66" s="11"/>
@@ -14071,7 +14570,7 @@
       <c r="D67" s="24"/>
       <c r="E67" s="25"/>
       <c r="F67" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G67" s="4"/>
@@ -14079,7 +14578,7 @@
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L67" s="11"/>
@@ -14119,7 +14618,7 @@
       <c r="D68" s="24"/>
       <c r="E68" s="25"/>
       <c r="F68" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G68" s="4"/>
@@ -14127,7 +14626,7 @@
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L68" s="11"/>
@@ -14167,7 +14666,7 @@
       <c r="D69" s="24"/>
       <c r="E69" s="25"/>
       <c r="F69" s="9" t="str">
-        <f t="shared" ref="F69:F74" si="6">IF(ISBLANK($B69),"",IF(ISBLANK($H69),"未着手",IF($K69=0,"完了","作業中")))</f>
+        <f t="shared" ref="F69:F74" si="7">IF(ISBLANK($B69),"",IF(ISBLANK($H69),"未着手",IF($K69=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="G69" s="4"/>
@@ -14175,7 +14674,7 @@
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="9" t="str">
-        <f t="shared" ref="K69:K100" ca="1" si="7">IF(ISBLANK(L69)=FALSE,OFFSET(K69,0,COUNTA(L69:AL69)),"")</f>
+        <f t="shared" ref="K69:K100" ca="1" si="8">IF(ISBLANK(L69)=FALSE,OFFSET(K69,0,COUNTA(L69:AL69)),"")</f>
         <v/>
       </c>
       <c r="L69" s="11"/>
@@ -14215,7 +14714,7 @@
       <c r="D70" s="24"/>
       <c r="E70" s="25"/>
       <c r="F70" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G70" s="4"/>
@@ -14223,7 +14722,7 @@
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L70" s="11"/>
@@ -14263,7 +14762,7 @@
       <c r="D71" s="24"/>
       <c r="E71" s="25"/>
       <c r="F71" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G71" s="4"/>
@@ -14271,7 +14770,7 @@
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L71" s="11"/>
@@ -14311,7 +14810,7 @@
       <c r="D72" s="24"/>
       <c r="E72" s="25"/>
       <c r="F72" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G72" s="4"/>
@@ -14319,7 +14818,7 @@
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L72" s="11"/>
@@ -14359,7 +14858,7 @@
       <c r="D73" s="24"/>
       <c r="E73" s="25"/>
       <c r="F73" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G73" s="4"/>
@@ -14367,7 +14866,7 @@
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L73" s="11"/>
@@ -14407,7 +14906,7 @@
       <c r="D74" s="24"/>
       <c r="E74" s="25"/>
       <c r="F74" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G74" s="4"/>
@@ -14415,7 +14914,7 @@
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L74" s="11"/>
@@ -14455,7 +14954,7 @@
       <c r="D75" s="24"/>
       <c r="E75" s="25"/>
       <c r="F75" s="9" t="str">
-        <f>IF(ISBLANK($B75),"",IF(ISBLANK($H74),"未着手",IF($K74=0,"完了","作業中")))</f>
+        <f t="shared" ref="F75:F105" si="9">IF(ISBLANK($B75),"",IF(ISBLANK($H74),"未着手",IF($K74=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="G75" s="4"/>
@@ -14463,7 +14962,7 @@
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L75" s="11"/>
@@ -14503,7 +15002,7 @@
       <c r="D76" s="24"/>
       <c r="E76" s="25"/>
       <c r="F76" s="9" t="str">
-        <f>IF(ISBLANK($B76),"",IF(ISBLANK($H75),"未着手",IF($K75=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G76" s="4"/>
@@ -14511,7 +15010,7 @@
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L76" s="11"/>
@@ -14551,7 +15050,7 @@
       <c r="D77" s="24"/>
       <c r="E77" s="25"/>
       <c r="F77" s="9" t="str">
-        <f>IF(ISBLANK($B77),"",IF(ISBLANK($H76),"未着手",IF($K76=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G77" s="4"/>
@@ -14559,7 +15058,7 @@
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L77" s="11"/>
@@ -14599,7 +15098,7 @@
       <c r="D78" s="24"/>
       <c r="E78" s="25"/>
       <c r="F78" s="9" t="str">
-        <f>IF(ISBLANK($B78),"",IF(ISBLANK($H77),"未着手",IF($K77=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G78" s="4"/>
@@ -14607,7 +15106,7 @@
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="K78" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L78" s="11"/>
@@ -14647,7 +15146,7 @@
       <c r="D79" s="24"/>
       <c r="E79" s="25"/>
       <c r="F79" s="9" t="str">
-        <f>IF(ISBLANK($B79),"",IF(ISBLANK($H78),"未着手",IF($K78=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G79" s="23"/>
@@ -14655,7 +15154,7 @@
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="22" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L79" s="11"/>
@@ -14695,7 +15194,7 @@
       <c r="D80" s="24"/>
       <c r="E80" s="25"/>
       <c r="F80" s="22" t="str">
-        <f>IF(ISBLANK($B80),"",IF(ISBLANK($H79),"未着手",IF($K79=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G80" s="4"/>
@@ -14703,7 +15202,7 @@
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
       <c r="K80" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L80" s="11"/>
@@ -14743,7 +15242,7 @@
       <c r="D81" s="24"/>
       <c r="E81" s="25"/>
       <c r="F81" s="9" t="str">
-        <f>IF(ISBLANK($B81),"",IF(ISBLANK($H80),"未着手",IF($K80=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G81" s="4"/>
@@ -14751,7 +15250,7 @@
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="K81" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L81" s="11"/>
@@ -14791,7 +15290,7 @@
       <c r="D82" s="24"/>
       <c r="E82" s="25"/>
       <c r="F82" s="9" t="str">
-        <f>IF(ISBLANK($B82),"",IF(ISBLANK($H81),"未着手",IF($K81=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G82" s="4"/>
@@ -14799,7 +15298,7 @@
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L82" s="11"/>
@@ -14839,7 +15338,7 @@
       <c r="D83" s="24"/>
       <c r="E83" s="25"/>
       <c r="F83" s="9" t="str">
-        <f>IF(ISBLANK($B83),"",IF(ISBLANK($H82),"未着手",IF($K82=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G83" s="4"/>
@@ -14847,7 +15346,7 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L83" s="11"/>
@@ -14887,7 +15386,7 @@
       <c r="D84" s="24"/>
       <c r="E84" s="25"/>
       <c r="F84" s="9" t="str">
-        <f>IF(ISBLANK($B84),"",IF(ISBLANK($H83),"未着手",IF($K83=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G84" s="4"/>
@@ -14895,7 +15394,7 @@
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="K84" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L84" s="11"/>
@@ -14935,7 +15434,7 @@
       <c r="D85" s="24"/>
       <c r="E85" s="25"/>
       <c r="F85" s="9" t="str">
-        <f>IF(ISBLANK($B85),"",IF(ISBLANK($H84),"未着手",IF($K84=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G85" s="4"/>
@@ -14943,7 +15442,7 @@
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="K85" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L85" s="11"/>
@@ -14983,7 +15482,7 @@
       <c r="D86" s="24"/>
       <c r="E86" s="25"/>
       <c r="F86" s="9" t="str">
-        <f>IF(ISBLANK($B86),"",IF(ISBLANK($H85),"未着手",IF($K85=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G86" s="4"/>
@@ -14991,7 +15490,7 @@
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
       <c r="K86" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L86" s="11"/>
@@ -15031,7 +15530,7 @@
       <c r="D87" s="24"/>
       <c r="E87" s="25"/>
       <c r="F87" s="9" t="str">
-        <f>IF(ISBLANK($B87),"",IF(ISBLANK($H86),"未着手",IF($K86=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G87" s="4"/>
@@ -15039,7 +15538,7 @@
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
       <c r="K87" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L87" s="11"/>
@@ -15079,7 +15578,7 @@
       <c r="D88" s="24"/>
       <c r="E88" s="25"/>
       <c r="F88" s="9" t="str">
-        <f>IF(ISBLANK($B88),"",IF(ISBLANK($H87),"未着手",IF($K87=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G88" s="4"/>
@@ -15087,7 +15586,7 @@
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
       <c r="K88" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L88" s="11"/>
@@ -15127,7 +15626,7 @@
       <c r="D89" s="24"/>
       <c r="E89" s="25"/>
       <c r="F89" s="9" t="str">
-        <f>IF(ISBLANK($B89),"",IF(ISBLANK($H88),"未着手",IF($K88=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G89" s="4"/>
@@ -15135,7 +15634,7 @@
       <c r="I89" s="11"/>
       <c r="J89" s="11"/>
       <c r="K89" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L89" s="11"/>
@@ -15175,7 +15674,7 @@
       <c r="D90" s="24"/>
       <c r="E90" s="25"/>
       <c r="F90" s="9" t="str">
-        <f>IF(ISBLANK($B90),"",IF(ISBLANK($H89),"未着手",IF($K89=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G90" s="4"/>
@@ -15183,7 +15682,7 @@
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
       <c r="K90" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L90" s="11"/>
@@ -15223,7 +15722,7 @@
       <c r="D91" s="24"/>
       <c r="E91" s="25"/>
       <c r="F91" s="9" t="str">
-        <f>IF(ISBLANK($B91),"",IF(ISBLANK($H90),"未着手",IF($K90=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G91" s="4"/>
@@ -15231,7 +15730,7 @@
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
       <c r="K91" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L91" s="11"/>
@@ -15271,7 +15770,7 @@
       <c r="D92" s="24"/>
       <c r="E92" s="25"/>
       <c r="F92" s="9" t="str">
-        <f>IF(ISBLANK($B92),"",IF(ISBLANK($H91),"未着手",IF($K91=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G92" s="4"/>
@@ -15279,7 +15778,7 @@
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
       <c r="K92" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L92" s="11"/>
@@ -15319,7 +15818,7 @@
       <c r="D93" s="24"/>
       <c r="E93" s="25"/>
       <c r="F93" s="9" t="str">
-        <f>IF(ISBLANK($B93),"",IF(ISBLANK($H92),"未着手",IF($K92=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G93" s="4"/>
@@ -15327,7 +15826,7 @@
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
       <c r="K93" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L93" s="11"/>
@@ -15367,7 +15866,7 @@
       <c r="D94" s="24"/>
       <c r="E94" s="25"/>
       <c r="F94" s="9" t="str">
-        <f>IF(ISBLANK($B94),"",IF(ISBLANK($H93),"未着手",IF($K93=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G94" s="4"/>
@@ -15375,7 +15874,7 @@
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
       <c r="K94" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L94" s="11"/>
@@ -15415,7 +15914,7 @@
       <c r="D95" s="24"/>
       <c r="E95" s="25"/>
       <c r="F95" s="9" t="str">
-        <f>IF(ISBLANK($B95),"",IF(ISBLANK($H94),"未着手",IF($K94=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G95" s="4"/>
@@ -15423,7 +15922,7 @@
       <c r="I95" s="11"/>
       <c r="J95" s="11"/>
       <c r="K95" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L95" s="11"/>
@@ -15463,7 +15962,7 @@
       <c r="D96" s="24"/>
       <c r="E96" s="25"/>
       <c r="F96" s="9" t="str">
-        <f>IF(ISBLANK($B96),"",IF(ISBLANK($H95),"未着手",IF($K95=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G96" s="4"/>
@@ -15471,7 +15970,7 @@
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
       <c r="K96" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L96" s="11"/>
@@ -15511,7 +16010,7 @@
       <c r="D97" s="24"/>
       <c r="E97" s="25"/>
       <c r="F97" s="9" t="str">
-        <f>IF(ISBLANK($B97),"",IF(ISBLANK($H96),"未着手",IF($K96=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G97" s="4"/>
@@ -15519,7 +16018,7 @@
       <c r="I97" s="11"/>
       <c r="J97" s="11"/>
       <c r="K97" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L97" s="11"/>
@@ -15559,7 +16058,7 @@
       <c r="D98" s="24"/>
       <c r="E98" s="25"/>
       <c r="F98" s="9" t="str">
-        <f>IF(ISBLANK($B98),"",IF(ISBLANK($H97),"未着手",IF($K97=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G98" s="4"/>
@@ -15567,7 +16066,7 @@
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
       <c r="K98" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L98" s="11"/>
@@ -15607,7 +16106,7 @@
       <c r="D99" s="24"/>
       <c r="E99" s="25"/>
       <c r="F99" s="9" t="str">
-        <f>IF(ISBLANK($B99),"",IF(ISBLANK($H98),"未着手",IF($K98=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G99" s="4"/>
@@ -15615,7 +16114,7 @@
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
       <c r="K99" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L99" s="11"/>
@@ -15655,7 +16154,7 @@
       <c r="D100" s="24"/>
       <c r="E100" s="25"/>
       <c r="F100" s="9" t="str">
-        <f>IF(ISBLANK($B100),"",IF(ISBLANK($H99),"未着手",IF($K99=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G100" s="4"/>
@@ -15663,7 +16162,7 @@
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
       <c r="K100" s="9" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L100" s="11"/>
@@ -15703,7 +16202,7 @@
       <c r="D101" s="24"/>
       <c r="E101" s="25"/>
       <c r="F101" s="9" t="str">
-        <f>IF(ISBLANK($B101),"",IF(ISBLANK($H100),"未着手",IF($K100=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G101" s="4"/>
@@ -15711,7 +16210,7 @@
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
       <c r="K101" s="9" t="str">
-        <f t="shared" ref="K101:K104" ca="1" si="8">IF(ISBLANK(L101)=FALSE,OFFSET(K101,0,COUNTA(L101:AL101)),"")</f>
+        <f t="shared" ref="K101:K104" ca="1" si="10">IF(ISBLANK(L101)=FALSE,OFFSET(K101,0,COUNTA(L101:AL101)),"")</f>
         <v/>
       </c>
       <c r="L101" s="11"/>
@@ -15751,7 +16250,7 @@
       <c r="D102" s="24"/>
       <c r="E102" s="25"/>
       <c r="F102" s="9" t="str">
-        <f>IF(ISBLANK($B102),"",IF(ISBLANK($H101),"未着手",IF($K101=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G102" s="4"/>
@@ -15759,7 +16258,7 @@
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
       <c r="K102" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L102" s="11"/>
@@ -15799,7 +16298,7 @@
       <c r="D103" s="24"/>
       <c r="E103" s="25"/>
       <c r="F103" s="9" t="str">
-        <f>IF(ISBLANK($B103),"",IF(ISBLANK($H102),"未着手",IF($K102=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G103" s="4"/>
@@ -15807,7 +16306,7 @@
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
       <c r="K103" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L103" s="11"/>
@@ -15847,7 +16346,7 @@
       <c r="D104" s="24"/>
       <c r="E104" s="25"/>
       <c r="F104" s="9" t="str">
-        <f>IF(ISBLANK($B104),"",IF(ISBLANK($H103),"未着手",IF($K103=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G104" s="4"/>
@@ -15855,7 +16354,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
       <c r="K104" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L104" s="11"/>
@@ -15892,7 +16391,7 @@
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105" s="9" t="str">
-        <f>IF(ISBLANK($B105),"",IF(ISBLANK($H104),"未着手",IF($K104=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G105"/>
@@ -27873,1126 +28372,997 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F412:F65537">
-    <cfRule type="expression" dxfId="469" priority="2578" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="2626" stopIfTrue="1">
       <formula>F412="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="2579" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="2627" stopIfTrue="1">
       <formula>F412="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="2580" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="2628" stopIfTrue="1">
       <formula>OR(F412="終了",F412="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:K5 J18:K19 K17 AM5:AM10 AT5:JT10 D16 G32:AK32 L12:AK15 D20:D22 J6:K15 M7:AK11 B6:B10 J33:K35 G33:H35 B67:B68 B48 B53:B54 B88:B90 B85:B86 B37:B39 B60:B63 I34:I35 L34:AK35 AM11:JT28 A5:A28 A32:A35 A30 AL5:AL28 AL32:JT35 G20:AK28 D27:D28 D32:D35 D30 G30:JT30 B31 F6:F105 G6:H15 G16:AK16 G17:H19">
-    <cfRule type="expression" dxfId="466" priority="2581" stopIfTrue="1">
+  <conditionalFormatting sqref="F5:K5 J18:K19 K17 AM5:AM10 AT5:JT10 D16 G32:AK32 L12:AK15 D20:D22 J6:K15 M7:AK11 B6:B10 J33:K35 G33:H35 B67:B68 B88:B90 B85:B86 B37:B39 B60:B63 I34:I35 L34:AK35 AM11:JT28 A5:A28 A32:A35 A30 AL5:AL28 AL32:JT35 G20:AK28 D27:D28 D32:D35 D30 G30:JT30 B31 F6:F46 G6:H15 G16:AK16 G17:H19 F58:F105">
+    <cfRule type="expression" dxfId="497" priority="2629" stopIfTrue="1">
       <formula>$F5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="2582" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="2630" stopIfTrue="1">
       <formula>$F5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="2583" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="2631" stopIfTrue="1">
       <formula>OR($F5="終了",$F5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D411:D65536">
-    <cfRule type="expression" dxfId="463" priority="2584" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="2632" stopIfTrue="1">
       <formula>G411="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="2585" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="2633" stopIfTrue="1">
       <formula>G411="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="2586" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="2634" stopIfTrue="1">
       <formula>OR(G411="終了",G411="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E411:E65536">
-    <cfRule type="expression" dxfId="460" priority="2587" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="2635" stopIfTrue="1">
       <formula>F412="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="2588" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="2636" stopIfTrue="1">
       <formula>F412="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="2589" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="2637" stopIfTrue="1">
       <formula>OR(F412="終了",F412="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G411:AL65536">
-    <cfRule type="expression" dxfId="457" priority="2590" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="2638" stopIfTrue="1">
       <formula>$F412="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="2591" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="2639" stopIfTrue="1">
       <formula>$F412="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="2592" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="2640" stopIfTrue="1">
       <formula>OR($F412="終了",$F412="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D4 C1">
-    <cfRule type="containsText" dxfId="454" priority="2569" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="485" priority="2617" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="453" priority="2570" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="484" priority="2618" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="452" priority="2571" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="483" priority="2619" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="451" priority="2566" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="2614" stopIfTrue="1">
       <formula>$F5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="2567" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="2615" stopIfTrue="1">
       <formula>$F5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="2568" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="2616" stopIfTrue="1">
       <formula>OR($F5="終了",$F5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5 E16 E20:E22 E37:E39 E46:E47 E52:E53 E60:E62 E66:E67 E86:E104">
-    <cfRule type="containsText" dxfId="448" priority="2561" stopIfTrue="1" operator="containsText" text="幸野">
+  <conditionalFormatting sqref="E5 E16 E20:E22 E37:E39 E46 E60:E62 E66:E67 E86:E104">
+    <cfRule type="containsText" dxfId="479" priority="2609" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="447" priority="2562" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="478" priority="2610" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="446" priority="2563" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="477" priority="2611" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="445" priority="2564" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="476" priority="2612" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="2565" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="475" priority="2613" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5 E16 E20:E22 E37:E39 E46:E47 E52:E53 E60:E62 E66:E67 E86:E104">
-    <cfRule type="containsText" dxfId="443" priority="2559" operator="containsText" text="佐藤">
+  <conditionalFormatting sqref="E5 E16 E20:E22 E37:E39 E46 E60:E62 E66:E67 E86:E104">
+    <cfRule type="containsText" dxfId="474" priority="2607" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="2560" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="473" priority="2608" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5 D16 D20:D22 D37:D39 D46:D47 D52:D53 D60:D62 D66:D67 D86:D104">
-    <cfRule type="containsText" dxfId="441" priority="2556" operator="containsText" text="低">
+  <conditionalFormatting sqref="D5 D16 D20:D22 D37:D39 D46 D60:D62 D66:D67 D86:D104">
+    <cfRule type="containsText" dxfId="472" priority="2604" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="440" priority="2557" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="471" priority="2605" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="439" priority="2558" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="470" priority="2606" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5 E16 E20:E22 E37:E39 E46:E47 E52:E53 E60:E62 E66:E67 E86:E104">
-    <cfRule type="containsText" dxfId="438" priority="2555" operator="containsText" text="未定">
+  <conditionalFormatting sqref="E5 E16 E20:E22 E37:E39 E46 E60:E62 E66:E67 E86:E104">
+    <cfRule type="containsText" dxfId="469" priority="2603" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B18 B30 B32">
-    <cfRule type="expression" dxfId="2" priority="2545" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="2593" stopIfTrue="1">
       <formula>$F13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2546" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="2594" stopIfTrue="1">
       <formula>$F13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2547" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="2595" stopIfTrue="1">
       <formula>OR($F13="終了",$F13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B22 B11:B13 B27:B28 B34:B36">
-    <cfRule type="expression" dxfId="437" priority="2536" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="2584" stopIfTrue="1">
       <formula>$F10="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="2537" stopIfTrue="1">
+    <cfRule type="expression" dxfId="464" priority="2585" stopIfTrue="1">
       <formula>$F10="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="2538" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="2586" stopIfTrue="1">
       <formula>OR($F10="終了",$F10="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B62">
-    <cfRule type="expression" dxfId="434" priority="2533" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="2581" stopIfTrue="1">
       <formula>$F61="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="2534" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="2582" stopIfTrue="1">
       <formula>$F61="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="2535" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="2583" stopIfTrue="1">
       <formula>OR($F61="終了",$F61="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="431" priority="2527" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="2575" stopIfTrue="1">
       <formula>$F67="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="2528" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="2576" stopIfTrue="1">
       <formula>$F67="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="2529" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="2577" stopIfTrue="1">
       <formula>OR($F67="終了",$F67="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="expression" dxfId="428" priority="2515" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="2563" stopIfTrue="1">
       <formula>$F87="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="2516" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="2564" stopIfTrue="1">
       <formula>$F87="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="2517" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="2565" stopIfTrue="1">
       <formula>OR($F87="終了",$F87="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100:B103">
-    <cfRule type="expression" dxfId="425" priority="2512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="2560" stopIfTrue="1">
       <formula>$F100="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="2513" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="2561" stopIfTrue="1">
       <formula>$F100="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="2514" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="2562" stopIfTrue="1">
       <formula>OR($F100="終了",$F100="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B105">
-    <cfRule type="expression" dxfId="422" priority="2509" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="2557" stopIfTrue="1">
       <formula>$F104="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="2510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="2558" stopIfTrue="1">
       <formula>$F104="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="2511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="2559" stopIfTrue="1">
       <formula>OR($F104="終了",$F104="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="expression" dxfId="419" priority="2506" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="2554" stopIfTrue="1">
       <formula>$F105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="2507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="2555" stopIfTrue="1">
       <formula>$F105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="2508" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="2556" stopIfTrue="1">
       <formula>OR($F105="終了",$F105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="416" priority="2404" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="2452" stopIfTrue="1">
       <formula>$F68="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="2405" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="2453" stopIfTrue="1">
       <formula>$F68="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="2406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="2454" stopIfTrue="1">
       <formula>OR($F68="終了",$F68="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="413" priority="2401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="2449" stopIfTrue="1">
       <formula>$F67="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="2402" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="2450" stopIfTrue="1">
       <formula>$F67="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="2403" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="2451" stopIfTrue="1">
       <formula>OR($F67="終了",$F67="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="410" priority="2395" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="2443" stopIfTrue="1">
       <formula>$F61="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="2396" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="2444" stopIfTrue="1">
       <formula>$F61="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="2397" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="2445" stopIfTrue="1">
       <formula>OR($F61="終了",$F61="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B62">
-    <cfRule type="expression" dxfId="407" priority="2392" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="2440" stopIfTrue="1">
       <formula>$F61="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="2393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="2441" stopIfTrue="1">
       <formula>$F61="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="2394" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="2442" stopIfTrue="1">
       <formula>OR($F61="終了",$F61="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D15">
-    <cfRule type="expression" dxfId="404" priority="1339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="1387" stopIfTrue="1">
       <formula>$F6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="1340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="1388" stopIfTrue="1">
       <formula>$F6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="1341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="1389" stopIfTrue="1">
       <formula>OR($F6="終了",$F6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E16">
-    <cfRule type="containsText" dxfId="401" priority="1334" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="429" priority="1382" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="1335" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="428" priority="1383" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="399" priority="1336" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="427" priority="1384" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="1337" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="426" priority="1385" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="1338" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="425" priority="1386" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E16">
-    <cfRule type="containsText" dxfId="396" priority="1332" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="424" priority="1380" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="395" priority="1333" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="423" priority="1381" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D15">
-    <cfRule type="containsText" dxfId="394" priority="1329" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="422" priority="1377" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="1330" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="421" priority="1378" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="392" priority="1331" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="420" priority="1379" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E16">
-    <cfRule type="containsText" dxfId="391" priority="1328" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="419" priority="1376" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="390" priority="1322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="1370" stopIfTrue="1">
       <formula>$F17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="1323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="1371" stopIfTrue="1">
       <formula>$F17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="1324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="1372" stopIfTrue="1">
       <formula>OR($F17="終了",$F17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="387" priority="1317" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="415" priority="1365" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="1318" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="414" priority="1366" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="1319" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="413" priority="1367" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="1320" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="412" priority="1368" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="383" priority="1321" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="411" priority="1369" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="382" priority="1315" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="410" priority="1363" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="1316" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="409" priority="1364" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="380" priority="1312" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="408" priority="1360" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="379" priority="1313" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="407" priority="1361" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="1314" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="406" priority="1362" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="377" priority="1311" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="405" priority="1359" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="expression" dxfId="376" priority="1305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="1353" stopIfTrue="1">
       <formula>$F18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="1306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="1354" stopIfTrue="1">
       <formula>$F18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="1307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="1355" stopIfTrue="1">
       <formula>OR($F18="終了",$F18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="373" priority="1300" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="401" priority="1348" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="1301" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="400" priority="1349" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="371" priority="1302" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="399" priority="1350" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="1303" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="398" priority="1351" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="1304" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="397" priority="1352" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="368" priority="1298" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="396" priority="1346" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="1299" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="395" priority="1347" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="containsText" dxfId="366" priority="1295" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="394" priority="1343" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="365" priority="1296" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="393" priority="1344" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="1297" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="392" priority="1345" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="363" priority="1294" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="391" priority="1342" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="expression" dxfId="362" priority="1291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="1339" stopIfTrue="1">
       <formula>$F18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="1292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="1340" stopIfTrue="1">
       <formula>$F18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="1293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="1341" stopIfTrue="1">
       <formula>OR($F18="終了",$F18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E33">
-    <cfRule type="containsText" dxfId="359" priority="1266" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="387" priority="1314" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="1267" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="386" priority="1315" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="1268" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="385" priority="1316" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="1269" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="384" priority="1317" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="1270" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="383" priority="1318" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E33">
-    <cfRule type="containsText" dxfId="354" priority="1264" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="382" priority="1312" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="1265" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="381" priority="1313" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D33">
-    <cfRule type="containsText" dxfId="352" priority="1261" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="380" priority="1309" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="1262" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="379" priority="1310" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="350" priority="1263" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="378" priority="1311" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E33">
-    <cfRule type="containsText" dxfId="349" priority="1260" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="377" priority="1308" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E36">
-    <cfRule type="containsText" dxfId="348" priority="1249" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="376" priority="1297" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="347" priority="1250" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="375" priority="1298" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="1251" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="374" priority="1299" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="1252" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="373" priority="1300" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="344" priority="1253" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="372" priority="1301" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E36">
-    <cfRule type="containsText" dxfId="343" priority="1247" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="371" priority="1295" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="1248" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="370" priority="1296" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D36">
-    <cfRule type="containsText" dxfId="341" priority="1244" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="369" priority="1292" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="1245" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="368" priority="1293" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="339" priority="1246" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="367" priority="1294" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E36">
-    <cfRule type="containsText" dxfId="338" priority="1243" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="366" priority="1291" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM59:AM69 AT59:JT69 AM36:JT58 J49:K51 G60:K62 J55:K59 K69:K85 G40:H45 G49:H51 G55:H59 G69:H85 G63:H65 A36:A104 D86:D104 J40:K45 J63:K65 G46:AK48 G52:AK54 G66:AK68 G86:AK104 AL36:AL104 L59:AK62 D52:D53 D66:D67 D60:D62 AM70:JT104 D36:D47 G36:AK39">
-    <cfRule type="expression" dxfId="337" priority="1234" stopIfTrue="1">
+  <conditionalFormatting sqref="AM59:AM69 AT59:JT69 AM36:JT58 G60:K62 J58:K59 K69:K85 G40:H45 G58:H59 G69:H85 G63:H65 A36:A104 D86:D104 J40:K45 J63:K65 G46:AK46 L52:AK54 G66:AK68 G86:AK104 AL36:AL104 L59:AK62 D66:D67 D60:D62 AM70:JT104 D36:D46 G36:AK39 L47:AK48">
+    <cfRule type="expression" dxfId="365" priority="1282" stopIfTrue="1">
       <formula>$F37="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="1235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="1283" stopIfTrue="1">
       <formula>$F37="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="1236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="1284" stopIfTrue="1">
       <formula>OR($F37="終了",$F37="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E45">
-    <cfRule type="containsText" dxfId="334" priority="1229" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="362" priority="1277" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="1230" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="361" priority="1278" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="1231" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="360" priority="1279" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="331" priority="1232" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="359" priority="1280" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="1233" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="358" priority="1281" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E45">
-    <cfRule type="containsText" dxfId="329" priority="1227" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="357" priority="1275" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="1228" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="356" priority="1276" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D45">
-    <cfRule type="containsText" dxfId="327" priority="1224" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="355" priority="1272" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="1225" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="354" priority="1273" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="1226" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="353" priority="1274" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E45">
-    <cfRule type="containsText" dxfId="324" priority="1223" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="352" priority="1271" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B52">
-    <cfRule type="expression" dxfId="323" priority="1196" stopIfTrue="1">
-      <formula>$F49="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="322" priority="1197" stopIfTrue="1">
-      <formula>$F49="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="321" priority="1198" stopIfTrue="1">
-      <formula>OR($F49="終了",$F49="完了")</formula>
+  <conditionalFormatting sqref="D58:D59">
+    <cfRule type="expression" dxfId="319" priority="1212" stopIfTrue="1">
+      <formula>$F59="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="1213" stopIfTrue="1">
+      <formula>$F59="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="1214" stopIfTrue="1">
+      <formula>OR($F59="終了",$F59="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D51">
-    <cfRule type="expression" dxfId="320" priority="1193" stopIfTrue="1">
-      <formula>$F49="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="319" priority="1194" stopIfTrue="1">
-      <formula>$F49="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="318" priority="1195" stopIfTrue="1">
-      <formula>OR($F49="終了",$F49="完了")</formula>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="containsText" dxfId="316" priority="1207" stopIfTrue="1" operator="containsText" text="幸野">
+      <formula>NOT(ISERROR(SEARCH("幸野",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="315" priority="1208" stopIfTrue="1" operator="containsText" text="飯島">
+      <formula>NOT(ISERROR(SEARCH("飯島",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="314" priority="1209" stopIfTrue="1" operator="containsText" text="大高">
+      <formula>NOT(ISERROR(SEARCH("大高",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="313" priority="1210" stopIfTrue="1" operator="containsText" text="斉藤">
+      <formula>NOT(ISERROR(SEARCH("斉藤",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="312" priority="1211" stopIfTrue="1" operator="containsText" text="金城">
+      <formula>NOT(ISERROR(SEARCH("金城",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E51">
-    <cfRule type="containsText" dxfId="317" priority="1188" stopIfTrue="1" operator="containsText" text="幸野">
-      <formula>NOT(ISERROR(SEARCH("幸野",E48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="1189" stopIfTrue="1" operator="containsText" text="飯島">
-      <formula>NOT(ISERROR(SEARCH("飯島",E48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="1190" stopIfTrue="1" operator="containsText" text="大高">
-      <formula>NOT(ISERROR(SEARCH("大高",E48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="1191" stopIfTrue="1" operator="containsText" text="斉藤">
-      <formula>NOT(ISERROR(SEARCH("斉藤",E48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="1192" stopIfTrue="1" operator="containsText" text="金城">
-      <formula>NOT(ISERROR(SEARCH("金城",E48)))</formula>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="containsText" dxfId="311" priority="1205" operator="containsText" text="佐藤">
+      <formula>NOT(ISERROR(SEARCH("佐藤",E58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="310" priority="1206" operator="containsText" text="阿曽">
+      <formula>NOT(ISERROR(SEARCH("阿曽",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E51">
-    <cfRule type="containsText" dxfId="312" priority="1186" operator="containsText" text="佐藤">
-      <formula>NOT(ISERROR(SEARCH("佐藤",E48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="311" priority="1187" operator="containsText" text="阿曽">
-      <formula>NOT(ISERROR(SEARCH("阿曽",E48)))</formula>
+  <conditionalFormatting sqref="D58:D59">
+    <cfRule type="containsText" dxfId="309" priority="1202" operator="containsText" text="低">
+      <formula>NOT(ISERROR(SEARCH("低",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="308" priority="1203" operator="containsText" text="中">
+      <formula>NOT(ISERROR(SEARCH("中",D58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="307" priority="1204" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",D58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D51">
-    <cfRule type="containsText" dxfId="310" priority="1183" operator="containsText" text="低">
-      <formula>NOT(ISERROR(SEARCH("低",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="1184" operator="containsText" text="中">
-      <formula>NOT(ISERROR(SEARCH("中",D48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="1185" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",D48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E51">
-    <cfRule type="containsText" dxfId="307" priority="1182" operator="containsText" text="未定">
-      <formula>NOT(ISERROR(SEARCH("未定",E48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="expression" dxfId="306" priority="1179" stopIfTrue="1">
-      <formula>$F50="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="305" priority="1180" stopIfTrue="1">
-      <formula>$F50="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="304" priority="1181" stopIfTrue="1">
-      <formula>OR($F50="終了",$F50="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="303" priority="1176" stopIfTrue="1">
-      <formula>$F49="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="302" priority="1177" stopIfTrue="1">
-      <formula>$F49="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="301" priority="1178" stopIfTrue="1">
-      <formula>OR($F49="終了",$F49="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="300" priority="1173" stopIfTrue="1">
-      <formula>$F52="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="299" priority="1174" stopIfTrue="1">
-      <formula>$F52="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="298" priority="1175" stopIfTrue="1">
-      <formula>OR($F52="終了",$F52="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50:B51">
-    <cfRule type="expression" dxfId="297" priority="1170" stopIfTrue="1">
-      <formula>$F50="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="296" priority="1171" stopIfTrue="1">
-      <formula>$F50="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="295" priority="1172" stopIfTrue="1">
-      <formula>OR($F50="終了",$F50="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55:B56">
-    <cfRule type="expression" dxfId="294" priority="1167" stopIfTrue="1">
-      <formula>$F55="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="293" priority="1168" stopIfTrue="1">
-      <formula>$F55="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="1169" stopIfTrue="1">
-      <formula>OR($F55="終了",$F55="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D59">
-    <cfRule type="expression" dxfId="291" priority="1164" stopIfTrue="1">
-      <formula>$F55="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="290" priority="1165" stopIfTrue="1">
-      <formula>$F55="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="289" priority="1166" stopIfTrue="1">
-      <formula>OR($F55="終了",$F55="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E59">
-    <cfRule type="containsText" dxfId="288" priority="1159" stopIfTrue="1" operator="containsText" text="幸野">
-      <formula>NOT(ISERROR(SEARCH("幸野",E54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="1160" stopIfTrue="1" operator="containsText" text="飯島">
-      <formula>NOT(ISERROR(SEARCH("飯島",E54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="1161" stopIfTrue="1" operator="containsText" text="大高">
-      <formula>NOT(ISERROR(SEARCH("大高",E54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="1162" stopIfTrue="1" operator="containsText" text="斉藤">
-      <formula>NOT(ISERROR(SEARCH("斉藤",E54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="1163" stopIfTrue="1" operator="containsText" text="金城">
-      <formula>NOT(ISERROR(SEARCH("金城",E54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E59">
-    <cfRule type="containsText" dxfId="283" priority="1157" operator="containsText" text="佐藤">
-      <formula>NOT(ISERROR(SEARCH("佐藤",E54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="1158" operator="containsText" text="阿曽">
-      <formula>NOT(ISERROR(SEARCH("阿曽",E54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D59">
-    <cfRule type="containsText" dxfId="281" priority="1154" operator="containsText" text="低">
-      <formula>NOT(ISERROR(SEARCH("低",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="1155" operator="containsText" text="中">
-      <formula>NOT(ISERROR(SEARCH("中",D54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="1156" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",D54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E59">
-    <cfRule type="containsText" dxfId="278" priority="1153" operator="containsText" text="未定">
-      <formula>NOT(ISERROR(SEARCH("未定",E54)))</formula>
+  <conditionalFormatting sqref="E58:E59">
+    <cfRule type="containsText" dxfId="306" priority="1201" operator="containsText" text="未定">
+      <formula>NOT(ISERROR(SEARCH("未定",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:D65">
-    <cfRule type="expression" dxfId="277" priority="1150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="1198" stopIfTrue="1">
       <formula>$F64="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="1151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="1199" stopIfTrue="1">
       <formula>$F64="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="1152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="1200" stopIfTrue="1">
       <formula>OR($F64="終了",$F64="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E65">
-    <cfRule type="containsText" dxfId="274" priority="1145" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="302" priority="1193" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="1146" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="301" priority="1194" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="1147" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="300" priority="1195" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="1148" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="299" priority="1196" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="1149" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="298" priority="1197" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E65">
-    <cfRule type="containsText" dxfId="269" priority="1143" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="297" priority="1191" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="1144" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="296" priority="1192" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:D65">
-    <cfRule type="containsText" dxfId="267" priority="1140" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="295" priority="1188" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="1141" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="294" priority="1189" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="1142" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="293" priority="1190" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E65">
-    <cfRule type="containsText" dxfId="264" priority="1139" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="292" priority="1187" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B66">
-    <cfRule type="expression" dxfId="263" priority="1136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="1184" stopIfTrue="1">
       <formula>$F64="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="1137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="1185" stopIfTrue="1">
       <formula>$F64="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="1138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="1186" stopIfTrue="1">
       <formula>OR($F64="終了",$F64="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:D85">
-    <cfRule type="expression" dxfId="260" priority="1133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="1181" stopIfTrue="1">
       <formula>$F69="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="1134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="1182" stopIfTrue="1">
       <formula>$F69="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="1135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="1183" stopIfTrue="1">
       <formula>OR($F69="終了",$F69="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E85">
-    <cfRule type="containsText" dxfId="257" priority="1128" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="285" priority="1176" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="1129" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="284" priority="1177" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="1130" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="283" priority="1178" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="1131" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="282" priority="1179" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="1132" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="281" priority="1180" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E85">
-    <cfRule type="containsText" dxfId="252" priority="1126" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="280" priority="1174" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="1127" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="279" priority="1175" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:D85">
-    <cfRule type="containsText" dxfId="250" priority="1123" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="278" priority="1171" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="1124" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="277" priority="1172" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="1125" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="276" priority="1173" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E85">
-    <cfRule type="containsText" dxfId="247" priority="1122" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="275" priority="1170" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:B81">
-    <cfRule type="expression" dxfId="246" priority="1119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="1167" stopIfTrue="1">
       <formula>$F69="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="1120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="1168" stopIfTrue="1">
       <formula>$F69="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="1121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="1169" stopIfTrue="1">
       <formula>OR($F69="終了",$F69="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B84">
-    <cfRule type="expression" dxfId="243" priority="1116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="1164" stopIfTrue="1">
       <formula>$F82="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="1117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="1165" stopIfTrue="1">
       <formula>$F82="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="1118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="1166" stopIfTrue="1">
       <formula>OR($F82="終了",$F82="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:B84">
-    <cfRule type="expression" dxfId="240" priority="1113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="1161" stopIfTrue="1">
       <formula>$F83="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="1114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="1162" stopIfTrue="1">
       <formula>$F83="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="1115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="1163" stopIfTrue="1">
       <formula>OR($F83="終了",$F83="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:B99 B412:B65537">
-    <cfRule type="expression" dxfId="237" priority="1110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="1158" stopIfTrue="1">
       <formula>F91="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="1111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="1159" stopIfTrue="1">
       <formula>F91="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="1112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="1160" stopIfTrue="1">
       <formula>OR(F91="終了",F91="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I15">
-    <cfRule type="expression" dxfId="234" priority="532" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="580" stopIfTrue="1">
       <formula>$F6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="533" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="581" stopIfTrue="1">
       <formula>$F6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="534" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="582" stopIfTrue="1">
       <formula>OR($F6="終了",$F6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I19">
-    <cfRule type="expression" dxfId="231" priority="529" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="577" stopIfTrue="1">
       <formula>$F18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="530" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="578" stopIfTrue="1">
       <formula>$F18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="531" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="579" stopIfTrue="1">
       <formula>OR($F18="終了",$F18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:J17">
-    <cfRule type="expression" dxfId="228" priority="526" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="574" stopIfTrue="1">
       <formula>$F17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="527" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="575" stopIfTrue="1">
       <formula>$F17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="528" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="576" stopIfTrue="1">
       <formula>OR($F17="終了",$F17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="225" priority="520" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="568" stopIfTrue="1">
       <formula>$F33="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="521" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="569" stopIfTrue="1">
       <formula>$F33="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="522" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="570" stopIfTrue="1">
       <formula>OR($F33="終了",$F33="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:I45">
-    <cfRule type="expression" dxfId="222" priority="514" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="562" stopIfTrue="1">
       <formula>$F41="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="515" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="563" stopIfTrue="1">
       <formula>$F41="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="516" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="564" stopIfTrue="1">
       <formula>OR($F41="終了",$F41="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49:I51">
-    <cfRule type="expression" dxfId="219" priority="511" stopIfTrue="1">
-      <formula>$F50="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="512" stopIfTrue="1">
-      <formula>$F50="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="513" stopIfTrue="1">
-      <formula>OR($F50="終了",$F50="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:I59">
-    <cfRule type="expression" dxfId="216" priority="508" stopIfTrue="1">
-      <formula>$F56="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="215" priority="509" stopIfTrue="1">
-      <formula>$F56="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="510" stopIfTrue="1">
-      <formula>OR($F56="終了",$F56="完了")</formula>
+  <conditionalFormatting sqref="I58:I59">
+    <cfRule type="expression" dxfId="244" priority="556" stopIfTrue="1">
+      <formula>$F59="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="557" stopIfTrue="1">
+      <formula>$F59="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="558" stopIfTrue="1">
+      <formula>OR($F59="終了",$F59="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I65">
-    <cfRule type="expression" dxfId="213" priority="505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="553" stopIfTrue="1">
       <formula>$F64="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="506" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="554" stopIfTrue="1">
       <formula>$F64="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="555" stopIfTrue="1">
       <formula>OR($F64="終了",$F64="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69:J85">
-    <cfRule type="expression" dxfId="210" priority="502" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="550" stopIfTrue="1">
       <formula>$F70="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="503" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="551" stopIfTrue="1">
       <formula>$F70="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="504" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="552" stopIfTrue="1">
       <formula>OR($F70="終了",$F70="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:AK5">
-    <cfRule type="expression" dxfId="207" priority="466" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="514" stopIfTrue="1">
       <formula>$F5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="467" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="515" stopIfTrue="1">
       <formula>$F5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="468" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="516" stopIfTrue="1">
       <formula>OR($F5="終了",$F5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:AK6">
-    <cfRule type="expression" dxfId="204" priority="463" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="511" stopIfTrue="1">
       <formula>$F6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="464" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="512" stopIfTrue="1">
       <formula>$F6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="465" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="513" stopIfTrue="1">
       <formula>OR($F6="終了",$F6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:AK19">
-    <cfRule type="expression" dxfId="201" priority="460" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="508" stopIfTrue="1">
       <formula>$F18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="461" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="509" stopIfTrue="1">
       <formula>$F18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="462" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="510" stopIfTrue="1">
       <formula>OR($F18="終了",$F18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:AK17">
-    <cfRule type="expression" dxfId="198" priority="457" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="505" stopIfTrue="1">
       <formula>$F17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="458" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="506" stopIfTrue="1">
       <formula>$F17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="459" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="507" stopIfTrue="1">
       <formula>OR($F17="終了",$F17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:AK33">
-    <cfRule type="expression" dxfId="195" priority="451" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="499" stopIfTrue="1">
       <formula>$F33="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="452" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="500" stopIfTrue="1">
       <formula>$F33="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="453" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="501" stopIfTrue="1">
       <formula>OR($F33="終了",$F33="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:AK45">
-    <cfRule type="expression" dxfId="192" priority="445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="493" stopIfTrue="1">
       <formula>$F41="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="494" stopIfTrue="1">
       <formula>$F41="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="495" stopIfTrue="1">
       <formula>OR($F41="終了",$F41="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:AK51">
-    <cfRule type="expression" dxfId="189" priority="442" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="490" stopIfTrue="1">
       <formula>$F50="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="443" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="491" stopIfTrue="1">
       <formula>$F50="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="444" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="492" stopIfTrue="1">
       <formula>OR($F50="終了",$F50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:AK55">
-    <cfRule type="expression" dxfId="186" priority="439" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="487" stopIfTrue="1">
       <formula>$F56="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="440" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="488" stopIfTrue="1">
       <formula>$F56="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="441" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="489" stopIfTrue="1">
       <formula>OR($F56="終了",$F56="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63:AK65">
-    <cfRule type="expression" dxfId="183" priority="436" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="484" stopIfTrue="1">
       <formula>$F64="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="437" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="485" stopIfTrue="1">
       <formula>$F64="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="438" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="486" stopIfTrue="1">
       <formula>OR($F64="終了",$F64="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L69:AK85">
-    <cfRule type="expression" dxfId="180" priority="433" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="481" stopIfTrue="1">
       <formula>$F70="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="434" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="482" stopIfTrue="1">
       <formula>$F70="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="435" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="483" stopIfTrue="1">
       <formula>OR($F70="終了",$F70="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56:AK58">
-    <cfRule type="expression" dxfId="177" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="266" stopIfTrue="1">
       <formula>$F57="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="267" stopIfTrue="1">
       <formula>$F57="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="268" stopIfTrue="1">
       <formula>OR($F57="終了",$F57="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E22 E27:E1048576">
-    <cfRule type="containsText" dxfId="174" priority="172" operator="containsText" text="佐藤">
+  <conditionalFormatting sqref="E1:E22 E27:E46 E58:E1048576">
+    <cfRule type="containsText" dxfId="202" priority="220" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D22 C105:C1048576 C1 D27:D1048576">
-    <cfRule type="containsText" dxfId="173" priority="168" operator="containsText" text="絶">
+  <conditionalFormatting sqref="D1:D22 C105:C1048576 C1 D27:D46 D58:D1048576">
+    <cfRule type="containsText" dxfId="201" priority="216" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="169" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="200" priority="217" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="170" operator="containsText" text="無">
+    <cfRule type="containsText" dxfId="199" priority="218" operator="containsText" text="無">
       <formula>NOT(ISERROR(SEARCH("無",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="171" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="198" priority="219" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="215">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -29006,7 +29376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C9">
-    <cfRule type="dataBar" priority="166">
+    <cfRule type="dataBar" priority="214">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -29019,8 +29389,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C22 C27:C104">
-    <cfRule type="dataBar" priority="165">
+  <conditionalFormatting sqref="C5:C22 C27:C46 C58:C104">
+    <cfRule type="dataBar" priority="213">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -29034,256 +29404,256 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="169" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="210" stopIfTrue="1">
       <formula>$F5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="211" stopIfTrue="1">
       <formula>$F5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="212" stopIfTrue="1">
       <formula>OR($F5="終了",$F5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="166" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="207" stopIfTrue="1">
       <formula>$F7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="208" stopIfTrue="1">
       <formula>$F7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="209" stopIfTrue="1">
       <formula>OR($F7="終了",$F7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C411:C65536">
-    <cfRule type="expression" dxfId="163" priority="2596" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="2644" stopIfTrue="1">
       <formula>H411="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="2597" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="2645" stopIfTrue="1">
       <formula>H411="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="2598" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="2646" stopIfTrue="1">
       <formula>OR(H411="終了",H411="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L11">
-    <cfRule type="expression" dxfId="160" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="201" stopIfTrue="1">
       <formula>$F8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="202" stopIfTrue="1">
       <formula>$F8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="203" stopIfTrue="1">
       <formula>OR($F8="終了",$F8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="157" priority="148" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="185" priority="196" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="149" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="184" priority="197" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="150" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="183" priority="198" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="151" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="182" priority="199" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="152" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="181" priority="200" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="152" priority="146" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="180" priority="194" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="147" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="179" priority="195" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="150" priority="145" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="178" priority="193" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="149" priority="140" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="177" priority="188" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="141" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="176" priority="189" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="142" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="175" priority="190" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="143" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="174" priority="191" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="144" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="173" priority="192" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="144" priority="138" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="172" priority="186" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="139" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="171" priority="187" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="142" priority="137" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="170" priority="185" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D26">
-    <cfRule type="expression" dxfId="141" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="182" stopIfTrue="1">
       <formula>$F24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="183" stopIfTrue="1">
       <formula>$F24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="184" stopIfTrue="1">
       <formula>OR($F24="終了",$F24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="containsText" dxfId="138" priority="129" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="166" priority="177" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="130" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="165" priority="178" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="131" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="164" priority="179" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="132" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="163" priority="180" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="133" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="162" priority="181" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="containsText" dxfId="133" priority="127" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="161" priority="175" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="128" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="160" priority="176" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D26">
-    <cfRule type="containsText" dxfId="131" priority="124" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="159" priority="172" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="125" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="158" priority="173" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="126" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="157" priority="174" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="containsText" dxfId="128" priority="123" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="156" priority="171" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="expression" dxfId="127" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="168" stopIfTrue="1">
       <formula>$F24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="169" stopIfTrue="1">
       <formula>$F24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="170" stopIfTrue="1">
       <formula>OR($F24="終了",$F24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="124" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="165" stopIfTrue="1">
       <formula>$F23="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="166" stopIfTrue="1">
       <formula>$F23="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="167" stopIfTrue="1">
       <formula>OR($F23="終了",$F23="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="121" priority="112" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="149" priority="160" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="113" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="148" priority="161" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="114" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="147" priority="162" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="115" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="146" priority="163" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="116" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="145" priority="164" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="116" priority="110" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="144" priority="158" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="111" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="143" priority="159" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="containsText" dxfId="114" priority="107" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="142" priority="155" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="108" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="141" priority="156" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="109" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="140" priority="157" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="111" priority="106" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="139" priority="154" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="expression" dxfId="110" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="151" stopIfTrue="1">
       <formula>$F22="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="152" stopIfTrue="1">
       <formula>$F22="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="153" stopIfTrue="1">
       <formula>OR($F22="終了",$F22="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E26">
-    <cfRule type="containsText" dxfId="107" priority="102" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="135" priority="150" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D26">
-    <cfRule type="containsText" dxfId="106" priority="98" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="134" priority="146" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="99" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="133" priority="147" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="100" operator="containsText" text="無">
+    <cfRule type="containsText" dxfId="132" priority="148" operator="containsText" text="無">
       <formula>NOT(ISERROR(SEARCH("無",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="101" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="131" priority="149" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="dataBar" priority="97">
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -29297,256 +29667,443 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23 B28">
-    <cfRule type="expression" dxfId="102" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="136" stopIfTrue="1">
       <formula>$F22="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="137" stopIfTrue="1">
       <formula>$F22="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="138" stopIfTrue="1">
       <formula>OR($F22="終了",$F22="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="99" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="133" stopIfTrue="1">
       <formula>$F14="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="134" stopIfTrue="1">
       <formula>$F14="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="135" stopIfTrue="1">
       <formula>OR($F14="終了",$F14="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="121" priority="112" stopIfTrue="1">
+      <formula>$F39="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="113" stopIfTrue="1">
+      <formula>$F39="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="114" stopIfTrue="1">
+      <formula>OR($F39="終了",$F39="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:B59">
+    <cfRule type="expression" dxfId="118" priority="106" stopIfTrue="1">
+      <formula>$F58="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="107" stopIfTrue="1">
+      <formula>$F58="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="108" stopIfTrue="1">
+      <formula>OR($F58="終了",$F58="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29 D29 G29:JT29">
+    <cfRule type="expression" dxfId="115" priority="2650" stopIfTrue="1">
+      <formula>$F31="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="2651" stopIfTrue="1">
+      <formula>$F31="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="2652" stopIfTrue="1">
+      <formula>OR($F31="終了",$F31="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31 D31 G31:JT31">
+    <cfRule type="expression" dxfId="112" priority="2653" stopIfTrue="1">
+      <formula>#REF!="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="2654" stopIfTrue="1">
+      <formula>#REF!="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="2655" stopIfTrue="1">
+      <formula>OR(#REF!="終了",#REF!="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="109" priority="2737" stopIfTrue="1">
+      <formula>#REF!="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="2738" stopIfTrue="1">
+      <formula>#REF!="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="2739" stopIfTrue="1">
+      <formula>OR(#REF!="終了",#REF!="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="106" priority="91" stopIfTrue="1">
+      <formula>$F40="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="92" stopIfTrue="1">
+      <formula>$F40="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="93" stopIfTrue="1">
+      <formula>OR($F40="終了",$F40="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="103" priority="79" stopIfTrue="1">
+      <formula>$F35="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="80" stopIfTrue="1">
+      <formula>$F35="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="81" stopIfTrue="1">
+      <formula>OR($F35="終了",$F35="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="100" priority="76" stopIfTrue="1">
+      <formula>$F38="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="77" stopIfTrue="1">
+      <formula>$F38="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="78" stopIfTrue="1">
+      <formula>OR($F38="終了",$F38="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B35">
+    <cfRule type="expression" dxfId="97" priority="85" stopIfTrue="1">
+      <formula>$F31="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="86" stopIfTrue="1">
+      <formula>$F31="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="87" stopIfTrue="1">
+      <formula>OR($F31="終了",$F31="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="94" priority="88" stopIfTrue="1">
+      <formula>$F38="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="89" stopIfTrue="1">
+      <formula>$F38="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="90" stopIfTrue="1">
+      <formula>OR($F38="終了",$F38="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="91" priority="82" stopIfTrue="1">
+      <formula>$F36="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="83" stopIfTrue="1">
+      <formula>$F36="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="84" stopIfTrue="1">
+      <formula>OR($F36="終了",$F36="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="88" priority="73" stopIfTrue="1">
+      <formula>$F40="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="74" stopIfTrue="1">
+      <formula>$F40="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="75" stopIfTrue="1">
+      <formula>OR($F40="終了",$F40="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B46">
+    <cfRule type="expression" dxfId="85" priority="70" stopIfTrue="1">
+      <formula>$F44="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="71" stopIfTrue="1">
+      <formula>$F44="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="72" stopIfTrue="1">
+      <formula>OR($F44="終了",$F44="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:B46">
+    <cfRule type="expression" dxfId="82" priority="67" stopIfTrue="1">
+      <formula>$F45="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="68" stopIfTrue="1">
+      <formula>$F45="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="69" stopIfTrue="1">
+      <formula>OR($F45="終了",$F45="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="79" priority="64" stopIfTrue="1">
+      <formula>$F45="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="65" stopIfTrue="1">
+      <formula>$F45="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="66" stopIfTrue="1">
+      <formula>OR($F45="終了",$F45="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:B46">
+    <cfRule type="expression" dxfId="76" priority="61" stopIfTrue="1">
+      <formula>$F45="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="62" stopIfTrue="1">
+      <formula>$F45="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="63" stopIfTrue="1">
+      <formula>OR($F45="終了",$F45="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B43">
+    <cfRule type="expression" dxfId="73" priority="58" stopIfTrue="1">
+      <formula>$F42="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="59" stopIfTrue="1">
+      <formula>$F42="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="60" stopIfTrue="1">
+      <formula>OR($F42="終了",$F42="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="70" priority="55" stopIfTrue="1">
+      <formula>$F44="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="56" stopIfTrue="1">
+      <formula>$F44="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="57" stopIfTrue="1">
+      <formula>OR($F44="終了",$F44="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="67" priority="52" stopIfTrue="1">
+      <formula>$F44="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="53" stopIfTrue="1">
+      <formula>$F44="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="54" stopIfTrue="1">
+      <formula>OR($F44="終了",$F44="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="64" priority="49" stopIfTrue="1">
+      <formula>$F44="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="50" stopIfTrue="1">
+      <formula>$F44="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="51" stopIfTrue="1">
+      <formula>OR($F44="終了",$F44="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57 F57:I57 F47:H56 J47:K47">
+    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
+      <formula>$F47="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="47" stopIfTrue="1">
+      <formula>$F47="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="48" stopIfTrue="1">
+      <formula>OR($F47="終了",$F47="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:E57">
+    <cfRule type="containsText" dxfId="42" priority="41" stopIfTrue="1" operator="containsText" text="幸野">
+      <formula>NOT(ISERROR(SEARCH("幸野",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="42" stopIfTrue="1" operator="containsText" text="飯島">
+      <formula>NOT(ISERROR(SEARCH("飯島",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="43" stopIfTrue="1" operator="containsText" text="大高">
+      <formula>NOT(ISERROR(SEARCH("大高",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="44" stopIfTrue="1" operator="containsText" text="斉藤">
+      <formula>NOT(ISERROR(SEARCH("斉藤",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="45" stopIfTrue="1" operator="containsText" text="金城">
+      <formula>NOT(ISERROR(SEARCH("金城",E47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:E57">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="佐藤">
+      <formula>NOT(ISERROR(SEARCH("佐藤",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="阿曽">
+      <formula>NOT(ISERROR(SEARCH("阿曽",E47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="低">
+      <formula>NOT(ISERROR(SEARCH("低",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="37" operator="containsText" text="中">
+      <formula>NOT(ISERROR(SEARCH("中",D57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:E57">
+    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="未定">
+      <formula>NOT(ISERROR(SEARCH("未定",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="96" priority="55" stopIfTrue="1">
-      <formula>$F56="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="56" stopIfTrue="1">
-      <formula>$F56="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="57" stopIfTrue="1">
-      <formula>OR($F56="終了",$F56="完了")</formula>
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+      <formula>$F57="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+      <formula>$F57="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
+      <formula>OR($F57="終了",$F57="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="87" priority="64" stopIfTrue="1">
-      <formula>$F39="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="65" stopIfTrue="1">
-      <formula>$F39="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="66" stopIfTrue="1">
-      <formula>OR($F39="終了",$F39="完了")</formula>
+  <conditionalFormatting sqref="D47:D56">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+      <formula>$F47="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+      <formula>$F47="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="31" stopIfTrue="1">
+      <formula>OR($F47="終了",$F47="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B59">
-    <cfRule type="expression" dxfId="78" priority="58" stopIfTrue="1">
-      <formula>$F58="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="59" stopIfTrue="1">
-      <formula>$F58="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="60" stopIfTrue="1">
-      <formula>OR($F58="終了",$F58="完了")</formula>
+  <conditionalFormatting sqref="D47:D56">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="低">
+      <formula>NOT(ISERROR(SEARCH("低",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="中">
+      <formula>NOT(ISERROR(SEARCH("中",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29 D29 G29:JT29">
-    <cfRule type="expression" dxfId="59" priority="2602" stopIfTrue="1">
-      <formula>$F31="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="2603" stopIfTrue="1">
-      <formula>$F31="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="2604" stopIfTrue="1">
-      <formula>OR($F31="終了",$F31="完了")</formula>
+  <conditionalFormatting sqref="B47:B56">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+      <formula>$F47="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+      <formula>$F47="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
+      <formula>OR($F47="終了",$F47="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31 D31 G31:JT31">
-    <cfRule type="expression" dxfId="56" priority="2605" stopIfTrue="1">
-      <formula>#REF!="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="2606" stopIfTrue="1">
-      <formula>#REF!="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="2607" stopIfTrue="1">
-      <formula>OR(#REF!="終了",#REF!="完了")</formula>
+  <conditionalFormatting sqref="I47:I56">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+      <formula>$F47="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+      <formula>$F47="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
+      <formula>OR($F47="終了",$F47="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="53" priority="2689" stopIfTrue="1">
-      <formula>#REF!="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2690" stopIfTrue="1">
-      <formula>#REF!="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="2691" stopIfTrue="1">
-      <formula>OR(#REF!="終了",#REF!="完了")</formula>
+  <conditionalFormatting sqref="E47:E57">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="佐藤">
+      <formula>NOT(ISERROR(SEARCH("佐藤",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="47" priority="43" stopIfTrue="1">
-      <formula>$F40="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="44" stopIfTrue="1">
-      <formula>$F40="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
-      <formula>OR($F40="終了",$F40="完了")</formula>
+  <conditionalFormatting sqref="D47:D57">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="絶">
+      <formula>NOT(ISERROR(SEARCH("絶",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="絶">
+      <formula>NOT(ISERROR(SEARCH("絶",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="無">
+      <formula>NOT(ISERROR(SEARCH("無",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="絶">
+      <formula>NOT(ISERROR(SEARCH("絶",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="44" priority="31" stopIfTrue="1">
-      <formula>$F35="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="32" stopIfTrue="1">
-      <formula>$F35="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="33" stopIfTrue="1">
-      <formula>OR($F35="終了",$F35="完了")</formula>
+  <conditionalFormatting sqref="C47:C57">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9B64A8DD-A976-4851-9279-DCBDCDC9162B}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="41" priority="28" stopIfTrue="1">
-      <formula>$F38="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="29" stopIfTrue="1">
-      <formula>$F38="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="30" stopIfTrue="1">
-      <formula>OR($F38="終了",$F38="完了")</formula>
+  <conditionalFormatting sqref="C47:C57">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{16FD4F82-08FA-4C66-9E67-94D65BB3B6D1}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B35">
-    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
-      <formula>$F31="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
-      <formula>$F31="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
-      <formula>OR($F31="終了",$F31="完了")</formula>
+  <conditionalFormatting sqref="K57">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+      <formula>$F57="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>$F57="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>OR($F57="終了",$F57="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="35" priority="40" stopIfTrue="1">
-      <formula>$F38="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="41" stopIfTrue="1">
-      <formula>$F38="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="42" stopIfTrue="1">
-      <formula>OR($F38="終了",$F38="完了")</formula>
+  <conditionalFormatting sqref="K48:K56">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+      <formula>$F48="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>$F48="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+      <formula>OR($F48="終了",$F48="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
-      <formula>$F36="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
-      <formula>$F36="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="36" stopIfTrue="1">
-      <formula>OR($F36="終了",$F36="完了")</formula>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>$F57="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>$F57="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>OR($F57="終了",$F57="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
-      <formula>$F40="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
-      <formula>$F40="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
-      <formula>OR($F40="終了",$F40="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B47">
-    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
-      <formula>$F44="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
-      <formula>$F44="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
-      <formula>OR($F44="終了",$F44="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B46">
-    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
-      <formula>$F45="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
-      <formula>$F45="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
-      <formula>OR($F45="終了",$F45="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
-      <formula>$F45="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>$F45="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
-      <formula>OR($F45="終了",$F45="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B46">
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
-      <formula>$F45="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
-      <formula>$F45="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
-      <formula>OR($F45="終了",$F45="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B43">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
-      <formula>$F42="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
-      <formula>$F42="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
-      <formula>OR($F42="終了",$F42="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
-      <formula>$F44="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
-      <formula>$F44="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
-      <formula>OR($F44="終了",$F44="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
-      <formula>$F44="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>$F44="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
-      <formula>OR($F44="終了",$F44="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
-      <formula>$F44="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
-      <formula>$F44="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>OR($F44="終了",$F44="完了")</formula>
+  <conditionalFormatting sqref="J48:J56">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>$F48="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$F48="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>OR($F48="終了",$F48="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -29601,7 +30158,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C5:C22 C27:C104</xm:sqref>
+          <xm:sqref>C5:C22 C27:C46 C58:C104</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{470012FE-40F3-454E-BBA5-134373083837}">
@@ -29615,6 +30172,32 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C23:C26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9B64A8DD-A976-4851-9279-DCBDCDC9162B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C47:C57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{16FD4F82-08FA-4C66-9E67-94D65BB3B6D1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C47:C57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -29660,7 +30243,7 @@
       <c r="E3" s="112"/>
       <c r="H3" s="34">
         <f ca="1">COUNTIF('スプリントバックログ(全体) '!$F$5:$F$411,'スプリントバックログ（グラフ表）'!$H$2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="106">
         <v>1</v>
@@ -29783,15 +30366,15 @@
       </c>
       <c r="B6" s="30">
         <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A6,'スプリントバックログ(全体) '!$I$5:$I$404)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C6" s="30">
         <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A6,'スプリントバックログ(全体) '!$K$5:$K$404)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D6" s="30">
         <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A6,'スプリントバックログ(全体) '!$J$5:$J$404)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E6" s="31">
         <f>COUNTA('スプリントバックログ(全体) '!$L$2:$AL$2)*6-COUNTA('スプリントバックログ(全体) '!$L$4:$AL$4)*6</f>
@@ -29799,11 +30382,11 @@
       </c>
       <c r="F6" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G6" s="34">
         <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A6)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H6" s="32" t="e">
         <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A6,'スプリントバックログ(全体) '!$F$5:$F$411,'スプリントバックログ（グラフ表）'!$H$2)</f>
@@ -29816,7 +30399,7 @@
       <c r="J6" s="107"/>
       <c r="K6" s="57">
         <f>(11*6)-B6</f>
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="L6" s="57">
         <f t="shared" ref="L6:N10" si="3">(5*6)</f>
@@ -29832,7 +30415,7 @@
       </c>
       <c r="O6" s="57">
         <f t="shared" ref="O6:O9" si="5">(27*6)-B6</f>
-        <v>162</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -30084,55 +30667,55 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="A6:A10">
-    <cfRule type="containsText" dxfId="75" priority="13" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="61" priority="13" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="14" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="60" priority="14" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="15" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="59" priority="15" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="16" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="58" priority="16" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="17" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="57" priority="17" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A10">
-    <cfRule type="containsText" dxfId="70" priority="11" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="12" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="55" priority="12" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="68" priority="2" operator="containsText" text="宮内">
+    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="宮内">
       <formula>NOT(ISERROR(SEARCH("宮内",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="6" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="53" priority="6" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="7" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="52" priority="7" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="8" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="51" priority="8" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="9" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="50" priority="9" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="10" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="49" priority="10" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30151,7 +30734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A10">
-    <cfRule type="containsText" dxfId="60" priority="1" operator="containsText" text="宮内">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="宮内">
       <formula>NOT(ISERROR(SEARCH("宮内",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30216,7 +30799,7 @@
       </c>
       <c r="F1" s="60">
         <f ca="1">TODAY()</f>
-        <v>42843</v>
+        <v>42844</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -30637,7 +31220,7 @@
       </c>
       <c r="F1" s="60">
         <f ca="1">TODAY()</f>
-        <v>42843</v>
+        <v>42844</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -31216,7 +31799,7 @@
       </c>
       <c r="F1" s="60">
         <f ca="1">TODAY()</f>
-        <v>42843</v>
+        <v>42844</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">

--- a/7班_スプリントバックログ.xlsx
+++ b/7班_スプリントバックログ.xlsx
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="167">
   <si>
     <t>番号</t>
   </si>
@@ -1597,6 +1597,10 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -2056,7 +2060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2362,19 +2366,7 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2398,6 +2390,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2419,13 +2423,129 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_チーム編成_スプリントバックログ（第４）" xfId="1"/>
   </cellStyles>
-  <dxfs count="501">
+  <dxfs count="463">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2777,6 +2897,606 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF33CC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFFCC"/>
@@ -2786,6 +3506,90 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCCFF99"/>
         </patternFill>
       </fill>
@@ -2833,6 +3637,67 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFFCC"/>
@@ -2842,6 +3707,18 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCCFF99"/>
         </patternFill>
       </fill>
@@ -2913,410 +3790,13 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -3441,6 +3921,470 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
@@ -3676,6 +4620,36 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFF99"/>
@@ -3723,1245 +4697,6 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF33CC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCECFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -6340,10 +6075,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6550,7 +6285,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7130,6 +6865,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7170,7 +6906,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7287,6 +7023,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7444,6 +7181,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7601,6 +7339,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7641,7 +7380,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7797,6 +7536,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10763,17 +10503,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL411"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="11" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="68" style="18" customWidth="1"/>
+    <col min="2" max="2" width="69.125" style="18" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
@@ -10790,22 +10530,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="94" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="93" t="s">
@@ -10814,57 +10554,57 @@
       <c r="H1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="96" t="s">
+      <c r="K1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="98"/>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="98"/>
-      <c r="AB1" s="98"/>
-      <c r="AC1" s="98"/>
-      <c r="AD1" s="98"/>
-      <c r="AE1" s="98"/>
-      <c r="AF1" s="98"/>
-      <c r="AG1" s="98"/>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="98"/>
-      <c r="AK1" s="98"/>
-      <c r="AL1" s="98"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
+      <c r="AL1" s="105"/>
     </row>
     <row r="2" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="96"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="96"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="54" t="s">
         <v>15</v>
       </c>
@@ -10948,20 +10688,20 @@
       </c>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="96"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="96"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="94"/>
       <c r="G3" s="93"/>
       <c r="H3" s="93"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="12">
         <f>INT(($L$4-(COLUMN()-COLUMN($L4))*($L$4/COUNTA($L$2:$AL$2))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="12">
         <f t="shared" ref="M3:AL3" si="0">INT(($L$4-(COLUMN()-COLUMN($L4))*($L$4/COUNTA($L$2:$AL$2))))</f>
@@ -11069,24 +10809,24 @@
       </c>
     </row>
     <row r="4" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="96"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="96"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="94"/>
       <c r="G4" s="93"/>
       <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="94"/>
       <c r="L4" s="13">
         <f t="shared" ref="L4:AL4" si="3">SUM(L5:L404)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="13">
         <f t="shared" si="3"/>
@@ -11210,7 +10950,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="9" t="str">
-        <f t="shared" ref="K5:K36" ca="1" si="5">IF(ISBLANK(L5)=FALSE,OFFSET(K5,0,COUNTA(L5:AL5)),"")</f>
+        <f t="shared" ref="K5:K57" ca="1" si="5">IF(ISBLANK(L5)=FALSE,OFFSET(K5,0,COUNTA(L5:AL5)),"")</f>
         <v/>
       </c>
       <c r="L5" s="11"/>
@@ -11306,7 +11046,7 @@
         <v>104</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="G7" s="4">
@@ -11322,9 +11062,12 @@
         <v>1</v>
       </c>
       <c r="K7" s="9">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="L7" s="11"/>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -11367,7 +11110,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="G8" s="4">
@@ -11383,9 +11126,12 @@
         <v>1</v>
       </c>
       <c r="K8" s="9">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="L8" s="11"/>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -11428,7 +11174,7 @@
         <v>104</v>
       </c>
       <c r="F9" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="G9" s="4">
@@ -11444,9 +11190,12 @@
         <v>1</v>
       </c>
       <c r="K9" s="9">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="L9" s="11"/>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -11489,7 +11238,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="G10" s="4">
@@ -11505,9 +11254,12 @@
         <v>1</v>
       </c>
       <c r="K10" s="9">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="L10" s="11"/>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -11550,7 +11302,7 @@
         <v>104</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="G11" s="4">
@@ -11566,9 +11318,12 @@
         <v>1</v>
       </c>
       <c r="K11" s="9">
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="L11" s="11"/>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -11776,7 +11531,10 @@
       <c r="H15" s="4"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -11820,8 +11578,8 @@
         <v>104</v>
       </c>
       <c r="F16" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>完了</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>作業中</v>
       </c>
       <c r="G16" s="4">
         <v>42843</v>
@@ -11835,8 +11593,9 @@
       <c r="J16" s="11">
         <v>1</v>
       </c>
-      <c r="K16" s="9">
-        <v>0</v>
+      <c r="K16" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -11881,8 +11640,8 @@
         <v>104</v>
       </c>
       <c r="F17" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>完了</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>作業中</v>
       </c>
       <c r="G17" s="4">
         <v>42843</v>
@@ -11896,8 +11655,9 @@
       <c r="J17" s="11">
         <v>1</v>
       </c>
-      <c r="K17" s="9">
-        <v>0</v>
+      <c r="K17" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
@@ -11942,8 +11702,8 @@
         <v>104</v>
       </c>
       <c r="F18" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>完了</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>作業中</v>
       </c>
       <c r="G18" s="4">
         <v>42843</v>
@@ -11957,8 +11717,9 @@
       <c r="J18" s="11">
         <v>2</v>
       </c>
-      <c r="K18" s="9">
-        <v>0</v>
+      <c r="K18" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
@@ -12388,7 +12149,7 @@
       <c r="A26" s="27">
         <v>22</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="113" t="s">
         <v>130</v>
       </c>
       <c r="C26" s="28"/>
@@ -12971,7 +12732,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="9" t="str">
-        <f t="shared" ref="K37:K68" ca="1" si="6">IF(ISBLANK(L37)=FALSE,OFFSET(K37,0,COUNTA(L37:AL37)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L37" s="11"/>
@@ -13021,7 +12782,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L38" s="11"/>
@@ -13071,7 +12832,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L39" s="11"/>
@@ -13121,7 +12882,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L40" s="11"/>
@@ -13171,7 +12932,7 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L41" s="11"/>
@@ -13223,7 +12984,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L42" s="11"/>
@@ -13273,7 +13034,7 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L43" s="11"/>
@@ -13323,7 +13084,7 @@
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L44" s="11"/>
@@ -13373,7 +13134,7 @@
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L45" s="11"/>
@@ -13423,10 +13184,12 @@
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="L46" s="11"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>z</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
@@ -13462,7 +13225,7 @@
         <v>152</v>
       </c>
       <c r="C47" s="28">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>133</v>
@@ -13471,8 +13234,8 @@
         <v>105</v>
       </c>
       <c r="F47" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>完了</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>作業中</v>
       </c>
       <c r="G47" s="4">
         <v>42843</v>
@@ -13486,8 +13249,9 @@
       <c r="J47" s="11">
         <v>6</v>
       </c>
-      <c r="K47" s="9">
-        <v>0</v>
+      <c r="K47" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
@@ -13525,7 +13289,7 @@
         <v>153</v>
       </c>
       <c r="C48" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>133</v>
@@ -13534,24 +13298,31 @@
         <v>105</v>
       </c>
       <c r="F48" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>作業中</v>
       </c>
       <c r="G48" s="4">
         <v>42844</v>
       </c>
-      <c r="H48" s="4"/>
+      <c r="H48" s="4">
+        <v>42843</v>
+      </c>
       <c r="I48" s="11">
         <v>2</v>
       </c>
       <c r="J48" s="11">
         <v>2</v>
       </c>
-      <c r="K48" s="11">
-        <v>2</v>
-      </c>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
+      <c r="K48" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L48" s="11">
+        <v>1</v>
+      </c>
+      <c r="M48" s="11">
+        <v>1</v>
+      </c>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
@@ -13595,7 +13366,7 @@
         <v>105</v>
       </c>
       <c r="F49" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="G49" s="4">
@@ -13610,8 +13381,9 @@
       <c r="J49" s="11">
         <v>3</v>
       </c>
-      <c r="K49" s="11">
-        <v>3</v>
+      <c r="K49" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
@@ -13662,7 +13434,7 @@
         <v>未着手</v>
       </c>
       <c r="G50" s="4">
-        <v>42844</v>
+        <v>42845</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="11">
@@ -13671,8 +13443,9 @@
       <c r="J50" s="11">
         <v>3</v>
       </c>
-      <c r="K50" s="11">
-        <v>3</v>
+      <c r="K50" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
@@ -13719,21 +13492,24 @@
         <v>105</v>
       </c>
       <c r="F51" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>作業中</v>
       </c>
       <c r="G51" s="4">
         <v>42844</v>
       </c>
-      <c r="H51" s="4"/>
+      <c r="H51" s="4">
+        <v>42844</v>
+      </c>
       <c r="I51" s="11">
         <v>3</v>
       </c>
       <c r="J51" s="11">
         <v>3</v>
       </c>
-      <c r="K51" s="11">
-        <v>3</v>
+      <c r="K51" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -13793,8 +13569,9 @@
       <c r="J52" s="11">
         <v>3</v>
       </c>
-      <c r="K52" s="11">
-        <v>3</v>
+      <c r="K52" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
@@ -13854,8 +13631,9 @@
       <c r="J53" s="11">
         <v>3</v>
       </c>
-      <c r="K53" s="11">
-        <v>3</v>
+      <c r="K53" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
@@ -13915,8 +13693,9 @@
       <c r="J54" s="11">
         <v>3</v>
       </c>
-      <c r="K54" s="11">
-        <v>3</v>
+      <c r="K54" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
@@ -13976,8 +13755,9 @@
       <c r="J55" s="11">
         <v>3</v>
       </c>
-      <c r="K55" s="11">
-        <v>3</v>
+      <c r="K55" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
@@ -14037,8 +13817,9 @@
       <c r="J56" s="11">
         <v>3</v>
       </c>
-      <c r="K56" s="11">
-        <v>3</v>
+      <c r="K56" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
@@ -14098,8 +13879,9 @@
       <c r="J57" s="11">
         <v>6</v>
       </c>
-      <c r="K57" s="11">
-        <v>6</v>
+      <c r="K57" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
@@ -14146,7 +13928,7 @@
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="K37:K68" ca="1" si="6">IF(ISBLANK(L58)=FALSE,OFFSET(K58,0,COUNTA(L58:AL58)),"")</f>
         <v/>
       </c>
       <c r="L58" s="11"/>
@@ -28357,6 +28139,11 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:AL1"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
@@ -28364,1000 +28151,995 @@
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="C1:C4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="L1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F412:F65537">
-    <cfRule type="expression" dxfId="500" priority="2626" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="2626" stopIfTrue="1">
       <formula>F412="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="2627" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="2627" stopIfTrue="1">
       <formula>F412="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="2628" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="2628" stopIfTrue="1">
       <formula>OR(F412="終了",F412="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:K5 J18:K19 K17 AM5:AM10 AT5:JT10 D16 G32:AK32 L12:AK15 D20:D22 J6:K15 M7:AK11 B6:B10 J33:K35 G33:H35 B67:B68 B88:B90 B85:B86 B37:B39 B60:B63 I34:I35 L34:AK35 AM11:JT28 A5:A28 A32:A35 A30 AL5:AL28 AL32:JT35 G20:AK28 D27:D28 D32:D35 D30 G30:JT30 B31 F6:F46 G6:H15 G16:AK16 G17:H19 F58:F105">
-    <cfRule type="expression" dxfId="497" priority="2629" stopIfTrue="1">
+  <conditionalFormatting sqref="F5:K5 J18:J19 AM5:AM10 AT5:JT10 D16 G32:J32 D20:D22 J6:J15 B6:B10 J33:J35 G33:H35 B67:B68 B88:B90 B85:B86 B37:B39 B60:B63 I34:I35 L34:AK35 AM11:JT28 A5:A28 A32:A35 A30 AL5:AL28 AL32:JT35 G20:J28 D27:D28 D32:D35 D30 G30:J30 B31 F6:F46 G6:H15 G16:J16 G17:H19 F58:F105 L7:AK16 L30:JT30 L20:AK28 L32:AK32 K6:K57">
+    <cfRule type="expression" dxfId="459" priority="2629" stopIfTrue="1">
       <formula>$F5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="2630" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="2630" stopIfTrue="1">
       <formula>$F5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="2631" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="2631" stopIfTrue="1">
       <formula>OR($F5="終了",$F5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D411:D65536">
-    <cfRule type="expression" dxfId="494" priority="2632" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="2632" stopIfTrue="1">
       <formula>G411="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="2633" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="2633" stopIfTrue="1">
       <formula>G411="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="2634" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="2634" stopIfTrue="1">
       <formula>OR(G411="終了",G411="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E411:E65536">
-    <cfRule type="expression" dxfId="491" priority="2635" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="2635" stopIfTrue="1">
       <formula>F412="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="2636" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="2636" stopIfTrue="1">
       <formula>F412="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="2637" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="2637" stopIfTrue="1">
       <formula>OR(F412="終了",F412="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G411:AL65536">
-    <cfRule type="expression" dxfId="488" priority="2638" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="2638" stopIfTrue="1">
       <formula>$F412="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="2639" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="2639" stopIfTrue="1">
       <formula>$F412="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="2640" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="2640" stopIfTrue="1">
       <formula>OR($F412="終了",$F412="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D4 C1">
-    <cfRule type="containsText" dxfId="485" priority="2617" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="447" priority="2617" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="484" priority="2618" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="446" priority="2618" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="483" priority="2619" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="445" priority="2619" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="482" priority="2614" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="2614" stopIfTrue="1">
       <formula>$F5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="2615" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="2615" stopIfTrue="1">
       <formula>$F5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="2616" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="2616" stopIfTrue="1">
       <formula>OR($F5="終了",$F5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E16 E20:E22 E37:E39 E46 E60:E62 E66:E67 E86:E104">
-    <cfRule type="containsText" dxfId="479" priority="2609" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="441" priority="2609" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="2610" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="440" priority="2610" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="477" priority="2611" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="439" priority="2611" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="476" priority="2612" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="438" priority="2612" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="475" priority="2613" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="437" priority="2613" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E16 E20:E22 E37:E39 E46 E60:E62 E66:E67 E86:E104">
-    <cfRule type="containsText" dxfId="474" priority="2607" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="436" priority="2607" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="473" priority="2608" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="435" priority="2608" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5 D16 D20:D22 D37:D39 D46 D60:D62 D66:D67 D86:D104">
-    <cfRule type="containsText" dxfId="472" priority="2604" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="434" priority="2604" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="471" priority="2605" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="433" priority="2605" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="470" priority="2606" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="432" priority="2606" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E16 E20:E22 E37:E39 E46 E60:E62 E66:E67 E86:E104">
-    <cfRule type="containsText" dxfId="469" priority="2603" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="431" priority="2603" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B18 B30 B32">
-    <cfRule type="expression" dxfId="468" priority="2593" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="2593" stopIfTrue="1">
       <formula>$F13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="2594" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="2594" stopIfTrue="1">
       <formula>$F13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="2595" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="2595" stopIfTrue="1">
       <formula>OR($F13="終了",$F13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B22 B11:B13 B27:B28 B34:B36">
-    <cfRule type="expression" dxfId="465" priority="2584" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="2584" stopIfTrue="1">
       <formula>$F10="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="2585" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="2585" stopIfTrue="1">
       <formula>$F10="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="2586" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="2586" stopIfTrue="1">
       <formula>OR($F10="終了",$F10="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B62">
-    <cfRule type="expression" dxfId="462" priority="2581" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="2581" stopIfTrue="1">
       <formula>$F61="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="2582" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="2582" stopIfTrue="1">
       <formula>$F61="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="2583" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="2583" stopIfTrue="1">
       <formula>OR($F61="終了",$F61="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="459" priority="2575" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="2575" stopIfTrue="1">
       <formula>$F67="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="2576" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="2576" stopIfTrue="1">
       <formula>$F67="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="2577" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="2577" stopIfTrue="1">
       <formula>OR($F67="終了",$F67="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="expression" dxfId="456" priority="2563" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="2563" stopIfTrue="1">
       <formula>$F87="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="2564" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="2564" stopIfTrue="1">
       <formula>$F87="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="2565" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="2565" stopIfTrue="1">
       <formula>OR($F87="終了",$F87="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100:B103">
-    <cfRule type="expression" dxfId="453" priority="2560" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="2560" stopIfTrue="1">
       <formula>$F100="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="2561" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="2561" stopIfTrue="1">
       <formula>$F100="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="2562" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="2562" stopIfTrue="1">
       <formula>OR($F100="終了",$F100="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B105">
-    <cfRule type="expression" dxfId="450" priority="2557" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="2557" stopIfTrue="1">
       <formula>$F104="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="2558" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="2558" stopIfTrue="1">
       <formula>$F104="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="2559" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="2559" stopIfTrue="1">
       <formula>OR($F104="終了",$F104="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="expression" dxfId="447" priority="2554" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="2554" stopIfTrue="1">
       <formula>$F105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="2555" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="2555" stopIfTrue="1">
       <formula>$F105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="2556" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="2556" stopIfTrue="1">
       <formula>OR($F105="終了",$F105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="444" priority="2452" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="2452" stopIfTrue="1">
       <formula>$F68="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="2453" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="2453" stopIfTrue="1">
       <formula>$F68="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="2454" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="2454" stopIfTrue="1">
       <formula>OR($F68="終了",$F68="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="441" priority="2449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="2449" stopIfTrue="1">
       <formula>$F67="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="2450" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="2450" stopIfTrue="1">
       <formula>$F67="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="2451" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="2451" stopIfTrue="1">
       <formula>OR($F67="終了",$F67="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="438" priority="2443" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="2443" stopIfTrue="1">
       <formula>$F61="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="2444" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="2444" stopIfTrue="1">
       <formula>$F61="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="2445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="2445" stopIfTrue="1">
       <formula>OR($F61="終了",$F61="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B62">
-    <cfRule type="expression" dxfId="435" priority="2440" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="2440" stopIfTrue="1">
       <formula>$F61="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="2441" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="2441" stopIfTrue="1">
       <formula>$F61="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="2442" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="2442" stopIfTrue="1">
       <formula>OR($F61="終了",$F61="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D15">
-    <cfRule type="expression" dxfId="432" priority="1387" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="1387" stopIfTrue="1">
       <formula>$F6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="1388" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="1388" stopIfTrue="1">
       <formula>$F6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="1389" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="1389" stopIfTrue="1">
       <formula>OR($F6="終了",$F6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E16">
-    <cfRule type="containsText" dxfId="429" priority="1382" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="391" priority="1382" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="428" priority="1383" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="390" priority="1383" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="427" priority="1384" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="389" priority="1384" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="1385" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="388" priority="1385" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="425" priority="1386" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="387" priority="1386" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E16">
-    <cfRule type="containsText" dxfId="424" priority="1380" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="386" priority="1380" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="423" priority="1381" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="385" priority="1381" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D15">
-    <cfRule type="containsText" dxfId="422" priority="1377" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="384" priority="1377" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="421" priority="1378" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="383" priority="1378" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="1379" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="382" priority="1379" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E16">
-    <cfRule type="containsText" dxfId="419" priority="1376" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="381" priority="1376" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="418" priority="1370" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="1370" stopIfTrue="1">
       <formula>$F17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="1371" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="1371" stopIfTrue="1">
       <formula>$F17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="1372" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="1372" stopIfTrue="1">
       <formula>OR($F17="終了",$F17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="415" priority="1365" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="377" priority="1365" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="1366" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="376" priority="1366" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="413" priority="1367" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="375" priority="1367" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="1368" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="374" priority="1368" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="411" priority="1369" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="373" priority="1369" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="410" priority="1363" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="372" priority="1363" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="409" priority="1364" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="371" priority="1364" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="408" priority="1360" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="370" priority="1360" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="407" priority="1361" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="369" priority="1361" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="1362" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="368" priority="1362" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="405" priority="1359" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="367" priority="1359" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="expression" dxfId="404" priority="1353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="1353" stopIfTrue="1">
       <formula>$F18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="1354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="1354" stopIfTrue="1">
       <formula>$F18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="1355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="1355" stopIfTrue="1">
       <formula>OR($F18="終了",$F18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="401" priority="1348" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="363" priority="1348" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="1349" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="362" priority="1349" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="399" priority="1350" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="361" priority="1350" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="1351" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="360" priority="1351" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="1352" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="359" priority="1352" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="396" priority="1346" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="358" priority="1346" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="395" priority="1347" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="357" priority="1347" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="containsText" dxfId="394" priority="1343" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="356" priority="1343" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="1344" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="355" priority="1344" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="392" priority="1345" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="354" priority="1345" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="391" priority="1342" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="353" priority="1342" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="expression" dxfId="390" priority="1339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="1339" stopIfTrue="1">
       <formula>$F18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="1340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="1340" stopIfTrue="1">
       <formula>$F18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="1341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="1341" stopIfTrue="1">
       <formula>OR($F18="終了",$F18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E33">
-    <cfRule type="containsText" dxfId="387" priority="1314" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="349" priority="1314" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="1315" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="348" priority="1315" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="1316" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="347" priority="1316" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="1317" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="346" priority="1317" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="383" priority="1318" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="345" priority="1318" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E33">
-    <cfRule type="containsText" dxfId="382" priority="1312" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="344" priority="1312" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="1313" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="343" priority="1313" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D33">
-    <cfRule type="containsText" dxfId="380" priority="1309" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="342" priority="1309" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="379" priority="1310" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="341" priority="1310" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="1311" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="340" priority="1311" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E33">
-    <cfRule type="containsText" dxfId="377" priority="1308" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="339" priority="1308" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E36">
-    <cfRule type="containsText" dxfId="376" priority="1297" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="338" priority="1297" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="1298" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="337" priority="1298" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="1299" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="336" priority="1299" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="1300" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="335" priority="1300" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="1301" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="334" priority="1301" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E36">
-    <cfRule type="containsText" dxfId="371" priority="1295" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="333" priority="1295" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="1296" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="332" priority="1296" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D36">
-    <cfRule type="containsText" dxfId="369" priority="1292" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="331" priority="1292" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="1293" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="330" priority="1293" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="1294" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="329" priority="1294" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E36">
-    <cfRule type="containsText" dxfId="366" priority="1291" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="328" priority="1291" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM59:AM69 AT59:JT69 AM36:JT58 G60:K62 J58:K59 K69:K85 G40:H45 G58:H59 G69:H85 G63:H65 A36:A104 D86:D104 J40:K45 J63:K65 G46:AK46 L52:AK54 G66:AK68 G86:AK104 AL36:AL104 L59:AK62 D66:D67 D60:D62 AM70:JT104 D36:D46 G36:AK39 L47:AK48">
-    <cfRule type="expression" dxfId="365" priority="1282" stopIfTrue="1">
+  <conditionalFormatting sqref="AM59:AM69 AT59:JT69 AM36:JT58 G60:K62 J58:K59 K69:K85 G40:H45 G58:H59 G69:H85 G63:H65 A36:A104 D86:D104 J40:J45 J63:K65 G46:J46 L52:AK54 G66:AK68 G86:AK104 AL36:AL104 L59:AK62 D66:D67 D60:D62 AM70:JT104 D36:D46 G36:J39 L36:AK39 L46:AK48">
+    <cfRule type="expression" dxfId="327" priority="1282" stopIfTrue="1">
       <formula>$F37="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="1283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="1283" stopIfTrue="1">
       <formula>$F37="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="1284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="1284" stopIfTrue="1">
       <formula>OR($F37="終了",$F37="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E45">
-    <cfRule type="containsText" dxfId="362" priority="1277" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="324" priority="1277" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="1278" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="323" priority="1278" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="1279" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="322" priority="1279" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="359" priority="1280" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="321" priority="1280" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="1281" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="320" priority="1281" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E45">
-    <cfRule type="containsText" dxfId="357" priority="1275" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="319" priority="1275" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="1276" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="318" priority="1276" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D45">
-    <cfRule type="containsText" dxfId="355" priority="1272" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="317" priority="1272" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="1273" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="316" priority="1273" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="1274" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="315" priority="1274" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E45">
-    <cfRule type="containsText" dxfId="352" priority="1271" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="314" priority="1271" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:D59">
-    <cfRule type="expression" dxfId="319" priority="1212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="1212" stopIfTrue="1">
       <formula>$F59="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="1213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="1213" stopIfTrue="1">
       <formula>$F59="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="1214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="1214" stopIfTrue="1">
       <formula>OR($F59="終了",$F59="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E59">
-    <cfRule type="containsText" dxfId="316" priority="1207" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="310" priority="1207" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="1208" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="309" priority="1208" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="1209" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="308" priority="1209" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="1210" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="307" priority="1210" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="1211" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="306" priority="1211" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E59">
-    <cfRule type="containsText" dxfId="311" priority="1205" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="305" priority="1205" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="1206" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="304" priority="1206" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:D59">
-    <cfRule type="containsText" dxfId="309" priority="1202" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="303" priority="1202" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="1203" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="302" priority="1203" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="1204" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="301" priority="1204" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E59">
-    <cfRule type="containsText" dxfId="306" priority="1201" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="300" priority="1201" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:D65">
-    <cfRule type="expression" dxfId="305" priority="1198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="1198" stopIfTrue="1">
       <formula>$F64="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="1199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="1199" stopIfTrue="1">
       <formula>$F64="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="1200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="1200" stopIfTrue="1">
       <formula>OR($F64="終了",$F64="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E65">
-    <cfRule type="containsText" dxfId="302" priority="1193" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="296" priority="1193" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="1194" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="295" priority="1194" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="1195" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="294" priority="1195" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="1196" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="293" priority="1196" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="1197" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="292" priority="1197" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E65">
-    <cfRule type="containsText" dxfId="297" priority="1191" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="291" priority="1191" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="1192" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="290" priority="1192" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:D65">
-    <cfRule type="containsText" dxfId="295" priority="1188" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="289" priority="1188" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="1189" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="288" priority="1189" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="1190" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="287" priority="1190" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E65">
-    <cfRule type="containsText" dxfId="292" priority="1187" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="286" priority="1187" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B66">
-    <cfRule type="expression" dxfId="291" priority="1184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="1184" stopIfTrue="1">
       <formula>$F64="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="1185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="1185" stopIfTrue="1">
       <formula>$F64="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="1186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="1186" stopIfTrue="1">
       <formula>OR($F64="終了",$F64="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:D85">
-    <cfRule type="expression" dxfId="288" priority="1181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="1181" stopIfTrue="1">
       <formula>$F69="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="1182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="1182" stopIfTrue="1">
       <formula>$F69="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="1183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="1183" stopIfTrue="1">
       <formula>OR($F69="終了",$F69="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E85">
-    <cfRule type="containsText" dxfId="285" priority="1176" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="279" priority="1176" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="1177" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="278" priority="1177" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="1178" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="277" priority="1178" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="1179" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="276" priority="1179" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="1180" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="275" priority="1180" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E85">
-    <cfRule type="containsText" dxfId="280" priority="1174" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="274" priority="1174" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="1175" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="273" priority="1175" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:D85">
-    <cfRule type="containsText" dxfId="278" priority="1171" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="272" priority="1171" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="1172" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="271" priority="1172" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="1173" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="270" priority="1173" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:E85">
-    <cfRule type="containsText" dxfId="275" priority="1170" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="269" priority="1170" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:B81">
-    <cfRule type="expression" dxfId="274" priority="1167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="1167" stopIfTrue="1">
       <formula>$F69="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="1168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="1168" stopIfTrue="1">
       <formula>$F69="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="1169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="1169" stopIfTrue="1">
       <formula>OR($F69="終了",$F69="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B84">
-    <cfRule type="expression" dxfId="271" priority="1164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="1164" stopIfTrue="1">
       <formula>$F82="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="1165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="1165" stopIfTrue="1">
       <formula>$F82="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="1166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="1166" stopIfTrue="1">
       <formula>OR($F82="終了",$F82="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:B84">
-    <cfRule type="expression" dxfId="268" priority="1161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="1161" stopIfTrue="1">
       <formula>$F83="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="1162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="1162" stopIfTrue="1">
       <formula>$F83="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="1163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="1163" stopIfTrue="1">
       <formula>OR($F83="終了",$F83="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:B99 B412:B65537">
-    <cfRule type="expression" dxfId="265" priority="1158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="1158" stopIfTrue="1">
       <formula>F91="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="1159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="1159" stopIfTrue="1">
       <formula>F91="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="1160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="1160" stopIfTrue="1">
       <formula>OR(F91="終了",F91="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I15">
-    <cfRule type="expression" dxfId="262" priority="580" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="580" stopIfTrue="1">
       <formula>$F6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="581" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="581" stopIfTrue="1">
       <formula>$F6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="582" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="582" stopIfTrue="1">
       <formula>OR($F6="終了",$F6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I19">
-    <cfRule type="expression" dxfId="259" priority="577" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="577" stopIfTrue="1">
       <formula>$F18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="578" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="578" stopIfTrue="1">
       <formula>$F18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="579" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="579" stopIfTrue="1">
       <formula>OR($F18="終了",$F18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:J17">
-    <cfRule type="expression" dxfId="256" priority="574" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="574" stopIfTrue="1">
       <formula>$F17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="575" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="575" stopIfTrue="1">
       <formula>$F17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="576" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="576" stopIfTrue="1">
       <formula>OR($F17="終了",$F17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="253" priority="568" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="568" stopIfTrue="1">
       <formula>$F33="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="569" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="569" stopIfTrue="1">
       <formula>$F33="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="570" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="570" stopIfTrue="1">
       <formula>OR($F33="終了",$F33="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:I45">
-    <cfRule type="expression" dxfId="250" priority="562" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="562" stopIfTrue="1">
       <formula>$F41="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="563" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="563" stopIfTrue="1">
       <formula>$F41="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="564" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="564" stopIfTrue="1">
       <formula>OR($F41="終了",$F41="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:I59">
-    <cfRule type="expression" dxfId="244" priority="556" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="556" stopIfTrue="1">
       <formula>$F59="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="557" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="557" stopIfTrue="1">
       <formula>$F59="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="558" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="558" stopIfTrue="1">
       <formula>OR($F59="終了",$F59="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I65">
-    <cfRule type="expression" dxfId="241" priority="553" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="553" stopIfTrue="1">
       <formula>$F64="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="554" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="554" stopIfTrue="1">
       <formula>$F64="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="555" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="555" stopIfTrue="1">
       <formula>OR($F64="終了",$F64="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69:J85">
-    <cfRule type="expression" dxfId="238" priority="550" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="550" stopIfTrue="1">
       <formula>$F70="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="551" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="551" stopIfTrue="1">
       <formula>$F70="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="552" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="552" stopIfTrue="1">
       <formula>OR($F70="終了",$F70="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:AK5">
-    <cfRule type="expression" dxfId="235" priority="514" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="514" stopIfTrue="1">
       <formula>$F5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="515" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="515" stopIfTrue="1">
       <formula>$F5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="516" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="516" stopIfTrue="1">
       <formula>OR($F5="終了",$F5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:AK6">
-    <cfRule type="expression" dxfId="232" priority="511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="511" stopIfTrue="1">
       <formula>$F6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="512" stopIfTrue="1">
       <formula>$F6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="513" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="513" stopIfTrue="1">
       <formula>OR($F6="終了",$F6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:AK19">
-    <cfRule type="expression" dxfId="229" priority="508" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="508" stopIfTrue="1">
       <formula>$F18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="509" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="509" stopIfTrue="1">
       <formula>$F18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="510" stopIfTrue="1">
       <formula>OR($F18="終了",$F18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:AK17">
-    <cfRule type="expression" dxfId="226" priority="505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="505" stopIfTrue="1">
       <formula>$F17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="506" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="506" stopIfTrue="1">
       <formula>$F17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="507" stopIfTrue="1">
       <formula>OR($F17="終了",$F17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:AK33">
-    <cfRule type="expression" dxfId="223" priority="499" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="499" stopIfTrue="1">
       <formula>$F33="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="500" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="500" stopIfTrue="1">
       <formula>$F33="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="501" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="501" stopIfTrue="1">
       <formula>OR($F33="終了",$F33="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:AK45">
-    <cfRule type="expression" dxfId="220" priority="493" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="493" stopIfTrue="1">
       <formula>$F41="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="494" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="494" stopIfTrue="1">
       <formula>$F41="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="495" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="495" stopIfTrue="1">
       <formula>OR($F41="終了",$F41="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:AK51">
-    <cfRule type="expression" dxfId="217" priority="490" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="490" stopIfTrue="1">
       <formula>$F50="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="491" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="491" stopIfTrue="1">
       <formula>$F50="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="492" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="492" stopIfTrue="1">
       <formula>OR($F50="終了",$F50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:AK55">
-    <cfRule type="expression" dxfId="214" priority="487" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="487" stopIfTrue="1">
       <formula>$F56="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="488" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="488" stopIfTrue="1">
       <formula>$F56="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="489" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="489" stopIfTrue="1">
       <formula>OR($F56="終了",$F56="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63:AK65">
-    <cfRule type="expression" dxfId="211" priority="484" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="484" stopIfTrue="1">
       <formula>$F64="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="485" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="485" stopIfTrue="1">
       <formula>$F64="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="486" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="486" stopIfTrue="1">
       <formula>OR($F64="終了",$F64="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L69:AK85">
-    <cfRule type="expression" dxfId="208" priority="481" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="481" stopIfTrue="1">
       <formula>$F70="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="482" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="482" stopIfTrue="1">
       <formula>$F70="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="483" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="483" stopIfTrue="1">
       <formula>OR($F70="終了",$F70="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56:AK58">
-    <cfRule type="expression" dxfId="205" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="266" stopIfTrue="1">
       <formula>$F57="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="267" stopIfTrue="1">
       <formula>$F57="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="268" stopIfTrue="1">
       <formula>OR($F57="終了",$F57="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E22 E27:E46 E58:E1048576">
-    <cfRule type="containsText" dxfId="202" priority="220" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="199" priority="220" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D22 C105:C1048576 C1 D27:D46 D58:D1048576">
-    <cfRule type="containsText" dxfId="201" priority="216" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="198" priority="216" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="217" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="197" priority="217" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="218" operator="containsText" text="無">
+    <cfRule type="containsText" dxfId="196" priority="218" operator="containsText" text="無">
       <formula>NOT(ISERROR(SEARCH("無",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="219" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="195" priority="219" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29404,251 +29186,229 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="197" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="210" stopIfTrue="1">
       <formula>$F5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="211" stopIfTrue="1">
       <formula>$F5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="212" stopIfTrue="1">
       <formula>OR($F5="終了",$F5="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="194" priority="207" stopIfTrue="1">
-      <formula>$F7="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="208" stopIfTrue="1">
-      <formula>$F7="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="209" stopIfTrue="1">
-      <formula>OR($F7="終了",$F7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C411:C65536">
-    <cfRule type="expression" dxfId="191" priority="2644" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="2644" stopIfTrue="1">
       <formula>H411="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="2645" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="2645" stopIfTrue="1">
       <formula>H411="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="2646" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="2646" stopIfTrue="1">
       <formula>OR(H411="終了",H411="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L11">
-    <cfRule type="expression" dxfId="188" priority="201" stopIfTrue="1">
-      <formula>$F8="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="202" stopIfTrue="1">
-      <formula>$F8="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="203" stopIfTrue="1">
-      <formula>OR($F8="終了",$F8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="185" priority="196" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="182" priority="196" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="197" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="181" priority="197" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="198" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="180" priority="198" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="199" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="179" priority="199" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="200" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="178" priority="200" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="180" priority="194" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="177" priority="194" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="195" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="176" priority="195" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="178" priority="193" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="175" priority="193" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="177" priority="188" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="174" priority="188" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="189" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="173" priority="189" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="190" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="172" priority="190" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="191" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="171" priority="191" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="192" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="170" priority="192" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="172" priority="186" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="169" priority="186" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="187" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="168" priority="187" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="170" priority="185" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="167" priority="185" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D26">
-    <cfRule type="expression" dxfId="169" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="182" stopIfTrue="1">
       <formula>$F24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="183" stopIfTrue="1">
       <formula>$F24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="184" stopIfTrue="1">
       <formula>OR($F24="終了",$F24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="containsText" dxfId="166" priority="177" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="163" priority="177" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="178" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="162" priority="178" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="179" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="161" priority="179" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="180" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="160" priority="180" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="181" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="159" priority="181" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="containsText" dxfId="161" priority="175" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="158" priority="175" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="176" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="157" priority="176" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D26">
-    <cfRule type="containsText" dxfId="159" priority="172" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="156" priority="172" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="173" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="155" priority="173" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="174" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="154" priority="174" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="containsText" dxfId="156" priority="171" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="153" priority="171" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="expression" dxfId="155" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="168" stopIfTrue="1">
       <formula>$F24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="169" stopIfTrue="1">
       <formula>$F24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="170" stopIfTrue="1">
       <formula>OR($F24="終了",$F24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="152" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="165" stopIfTrue="1">
       <formula>$F23="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="166" stopIfTrue="1">
       <formula>$F23="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="167" stopIfTrue="1">
       <formula>OR($F23="終了",$F23="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="149" priority="160" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="146" priority="160" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="161" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="145" priority="161" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="162" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="144" priority="162" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="163" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="143" priority="163" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="164" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="142" priority="164" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="144" priority="158" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="141" priority="158" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="159" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="140" priority="159" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="containsText" dxfId="142" priority="155" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="139" priority="155" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="156" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="138" priority="156" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="157" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="137" priority="157" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="139" priority="154" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="136" priority="154" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="expression" dxfId="138" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="151" stopIfTrue="1">
       <formula>$F22="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="152" stopIfTrue="1">
       <formula>$F22="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="153" stopIfTrue="1">
       <formula>OR($F22="終了",$F22="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E26">
-    <cfRule type="containsText" dxfId="135" priority="150" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="132" priority="150" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D26">
-    <cfRule type="containsText" dxfId="134" priority="146" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="131" priority="146" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="147" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="130" priority="147" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="148" operator="containsText" text="無">
+    <cfRule type="containsText" dxfId="129" priority="148" operator="containsText" text="無">
       <formula>NOT(ISERROR(SEARCH("無",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="149" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="128" priority="149" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29667,24 +29427,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23 B28">
-    <cfRule type="expression" dxfId="130" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="136" stopIfTrue="1">
       <formula>$F22="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="137" stopIfTrue="1">
       <formula>$F22="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="138" stopIfTrue="1">
       <formula>OR($F22="終了",$F22="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="127" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="133" stopIfTrue="1">
       <formula>$F14="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="134" stopIfTrue="1">
       <formula>$F14="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="135" stopIfTrue="1">
       <formula>OR($F14="終了",$F14="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29710,7 +29470,7 @@
       <formula>OR($F58="終了",$F58="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29 D29 G29:JT29">
+  <conditionalFormatting sqref="A29 D29 G29:J29 L29:JT29">
     <cfRule type="expression" dxfId="115" priority="2650" stopIfTrue="1">
       <formula>$F31="未着手"</formula>
     </cfRule>
@@ -29721,7 +29481,7 @@
       <formula>OR($F31="終了",$F31="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31 D31 G31:JT31">
+  <conditionalFormatting sqref="A31 D31 G31:J31 L31:JT31">
     <cfRule type="expression" dxfId="112" priority="2653" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
@@ -29908,129 +29668,129 @@
       <formula>OR($F44="終了",$F44="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57 F57:I57 F47:H56 J47:K47">
-    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
+  <conditionalFormatting sqref="D57 F57:I57 F47:H56 J47">
+    <cfRule type="expression" dxfId="61" priority="46" stopIfTrue="1">
       <formula>$F47="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="47" stopIfTrue="1">
       <formula>$F47="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="48" stopIfTrue="1">
       <formula>OR($F47="終了",$F47="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E57">
-    <cfRule type="containsText" dxfId="42" priority="41" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="58" priority="41" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="42" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="57" priority="42" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="43" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="56" priority="43" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="44" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="55" priority="44" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="45" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="54" priority="45" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E57">
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="53" priority="39" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="52" priority="40" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="51" priority="36" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="37" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="50" priority="37" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="49" priority="38" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E57">
-    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="48" priority="35" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="32" stopIfTrue="1">
       <formula>$F57="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="33" stopIfTrue="1">
       <formula>$F57="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="34" stopIfTrue="1">
       <formula>OR($F57="終了",$F57="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D56">
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="29" stopIfTrue="1">
       <formula>$F47="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="30" stopIfTrue="1">
       <formula>$F47="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="31" stopIfTrue="1">
       <formula>OR($F47="終了",$F47="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D56">
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="40" priority="27" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="39" priority="28" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B56">
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="23" stopIfTrue="1">
       <formula>$F47="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="24" stopIfTrue="1">
       <formula>$F47="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="25" stopIfTrue="1">
       <formula>OR($F47="終了",$F47="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I56">
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="20" stopIfTrue="1">
       <formula>$F47="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="21" stopIfTrue="1">
       <formula>$F47="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="22" stopIfTrue="1">
       <formula>OR($F47="終了",$F47="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E57">
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D57">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="無">
+    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="無">
       <formula>NOT(ISERROR(SEARCH("無",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="28" priority="18" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30062,47 +29822,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="J57">
+    <cfRule type="expression" dxfId="21" priority="4" stopIfTrue="1">
       <formula>$F57="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
       <formula>$F57="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
-      <formula>OR($F57="終了",$F57="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48:K56">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
-      <formula>$F48="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>$F48="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>OR($F48="終了",$F48="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>$F57="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>$F57="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
       <formula>OR($F57="終了",$F57="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:J56">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>$F48="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>$F48="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
       <formula>OR($F48="終了",$F48="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30210,7 +29948,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30243,7 +29981,7 @@
       <c r="E3" s="112"/>
       <c r="H3" s="34">
         <f ca="1">COUNTIF('スプリントバックログ(全体) '!$F$5:$F$411,'スプリントバックログ（グラフ表）'!$H$2)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I3" s="106">
         <v>1</v>
@@ -30369,8 +30107,8 @@
         <v>38</v>
       </c>
       <c r="C6" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A6,'スプリントバックログ(全体) '!$K$5:$K$404)</f>
-        <v>32</v>
+        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A6,'スプリントバックログ(全体) '!$K$5:$K$404)</f>
+        <v>1</v>
       </c>
       <c r="D6" s="30">
         <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A6,'スプリントバックログ(全体) '!$J$5:$J$404)</f>
@@ -30381,8 +30119,8 @@
         <v>0</v>
       </c>
       <c r="F6" s="29">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="G6" s="34">
         <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A6)</f>
@@ -30667,55 +30405,55 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="A6:A10">
-    <cfRule type="containsText" dxfId="61" priority="13" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="15" priority="13" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="14" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="14" priority="14" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="15" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="13" priority="15" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="16" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="12" priority="16" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="17" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="11" priority="17" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A10">
-    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="12" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="宮内">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="宮内">
       <formula>NOT(ISERROR(SEARCH("宮内",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="6" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="7" priority="6" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="7" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="6" priority="7" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="8" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="5" priority="8" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="9" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="4" priority="9" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="10" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="3" priority="10" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="48" priority="4" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30734,7 +30472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A10">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="宮内">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="宮内">
       <formula>NOT(ISERROR(SEARCH("宮内",A5)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/7班_スプリントバックログ.xlsx
+++ b/7班_スプリントバックログ.xlsx
@@ -19,7 +19,7 @@
     <sheet name="スケジュール（6月分）" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'スプリントバックログ(全体) '!$A$1:$AL$410</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'スプリントバックログ(全体) '!$A$1:$AL$416</definedName>
     <definedName name="重要度" localSheetId="0">OFFSET(#REF!,0,0,COUNTA(#REF!),1)</definedName>
     <definedName name="重要度">OFFSET(#REF!,0,0,COUNTA(#REF!),1)</definedName>
     <definedName name="状況" localSheetId="0">OFFSET(#REF!,0,0,COUNTA(#REF!),1)</definedName>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="173">
   <si>
     <t>番号</t>
   </si>
@@ -1601,6 +1601,69 @@
     <t>z</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>空中で回転する</t>
+    <rPh sb="0" eb="2">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レーン分割</t>
+    <rPh sb="3" eb="5">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MapGeneratorのレーン分割対応</t>
+    <rPh sb="16" eb="18">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>acterのレーン分割対応</t>
+    <rPh sb="9" eb="11">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プレイヤーのレーン分割対応</t>
+    <rPh sb="9" eb="11">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステージの中央レーン以外の半透明化処理</t>
+    <rPh sb="5" eb="7">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ハントウメイカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -2363,10 +2426,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2390,18 +2469,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2423,17 +2490,55 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_チーム編成_スプリントバックログ（第４）" xfId="1"/>
   </cellStyles>
-  <dxfs count="463">
+  <dxfs count="488">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2611,27 +2716,6 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF7030A0"/>
       </font>
       <fill>
@@ -2679,44 +2763,7 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
+        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -2750,6 +2797,55 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -2793,7 +2889,133 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF33CC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
       </font>
     </dxf>
     <dxf>
@@ -2827,6 +3049,83 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFF99"/>
@@ -3769,27 +4068,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="55"/>
       </font>
     </dxf>
@@ -3797,27 +4075,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -6865,7 +7122,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7023,7 +7279,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7181,7 +7436,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7339,7 +7593,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7536,7 +7789,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10501,13 +10753,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL411"/>
+  <dimension ref="A1:AL417"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10530,81 +10782,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="104" t="s">
+      <c r="L1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="105"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="105"/>
-      <c r="AL1" s="105"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
     </row>
     <row r="2" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="94"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
       <c r="L2" s="54" t="s">
         <v>15</v>
       </c>
@@ -10688,17 +10940,17 @@
       </c>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="94"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="94"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
       <c r="L3" s="12">
         <f>INT(($L$4-(COLUMN()-COLUMN($L4))*($L$4/COUNTA($L$2:$AL$2))))</f>
         <v>1</v>
@@ -10809,123 +11061,123 @@
       </c>
     </row>
     <row r="4" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="94"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="94"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="13">
-        <f t="shared" ref="L4:AL4" si="3">SUM(L5:L404)</f>
+        <f>SUM(L5:L410)</f>
         <v>1</v>
       </c>
       <c r="M4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(M5:M410)</f>
         <v>1</v>
       </c>
       <c r="N4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(N5:N410)</f>
         <v>0</v>
       </c>
       <c r="O4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(O5:O410)</f>
         <v>0</v>
       </c>
       <c r="P4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(P5:P410)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(Q5:Q410)</f>
         <v>0</v>
       </c>
       <c r="R4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(R5:R410)</f>
         <v>0</v>
       </c>
       <c r="S4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(S5:S410)</f>
         <v>0</v>
       </c>
       <c r="T4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(T5:T410)</f>
         <v>0</v>
       </c>
       <c r="U4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(U5:U410)</f>
         <v>0</v>
       </c>
       <c r="V4" s="40">
-        <f t="shared" si="3"/>
+        <f>SUM(V5:V410)</f>
         <v>0</v>
       </c>
       <c r="W4" s="43">
-        <f t="shared" si="3"/>
+        <f>SUM(W5:W410)</f>
         <v>0</v>
       </c>
       <c r="X4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(X5:X410)</f>
         <v>0</v>
       </c>
       <c r="Y4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(Y5:Y410)</f>
         <v>0</v>
       </c>
       <c r="Z4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(Z5:Z410)</f>
         <v>0</v>
       </c>
       <c r="AA4" s="40">
-        <f t="shared" si="3"/>
+        <f>SUM(AA5:AA410)</f>
         <v>0</v>
       </c>
       <c r="AB4" s="37">
-        <f t="shared" si="3"/>
+        <f>SUM(AB5:AB410)</f>
         <v>0</v>
       </c>
       <c r="AC4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(AC5:AC410)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(AD5:AD410)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(AE5:AE410)</f>
         <v>0</v>
       </c>
       <c r="AF4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(AF5:AF410)</f>
         <v>0</v>
       </c>
       <c r="AG4" s="40">
-        <f t="shared" si="3"/>
+        <f>SUM(AG5:AG410)</f>
         <v>0</v>
       </c>
       <c r="AH4" s="37">
-        <f t="shared" si="3"/>
+        <f>SUM(AH5:AH410)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(AI5:AI410)</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(AJ5:AJ410)</f>
         <v>0</v>
       </c>
       <c r="AK4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(AK5:AK410)</f>
         <v>0</v>
       </c>
       <c r="AL4" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(AL5:AL410)</f>
         <v>0</v>
       </c>
     </row>
@@ -10942,7 +11194,7 @@
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" s="9" t="str">
-        <f t="shared" ref="F5:F68" si="4">IF(ISBLANK($B5),"",IF(ISBLANK($H5),"未着手",IF($K5=0,"完了","作業中")))</f>
+        <f t="shared" ref="F5:F74" si="3">IF(ISBLANK($B5),"",IF(ISBLANK($H5),"未着手",IF($K5=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G5" s="4"/>
@@ -10950,7 +11202,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="9" t="str">
-        <f t="shared" ref="K5:K57" ca="1" si="5">IF(ISBLANK(L5)=FALSE,OFFSET(K5,0,COUNTA(L5:AL5)),"")</f>
+        <f t="shared" ref="K5:K63" ca="1" si="4">IF(ISBLANK(L5)=FALSE,OFFSET(K5,0,COUNTA(L5:AL5)),"")</f>
         <v/>
       </c>
       <c r="L5" s="11"/>
@@ -10992,7 +11244,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G6" s="4"/>
@@ -11000,7 +11252,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L6" s="11"/>
@@ -11046,7 +11298,7 @@
         <v>104</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="G7" s="4">
@@ -11062,7 +11314,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L7" s="9">
@@ -11110,7 +11362,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="G8" s="4">
@@ -11126,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L8" s="9">
@@ -11174,7 +11426,7 @@
         <v>104</v>
       </c>
       <c r="F9" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="G9" s="4">
@@ -11190,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L9" s="9">
@@ -11238,7 +11490,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="G10" s="4">
@@ -11254,7 +11506,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L10" s="9">
@@ -11302,7 +11554,7 @@
         <v>104</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="G11" s="4">
@@ -11318,7 +11570,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L11" s="9">
@@ -11366,7 +11618,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G12" s="4"/>
@@ -11374,7 +11626,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L12" s="11"/>
@@ -11420,7 +11672,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G13" s="4"/>
@@ -11428,7 +11680,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L13" s="11"/>
@@ -11470,7 +11722,7 @@
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G14" s="4"/>
@@ -11478,7 +11730,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L14" s="11"/>
@@ -11524,7 +11776,7 @@
         <v>108</v>
       </c>
       <c r="F15" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G15" s="4"/>
@@ -11532,7 +11784,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L15" s="11"/>
@@ -11578,7 +11830,7 @@
         <v>104</v>
       </c>
       <c r="F16" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>作業中</v>
       </c>
       <c r="G16" s="4">
@@ -11594,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L16" s="11"/>
@@ -11640,7 +11892,7 @@
         <v>104</v>
       </c>
       <c r="F17" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>作業中</v>
       </c>
       <c r="G17" s="4">
@@ -11656,7 +11908,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L17" s="11"/>
@@ -11702,7 +11954,7 @@
         <v>104</v>
       </c>
       <c r="F18" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>作業中</v>
       </c>
       <c r="G18" s="4">
@@ -11718,7 +11970,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L18" s="11"/>
@@ -11764,7 +12016,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G19" s="4">
@@ -11776,7 +12028,7 @@
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L19" s="11"/>
@@ -11822,7 +12074,7 @@
         <v>104</v>
       </c>
       <c r="F20" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G20" s="4">
@@ -11834,7 +12086,7 @@
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L20" s="11"/>
@@ -11880,7 +12132,7 @@
         <v>104</v>
       </c>
       <c r="F21" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G21" s="4">
@@ -11892,7 +12144,7 @@
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L21" s="11"/>
@@ -11938,7 +12190,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>作業中</v>
       </c>
       <c r="G22" s="4">
@@ -11954,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L22" s="11"/>
@@ -12002,7 +12254,7 @@
         <v>104</v>
       </c>
       <c r="F23" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G23" s="4"/>
@@ -12010,7 +12262,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L23" s="11"/>
@@ -12054,7 +12306,7 @@
         <v>104</v>
       </c>
       <c r="F24" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G24" s="4"/>
@@ -12062,7 +12314,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L24" s="11"/>
@@ -12106,7 +12358,7 @@
         <v>104</v>
       </c>
       <c r="F25" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G25" s="4"/>
@@ -12114,7 +12366,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L25" s="11"/>
@@ -12149,7 +12401,7 @@
       <c r="A26" s="27">
         <v>22</v>
       </c>
-      <c r="B26" s="113" t="s">
+      <c r="B26" s="93" t="s">
         <v>130</v>
       </c>
       <c r="C26" s="28"/>
@@ -12158,7 +12410,7 @@
         <v>104</v>
       </c>
       <c r="F26" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G26" s="4"/>
@@ -12166,7 +12418,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L26" s="11"/>
@@ -12210,7 +12462,7 @@
         <v>104</v>
       </c>
       <c r="F27" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G27" s="4"/>
@@ -12218,7 +12470,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L27" s="11"/>
@@ -12262,7 +12514,7 @@
         <v>104</v>
       </c>
       <c r="F28" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G28" s="4"/>
@@ -12270,7 +12522,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L28" s="11"/>
@@ -12318,7 +12570,7 @@
         <v>104</v>
       </c>
       <c r="F29" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="G29" s="4">
@@ -12328,7 +12580,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L29" s="11"/>
@@ -12364,7 +12616,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="24"/>
@@ -12372,17 +12624,16 @@
         <v>104</v>
       </c>
       <c r="F30" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4">
+        <v>42845</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
+      <c r="K30" s="9"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -12416,7 +12667,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="24"/>
@@ -12432,7 +12683,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="K31" ca="1" si="5">IF(ISBLANK(L31)=FALSE,OFFSET(K31,0,COUNTA(L31:AL31)),"")</f>
         <v/>
       </c>
       <c r="L31" s="11"/>
@@ -12468,13 +12719,15 @@
         <v>28</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
+      <c r="E32" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="F32" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($B32),"",IF(ISBLANK($H32),"未着手",IF($K32=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G32" s="4"/>
@@ -12482,7 +12735,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L32" s="11"/>
@@ -12518,23 +12771,19 @@
         <v>29</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
+      <c r="E33" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="9"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
+      <c r="K33" s="9"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -12568,23 +12817,17 @@
         <v>30</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="24"/>
       <c r="E34" s="25"/>
-      <c r="F34" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
+      <c r="F34" s="9"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
+      <c r="K34" s="9"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -12618,23 +12861,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="24"/>
       <c r="E35" s="25"/>
-      <c r="F35" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
+      <c r="F35" s="9"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
+      <c r="K35" s="9"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
@@ -12668,13 +12905,15 @@
         <v>32</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
+      <c r="E36" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="F36" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($B36),"",IF(ISBLANK($H36),"未着手",IF($K36=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G36" s="4"/>
@@ -12682,7 +12921,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L36" s="11"/>
@@ -12718,13 +12957,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="24"/>
       <c r="E37" s="25"/>
       <c r="F37" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($B37),"",IF(ISBLANK($H37),"未着手",IF($K37=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G37" s="4"/>
@@ -12732,7 +12971,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L37" s="11"/>
@@ -12768,13 +13007,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="24"/>
       <c r="E38" s="25"/>
       <c r="F38" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($B38),"",IF(ISBLANK($H38),"未着手",IF($K38=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G38" s="4"/>
@@ -12782,7 +13021,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L38" s="11"/>
@@ -12818,13 +13057,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="24"/>
       <c r="E39" s="25"/>
       <c r="F39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($B39),"",IF(ISBLANK($H39),"未着手",IF($K39=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G39" s="4"/>
@@ -12832,7 +13071,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L39" s="11"/>
@@ -12868,13 +13107,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="24"/>
       <c r="E40" s="25"/>
       <c r="F40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($B40),"",IF(ISBLANK($H40),"未着手",IF($K40=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G40" s="4"/>
@@ -12882,7 +13121,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L40" s="11"/>
@@ -12918,13 +13157,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="24"/>
       <c r="E41" s="25"/>
       <c r="F41" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($B41),"",IF(ISBLANK($H41),"未着手",IF($K41=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G41" s="4"/>
@@ -12932,7 +13171,7 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L41" s="11"/>
@@ -12968,15 +13207,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="24"/>
-      <c r="E42" s="25" t="s">
-        <v>106</v>
-      </c>
+      <c r="E42" s="25"/>
       <c r="F42" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($B42),"",IF(ISBLANK($H42),"未着手",IF($K42=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G42" s="4"/>
@@ -12984,7 +13221,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L42" s="11"/>
@@ -13016,27 +13253,19 @@
       <c r="AL42" s="11"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A43" s="27">
-        <v>39</v>
-      </c>
+      <c r="A43" s="27"/>
       <c r="B43" s="19" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="24"/>
       <c r="E43" s="25"/>
-      <c r="F43" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
+      <c r="F43" s="9"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
+      <c r="K43" s="9"/>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -13063,20 +13292,20 @@
       <c r="AI43" s="11"/>
       <c r="AJ43" s="11"/>
       <c r="AK43" s="11"/>
-      <c r="AL43" s="14"/>
+      <c r="AL43" s="11"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A44" s="27">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="24"/>
       <c r="E44" s="25"/>
       <c r="F44" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($B44),"",IF(ISBLANK($H44),"未着手",IF($K44=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G44" s="4"/>
@@ -13084,7 +13313,7 @@
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L44" s="11"/>
@@ -13113,20 +13342,20 @@
       <c r="AI44" s="11"/>
       <c r="AJ44" s="11"/>
       <c r="AK44" s="11"/>
-      <c r="AL44" s="14"/>
+      <c r="AL44" s="11"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A45" s="27">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="24"/>
       <c r="E45" s="25"/>
       <c r="F45" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($B45),"",IF(ISBLANK($H45),"未着手",IF($K45=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G45" s="4"/>
@@ -13134,7 +13363,7 @@
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L45" s="11"/>
@@ -13167,16 +13396,16 @@
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A46" s="27">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="24"/>
       <c r="E46" s="25"/>
       <c r="F46" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($B46),"",IF(ISBLANK($H46),"未着手",IF($K46=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G46" s="4"/>
@@ -13184,12 +13413,10 @@
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>z</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>166</v>
-      </c>
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
@@ -13219,38 +13446,24 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A47" s="27">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="28">
-        <v>1</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>105</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="9" t="str">
+        <f>IF(ISBLANK($B47),"",IF(ISBLANK($H47),"未着手",IF($K47=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>作業中</v>
-      </c>
-      <c r="G47" s="4">
-        <v>42843</v>
-      </c>
-      <c r="H47" s="4">
-        <v>42843</v>
-      </c>
-      <c r="I47" s="11">
-        <v>6</v>
-      </c>
-      <c r="J47" s="11">
-        <v>6</v>
-      </c>
-      <c r="K47" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L47" s="11"/>
@@ -13283,46 +13496,30 @@
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A48" s="27">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="28">
-        <v>1</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>133</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F48" s="9" t="str">
+        <f>IF(ISBLANK($B48),"",IF(ISBLANK($H48),"未着手",IF($K48=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>作業中</v>
-      </c>
-      <c r="G48" s="4">
-        <v>42844</v>
-      </c>
-      <c r="H48" s="4">
-        <v>42843</v>
-      </c>
-      <c r="I48" s="11">
-        <v>2</v>
-      </c>
-      <c r="J48" s="11">
-        <v>2</v>
-      </c>
-      <c r="K48" s="9">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L48" s="11">
-        <v>1</v>
-      </c>
-      <c r="M48" s="11">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
@@ -13347,42 +13544,28 @@
       <c r="AI48" s="11"/>
       <c r="AJ48" s="11"/>
       <c r="AK48" s="11"/>
-      <c r="AL48" s="14"/>
+      <c r="AL48" s="11"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A49" s="27">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="28">
-        <v>0</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>105</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="9" t="str">
+        <f>IF(ISBLANK($B49),"",IF(ISBLANK($H49),"未着手",IF($K49=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>作業中</v>
-      </c>
-      <c r="G49" s="4">
-        <v>42844</v>
-      </c>
-      <c r="H49" s="4">
-        <v>42843</v>
-      </c>
-      <c r="I49" s="11">
-        <v>3</v>
-      </c>
-      <c r="J49" s="11">
-        <v>3</v>
-      </c>
-      <c r="K49" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L49" s="11"/>
@@ -13415,36 +13598,24 @@
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A50" s="27">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="28">
-        <v>0</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>105</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($B50),"",IF(ISBLANK($H50),"未着手",IF($K50=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
-      <c r="G50" s="4">
-        <v>42845</v>
-      </c>
+      <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="11">
-        <v>3</v>
-      </c>
-      <c r="J50" s="11">
-        <v>3</v>
-      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
       <c r="K50" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L50" s="11"/>
@@ -13477,38 +13648,24 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="28">
-        <v>0</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>105</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="9" t="str">
+        <f>IF(ISBLANK($B51),"",IF(ISBLANK($H51),"未着手",IF($K51=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>作業中</v>
-      </c>
-      <c r="G51" s="4">
-        <v>42844</v>
-      </c>
-      <c r="H51" s="4">
-        <v>42844</v>
-      </c>
-      <c r="I51" s="11">
-        <v>3</v>
-      </c>
-      <c r="J51" s="11">
-        <v>3</v>
-      </c>
-      <c r="K51" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L51" s="11"/>
@@ -13541,39 +13698,29 @@
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="28">
-        <v>0</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>105</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($B52),"",IF(ISBLANK($H52),"未着手",IF($K52=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
-      <c r="G52" s="4">
-        <v>42845</v>
-      </c>
+      <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="11">
-        <v>3</v>
-      </c>
-      <c r="J52" s="11">
-        <v>3</v>
-      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
       <c r="K52" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="L52" s="11"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>z</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
@@ -13603,36 +13750,38 @@
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C53" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E53" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F53" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B53),"",IF(ISBLANK($H53),"未着手",IF($K53=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="G53" s="4">
-        <v>42845</v>
-      </c>
-      <c r="H53" s="4"/>
+        <v>42843</v>
+      </c>
+      <c r="H53" s="4">
+        <v>42843</v>
+      </c>
       <c r="I53" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J53" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K53" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L53" s="11"/>
@@ -13661,44 +13810,50 @@
       <c r="AI53" s="11"/>
       <c r="AJ53" s="11"/>
       <c r="AK53" s="11"/>
-      <c r="AL53" s="14"/>
+      <c r="AL53" s="11"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C54" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F54" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B54),"",IF(ISBLANK($H54),"未着手",IF($K54=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="G54" s="4">
-        <v>42846</v>
-      </c>
-      <c r="H54" s="4"/>
+        <v>42844</v>
+      </c>
+      <c r="H54" s="4">
+        <v>42843</v>
+      </c>
       <c r="I54" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" s="11">
-        <v>3</v>
-      </c>
-      <c r="K54" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="K54" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L54" s="11">
+        <v>1</v>
+      </c>
+      <c r="M54" s="11">
+        <v>1</v>
+      </c>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
@@ -13727,28 +13882,30 @@
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C55" s="28">
         <v>0</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="E55" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F55" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B55),"",IF(ISBLANK($H55),"未着手",IF($K55=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="G55" s="4">
-        <v>42846</v>
-      </c>
-      <c r="H55" s="4"/>
+        <v>42844</v>
+      </c>
+      <c r="H55" s="4">
+        <v>42843</v>
+      </c>
       <c r="I55" s="11">
         <v>3</v>
       </c>
@@ -13756,7 +13913,7 @@
         <v>3</v>
       </c>
       <c r="K55" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L55" s="11"/>
@@ -13789,26 +13946,26 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C56" s="28">
         <v>0</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="E56" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F56" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($B56),"",IF(ISBLANK($H56),"未着手",IF($K56=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G56" s="4">
-        <v>42847</v>
+        <v>42845</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="11">
@@ -13818,7 +13975,7 @@
         <v>3</v>
       </c>
       <c r="K56" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L56" s="11"/>
@@ -13847,14 +14004,14 @@
       <c r="AI56" s="11"/>
       <c r="AJ56" s="11"/>
       <c r="AK56" s="11"/>
-      <c r="AL56" s="11"/>
+      <c r="AL56" s="14"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C57" s="28">
         <v>0</v>
@@ -13866,21 +14023,23 @@
         <v>105</v>
       </c>
       <c r="F57" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B57),"",IF(ISBLANK($H57),"未着手",IF($K57=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="G57" s="4">
-        <v>42848</v>
-      </c>
-      <c r="H57" s="4"/>
+        <v>42844</v>
+      </c>
+      <c r="H57" s="4">
+        <v>42844</v>
+      </c>
       <c r="I57" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J57" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K57" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L57" s="11"/>
@@ -13913,22 +14072,36 @@
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
-        <v>54</v>
-      </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="25"/>
+        <v>53</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="28">
+        <v>0</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F58" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G58" s="4"/>
+        <f>IF(ISBLANK($B58),"",IF(ISBLANK($H58),"未着手",IF($K58=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="G58" s="4">
+        <v>42845</v>
+      </c>
       <c r="H58" s="4"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
+      <c r="I58" s="11">
+        <v>3</v>
+      </c>
+      <c r="J58" s="11">
+        <v>3</v>
+      </c>
       <c r="K58" s="9" t="str">
-        <f t="shared" ref="K37:K68" ca="1" si="6">IF(ISBLANK(L58)=FALSE,OFFSET(K58,0,COUNTA(L58:AL58)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L58" s="11"/>
@@ -13961,22 +14134,36 @@
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
-        <v>55</v>
-      </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="25"/>
+        <v>54</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="28">
+        <v>0</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F59" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G59" s="4"/>
+        <f>IF(ISBLANK($B59),"",IF(ISBLANK($H59),"未着手",IF($K59=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="G59" s="4">
+        <v>42845</v>
+      </c>
       <c r="H59" s="4"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
+      <c r="I59" s="11">
+        <v>3</v>
+      </c>
+      <c r="J59" s="11">
+        <v>3</v>
+      </c>
       <c r="K59" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L59" s="11"/>
@@ -14005,26 +14192,40 @@
       <c r="AI59" s="11"/>
       <c r="AJ59" s="11"/>
       <c r="AK59" s="11"/>
-      <c r="AL59" s="11"/>
+      <c r="AL59" s="14"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
-        <v>56</v>
-      </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="25"/>
+        <v>55</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="28">
+        <v>0</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F60" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G60" s="4"/>
+        <f>IF(ISBLANK($B60),"",IF(ISBLANK($H60),"未着手",IF($K60=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="G60" s="4">
+        <v>42846</v>
+      </c>
       <c r="H60" s="4"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
+      <c r="I60" s="11">
+        <v>3</v>
+      </c>
+      <c r="J60" s="11">
+        <v>3</v>
+      </c>
       <c r="K60" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L60" s="11"/>
@@ -14053,26 +14254,40 @@
       <c r="AI60" s="11"/>
       <c r="AJ60" s="11"/>
       <c r="AK60" s="11"/>
-      <c r="AL60" s="11"/>
+      <c r="AL60" s="14"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A61" s="27">
-        <v>57</v>
-      </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="25"/>
+        <v>56</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="28">
+        <v>0</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F61" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G61" s="4"/>
+        <f>IF(ISBLANK($B61),"",IF(ISBLANK($H61),"未着手",IF($K61=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="G61" s="4">
+        <v>42846</v>
+      </c>
       <c r="H61" s="4"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
+      <c r="I61" s="11">
+        <v>3</v>
+      </c>
+      <c r="J61" s="11">
+        <v>3</v>
+      </c>
       <c r="K61" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L61" s="11"/>
@@ -14101,26 +14316,40 @@
       <c r="AI61" s="11"/>
       <c r="AJ61" s="11"/>
       <c r="AK61" s="11"/>
-      <c r="AL61" s="11"/>
+      <c r="AL61" s="14"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A62" s="27">
-        <v>58</v>
-      </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="28">
+        <v>0</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F62" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G62" s="4"/>
+        <f>IF(ISBLANK($B62),"",IF(ISBLANK($H62),"未着手",IF($K62=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="G62" s="4">
+        <v>42847</v>
+      </c>
       <c r="H62" s="4"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
+      <c r="I62" s="11">
+        <v>3</v>
+      </c>
+      <c r="J62" s="11">
+        <v>3</v>
+      </c>
       <c r="K62" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L62" s="11"/>
@@ -14149,26 +14378,40 @@
       <c r="AI62" s="11"/>
       <c r="AJ62" s="11"/>
       <c r="AK62" s="11"/>
-      <c r="AL62" s="14"/>
+      <c r="AL62" s="11"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A63" s="27">
-        <v>59</v>
-      </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="25"/>
+        <v>58</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" s="28">
+        <v>0</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F63" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G63" s="4"/>
+        <f>IF(ISBLANK($B63),"",IF(ISBLANK($H63),"未着手",IF($K63=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="G63" s="4">
+        <v>42848</v>
+      </c>
       <c r="H63" s="4"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
+      <c r="I63" s="11">
+        <v>6</v>
+      </c>
+      <c r="J63" s="11">
+        <v>6</v>
+      </c>
       <c r="K63" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L63" s="11"/>
@@ -14197,18 +14440,18 @@
       <c r="AI63" s="11"/>
       <c r="AJ63" s="11"/>
       <c r="AK63" s="11"/>
-      <c r="AL63" s="14"/>
+      <c r="AL63" s="11"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A64" s="27">
-        <v>60</v>
-      </c>
-      <c r="B64" s="20"/>
+        <v>59</v>
+      </c>
+      <c r="B64" s="19"/>
       <c r="C64" s="28"/>
       <c r="D64" s="24"/>
       <c r="E64" s="25"/>
       <c r="F64" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G64" s="4"/>
@@ -14216,7 +14459,7 @@
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="K64:K74" ca="1" si="6">IF(ISBLANK(L64)=FALSE,OFFSET(K64,0,COUNTA(L64:AL64)),"")</f>
         <v/>
       </c>
       <c r="L64" s="11"/>
@@ -14245,18 +14488,18 @@
       <c r="AI64" s="11"/>
       <c r="AJ64" s="11"/>
       <c r="AK64" s="11"/>
-      <c r="AL64" s="14"/>
+      <c r="AL64" s="11"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A65" s="27">
-        <v>61</v>
-      </c>
-      <c r="B65" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="B65" s="19"/>
       <c r="C65" s="28"/>
       <c r="D65" s="24"/>
       <c r="E65" s="25"/>
       <c r="F65" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G65" s="4"/>
@@ -14297,14 +14540,14 @@
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A66" s="27">
-        <v>62</v>
-      </c>
-      <c r="B66" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="B66" s="19"/>
       <c r="C66" s="28"/>
       <c r="D66" s="24"/>
       <c r="E66" s="25"/>
       <c r="F66" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G66" s="4"/>
@@ -14345,14 +14588,14 @@
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A67" s="27">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="28"/>
       <c r="D67" s="24"/>
       <c r="E67" s="25"/>
       <c r="F67" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G67" s="4"/>
@@ -14393,14 +14636,14 @@
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A68" s="27">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="28"/>
       <c r="D68" s="24"/>
       <c r="E68" s="25"/>
       <c r="F68" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G68" s="4"/>
@@ -14437,18 +14680,18 @@
       <c r="AI68" s="11"/>
       <c r="AJ68" s="11"/>
       <c r="AK68" s="11"/>
-      <c r="AL68" s="11"/>
+      <c r="AL68" s="14"/>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A69" s="27">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="28"/>
       <c r="D69" s="24"/>
       <c r="E69" s="25"/>
       <c r="F69" s="9" t="str">
-        <f t="shared" ref="F69:F74" si="7">IF(ISBLANK($B69),"",IF(ISBLANK($H69),"未着手",IF($K69=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G69" s="4"/>
@@ -14456,7 +14699,7 @@
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="9" t="str">
-        <f t="shared" ref="K69:K100" ca="1" si="8">IF(ISBLANK(L69)=FALSE,OFFSET(K69,0,COUNTA(L69:AL69)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L69" s="11"/>
@@ -14485,18 +14728,18 @@
       <c r="AI69" s="11"/>
       <c r="AJ69" s="11"/>
       <c r="AK69" s="11"/>
-      <c r="AL69" s="11"/>
+      <c r="AL69" s="14"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A70" s="27">
-        <v>66</v>
-      </c>
-      <c r="B70" s="19"/>
+        <v>65</v>
+      </c>
+      <c r="B70" s="20"/>
       <c r="C70" s="28"/>
       <c r="D70" s="24"/>
       <c r="E70" s="25"/>
       <c r="F70" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G70" s="4"/>
@@ -14504,7 +14747,7 @@
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L70" s="11"/>
@@ -14533,18 +14776,18 @@
       <c r="AI70" s="11"/>
       <c r="AJ70" s="11"/>
       <c r="AK70" s="11"/>
-      <c r="AL70" s="11"/>
+      <c r="AL70" s="14"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A71" s="27">
-        <v>67</v>
-      </c>
-      <c r="B71" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="B71" s="21"/>
       <c r="C71" s="28"/>
       <c r="D71" s="24"/>
       <c r="E71" s="25"/>
       <c r="F71" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G71" s="4"/>
@@ -14552,7 +14795,7 @@
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L71" s="11"/>
@@ -14585,14 +14828,14 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A72" s="27">
-        <v>68</v>
-      </c>
-      <c r="B72" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="B72" s="20"/>
       <c r="C72" s="28"/>
       <c r="D72" s="24"/>
       <c r="E72" s="25"/>
       <c r="F72" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G72" s="4"/>
@@ -14600,7 +14843,7 @@
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L72" s="11"/>
@@ -14633,14 +14876,14 @@
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A73" s="27">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="28"/>
       <c r="D73" s="24"/>
       <c r="E73" s="25"/>
       <c r="F73" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G73" s="4"/>
@@ -14648,7 +14891,7 @@
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L73" s="11"/>
@@ -14681,14 +14924,14 @@
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A74" s="27">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="28"/>
       <c r="D74" s="24"/>
       <c r="E74" s="25"/>
       <c r="F74" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G74" s="4"/>
@@ -14696,7 +14939,7 @@
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L74" s="11"/>
@@ -14729,14 +14972,14 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A75" s="27">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="28"/>
       <c r="D75" s="24"/>
       <c r="E75" s="25"/>
       <c r="F75" s="9" t="str">
-        <f t="shared" ref="F75:F105" si="9">IF(ISBLANK($B75),"",IF(ISBLANK($H74),"未着手",IF($K74=0,"完了","作業中")))</f>
+        <f t="shared" ref="F75:F80" si="7">IF(ISBLANK($B75),"",IF(ISBLANK($H75),"未着手",IF($K75=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="G75" s="4"/>
@@ -14744,7 +14987,7 @@
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="K75:K106" ca="1" si="8">IF(ISBLANK(L75)=FALSE,OFFSET(K75,0,COUNTA(L75:AL75)),"")</f>
         <v/>
       </c>
       <c r="L75" s="11"/>
@@ -14777,14 +15020,14 @@
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A76" s="27">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="28"/>
       <c r="D76" s="24"/>
       <c r="E76" s="25"/>
       <c r="F76" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G76" s="4"/>
@@ -14825,14 +15068,14 @@
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A77" s="27">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="28"/>
       <c r="D77" s="24"/>
       <c r="E77" s="25"/>
       <c r="F77" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G77" s="4"/>
@@ -14873,14 +15116,14 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A78" s="27">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="28"/>
       <c r="D78" s="24"/>
       <c r="E78" s="25"/>
       <c r="F78" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G78" s="4"/>
@@ -14921,21 +15164,21 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A79" s="27">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="28"/>
       <c r="D79" s="24"/>
       <c r="E79" s="25"/>
       <c r="F79" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="22" t="str">
+      <c r="K79" s="9" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
@@ -14969,14 +15212,14 @@
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A80" s="27">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="28"/>
       <c r="D80" s="24"/>
       <c r="E80" s="25"/>
-      <c r="F80" s="22" t="str">
-        <f t="shared" si="9"/>
+      <c r="F80" s="9" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G80" s="4"/>
@@ -15017,14 +15260,14 @@
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A81" s="27">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="28"/>
       <c r="D81" s="24"/>
       <c r="E81" s="25"/>
       <c r="F81" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F81:F111" si="9">IF(ISBLANK($B81),"",IF(ISBLANK($H80),"未着手",IF($K80=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="G81" s="4"/>
@@ -15065,7 +15308,7 @@
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A82" s="27">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="28"/>
@@ -15113,7 +15356,7 @@
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A83" s="27">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="28"/>
@@ -15161,7 +15404,7 @@
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A84" s="27">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="28"/>
@@ -15209,7 +15452,7 @@
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A85" s="27">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="28"/>
@@ -15219,11 +15462,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="9" t="str">
+      <c r="K85" s="22" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
@@ -15257,13 +15500,13 @@
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A86" s="27">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="28"/>
       <c r="D86" s="24"/>
       <c r="E86" s="25"/>
-      <c r="F86" s="9" t="str">
+      <c r="F86" s="22" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -15305,7 +15548,7 @@
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A87" s="27">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="28"/>
@@ -15353,7 +15596,7 @@
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A88" s="27">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="28"/>
@@ -15401,7 +15644,7 @@
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A89" s="27">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="28"/>
@@ -15449,7 +15692,7 @@
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A90" s="27">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="28"/>
@@ -15497,9 +15740,9 @@
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A91" s="27">
-        <v>87</v>
-      </c>
-      <c r="B91" s="26"/>
+        <v>81</v>
+      </c>
+      <c r="B91" s="19"/>
       <c r="C91" s="28"/>
       <c r="D91" s="24"/>
       <c r="E91" s="25"/>
@@ -15545,9 +15788,9 @@
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A92" s="27">
-        <v>88</v>
-      </c>
-      <c r="B92" s="26"/>
+        <v>82</v>
+      </c>
+      <c r="B92" s="19"/>
       <c r="C92" s="28"/>
       <c r="D92" s="24"/>
       <c r="E92" s="25"/>
@@ -15593,9 +15836,9 @@
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A93" s="27">
-        <v>89</v>
-      </c>
-      <c r="B93" s="26"/>
+        <v>83</v>
+      </c>
+      <c r="B93" s="19"/>
       <c r="C93" s="28"/>
       <c r="D93" s="24"/>
       <c r="E93" s="25"/>
@@ -15641,9 +15884,9 @@
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A94" s="27">
-        <v>90</v>
-      </c>
-      <c r="B94" s="26"/>
+        <v>84</v>
+      </c>
+      <c r="B94" s="19"/>
       <c r="C94" s="28"/>
       <c r="D94" s="24"/>
       <c r="E94" s="25"/>
@@ -15689,9 +15932,9 @@
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A95" s="27">
-        <v>91</v>
-      </c>
-      <c r="B95" s="26"/>
+        <v>85</v>
+      </c>
+      <c r="B95" s="19"/>
       <c r="C95" s="28"/>
       <c r="D95" s="24"/>
       <c r="E95" s="25"/>
@@ -15737,9 +15980,9 @@
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A96" s="27">
-        <v>92</v>
-      </c>
-      <c r="B96" s="26"/>
+        <v>86</v>
+      </c>
+      <c r="B96" s="19"/>
       <c r="C96" s="28"/>
       <c r="D96" s="24"/>
       <c r="E96" s="25"/>
@@ -15785,7 +16028,7 @@
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A97" s="27">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="28"/>
@@ -15833,7 +16076,7 @@
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A98" s="27">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="28"/>
@@ -15881,7 +16124,7 @@
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A99" s="27">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="28"/>
@@ -15929,9 +16172,9 @@
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A100" s="27">
-        <v>96</v>
-      </c>
-      <c r="B100" s="19"/>
+        <v>90</v>
+      </c>
+      <c r="B100" s="26"/>
       <c r="C100" s="28"/>
       <c r="D100" s="24"/>
       <c r="E100" s="25"/>
@@ -15977,9 +16220,9 @@
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A101" s="27">
-        <v>97</v>
-      </c>
-      <c r="B101" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="B101" s="26"/>
       <c r="C101" s="28"/>
       <c r="D101" s="24"/>
       <c r="E101" s="25"/>
@@ -15992,7 +16235,7 @@
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
       <c r="K101" s="9" t="str">
-        <f t="shared" ref="K101:K104" ca="1" si="10">IF(ISBLANK(L101)=FALSE,OFFSET(K101,0,COUNTA(L101:AL101)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L101" s="11"/>
@@ -16025,9 +16268,9 @@
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A102" s="27">
-        <v>98</v>
-      </c>
-      <c r="B102" s="19"/>
+        <v>92</v>
+      </c>
+      <c r="B102" s="26"/>
       <c r="C102" s="28"/>
       <c r="D102" s="24"/>
       <c r="E102" s="25"/>
@@ -16040,7 +16283,7 @@
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
       <c r="K102" s="9" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L102" s="11"/>
@@ -16073,9 +16316,9 @@
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A103" s="27">
-        <v>99</v>
-      </c>
-      <c r="B103" s="19"/>
+        <v>93</v>
+      </c>
+      <c r="B103" s="26"/>
       <c r="C103" s="28"/>
       <c r="D103" s="24"/>
       <c r="E103" s="25"/>
@@ -16088,7 +16331,7 @@
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
       <c r="K103" s="9" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L103" s="11"/>
@@ -16119,11 +16362,11 @@
       <c r="AK103" s="11"/>
       <c r="AL103" s="11"/>
     </row>
-    <row r="104" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A104" s="27">
-        <v>100</v>
-      </c>
-      <c r="B104" s="19"/>
+        <v>94</v>
+      </c>
+      <c r="B104" s="26"/>
       <c r="C104" s="28"/>
       <c r="D104" s="24"/>
       <c r="E104" s="25"/>
@@ -16136,7 +16379,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
       <c r="K104" s="9" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L104" s="11"/>
@@ -16150,13 +16393,13 @@
       <c r="T104" s="11"/>
       <c r="U104" s="11"/>
       <c r="V104" s="41"/>
-      <c r="W104" s="45"/>
-      <c r="X104" s="46"/>
-      <c r="Y104" s="46"/>
-      <c r="Z104" s="46"/>
-      <c r="AA104" s="47"/>
-      <c r="AB104" s="48"/>
-      <c r="AC104" s="46"/>
+      <c r="W104" s="44"/>
+      <c r="X104" s="11"/>
+      <c r="Y104" s="11"/>
+      <c r="Z104" s="11"/>
+      <c r="AA104" s="41"/>
+      <c r="AB104" s="38"/>
+      <c r="AC104" s="11"/>
       <c r="AD104" s="11"/>
       <c r="AE104" s="11"/>
       <c r="AF104" s="11"/>
@@ -16167,249 +16410,303 @@
       <c r="AK104" s="11"/>
       <c r="AL104" s="11"/>
     </row>
-    <row r="105" spans="1:38" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="19"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A105" s="27">
+        <v>95</v>
+      </c>
+      <c r="B105" s="26"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="25"/>
       <c r="F105" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105"/>
-      <c r="L105"/>
-      <c r="M105"/>
-      <c r="N105"/>
-      <c r="O105"/>
-      <c r="P105"/>
-      <c r="Q105"/>
-      <c r="R105"/>
-      <c r="S105"/>
-      <c r="T105"/>
-      <c r="U105"/>
-      <c r="V105"/>
-      <c r="W105"/>
-      <c r="X105"/>
-      <c r="Y105"/>
-      <c r="Z105"/>
-      <c r="AA105"/>
-      <c r="AB105"/>
-      <c r="AC105"/>
-      <c r="AD105"/>
-      <c r="AE105"/>
-      <c r="AF105"/>
-      <c r="AG105"/>
-      <c r="AH105"/>
-      <c r="AI105"/>
-      <c r="AJ105"/>
-      <c r="AK105"/>
-      <c r="AL105"/>
-    </row>
-    <row r="106" spans="1:38" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106"/>
-      <c r="N106"/>
-      <c r="O106"/>
-      <c r="P106"/>
-      <c r="Q106"/>
-      <c r="R106"/>
-      <c r="S106"/>
-      <c r="T106"/>
-      <c r="U106"/>
-      <c r="V106"/>
-      <c r="W106"/>
-      <c r="X106"/>
-      <c r="Y106"/>
-      <c r="Z106"/>
-      <c r="AA106"/>
-      <c r="AB106"/>
-      <c r="AC106"/>
-      <c r="AD106"/>
-      <c r="AE106"/>
-      <c r="AF106"/>
-      <c r="AG106"/>
-      <c r="AH106"/>
-      <c r="AI106"/>
-      <c r="AJ106"/>
-      <c r="AK106"/>
-      <c r="AL106"/>
-    </row>
-    <row r="107" spans="1:38" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107"/>
-      <c r="N107"/>
-      <c r="O107"/>
-      <c r="P107"/>
-      <c r="Q107"/>
-      <c r="R107"/>
-      <c r="S107"/>
-      <c r="T107"/>
-      <c r="U107"/>
-      <c r="V107"/>
-      <c r="W107"/>
-      <c r="X107"/>
-      <c r="Y107"/>
-      <c r="Z107"/>
-      <c r="AA107"/>
-      <c r="AB107"/>
-      <c r="AC107"/>
-      <c r="AD107"/>
-      <c r="AE107"/>
-      <c r="AF107"/>
-      <c r="AG107"/>
-      <c r="AH107"/>
-      <c r="AI107"/>
-      <c r="AJ107"/>
-      <c r="AK107"/>
-      <c r="AL107"/>
-    </row>
-    <row r="108" spans="1:38" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
-      <c r="K108"/>
-      <c r="L108"/>
-      <c r="M108"/>
-      <c r="N108"/>
-      <c r="O108"/>
-      <c r="P108"/>
-      <c r="Q108"/>
-      <c r="R108"/>
-      <c r="S108"/>
-      <c r="T108"/>
-      <c r="U108"/>
-      <c r="V108"/>
-      <c r="W108"/>
-      <c r="X108"/>
-      <c r="Y108"/>
-      <c r="Z108"/>
-      <c r="AA108"/>
-      <c r="AB108"/>
-      <c r="AC108"/>
-      <c r="AD108"/>
-      <c r="AE108"/>
-      <c r="AF108"/>
-      <c r="AG108"/>
-      <c r="AH108"/>
-      <c r="AI108"/>
-      <c r="AJ108"/>
-      <c r="AK108"/>
-      <c r="AL108"/>
-    </row>
-    <row r="109" spans="1:38" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
-      <c r="L109"/>
-      <c r="M109"/>
-      <c r="N109"/>
-      <c r="O109"/>
-      <c r="P109"/>
-      <c r="Q109"/>
-      <c r="R109"/>
-      <c r="S109"/>
-      <c r="T109"/>
-      <c r="U109"/>
-      <c r="V109"/>
-      <c r="W109"/>
-      <c r="X109"/>
-      <c r="Y109"/>
-      <c r="Z109"/>
-      <c r="AA109"/>
-      <c r="AB109"/>
-      <c r="AC109"/>
-      <c r="AD109"/>
-      <c r="AE109"/>
-      <c r="AF109"/>
-      <c r="AG109"/>
-      <c r="AH109"/>
-      <c r="AI109"/>
-      <c r="AJ109"/>
-      <c r="AK109"/>
-      <c r="AL109"/>
-    </row>
-    <row r="110" spans="1:38" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
-      <c r="K110"/>
-      <c r="L110"/>
-      <c r="M110"/>
-      <c r="N110"/>
-      <c r="O110"/>
-      <c r="P110"/>
-      <c r="Q110"/>
-      <c r="R110"/>
-      <c r="S110"/>
-      <c r="T110"/>
-      <c r="U110"/>
-      <c r="V110"/>
-      <c r="W110"/>
-      <c r="X110"/>
-      <c r="Y110"/>
-      <c r="Z110"/>
-      <c r="AA110"/>
-      <c r="AB110"/>
-      <c r="AC110"/>
-      <c r="AD110"/>
-      <c r="AE110"/>
-      <c r="AF110"/>
-      <c r="AG110"/>
-      <c r="AH110"/>
-      <c r="AI110"/>
-      <c r="AJ110"/>
-      <c r="AK110"/>
-      <c r="AL110"/>
-    </row>
-    <row r="111" spans="1:38" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B111"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="9" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+      <c r="R105" s="11"/>
+      <c r="S105" s="11"/>
+      <c r="T105" s="11"/>
+      <c r="U105" s="11"/>
+      <c r="V105" s="41"/>
+      <c r="W105" s="44"/>
+      <c r="X105" s="11"/>
+      <c r="Y105" s="11"/>
+      <c r="Z105" s="11"/>
+      <c r="AA105" s="41"/>
+      <c r="AB105" s="38"/>
+      <c r="AC105" s="11"/>
+      <c r="AD105" s="11"/>
+      <c r="AE105" s="11"/>
+      <c r="AF105" s="11"/>
+      <c r="AG105" s="41"/>
+      <c r="AH105" s="38"/>
+      <c r="AI105" s="11"/>
+      <c r="AJ105" s="11"/>
+      <c r="AK105" s="11"/>
+      <c r="AL105" s="11"/>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A106" s="27">
+        <v>96</v>
+      </c>
+      <c r="B106" s="19"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="9" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="11"/>
+      <c r="S106" s="11"/>
+      <c r="T106" s="11"/>
+      <c r="U106" s="11"/>
+      <c r="V106" s="41"/>
+      <c r="W106" s="44"/>
+      <c r="X106" s="11"/>
+      <c r="Y106" s="11"/>
+      <c r="Z106" s="11"/>
+      <c r="AA106" s="41"/>
+      <c r="AB106" s="38"/>
+      <c r="AC106" s="11"/>
+      <c r="AD106" s="11"/>
+      <c r="AE106" s="11"/>
+      <c r="AF106" s="11"/>
+      <c r="AG106" s="41"/>
+      <c r="AH106" s="38"/>
+      <c r="AI106" s="11"/>
+      <c r="AJ106" s="11"/>
+      <c r="AK106" s="11"/>
+      <c r="AL106" s="11"/>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A107" s="27">
+        <v>97</v>
+      </c>
+      <c r="B107" s="19"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="9" t="str">
+        <f t="shared" ref="K107:K110" ca="1" si="10">IF(ISBLANK(L107)=FALSE,OFFSET(K107,0,COUNTA(L107:AL107)),"")</f>
+        <v/>
+      </c>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+      <c r="R107" s="11"/>
+      <c r="S107" s="11"/>
+      <c r="T107" s="11"/>
+      <c r="U107" s="11"/>
+      <c r="V107" s="41"/>
+      <c r="W107" s="44"/>
+      <c r="X107" s="11"/>
+      <c r="Y107" s="11"/>
+      <c r="Z107" s="11"/>
+      <c r="AA107" s="41"/>
+      <c r="AB107" s="38"/>
+      <c r="AC107" s="11"/>
+      <c r="AD107" s="11"/>
+      <c r="AE107" s="11"/>
+      <c r="AF107" s="11"/>
+      <c r="AG107" s="41"/>
+      <c r="AH107" s="38"/>
+      <c r="AI107" s="11"/>
+      <c r="AJ107" s="11"/>
+      <c r="AK107" s="11"/>
+      <c r="AL107" s="11"/>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A108" s="27">
+        <v>98</v>
+      </c>
+      <c r="B108" s="19"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="9" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="11"/>
+      <c r="U108" s="11"/>
+      <c r="V108" s="41"/>
+      <c r="W108" s="44"/>
+      <c r="X108" s="11"/>
+      <c r="Y108" s="11"/>
+      <c r="Z108" s="11"/>
+      <c r="AA108" s="41"/>
+      <c r="AB108" s="38"/>
+      <c r="AC108" s="11"/>
+      <c r="AD108" s="11"/>
+      <c r="AE108" s="11"/>
+      <c r="AF108" s="11"/>
+      <c r="AG108" s="41"/>
+      <c r="AH108" s="38"/>
+      <c r="AI108" s="11"/>
+      <c r="AJ108" s="11"/>
+      <c r="AK108" s="11"/>
+      <c r="AL108" s="11"/>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A109" s="27">
+        <v>99</v>
+      </c>
+      <c r="B109" s="19"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="9" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+      <c r="R109" s="11"/>
+      <c r="S109" s="11"/>
+      <c r="T109" s="11"/>
+      <c r="U109" s="11"/>
+      <c r="V109" s="41"/>
+      <c r="W109" s="44"/>
+      <c r="X109" s="11"/>
+      <c r="Y109" s="11"/>
+      <c r="Z109" s="11"/>
+      <c r="AA109" s="41"/>
+      <c r="AB109" s="38"/>
+      <c r="AC109" s="11"/>
+      <c r="AD109" s="11"/>
+      <c r="AE109" s="11"/>
+      <c r="AF109" s="11"/>
+      <c r="AG109" s="41"/>
+      <c r="AH109" s="38"/>
+      <c r="AI109" s="11"/>
+      <c r="AJ109" s="11"/>
+      <c r="AK109" s="11"/>
+      <c r="AL109" s="11"/>
+    </row>
+    <row r="110" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="27">
+        <v>100</v>
+      </c>
+      <c r="B110" s="19"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="9" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="11"/>
+      <c r="U110" s="11"/>
+      <c r="V110" s="41"/>
+      <c r="W110" s="45"/>
+      <c r="X110" s="46"/>
+      <c r="Y110" s="46"/>
+      <c r="Z110" s="46"/>
+      <c r="AA110" s="47"/>
+      <c r="AB110" s="48"/>
+      <c r="AC110" s="46"/>
+      <c r="AD110" s="11"/>
+      <c r="AE110" s="11"/>
+      <c r="AF110" s="11"/>
+      <c r="AG110" s="41"/>
+      <c r="AH110" s="38"/>
+      <c r="AI110" s="11"/>
+      <c r="AJ110" s="11"/>
+      <c r="AK110" s="11"/>
+      <c r="AL110" s="11"/>
+    </row>
+    <row r="111" spans="1:38" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="19"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111"/>
-      <c r="F111"/>
+      <c r="F111" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111"/>
@@ -28106,10 +28403,244 @@
     </row>
     <row r="411" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B411"/>
+      <c r="C411"/>
+      <c r="D411"/>
+      <c r="E411"/>
       <c r="F411"/>
+      <c r="G411"/>
+      <c r="H411"/>
+      <c r="I411"/>
+      <c r="J411"/>
+      <c r="K411"/>
+      <c r="L411"/>
+      <c r="M411"/>
+      <c r="N411"/>
+      <c r="O411"/>
+      <c r="P411"/>
+      <c r="Q411"/>
+      <c r="R411"/>
+      <c r="S411"/>
+      <c r="T411"/>
+      <c r="U411"/>
+      <c r="V411"/>
+      <c r="W411"/>
+      <c r="X411"/>
+      <c r="Y411"/>
+      <c r="Z411"/>
+      <c r="AA411"/>
+      <c r="AB411"/>
+      <c r="AC411"/>
+      <c r="AD411"/>
+      <c r="AE411"/>
+      <c r="AF411"/>
+      <c r="AG411"/>
+      <c r="AH411"/>
+      <c r="AI411"/>
+      <c r="AJ411"/>
+      <c r="AK411"/>
+      <c r="AL411"/>
+    </row>
+    <row r="412" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B412"/>
+      <c r="C412"/>
+      <c r="D412"/>
+      <c r="E412"/>
+      <c r="F412"/>
+      <c r="G412"/>
+      <c r="H412"/>
+      <c r="I412"/>
+      <c r="J412"/>
+      <c r="K412"/>
+      <c r="L412"/>
+      <c r="M412"/>
+      <c r="N412"/>
+      <c r="O412"/>
+      <c r="P412"/>
+      <c r="Q412"/>
+      <c r="R412"/>
+      <c r="S412"/>
+      <c r="T412"/>
+      <c r="U412"/>
+      <c r="V412"/>
+      <c r="W412"/>
+      <c r="X412"/>
+      <c r="Y412"/>
+      <c r="Z412"/>
+      <c r="AA412"/>
+      <c r="AB412"/>
+      <c r="AC412"/>
+      <c r="AD412"/>
+      <c r="AE412"/>
+      <c r="AF412"/>
+      <c r="AG412"/>
+      <c r="AH412"/>
+      <c r="AI412"/>
+      <c r="AJ412"/>
+      <c r="AK412"/>
+      <c r="AL412"/>
+    </row>
+    <row r="413" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B413"/>
+      <c r="C413"/>
+      <c r="D413"/>
+      <c r="E413"/>
+      <c r="F413"/>
+      <c r="G413"/>
+      <c r="H413"/>
+      <c r="I413"/>
+      <c r="J413"/>
+      <c r="K413"/>
+      <c r="L413"/>
+      <c r="M413"/>
+      <c r="N413"/>
+      <c r="O413"/>
+      <c r="P413"/>
+      <c r="Q413"/>
+      <c r="R413"/>
+      <c r="S413"/>
+      <c r="T413"/>
+      <c r="U413"/>
+      <c r="V413"/>
+      <c r="W413"/>
+      <c r="X413"/>
+      <c r="Y413"/>
+      <c r="Z413"/>
+      <c r="AA413"/>
+      <c r="AB413"/>
+      <c r="AC413"/>
+      <c r="AD413"/>
+      <c r="AE413"/>
+      <c r="AF413"/>
+      <c r="AG413"/>
+      <c r="AH413"/>
+      <c r="AI413"/>
+      <c r="AJ413"/>
+      <c r="AK413"/>
+      <c r="AL413"/>
+    </row>
+    <row r="414" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B414"/>
+      <c r="C414"/>
+      <c r="D414"/>
+      <c r="E414"/>
+      <c r="F414"/>
+      <c r="G414"/>
+      <c r="H414"/>
+      <c r="I414"/>
+      <c r="J414"/>
+      <c r="K414"/>
+      <c r="L414"/>
+      <c r="M414"/>
+      <c r="N414"/>
+      <c r="O414"/>
+      <c r="P414"/>
+      <c r="Q414"/>
+      <c r="R414"/>
+      <c r="S414"/>
+      <c r="T414"/>
+      <c r="U414"/>
+      <c r="V414"/>
+      <c r="W414"/>
+      <c r="X414"/>
+      <c r="Y414"/>
+      <c r="Z414"/>
+      <c r="AA414"/>
+      <c r="AB414"/>
+      <c r="AC414"/>
+      <c r="AD414"/>
+      <c r="AE414"/>
+      <c r="AF414"/>
+      <c r="AG414"/>
+      <c r="AH414"/>
+      <c r="AI414"/>
+      <c r="AJ414"/>
+      <c r="AK414"/>
+      <c r="AL414"/>
+    </row>
+    <row r="415" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B415"/>
+      <c r="C415"/>
+      <c r="D415"/>
+      <c r="E415"/>
+      <c r="F415"/>
+      <c r="G415"/>
+      <c r="H415"/>
+      <c r="I415"/>
+      <c r="J415"/>
+      <c r="K415"/>
+      <c r="L415"/>
+      <c r="M415"/>
+      <c r="N415"/>
+      <c r="O415"/>
+      <c r="P415"/>
+      <c r="Q415"/>
+      <c r="R415"/>
+      <c r="S415"/>
+      <c r="T415"/>
+      <c r="U415"/>
+      <c r="V415"/>
+      <c r="W415"/>
+      <c r="X415"/>
+      <c r="Y415"/>
+      <c r="Z415"/>
+      <c r="AA415"/>
+      <c r="AB415"/>
+      <c r="AC415"/>
+      <c r="AD415"/>
+      <c r="AE415"/>
+      <c r="AF415"/>
+      <c r="AG415"/>
+      <c r="AH415"/>
+      <c r="AI415"/>
+      <c r="AJ415"/>
+      <c r="AK415"/>
+      <c r="AL415"/>
+    </row>
+    <row r="416" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B416"/>
+      <c r="C416"/>
+      <c r="D416"/>
+      <c r="E416"/>
+      <c r="F416"/>
+      <c r="G416"/>
+      <c r="H416"/>
+      <c r="I416"/>
+      <c r="J416"/>
+      <c r="K416"/>
+      <c r="L416"/>
+      <c r="M416"/>
+      <c r="N416"/>
+      <c r="O416"/>
+      <c r="P416"/>
+      <c r="Q416"/>
+      <c r="R416"/>
+      <c r="S416"/>
+      <c r="T416"/>
+      <c r="U416"/>
+      <c r="V416"/>
+      <c r="W416"/>
+      <c r="X416"/>
+      <c r="Y416"/>
+      <c r="Z416"/>
+      <c r="AA416"/>
+      <c r="AB416"/>
+      <c r="AC416"/>
+      <c r="AD416"/>
+      <c r="AE416"/>
+      <c r="AF416"/>
+      <c r="AG416"/>
+      <c r="AH416"/>
+      <c r="AI416"/>
+      <c r="AJ416"/>
+      <c r="AK416"/>
+      <c r="AL416"/>
+    </row>
+    <row r="417" spans="2:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B417"/>
+      <c r="F417"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL410">
+  <autoFilter ref="A1:AL416">
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" hiddenButton="1" showButton="0"/>
@@ -28139,11 +28670,6 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="L1:AL1"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
@@ -28151,1000 +28677,1005 @@
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="C1:C4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="F412:F65537">
-    <cfRule type="expression" dxfId="462" priority="2626" stopIfTrue="1">
-      <formula>F412="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="461" priority="2627" stopIfTrue="1">
-      <formula>F412="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="460" priority="2628" stopIfTrue="1">
-      <formula>OR(F412="終了",F412="完了")</formula>
+  <conditionalFormatting sqref="F418:F65543">
+    <cfRule type="expression" dxfId="487" priority="2652" stopIfTrue="1">
+      <formula>F418="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="486" priority="2653" stopIfTrue="1">
+      <formula>F418="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="485" priority="2654" stopIfTrue="1">
+      <formula>OR(F418="終了",F418="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:K5 J18:J19 AM5:AM10 AT5:JT10 D16 G32:J32 D20:D22 J6:J15 B6:B10 J33:J35 G33:H35 B67:B68 B88:B90 B85:B86 B37:B39 B60:B63 I34:I35 L34:AK35 AM11:JT28 A5:A28 A32:A35 A30 AL5:AL28 AL32:JT35 G20:J28 D27:D28 D32:D35 D30 G30:J30 B31 F6:F46 G6:H15 G16:J16 G17:H19 F58:F105 L7:AK16 L30:JT30 L20:AK28 L32:AK32 K6:K57">
-    <cfRule type="expression" dxfId="459" priority="2629" stopIfTrue="1">
+  <conditionalFormatting sqref="F5:K5 J18:J19 AM5:AM10 AT5:JT10 D16 G37:J37 D20:D22 J6:J15 B6:B10 J38:J40 G38:H40 B73:B74 B94:B96 B91:B92 B42:B45 B66:B69 I39:I40 L39:AK40 AM11:JT28 A5:A28 AL5:AL28 AL37:JT40 G20:J28 D27:D28 D37:D40 D32:D35 G32:J35 B36 G6:H15 G16:J16 G17:H19 F64:F111 L7:AK16 L32:JT35 L20:AK28 L37:AK37 K6:K30 F6:F30 F32:F52 K32:K63">
+    <cfRule type="expression" dxfId="484" priority="2655" stopIfTrue="1">
       <formula>$F5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="2630" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="2656" stopIfTrue="1">
       <formula>$F5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="2631" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="2657" stopIfTrue="1">
       <formula>OR($F5="終了",$F5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D411:D65536">
-    <cfRule type="expression" dxfId="456" priority="2632" stopIfTrue="1">
-      <formula>G411="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="455" priority="2633" stopIfTrue="1">
-      <formula>G411="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="454" priority="2634" stopIfTrue="1">
-      <formula>OR(G411="終了",G411="完了")</formula>
+  <conditionalFormatting sqref="D417:D65542">
+    <cfRule type="expression" dxfId="481" priority="2658" stopIfTrue="1">
+      <formula>G417="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="480" priority="2659" stopIfTrue="1">
+      <formula>G417="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="479" priority="2660" stopIfTrue="1">
+      <formula>OR(G417="終了",G417="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E411:E65536">
-    <cfRule type="expression" dxfId="453" priority="2635" stopIfTrue="1">
-      <formula>F412="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="452" priority="2636" stopIfTrue="1">
-      <formula>F412="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="451" priority="2637" stopIfTrue="1">
-      <formula>OR(F412="終了",F412="完了")</formula>
+  <conditionalFormatting sqref="E417:E65542">
+    <cfRule type="expression" dxfId="478" priority="2661" stopIfTrue="1">
+      <formula>F418="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="477" priority="2662" stopIfTrue="1">
+      <formula>F418="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="476" priority="2663" stopIfTrue="1">
+      <formula>OR(F418="終了",F418="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G411:AL65536">
-    <cfRule type="expression" dxfId="450" priority="2638" stopIfTrue="1">
-      <formula>$F412="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="449" priority="2639" stopIfTrue="1">
-      <formula>$F412="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="448" priority="2640" stopIfTrue="1">
-      <formula>OR($F412="終了",$F412="完了")</formula>
+  <conditionalFormatting sqref="G417:AL65542">
+    <cfRule type="expression" dxfId="475" priority="2664" stopIfTrue="1">
+      <formula>$F418="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="474" priority="2665" stopIfTrue="1">
+      <formula>$F418="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="473" priority="2666" stopIfTrue="1">
+      <formula>OR($F418="終了",$F418="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D4 C1">
-    <cfRule type="containsText" dxfId="447" priority="2617" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="472" priority="2643" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="446" priority="2618" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="471" priority="2644" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="445" priority="2619" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="470" priority="2645" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="444" priority="2614" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="2640" stopIfTrue="1">
       <formula>$F5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="2615" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="2641" stopIfTrue="1">
       <formula>$F5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="2616" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="2642" stopIfTrue="1">
       <formula>OR($F5="終了",$F5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5 E16 E20:E22 E37:E39 E46 E60:E62 E66:E67 E86:E104">
-    <cfRule type="containsText" dxfId="441" priority="2609" stopIfTrue="1" operator="containsText" text="幸野">
+  <conditionalFormatting sqref="E5 E16 E20:E22 E42:E45 E52 E66:E68 E72:E73 E92:E110">
+    <cfRule type="containsText" dxfId="466" priority="2635" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="440" priority="2610" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="465" priority="2636" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="439" priority="2611" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="464" priority="2637" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="2612" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="463" priority="2638" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="437" priority="2613" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="462" priority="2639" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5 E16 E20:E22 E37:E39 E46 E60:E62 E66:E67 E86:E104">
-    <cfRule type="containsText" dxfId="436" priority="2607" operator="containsText" text="佐藤">
+  <conditionalFormatting sqref="E5 E16 E20:E22 E42:E45 E52 E66:E68 E72:E73 E92:E110">
+    <cfRule type="containsText" dxfId="461" priority="2633" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="435" priority="2608" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="460" priority="2634" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5 D16 D20:D22 D37:D39 D46 D60:D62 D66:D67 D86:D104">
-    <cfRule type="containsText" dxfId="434" priority="2604" operator="containsText" text="低">
+  <conditionalFormatting sqref="D5 D16 D20:D22 D42:D45 D52 D66:D68 D72:D73 D92:D110">
+    <cfRule type="containsText" dxfId="459" priority="2630" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="433" priority="2605" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="458" priority="2631" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="2606" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="457" priority="2632" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5 E16 E20:E22 E37:E39 E46 E60:E62 E66:E67 E86:E104">
-    <cfRule type="containsText" dxfId="431" priority="2603" operator="containsText" text="未定">
+  <conditionalFormatting sqref="E5 E16 E20:E22 E42:E45 E52 E66:E68 E72:E73 E92:E110">
+    <cfRule type="containsText" dxfId="456" priority="2629" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B18 B30 B32">
-    <cfRule type="expression" dxfId="430" priority="2593" stopIfTrue="1">
+  <conditionalFormatting sqref="B15:B18">
+    <cfRule type="expression" dxfId="455" priority="2619" stopIfTrue="1">
       <formula>$F13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="2594" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="2620" stopIfTrue="1">
       <formula>$F13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="2595" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="2621" stopIfTrue="1">
       <formula>OR($F13="終了",$F13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22 B11:B13 B27:B28 B34:B36">
-    <cfRule type="expression" dxfId="427" priority="2584" stopIfTrue="1">
+  <conditionalFormatting sqref="B21:B22 B11:B13 B27:B28 B39:B41">
+    <cfRule type="expression" dxfId="452" priority="2610" stopIfTrue="1">
       <formula>$F10="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="2585" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="2611" stopIfTrue="1">
       <formula>$F10="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="2586" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="2612" stopIfTrue="1">
       <formula>OR($F10="終了",$F10="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B62">
-    <cfRule type="expression" dxfId="424" priority="2581" stopIfTrue="1">
-      <formula>$F61="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="423" priority="2582" stopIfTrue="1">
-      <formula>$F61="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="422" priority="2583" stopIfTrue="1">
-      <formula>OR($F61="終了",$F61="完了")</formula>
+  <conditionalFormatting sqref="B67:B68">
+    <cfRule type="expression" dxfId="449" priority="2607" stopIfTrue="1">
+      <formula>$F67="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="448" priority="2608" stopIfTrue="1">
+      <formula>$F67="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="447" priority="2609" stopIfTrue="1">
+      <formula>OR($F67="終了",$F67="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="expression" dxfId="446" priority="2601" stopIfTrue="1">
+      <formula>$F73="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="445" priority="2602" stopIfTrue="1">
+      <formula>$F73="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="444" priority="2603" stopIfTrue="1">
+      <formula>OR($F73="終了",$F73="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="expression" dxfId="443" priority="2589" stopIfTrue="1">
+      <formula>$F93="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="442" priority="2590" stopIfTrue="1">
+      <formula>$F93="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="441" priority="2591" stopIfTrue="1">
+      <formula>OR($F93="終了",$F93="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106:B109">
+    <cfRule type="expression" dxfId="440" priority="2586" stopIfTrue="1">
+      <formula>$F106="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="439" priority="2587" stopIfTrue="1">
+      <formula>$F106="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="438" priority="2588" stopIfTrue="1">
+      <formula>OR($F106="終了",$F106="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B110:B111">
+    <cfRule type="expression" dxfId="437" priority="2583" stopIfTrue="1">
+      <formula>$F110="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="436" priority="2584" stopIfTrue="1">
+      <formula>$F110="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="435" priority="2585" stopIfTrue="1">
+      <formula>OR($F110="終了",$F110="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B111">
+    <cfRule type="expression" dxfId="434" priority="2580" stopIfTrue="1">
+      <formula>$F111="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="433" priority="2581" stopIfTrue="1">
+      <formula>$F111="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="432" priority="2582" stopIfTrue="1">
+      <formula>OR($F111="終了",$F111="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="expression" dxfId="431" priority="2478" stopIfTrue="1">
+      <formula>$F74="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="430" priority="2479" stopIfTrue="1">
+      <formula>$F74="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="429" priority="2480" stopIfTrue="1">
+      <formula>OR($F74="終了",$F74="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="expression" dxfId="428" priority="2475" stopIfTrue="1">
+      <formula>$F73="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="427" priority="2476" stopIfTrue="1">
+      <formula>$F73="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="426" priority="2477" stopIfTrue="1">
+      <formula>OR($F73="終了",$F73="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="421" priority="2575" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="2469" stopIfTrue="1">
       <formula>$F67="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="2576" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="2470" stopIfTrue="1">
       <formula>$F67="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="2577" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="2471" stopIfTrue="1">
       <formula>OR($F67="終了",$F67="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
-    <cfRule type="expression" dxfId="418" priority="2563" stopIfTrue="1">
-      <formula>$F87="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="417" priority="2564" stopIfTrue="1">
-      <formula>$F87="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="416" priority="2565" stopIfTrue="1">
-      <formula>OR($F87="終了",$F87="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B100:B103">
-    <cfRule type="expression" dxfId="415" priority="2560" stopIfTrue="1">
-      <formula>$F100="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="414" priority="2561" stopIfTrue="1">
-      <formula>$F100="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="413" priority="2562" stopIfTrue="1">
-      <formula>OR($F100="終了",$F100="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B105">
-    <cfRule type="expression" dxfId="412" priority="2557" stopIfTrue="1">
-      <formula>$F104="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="411" priority="2558" stopIfTrue="1">
-      <formula>$F104="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="410" priority="2559" stopIfTrue="1">
-      <formula>OR($F104="終了",$F104="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B105">
-    <cfRule type="expression" dxfId="409" priority="2554" stopIfTrue="1">
-      <formula>$F105="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="408" priority="2555" stopIfTrue="1">
-      <formula>$F105="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="407" priority="2556" stopIfTrue="1">
-      <formula>OR($F105="終了",$F105="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="406" priority="2452" stopIfTrue="1">
-      <formula>$F68="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="405" priority="2453" stopIfTrue="1">
-      <formula>$F68="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="404" priority="2454" stopIfTrue="1">
-      <formula>OR($F68="終了",$F68="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="403" priority="2449" stopIfTrue="1">
+  <conditionalFormatting sqref="B67:B68">
+    <cfRule type="expression" dxfId="422" priority="2466" stopIfTrue="1">
       <formula>$F67="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="2450" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="2467" stopIfTrue="1">
       <formula>$F67="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="2451" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="2468" stopIfTrue="1">
       <formula>OR($F67="終了",$F67="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="400" priority="2443" stopIfTrue="1">
-      <formula>$F61="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="399" priority="2444" stopIfTrue="1">
-      <formula>$F61="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="398" priority="2445" stopIfTrue="1">
-      <formula>OR($F61="終了",$F61="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B62">
-    <cfRule type="expression" dxfId="397" priority="2440" stopIfTrue="1">
-      <formula>$F61="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="396" priority="2441" stopIfTrue="1">
-      <formula>$F61="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="395" priority="2442" stopIfTrue="1">
-      <formula>OR($F61="終了",$F61="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D15">
-    <cfRule type="expression" dxfId="394" priority="1387" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="1413" stopIfTrue="1">
       <formula>$F6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="1388" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="1414" stopIfTrue="1">
       <formula>$F6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="1389" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="1415" stopIfTrue="1">
       <formula>OR($F6="終了",$F6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E16">
-    <cfRule type="containsText" dxfId="391" priority="1382" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="416" priority="1408" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="1383" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="415" priority="1409" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="389" priority="1384" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="414" priority="1410" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="1385" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="413" priority="1411" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="387" priority="1386" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="412" priority="1412" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E16">
-    <cfRule type="containsText" dxfId="386" priority="1380" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="411" priority="1406" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="1381" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="410" priority="1407" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D15">
-    <cfRule type="containsText" dxfId="384" priority="1377" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="409" priority="1403" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="383" priority="1378" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="408" priority="1404" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="1379" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="407" priority="1405" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E16">
-    <cfRule type="containsText" dxfId="381" priority="1376" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="406" priority="1402" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="380" priority="1370" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="1396" stopIfTrue="1">
       <formula>$F17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="1371" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="1397" stopIfTrue="1">
       <formula>$F17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="1372" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="1398" stopIfTrue="1">
       <formula>OR($F17="終了",$F17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="377" priority="1365" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="402" priority="1391" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="1366" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="401" priority="1392" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="1367" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="400" priority="1393" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="1368" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="399" priority="1394" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="1369" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="398" priority="1395" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="372" priority="1363" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="397" priority="1389" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="371" priority="1364" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="396" priority="1390" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="370" priority="1360" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="395" priority="1386" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="1361" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="394" priority="1387" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="1362" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="393" priority="1388" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="367" priority="1359" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="392" priority="1385" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="expression" dxfId="366" priority="1353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="1379" stopIfTrue="1">
       <formula>$F18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="1354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="1380" stopIfTrue="1">
       <formula>$F18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="1355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="1381" stopIfTrue="1">
       <formula>OR($F18="終了",$F18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="363" priority="1348" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="388" priority="1374" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="362" priority="1349" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="387" priority="1375" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="1350" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="386" priority="1376" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="1351" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="385" priority="1377" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="359" priority="1352" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="384" priority="1378" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="358" priority="1346" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="383" priority="1372" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="1347" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="382" priority="1373" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="containsText" dxfId="356" priority="1343" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="381" priority="1369" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="1344" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="380" priority="1370" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="1345" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="379" priority="1371" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="353" priority="1342" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="378" priority="1368" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="expression" dxfId="352" priority="1339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="1365" stopIfTrue="1">
       <formula>$F18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="1340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="1366" stopIfTrue="1">
       <formula>$F18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="1341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="1367" stopIfTrue="1">
       <formula>OR($F18="終了",$F18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E33">
-    <cfRule type="containsText" dxfId="349" priority="1314" stopIfTrue="1" operator="containsText" text="幸野">
+  <conditionalFormatting sqref="E27:E30 E32:E38">
+    <cfRule type="containsText" dxfId="374" priority="1340" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="1315" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="373" priority="1341" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="347" priority="1316" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="372" priority="1342" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="1317" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="371" priority="1343" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="1318" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="370" priority="1344" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E33">
-    <cfRule type="containsText" dxfId="344" priority="1312" operator="containsText" text="佐藤">
+  <conditionalFormatting sqref="E27:E30 E32:E38">
+    <cfRule type="containsText" dxfId="369" priority="1338" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="1313" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="368" priority="1339" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D33">
-    <cfRule type="containsText" dxfId="342" priority="1309" operator="containsText" text="低">
+  <conditionalFormatting sqref="D27:D30 D32:D38">
+    <cfRule type="containsText" dxfId="367" priority="1335" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="1310" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="366" priority="1336" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="1311" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="365" priority="1337" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E33">
-    <cfRule type="containsText" dxfId="339" priority="1308" operator="containsText" text="未定">
+  <conditionalFormatting sqref="E27:E30 E32:E38">
+    <cfRule type="containsText" dxfId="364" priority="1334" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E36">
-    <cfRule type="containsText" dxfId="338" priority="1297" stopIfTrue="1" operator="containsText" text="幸野">
-      <formula>NOT(ISERROR(SEARCH("幸野",E34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="1298" stopIfTrue="1" operator="containsText" text="飯島">
-      <formula>NOT(ISERROR(SEARCH("飯島",E34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="1299" stopIfTrue="1" operator="containsText" text="大高">
-      <formula>NOT(ISERROR(SEARCH("大高",E34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="1300" stopIfTrue="1" operator="containsText" text="斉藤">
-      <formula>NOT(ISERROR(SEARCH("斉藤",E34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="1301" stopIfTrue="1" operator="containsText" text="金城">
-      <formula>NOT(ISERROR(SEARCH("金城",E34)))</formula>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="containsText" dxfId="363" priority="1323" stopIfTrue="1" operator="containsText" text="幸野">
+      <formula>NOT(ISERROR(SEARCH("幸野",E39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="362" priority="1324" stopIfTrue="1" operator="containsText" text="飯島">
+      <formula>NOT(ISERROR(SEARCH("飯島",E39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="361" priority="1325" stopIfTrue="1" operator="containsText" text="大高">
+      <formula>NOT(ISERROR(SEARCH("大高",E39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="360" priority="1326" stopIfTrue="1" operator="containsText" text="斉藤">
+      <formula>NOT(ISERROR(SEARCH("斉藤",E39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="359" priority="1327" stopIfTrue="1" operator="containsText" text="金城">
+      <formula>NOT(ISERROR(SEARCH("金城",E39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E36">
-    <cfRule type="containsText" dxfId="333" priority="1295" operator="containsText" text="佐藤">
-      <formula>NOT(ISERROR(SEARCH("佐藤",E34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="1296" operator="containsText" text="阿曽">
-      <formula>NOT(ISERROR(SEARCH("阿曽",E34)))</formula>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="containsText" dxfId="358" priority="1321" operator="containsText" text="佐藤">
+      <formula>NOT(ISERROR(SEARCH("佐藤",E39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="357" priority="1322" operator="containsText" text="阿曽">
+      <formula>NOT(ISERROR(SEARCH("阿曽",E39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D36">
-    <cfRule type="containsText" dxfId="331" priority="1292" operator="containsText" text="低">
-      <formula>NOT(ISERROR(SEARCH("低",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="1293" operator="containsText" text="中">
-      <formula>NOT(ISERROR(SEARCH("中",D34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="1294" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",D34)))</formula>
+  <conditionalFormatting sqref="D39:D41">
+    <cfRule type="containsText" dxfId="356" priority="1318" operator="containsText" text="低">
+      <formula>NOT(ISERROR(SEARCH("低",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="355" priority="1319" operator="containsText" text="中">
+      <formula>NOT(ISERROR(SEARCH("中",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="354" priority="1320" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E36">
-    <cfRule type="containsText" dxfId="328" priority="1291" operator="containsText" text="未定">
-      <formula>NOT(ISERROR(SEARCH("未定",E34)))</formula>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="containsText" dxfId="353" priority="1317" operator="containsText" text="未定">
+      <formula>NOT(ISERROR(SEARCH("未定",E39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM59:AM69 AT59:JT69 AM36:JT58 G60:K62 J58:K59 K69:K85 G40:H45 G58:H59 G69:H85 G63:H65 A36:A104 D86:D104 J40:J45 J63:K65 G46:J46 L52:AK54 G66:AK68 G86:AK104 AL36:AL104 L59:AK62 D66:D67 D60:D62 AM70:JT104 D36:D46 G36:J39 L36:AK39 L46:AK48">
-    <cfRule type="expression" dxfId="327" priority="1282" stopIfTrue="1">
-      <formula>$F37="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="326" priority="1283" stopIfTrue="1">
-      <formula>$F37="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="325" priority="1284" stopIfTrue="1">
-      <formula>OR($F37="終了",$F37="完了")</formula>
+  <conditionalFormatting sqref="AM65:AM75 AT65:JT75 G66:K68 J64:K65 K75:K91 G46:H51 G64:H65 G75:H91 G69:H71 A89:A110 D92:D110 J46:J51 J69:K71 G52:J52 L58:AK60 G72:AK74 G92:AK110 L65:AK68 D72:D73 D66:D68 AM76:JT110 L52:AK54 AM44:JT64 AL44:AL110 D41 D44:D52 G41:J41 G44:J45 L41:JT41 L44:AK45">
+    <cfRule type="expression" dxfId="352" priority="1308" stopIfTrue="1">
+      <formula>$F42="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="351" priority="1309" stopIfTrue="1">
+      <formula>$F42="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="350" priority="1310" stopIfTrue="1">
+      <formula>OR($F42="終了",$F42="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:E45">
-    <cfRule type="containsText" dxfId="324" priority="1277" stopIfTrue="1" operator="containsText" text="幸野">
-      <formula>NOT(ISERROR(SEARCH("幸野",E40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="323" priority="1278" stopIfTrue="1" operator="containsText" text="飯島">
-      <formula>NOT(ISERROR(SEARCH("飯島",E40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="1279" stopIfTrue="1" operator="containsText" text="大高">
-      <formula>NOT(ISERROR(SEARCH("大高",E40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="1280" stopIfTrue="1" operator="containsText" text="斉藤">
-      <formula>NOT(ISERROR(SEARCH("斉藤",E40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="1281" stopIfTrue="1" operator="containsText" text="金城">
-      <formula>NOT(ISERROR(SEARCH("金城",E40)))</formula>
+  <conditionalFormatting sqref="E46:E51">
+    <cfRule type="containsText" dxfId="349" priority="1303" stopIfTrue="1" operator="containsText" text="幸野">
+      <formula>NOT(ISERROR(SEARCH("幸野",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="348" priority="1304" stopIfTrue="1" operator="containsText" text="飯島">
+      <formula>NOT(ISERROR(SEARCH("飯島",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="347" priority="1305" stopIfTrue="1" operator="containsText" text="大高">
+      <formula>NOT(ISERROR(SEARCH("大高",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="346" priority="1306" stopIfTrue="1" operator="containsText" text="斉藤">
+      <formula>NOT(ISERROR(SEARCH("斉藤",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="345" priority="1307" stopIfTrue="1" operator="containsText" text="金城">
+      <formula>NOT(ISERROR(SEARCH("金城",E46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:E45">
-    <cfRule type="containsText" dxfId="319" priority="1275" operator="containsText" text="佐藤">
-      <formula>NOT(ISERROR(SEARCH("佐藤",E40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="1276" operator="containsText" text="阿曽">
-      <formula>NOT(ISERROR(SEARCH("阿曽",E40)))</formula>
+  <conditionalFormatting sqref="E46:E51">
+    <cfRule type="containsText" dxfId="344" priority="1301" operator="containsText" text="佐藤">
+      <formula>NOT(ISERROR(SEARCH("佐藤",E46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="343" priority="1302" operator="containsText" text="阿曽">
+      <formula>NOT(ISERROR(SEARCH("阿曽",E46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D45">
-    <cfRule type="containsText" dxfId="317" priority="1272" operator="containsText" text="低">
-      <formula>NOT(ISERROR(SEARCH("低",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="1273" operator="containsText" text="中">
-      <formula>NOT(ISERROR(SEARCH("中",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="1274" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",D40)))</formula>
+  <conditionalFormatting sqref="D46:D51">
+    <cfRule type="containsText" dxfId="342" priority="1298" operator="containsText" text="低">
+      <formula>NOT(ISERROR(SEARCH("低",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="341" priority="1299" operator="containsText" text="中">
+      <formula>NOT(ISERROR(SEARCH("中",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="340" priority="1300" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40:E45">
-    <cfRule type="containsText" dxfId="314" priority="1271" operator="containsText" text="未定">
-      <formula>NOT(ISERROR(SEARCH("未定",E40)))</formula>
+  <conditionalFormatting sqref="E46:E51">
+    <cfRule type="containsText" dxfId="339" priority="1297" operator="containsText" text="未定">
+      <formula>NOT(ISERROR(SEARCH("未定",E46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58:D59">
-    <cfRule type="expression" dxfId="313" priority="1212" stopIfTrue="1">
-      <formula>$F59="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="312" priority="1213" stopIfTrue="1">
-      <formula>$F59="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="311" priority="1214" stopIfTrue="1">
-      <formula>OR($F59="終了",$F59="完了")</formula>
+  <conditionalFormatting sqref="D64:D65">
+    <cfRule type="expression" dxfId="338" priority="1238" stopIfTrue="1">
+      <formula>$F65="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="337" priority="1239" stopIfTrue="1">
+      <formula>$F65="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="336" priority="1240" stopIfTrue="1">
+      <formula>OR($F65="終了",$F65="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E59">
-    <cfRule type="containsText" dxfId="310" priority="1207" stopIfTrue="1" operator="containsText" text="幸野">
-      <formula>NOT(ISERROR(SEARCH("幸野",E58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="1208" stopIfTrue="1" operator="containsText" text="飯島">
-      <formula>NOT(ISERROR(SEARCH("飯島",E58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="1209" stopIfTrue="1" operator="containsText" text="大高">
-      <formula>NOT(ISERROR(SEARCH("大高",E58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="1210" stopIfTrue="1" operator="containsText" text="斉藤">
-      <formula>NOT(ISERROR(SEARCH("斉藤",E58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="1211" stopIfTrue="1" operator="containsText" text="金城">
-      <formula>NOT(ISERROR(SEARCH("金城",E58)))</formula>
+  <conditionalFormatting sqref="E64:E65">
+    <cfRule type="containsText" dxfId="335" priority="1233" stopIfTrue="1" operator="containsText" text="幸野">
+      <formula>NOT(ISERROR(SEARCH("幸野",E64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="1234" stopIfTrue="1" operator="containsText" text="飯島">
+      <formula>NOT(ISERROR(SEARCH("飯島",E64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="333" priority="1235" stopIfTrue="1" operator="containsText" text="大高">
+      <formula>NOT(ISERROR(SEARCH("大高",E64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="332" priority="1236" stopIfTrue="1" operator="containsText" text="斉藤">
+      <formula>NOT(ISERROR(SEARCH("斉藤",E64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="331" priority="1237" stopIfTrue="1" operator="containsText" text="金城">
+      <formula>NOT(ISERROR(SEARCH("金城",E64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E59">
-    <cfRule type="containsText" dxfId="305" priority="1205" operator="containsText" text="佐藤">
-      <formula>NOT(ISERROR(SEARCH("佐藤",E58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="1206" operator="containsText" text="阿曽">
-      <formula>NOT(ISERROR(SEARCH("阿曽",E58)))</formula>
+  <conditionalFormatting sqref="E64:E65">
+    <cfRule type="containsText" dxfId="330" priority="1231" operator="containsText" text="佐藤">
+      <formula>NOT(ISERROR(SEARCH("佐藤",E64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="329" priority="1232" operator="containsText" text="阿曽">
+      <formula>NOT(ISERROR(SEARCH("阿曽",E64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58:D59">
-    <cfRule type="containsText" dxfId="303" priority="1202" operator="containsText" text="低">
-      <formula>NOT(ISERROR(SEARCH("低",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="1203" operator="containsText" text="中">
-      <formula>NOT(ISERROR(SEARCH("中",D58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="1204" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",D58)))</formula>
+  <conditionalFormatting sqref="D64:D65">
+    <cfRule type="containsText" dxfId="328" priority="1228" operator="containsText" text="低">
+      <formula>NOT(ISERROR(SEARCH("低",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="327" priority="1229" operator="containsText" text="中">
+      <formula>NOT(ISERROR(SEARCH("中",D64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="326" priority="1230" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E59">
-    <cfRule type="containsText" dxfId="300" priority="1201" operator="containsText" text="未定">
-      <formula>NOT(ISERROR(SEARCH("未定",E58)))</formula>
+  <conditionalFormatting sqref="E64:E65">
+    <cfRule type="containsText" dxfId="325" priority="1227" operator="containsText" text="未定">
+      <formula>NOT(ISERROR(SEARCH("未定",E64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D65">
-    <cfRule type="expression" dxfId="299" priority="1198" stopIfTrue="1">
-      <formula>$F64="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="298" priority="1199" stopIfTrue="1">
-      <formula>$F64="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="297" priority="1200" stopIfTrue="1">
-      <formula>OR($F64="終了",$F64="完了")</formula>
+  <conditionalFormatting sqref="D69:D71">
+    <cfRule type="expression" dxfId="324" priority="1224" stopIfTrue="1">
+      <formula>$F70="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="323" priority="1225" stopIfTrue="1">
+      <formula>$F70="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="322" priority="1226" stopIfTrue="1">
+      <formula>OR($F70="終了",$F70="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63:E65">
-    <cfRule type="containsText" dxfId="296" priority="1193" stopIfTrue="1" operator="containsText" text="幸野">
-      <formula>NOT(ISERROR(SEARCH("幸野",E63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="1194" stopIfTrue="1" operator="containsText" text="飯島">
-      <formula>NOT(ISERROR(SEARCH("飯島",E63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="1195" stopIfTrue="1" operator="containsText" text="大高">
-      <formula>NOT(ISERROR(SEARCH("大高",E63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="1196" stopIfTrue="1" operator="containsText" text="斉藤">
-      <formula>NOT(ISERROR(SEARCH("斉藤",E63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="1197" stopIfTrue="1" operator="containsText" text="金城">
-      <formula>NOT(ISERROR(SEARCH("金城",E63)))</formula>
+  <conditionalFormatting sqref="E69:E71">
+    <cfRule type="containsText" dxfId="321" priority="1219" stopIfTrue="1" operator="containsText" text="幸野">
+      <formula>NOT(ISERROR(SEARCH("幸野",E69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="320" priority="1220" stopIfTrue="1" operator="containsText" text="飯島">
+      <formula>NOT(ISERROR(SEARCH("飯島",E69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="319" priority="1221" stopIfTrue="1" operator="containsText" text="大高">
+      <formula>NOT(ISERROR(SEARCH("大高",E69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="318" priority="1222" stopIfTrue="1" operator="containsText" text="斉藤">
+      <formula>NOT(ISERROR(SEARCH("斉藤",E69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="317" priority="1223" stopIfTrue="1" operator="containsText" text="金城">
+      <formula>NOT(ISERROR(SEARCH("金城",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63:E65">
-    <cfRule type="containsText" dxfId="291" priority="1191" operator="containsText" text="佐藤">
-      <formula>NOT(ISERROR(SEARCH("佐藤",E63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="1192" operator="containsText" text="阿曽">
-      <formula>NOT(ISERROR(SEARCH("阿曽",E63)))</formula>
+  <conditionalFormatting sqref="E69:E71">
+    <cfRule type="containsText" dxfId="316" priority="1217" operator="containsText" text="佐藤">
+      <formula>NOT(ISERROR(SEARCH("佐藤",E69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="315" priority="1218" operator="containsText" text="阿曽">
+      <formula>NOT(ISERROR(SEARCH("阿曽",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D65">
-    <cfRule type="containsText" dxfId="289" priority="1188" operator="containsText" text="低">
-      <formula>NOT(ISERROR(SEARCH("低",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="1189" operator="containsText" text="中">
-      <formula>NOT(ISERROR(SEARCH("中",D63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="1190" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",D63)))</formula>
+  <conditionalFormatting sqref="D69:D71">
+    <cfRule type="containsText" dxfId="314" priority="1214" operator="containsText" text="低">
+      <formula>NOT(ISERROR(SEARCH("低",D69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="313" priority="1215" operator="containsText" text="中">
+      <formula>NOT(ISERROR(SEARCH("中",D69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="312" priority="1216" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63:E65">
-    <cfRule type="containsText" dxfId="286" priority="1187" operator="containsText" text="未定">
-      <formula>NOT(ISERROR(SEARCH("未定",E63)))</formula>
+  <conditionalFormatting sqref="E69:E71">
+    <cfRule type="containsText" dxfId="311" priority="1213" operator="containsText" text="未定">
+      <formula>NOT(ISERROR(SEARCH("未定",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:B66">
-    <cfRule type="expression" dxfId="285" priority="1184" stopIfTrue="1">
-      <formula>$F64="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="1185" stopIfTrue="1">
-      <formula>$F64="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="1186" stopIfTrue="1">
-      <formula>OR($F64="終了",$F64="完了")</formula>
+  <conditionalFormatting sqref="B70:B72">
+    <cfRule type="expression" dxfId="310" priority="1210" stopIfTrue="1">
+      <formula>$F70="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="309" priority="1211" stopIfTrue="1">
+      <formula>$F70="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="308" priority="1212" stopIfTrue="1">
+      <formula>OR($F70="終了",$F70="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:D85">
-    <cfRule type="expression" dxfId="282" priority="1181" stopIfTrue="1">
-      <formula>$F69="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="281" priority="1182" stopIfTrue="1">
-      <formula>$F69="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="1183" stopIfTrue="1">
-      <formula>OR($F69="終了",$F69="完了")</formula>
+  <conditionalFormatting sqref="D74:D91">
+    <cfRule type="expression" dxfId="307" priority="1207" stopIfTrue="1">
+      <formula>$F75="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="1208" stopIfTrue="1">
+      <formula>$F75="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="305" priority="1209" stopIfTrue="1">
+      <formula>OR($F75="終了",$F75="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E85">
-    <cfRule type="containsText" dxfId="279" priority="1176" stopIfTrue="1" operator="containsText" text="幸野">
-      <formula>NOT(ISERROR(SEARCH("幸野",E68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="1177" stopIfTrue="1" operator="containsText" text="飯島">
-      <formula>NOT(ISERROR(SEARCH("飯島",E68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="1178" stopIfTrue="1" operator="containsText" text="大高">
-      <formula>NOT(ISERROR(SEARCH("大高",E68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="1179" stopIfTrue="1" operator="containsText" text="斉藤">
-      <formula>NOT(ISERROR(SEARCH("斉藤",E68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="1180" stopIfTrue="1" operator="containsText" text="金城">
-      <formula>NOT(ISERROR(SEARCH("金城",E68)))</formula>
+  <conditionalFormatting sqref="E74:E91">
+    <cfRule type="containsText" dxfId="304" priority="1202" stopIfTrue="1" operator="containsText" text="幸野">
+      <formula>NOT(ISERROR(SEARCH("幸野",E74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="303" priority="1203" stopIfTrue="1" operator="containsText" text="飯島">
+      <formula>NOT(ISERROR(SEARCH("飯島",E74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="302" priority="1204" stopIfTrue="1" operator="containsText" text="大高">
+      <formula>NOT(ISERROR(SEARCH("大高",E74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="301" priority="1205" stopIfTrue="1" operator="containsText" text="斉藤">
+      <formula>NOT(ISERROR(SEARCH("斉藤",E74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="300" priority="1206" stopIfTrue="1" operator="containsText" text="金城">
+      <formula>NOT(ISERROR(SEARCH("金城",E74)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E85">
-    <cfRule type="containsText" dxfId="274" priority="1174" operator="containsText" text="佐藤">
-      <formula>NOT(ISERROR(SEARCH("佐藤",E68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="1175" operator="containsText" text="阿曽">
-      <formula>NOT(ISERROR(SEARCH("阿曽",E68)))</formula>
+  <conditionalFormatting sqref="E74:E91">
+    <cfRule type="containsText" dxfId="299" priority="1200" operator="containsText" text="佐藤">
+      <formula>NOT(ISERROR(SEARCH("佐藤",E74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="1201" operator="containsText" text="阿曽">
+      <formula>NOT(ISERROR(SEARCH("阿曽",E74)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:D85">
-    <cfRule type="containsText" dxfId="272" priority="1171" operator="containsText" text="低">
-      <formula>NOT(ISERROR(SEARCH("低",D68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="1172" operator="containsText" text="中">
-      <formula>NOT(ISERROR(SEARCH("中",D68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="1173" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",D68)))</formula>
+  <conditionalFormatting sqref="D74:D91">
+    <cfRule type="containsText" dxfId="297" priority="1197" operator="containsText" text="低">
+      <formula>NOT(ISERROR(SEARCH("低",D74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="296" priority="1198" operator="containsText" text="中">
+      <formula>NOT(ISERROR(SEARCH("中",D74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="295" priority="1199" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E85">
-    <cfRule type="containsText" dxfId="269" priority="1170" operator="containsText" text="未定">
-      <formula>NOT(ISERROR(SEARCH("未定",E68)))</formula>
+  <conditionalFormatting sqref="E74:E91">
+    <cfRule type="containsText" dxfId="294" priority="1196" operator="containsText" text="未定">
+      <formula>NOT(ISERROR(SEARCH("未定",E74)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69:B81">
-    <cfRule type="expression" dxfId="268" priority="1167" stopIfTrue="1">
-      <formula>$F69="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="267" priority="1168" stopIfTrue="1">
-      <formula>$F69="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="1169" stopIfTrue="1">
-      <formula>OR($F69="終了",$F69="完了")</formula>
+  <conditionalFormatting sqref="B75:B87">
+    <cfRule type="expression" dxfId="293" priority="1193" stopIfTrue="1">
+      <formula>$F75="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="1194" stopIfTrue="1">
+      <formula>$F75="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="1195" stopIfTrue="1">
+      <formula>OR($F75="終了",$F75="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82:B84">
-    <cfRule type="expression" dxfId="265" priority="1164" stopIfTrue="1">
-      <formula>$F82="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="1165" stopIfTrue="1">
-      <formula>$F82="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="263" priority="1166" stopIfTrue="1">
-      <formula>OR($F82="終了",$F82="完了")</formula>
+  <conditionalFormatting sqref="B88:B90">
+    <cfRule type="expression" dxfId="290" priority="1190" stopIfTrue="1">
+      <formula>$F88="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="289" priority="1191" stopIfTrue="1">
+      <formula>$F88="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="1192" stopIfTrue="1">
+      <formula>OR($F88="終了",$F88="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B84">
-    <cfRule type="expression" dxfId="262" priority="1161" stopIfTrue="1">
-      <formula>$F83="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="261" priority="1162" stopIfTrue="1">
-      <formula>$F83="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="1163" stopIfTrue="1">
-      <formula>OR($F83="終了",$F83="完了")</formula>
+  <conditionalFormatting sqref="B89:B90">
+    <cfRule type="expression" dxfId="287" priority="1187" stopIfTrue="1">
+      <formula>$F89="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="1188" stopIfTrue="1">
+      <formula>$F89="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="1189" stopIfTrue="1">
+      <formula>OR($F89="終了",$F89="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B99 B412:B65537">
-    <cfRule type="expression" dxfId="259" priority="1158" stopIfTrue="1">
-      <formula>F91="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="1159" stopIfTrue="1">
-      <formula>F91="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="1160" stopIfTrue="1">
-      <formula>OR(F91="終了",F91="完了")</formula>
+  <conditionalFormatting sqref="B97:B105 B418:B65543">
+    <cfRule type="expression" dxfId="284" priority="1184" stopIfTrue="1">
+      <formula>F97="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="283" priority="1185" stopIfTrue="1">
+      <formula>F97="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="1186" stopIfTrue="1">
+      <formula>OR(F97="終了",F97="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I15">
-    <cfRule type="expression" dxfId="256" priority="580" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="606" stopIfTrue="1">
       <formula>$F6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="581" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="607" stopIfTrue="1">
       <formula>$F6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="582" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="608" stopIfTrue="1">
       <formula>OR($F6="終了",$F6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I19">
-    <cfRule type="expression" dxfId="253" priority="577" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="603" stopIfTrue="1">
       <formula>$F18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="578" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="604" stopIfTrue="1">
       <formula>$F18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="579" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="605" stopIfTrue="1">
       <formula>OR($F18="終了",$F18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:J17">
-    <cfRule type="expression" dxfId="250" priority="574" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="600" stopIfTrue="1">
       <formula>$F17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="575" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="601" stopIfTrue="1">
       <formula>$F17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="576" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="602" stopIfTrue="1">
       <formula>OR($F17="終了",$F17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="247" priority="568" stopIfTrue="1">
-      <formula>$F33="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="569" stopIfTrue="1">
-      <formula>$F33="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="570" stopIfTrue="1">
-      <formula>OR($F33="終了",$F33="完了")</formula>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" dxfId="272" priority="594" stopIfTrue="1">
+      <formula>$F38="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="271" priority="595" stopIfTrue="1">
+      <formula>$F38="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="596" stopIfTrue="1">
+      <formula>OR($F38="終了",$F38="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I40:I45">
-    <cfRule type="expression" dxfId="244" priority="562" stopIfTrue="1">
-      <formula>$F41="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="563" stopIfTrue="1">
-      <formula>$F41="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="564" stopIfTrue="1">
-      <formula>OR($F41="終了",$F41="完了")</formula>
+  <conditionalFormatting sqref="I46:I51">
+    <cfRule type="expression" dxfId="269" priority="588" stopIfTrue="1">
+      <formula>$F47="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="589" stopIfTrue="1">
+      <formula>$F47="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="267" priority="590" stopIfTrue="1">
+      <formula>OR($F47="終了",$F47="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:I59">
-    <cfRule type="expression" dxfId="241" priority="556" stopIfTrue="1">
-      <formula>$F59="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="557" stopIfTrue="1">
-      <formula>$F59="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="239" priority="558" stopIfTrue="1">
-      <formula>OR($F59="終了",$F59="完了")</formula>
+  <conditionalFormatting sqref="I64:I65">
+    <cfRule type="expression" dxfId="266" priority="582" stopIfTrue="1">
+      <formula>$F65="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="583" stopIfTrue="1">
+      <formula>$F65="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="584" stopIfTrue="1">
+      <formula>OR($F65="終了",$F65="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65">
-    <cfRule type="expression" dxfId="238" priority="553" stopIfTrue="1">
-      <formula>$F64="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="554" stopIfTrue="1">
-      <formula>$F64="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="555" stopIfTrue="1">
-      <formula>OR($F64="終了",$F64="完了")</formula>
+  <conditionalFormatting sqref="I69:I71">
+    <cfRule type="expression" dxfId="263" priority="579" stopIfTrue="1">
+      <formula>$F70="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="580" stopIfTrue="1">
+      <formula>$F70="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="581" stopIfTrue="1">
+      <formula>OR($F70="終了",$F70="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:J85">
-    <cfRule type="expression" dxfId="235" priority="550" stopIfTrue="1">
-      <formula>$F70="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="551" stopIfTrue="1">
-      <formula>$F70="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="552" stopIfTrue="1">
-      <formula>OR($F70="終了",$F70="完了")</formula>
+  <conditionalFormatting sqref="I75:J91">
+    <cfRule type="expression" dxfId="260" priority="576" stopIfTrue="1">
+      <formula>$F76="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="577" stopIfTrue="1">
+      <formula>$F76="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="578" stopIfTrue="1">
+      <formula>OR($F76="終了",$F76="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:AK5">
-    <cfRule type="expression" dxfId="232" priority="514" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="540" stopIfTrue="1">
       <formula>$F5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="515" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="541" stopIfTrue="1">
       <formula>$F5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="516" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="542" stopIfTrue="1">
       <formula>OR($F5="終了",$F5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:AK6">
-    <cfRule type="expression" dxfId="229" priority="511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="537" stopIfTrue="1">
       <formula>$F6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="538" stopIfTrue="1">
       <formula>$F6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="513" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="539" stopIfTrue="1">
       <formula>OR($F6="終了",$F6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:AK19">
-    <cfRule type="expression" dxfId="226" priority="508" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="534" stopIfTrue="1">
       <formula>$F18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="509" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="535" stopIfTrue="1">
       <formula>$F18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="536" stopIfTrue="1">
       <formula>OR($F18="終了",$F18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:AK17">
-    <cfRule type="expression" dxfId="223" priority="505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="531" stopIfTrue="1">
       <formula>$F17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="506" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="532" stopIfTrue="1">
       <formula>$F17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="533" stopIfTrue="1">
       <formula>OR($F17="終了",$F17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33:AK33">
-    <cfRule type="expression" dxfId="220" priority="499" stopIfTrue="1">
-      <formula>$F33="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="500" stopIfTrue="1">
-      <formula>$F33="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="501" stopIfTrue="1">
-      <formula>OR($F33="終了",$F33="完了")</formula>
+  <conditionalFormatting sqref="L38:AK38">
+    <cfRule type="expression" dxfId="245" priority="525" stopIfTrue="1">
+      <formula>$F38="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="526" stopIfTrue="1">
+      <formula>$F38="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="527" stopIfTrue="1">
+      <formula>OR($F38="終了",$F38="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:AK45">
-    <cfRule type="expression" dxfId="217" priority="493" stopIfTrue="1">
-      <formula>$F41="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="494" stopIfTrue="1">
-      <formula>$F41="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="215" priority="495" stopIfTrue="1">
-      <formula>OR($F41="終了",$F41="完了")</formula>
+  <conditionalFormatting sqref="L46:AK51">
+    <cfRule type="expression" dxfId="242" priority="519" stopIfTrue="1">
+      <formula>$F47="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="520" stopIfTrue="1">
+      <formula>$F47="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="521" stopIfTrue="1">
+      <formula>OR($F47="終了",$F47="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49:AK51">
-    <cfRule type="expression" dxfId="214" priority="490" stopIfTrue="1">
-      <formula>$F50="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="491" stopIfTrue="1">
-      <formula>$F50="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="492" stopIfTrue="1">
-      <formula>OR($F50="終了",$F50="完了")</formula>
+  <conditionalFormatting sqref="L55:AK57">
+    <cfRule type="expression" dxfId="239" priority="516" stopIfTrue="1">
+      <formula>$F56="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="517" stopIfTrue="1">
+      <formula>$F56="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="518" stopIfTrue="1">
+      <formula>OR($F56="終了",$F56="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L55:AK55">
-    <cfRule type="expression" dxfId="211" priority="487" stopIfTrue="1">
-      <formula>$F56="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="488" stopIfTrue="1">
-      <formula>$F56="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="209" priority="489" stopIfTrue="1">
-      <formula>OR($F56="終了",$F56="完了")</formula>
+  <conditionalFormatting sqref="L61:AK61">
+    <cfRule type="expression" dxfId="236" priority="513" stopIfTrue="1">
+      <formula>$F62="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="514" stopIfTrue="1">
+      <formula>$F62="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="515" stopIfTrue="1">
+      <formula>OR($F62="終了",$F62="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L63:AK65">
-    <cfRule type="expression" dxfId="208" priority="484" stopIfTrue="1">
-      <formula>$F64="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="485" stopIfTrue="1">
-      <formula>$F64="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="486" stopIfTrue="1">
-      <formula>OR($F64="終了",$F64="完了")</formula>
+  <conditionalFormatting sqref="L69:AK71">
+    <cfRule type="expression" dxfId="233" priority="510" stopIfTrue="1">
+      <formula>$F70="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="511" stopIfTrue="1">
+      <formula>$F70="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="231" priority="512" stopIfTrue="1">
+      <formula>OR($F70="終了",$F70="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L69:AK85">
-    <cfRule type="expression" dxfId="205" priority="481" stopIfTrue="1">
-      <formula>$F70="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="482" stopIfTrue="1">
-      <formula>$F70="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="483" stopIfTrue="1">
-      <formula>OR($F70="終了",$F70="完了")</formula>
+  <conditionalFormatting sqref="L75:AK91">
+    <cfRule type="expression" dxfId="230" priority="507" stopIfTrue="1">
+      <formula>$F76="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="508" stopIfTrue="1">
+      <formula>$F76="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="509" stopIfTrue="1">
+      <formula>OR($F76="終了",$F76="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L56:AK58">
-    <cfRule type="expression" dxfId="202" priority="266" stopIfTrue="1">
-      <formula>$F57="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="267" stopIfTrue="1">
-      <formula>$F57="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="268" stopIfTrue="1">
-      <formula>OR($F57="終了",$F57="完了")</formula>
+  <conditionalFormatting sqref="L62:AK64">
+    <cfRule type="expression" dxfId="227" priority="292" stopIfTrue="1">
+      <formula>$F63="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="293" stopIfTrue="1">
+      <formula>$F63="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="294" stopIfTrue="1">
+      <formula>OR($F63="終了",$F63="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E22 E27:E46 E58:E1048576">
-    <cfRule type="containsText" dxfId="199" priority="220" operator="containsText" text="佐藤">
+  <conditionalFormatting sqref="E1:E22 E27:E30 E64:E1048576 E32:E52">
+    <cfRule type="containsText" dxfId="224" priority="246" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D22 C105:C1048576 C1 D27:D46 D58:D1048576">
-    <cfRule type="containsText" dxfId="198" priority="216" operator="containsText" text="絶">
+  <conditionalFormatting sqref="D1:D22 C111:C1048576 C1 D27:D30 D64:D1048576 D32:D52">
+    <cfRule type="containsText" dxfId="223" priority="242" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="217" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="222" priority="243" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="218" operator="containsText" text="無">
+    <cfRule type="containsText" dxfId="221" priority="244" operator="containsText" text="無">
       <formula>NOT(ISERROR(SEARCH("無",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="219" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="220" priority="245" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="dataBar" priority="215">
+    <cfRule type="dataBar" priority="241">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -29158,7 +29689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C9">
-    <cfRule type="dataBar" priority="214">
+    <cfRule type="dataBar" priority="240">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -29171,8 +29702,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C22 C27:C46 C58:C104">
-    <cfRule type="dataBar" priority="213">
+  <conditionalFormatting sqref="C5:C22 C27:C30 C64:C110 C32:C52">
+    <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -29186,234 +29717,234 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="194" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="236" stopIfTrue="1">
       <formula>$F5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="237" stopIfTrue="1">
       <formula>$F5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="238" stopIfTrue="1">
       <formula>OR($F5="終了",$F5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C411:C65536">
-    <cfRule type="expression" dxfId="188" priority="2644" stopIfTrue="1">
-      <formula>H411="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="2645" stopIfTrue="1">
-      <formula>H411="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="2646" stopIfTrue="1">
-      <formula>OR(H411="終了",H411="完了")</formula>
+  <conditionalFormatting sqref="C417:C65542">
+    <cfRule type="expression" dxfId="216" priority="2670" stopIfTrue="1">
+      <formula>H417="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="2671" stopIfTrue="1">
+      <formula>H417="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="2672" stopIfTrue="1">
+      <formula>OR(H417="終了",H417="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="182" priority="196" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="213" priority="222" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="197" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="212" priority="223" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="198" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="211" priority="224" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="199" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="210" priority="225" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="200" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="209" priority="226" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="177" priority="194" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="208" priority="220" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="195" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="207" priority="221" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="175" priority="193" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="206" priority="219" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="174" priority="188" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="205" priority="214" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="189" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="204" priority="215" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="190" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="203" priority="216" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="191" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="202" priority="217" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="192" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="201" priority="218" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="169" priority="186" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="200" priority="212" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="187" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="199" priority="213" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="167" priority="185" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="198" priority="211" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D26">
-    <cfRule type="expression" dxfId="166" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="208" stopIfTrue="1">
       <formula>$F24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="209" stopIfTrue="1">
       <formula>$F24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="210" stopIfTrue="1">
       <formula>OR($F24="終了",$F24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="containsText" dxfId="163" priority="177" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="194" priority="203" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="178" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="193" priority="204" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="179" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="192" priority="205" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="180" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="191" priority="206" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="181" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="190" priority="207" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="containsText" dxfId="158" priority="175" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="189" priority="201" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="176" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="188" priority="202" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D26">
-    <cfRule type="containsText" dxfId="156" priority="172" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="187" priority="198" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="173" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="186" priority="199" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="174" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="185" priority="200" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="containsText" dxfId="153" priority="171" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="184" priority="197" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="expression" dxfId="152" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="194" stopIfTrue="1">
       <formula>$F24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="195" stopIfTrue="1">
       <formula>$F24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="196" stopIfTrue="1">
       <formula>OR($F24="終了",$F24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="149" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="191" stopIfTrue="1">
       <formula>$F23="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="192" stopIfTrue="1">
       <formula>$F23="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="193" stopIfTrue="1">
       <formula>OR($F23="終了",$F23="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="146" priority="160" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="177" priority="186" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="161" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="176" priority="187" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="162" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="175" priority="188" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="163" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="174" priority="189" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="164" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="173" priority="190" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="141" priority="158" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="172" priority="184" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="159" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="171" priority="185" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="containsText" dxfId="139" priority="155" operator="containsText" text="低">
+    <cfRule type="containsText" dxfId="170" priority="181" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="156" operator="containsText" text="中">
+    <cfRule type="containsText" dxfId="169" priority="182" operator="containsText" text="中">
       <formula>NOT(ISERROR(SEARCH("中",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="157" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="168" priority="183" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="136" priority="154" operator="containsText" text="未定">
+    <cfRule type="containsText" dxfId="167" priority="180" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="expression" dxfId="135" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="177" stopIfTrue="1">
       <formula>$F22="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="178" stopIfTrue="1">
       <formula>$F22="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="179" stopIfTrue="1">
       <formula>OR($F22="終了",$F22="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E26">
-    <cfRule type="containsText" dxfId="132" priority="150" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="163" priority="176" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D26">
-    <cfRule type="containsText" dxfId="131" priority="146" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="162" priority="172" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="147" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="161" priority="173" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="148" operator="containsText" text="無">
+    <cfRule type="containsText" dxfId="160" priority="174" operator="containsText" text="無">
       <formula>NOT(ISERROR(SEARCH("無",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="149" operator="containsText" text="絶">
+    <cfRule type="containsText" dxfId="159" priority="175" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="dataBar" priority="145">
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -29427,375 +29958,375 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23 B28">
-    <cfRule type="expression" dxfId="127" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="162" stopIfTrue="1">
       <formula>$F22="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="163" stopIfTrue="1">
       <formula>$F22="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="164" stopIfTrue="1">
       <formula>OR($F22="終了",$F22="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="124" priority="133" stopIfTrue="1">
+  <conditionalFormatting sqref="B29:B30">
+    <cfRule type="expression" dxfId="155" priority="159" stopIfTrue="1">
       <formula>$F14="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="160" stopIfTrue="1">
       <formula>$F14="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="161" stopIfTrue="1">
       <formula>OR($F14="終了",$F14="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="121" priority="112" stopIfTrue="1">
-      <formula>$F39="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="113" stopIfTrue="1">
-      <formula>$F39="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="114" stopIfTrue="1">
-      <formula>OR($F39="終了",$F39="完了")</formula>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="152" priority="138" stopIfTrue="1">
+      <formula>$F45="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="139" stopIfTrue="1">
+      <formula>$F45="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="140" stopIfTrue="1">
+      <formula>OR($F45="終了",$F45="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58:B59">
-    <cfRule type="expression" dxfId="118" priority="106" stopIfTrue="1">
-      <formula>$F58="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="107" stopIfTrue="1">
-      <formula>$F58="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="108" stopIfTrue="1">
-      <formula>OR($F58="終了",$F58="完了")</formula>
+  <conditionalFormatting sqref="B64:B65">
+    <cfRule type="expression" dxfId="149" priority="132" stopIfTrue="1">
+      <formula>$F64="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="133" stopIfTrue="1">
+      <formula>$F64="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="134" stopIfTrue="1">
+      <formula>OR($F64="終了",$F64="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29 D29 G29:J29 L29:JT29">
-    <cfRule type="expression" dxfId="115" priority="2650" stopIfTrue="1">
-      <formula>$F31="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="2651" stopIfTrue="1">
-      <formula>$F31="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="2652" stopIfTrue="1">
-      <formula>OR($F31="終了",$F31="完了")</formula>
+  <conditionalFormatting sqref="D29:D30 G29:J30 L29:JT30 A29:A30 A32:A33 A45:A46 A48:A49 A51:A52 A54:A55 A57:A58 A60:A61 A63:A65 A67:A68 A70:A71 A73:A74 A76:A77 A79:A80 A82:A83 A85:A86 A88 A35 A40 A37">
+    <cfRule type="expression" dxfId="146" priority="2676" stopIfTrue="1">
+      <formula>$F36="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="2677" stopIfTrue="1">
+      <formula>$F36="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="2678" stopIfTrue="1">
+      <formula>OR($F36="終了",$F36="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31 D31 G31:J31 L31:JT31">
-    <cfRule type="expression" dxfId="112" priority="2653" stopIfTrue="1">
+  <conditionalFormatting sqref="D36 G36:J36 L36:JT36">
+    <cfRule type="expression" dxfId="143" priority="2679" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="2654" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="2680" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="2655" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="2681" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="109" priority="2737" stopIfTrue="1">
-      <formula>#REF!="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="2738" stopIfTrue="1">
-      <formula>#REF!="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="2739" stopIfTrue="1">
-      <formula>OR(#REF!="終了",#REF!="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="106" priority="91" stopIfTrue="1">
-      <formula>$F40="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="92" stopIfTrue="1">
-      <formula>$F40="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="93" stopIfTrue="1">
-      <formula>OR($F40="終了",$F40="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="103" priority="79" stopIfTrue="1">
-      <formula>$F35="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="80" stopIfTrue="1">
-      <formula>$F35="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="81" stopIfTrue="1">
-      <formula>OR($F35="終了",$F35="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="100" priority="76" stopIfTrue="1">
-      <formula>$F38="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="77" stopIfTrue="1">
-      <formula>$F38="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="78" stopIfTrue="1">
-      <formula>OR($F38="終了",$F38="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B35">
-    <cfRule type="expression" dxfId="97" priority="85" stopIfTrue="1">
-      <formula>$F31="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="86" stopIfTrue="1">
-      <formula>$F31="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="87" stopIfTrue="1">
-      <formula>OR($F31="終了",$F31="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="94" priority="88" stopIfTrue="1">
-      <formula>$F38="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="89" stopIfTrue="1">
-      <formula>$F38="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="90" stopIfTrue="1">
-      <formula>OR($F38="終了",$F38="完了")</formula>
+    <cfRule type="expression" dxfId="140" priority="2763" stopIfTrue="1">
+      <formula>#REF!="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="2764" stopIfTrue="1">
+      <formula>#REF!="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="2765" stopIfTrue="1">
+      <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="91" priority="82" stopIfTrue="1">
-      <formula>$F36="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="83" stopIfTrue="1">
-      <formula>$F36="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="84" stopIfTrue="1">
-      <formula>OR($F36="終了",$F36="完了")</formula>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="137" priority="117" stopIfTrue="1">
+      <formula>$F46="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="118" stopIfTrue="1">
+      <formula>$F46="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="119" stopIfTrue="1">
+      <formula>OR($F46="終了",$F46="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="88" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="105" stopIfTrue="1">
       <formula>$F40="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="106" stopIfTrue="1">
       <formula>$F40="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="107" stopIfTrue="1">
       <formula>OR($F40="終了",$F40="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B46">
-    <cfRule type="expression" dxfId="85" priority="70" stopIfTrue="1">
-      <formula>$F44="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="71" stopIfTrue="1">
-      <formula>$F44="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="72" stopIfTrue="1">
-      <formula>OR($F44="終了",$F44="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B46">
-    <cfRule type="expression" dxfId="82" priority="67" stopIfTrue="1">
-      <formula>$F45="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="68" stopIfTrue="1">
-      <formula>$F45="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="69" stopIfTrue="1">
-      <formula>OR($F45="終了",$F45="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="79" priority="64" stopIfTrue="1">
-      <formula>$F45="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="65" stopIfTrue="1">
-      <formula>$F45="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="66" stopIfTrue="1">
-      <formula>OR($F45="終了",$F45="完了")</formula>
+    <cfRule type="expression" dxfId="131" priority="102" stopIfTrue="1">
+      <formula>$F44="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="103" stopIfTrue="1">
+      <formula>$F44="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="104" stopIfTrue="1">
+      <formula>OR($F44="終了",$F44="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B46">
-    <cfRule type="expression" dxfId="76" priority="61" stopIfTrue="1">
-      <formula>$F45="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="62" stopIfTrue="1">
-      <formula>$F45="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="63" stopIfTrue="1">
-      <formula>OR($F45="終了",$F45="完了")</formula>
+  <conditionalFormatting sqref="B37:B40">
+    <cfRule type="expression" dxfId="128" priority="111" stopIfTrue="1">
+      <formula>$F36="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="112" stopIfTrue="1">
+      <formula>$F36="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="113" stopIfTrue="1">
+      <formula>OR($F36="終了",$F36="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="125" priority="114" stopIfTrue="1">
+      <formula>$F44="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="115" stopIfTrue="1">
+      <formula>$F44="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="116" stopIfTrue="1">
+      <formula>OR($F44="終了",$F44="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B43">
-    <cfRule type="expression" dxfId="73" priority="58" stopIfTrue="1">
-      <formula>$F42="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="59" stopIfTrue="1">
-      <formula>$F42="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="60" stopIfTrue="1">
-      <formula>OR($F42="終了",$F42="完了")</formula>
+    <cfRule type="expression" dxfId="122" priority="108" stopIfTrue="1">
+      <formula>$F41="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="109" stopIfTrue="1">
+      <formula>$F41="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="110" stopIfTrue="1">
+      <formula>OR($F41="終了",$F41="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="70" priority="55" stopIfTrue="1">
-      <formula>$F44="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="56" stopIfTrue="1">
-      <formula>$F44="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="57" stopIfTrue="1">
-      <formula>OR($F44="終了",$F44="完了")</formula>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="119" priority="99" stopIfTrue="1">
+      <formula>$F46="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="100" stopIfTrue="1">
+      <formula>$F46="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="101" stopIfTrue="1">
+      <formula>OR($F46="終了",$F46="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="67" priority="52" stopIfTrue="1">
-      <formula>$F44="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="53" stopIfTrue="1">
-      <formula>$F44="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="54" stopIfTrue="1">
-      <formula>OR($F44="終了",$F44="完了")</formula>
+  <conditionalFormatting sqref="B50:B52">
+    <cfRule type="expression" dxfId="116" priority="96" stopIfTrue="1">
+      <formula>$F50="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="97" stopIfTrue="1">
+      <formula>$F50="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="98" stopIfTrue="1">
+      <formula>OR($F50="終了",$F50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="64" priority="49" stopIfTrue="1">
-      <formula>$F44="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="50" stopIfTrue="1">
-      <formula>$F44="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="51" stopIfTrue="1">
-      <formula>OR($F44="終了",$F44="完了")</formula>
+  <conditionalFormatting sqref="B51:B52">
+    <cfRule type="expression" dxfId="113" priority="93" stopIfTrue="1">
+      <formula>$F51="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="94" stopIfTrue="1">
+      <formula>$F51="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="95" stopIfTrue="1">
+      <formula>OR($F51="終了",$F51="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57 F57:I57 F47:H56 J47">
-    <cfRule type="expression" dxfId="61" priority="46" stopIfTrue="1">
-      <formula>$F47="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="47" stopIfTrue="1">
-      <formula>$F47="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="48" stopIfTrue="1">
-      <formula>OR($F47="終了",$F47="完了")</formula>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="expression" dxfId="110" priority="90" stopIfTrue="1">
+      <formula>$F51="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="91" stopIfTrue="1">
+      <formula>$F51="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="92" stopIfTrue="1">
+      <formula>OR($F51="終了",$F51="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E57">
-    <cfRule type="containsText" dxfId="58" priority="41" stopIfTrue="1" operator="containsText" text="幸野">
-      <formula>NOT(ISERROR(SEARCH("幸野",E47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="42" stopIfTrue="1" operator="containsText" text="飯島">
-      <formula>NOT(ISERROR(SEARCH("飯島",E47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="43" stopIfTrue="1" operator="containsText" text="大高">
-      <formula>NOT(ISERROR(SEARCH("大高",E47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="44" stopIfTrue="1" operator="containsText" text="斉藤">
-      <formula>NOT(ISERROR(SEARCH("斉藤",E47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="45" stopIfTrue="1" operator="containsText" text="金城">
-      <formula>NOT(ISERROR(SEARCH("金城",E47)))</formula>
+  <conditionalFormatting sqref="B51:B52">
+    <cfRule type="expression" dxfId="107" priority="87" stopIfTrue="1">
+      <formula>$F51="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="88" stopIfTrue="1">
+      <formula>$F51="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="89" stopIfTrue="1">
+      <formula>OR($F51="終了",$F51="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E57">
-    <cfRule type="containsText" dxfId="53" priority="39" operator="containsText" text="佐藤">
-      <formula>NOT(ISERROR(SEARCH("佐藤",E47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="40" operator="containsText" text="阿曽">
-      <formula>NOT(ISERROR(SEARCH("阿曽",E47)))</formula>
+  <conditionalFormatting sqref="B48:B49">
+    <cfRule type="expression" dxfId="104" priority="84" stopIfTrue="1">
+      <formula>$F48="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="85" stopIfTrue="1">
+      <formula>$F48="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="86" stopIfTrue="1">
+      <formula>OR($F48="終了",$F48="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="51" priority="36" operator="containsText" text="低">
-      <formula>NOT(ISERROR(SEARCH("低",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="37" operator="containsText" text="中">
-      <formula>NOT(ISERROR(SEARCH("中",D57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="38" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",D57)))</formula>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="101" priority="81" stopIfTrue="1">
+      <formula>$F50="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="82" stopIfTrue="1">
+      <formula>$F50="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="83" stopIfTrue="1">
+      <formula>OR($F50="終了",$F50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E57">
-    <cfRule type="containsText" dxfId="48" priority="35" operator="containsText" text="未定">
-      <formula>NOT(ISERROR(SEARCH("未定",E47)))</formula>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="98" priority="78" stopIfTrue="1">
+      <formula>$F50="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="79" stopIfTrue="1">
+      <formula>$F50="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="80" stopIfTrue="1">
+      <formula>OR($F50="終了",$F50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="47" priority="32" stopIfTrue="1">
-      <formula>$F57="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="33" stopIfTrue="1">
-      <formula>$F57="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="34" stopIfTrue="1">
-      <formula>OR($F57="終了",$F57="完了")</formula>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="95" priority="75" stopIfTrue="1">
+      <formula>$F50="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="76" stopIfTrue="1">
+      <formula>$F50="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="77" stopIfTrue="1">
+      <formula>OR($F50="終了",$F50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D56">
-    <cfRule type="expression" dxfId="44" priority="29" stopIfTrue="1">
-      <formula>$F47="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="30" stopIfTrue="1">
-      <formula>$F47="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="31" stopIfTrue="1">
-      <formula>OR($F47="終了",$F47="完了")</formula>
+  <conditionalFormatting sqref="D63 F63:I63 F53:H62 J53">
+    <cfRule type="expression" dxfId="92" priority="72" stopIfTrue="1">
+      <formula>$F53="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="73" stopIfTrue="1">
+      <formula>$F53="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="74" stopIfTrue="1">
+      <formula>OR($F53="終了",$F53="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D56">
-    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="低">
-      <formula>NOT(ISERROR(SEARCH("低",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="27" operator="containsText" text="中">
-      <formula>NOT(ISERROR(SEARCH("中",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="28" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",D47)))</formula>
+  <conditionalFormatting sqref="E53:E63">
+    <cfRule type="containsText" dxfId="89" priority="67" stopIfTrue="1" operator="containsText" text="幸野">
+      <formula>NOT(ISERROR(SEARCH("幸野",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="68" stopIfTrue="1" operator="containsText" text="飯島">
+      <formula>NOT(ISERROR(SEARCH("飯島",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="69" stopIfTrue="1" operator="containsText" text="大高">
+      <formula>NOT(ISERROR(SEARCH("大高",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="70" stopIfTrue="1" operator="containsText" text="斉藤">
+      <formula>NOT(ISERROR(SEARCH("斉藤",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="71" stopIfTrue="1" operator="containsText" text="金城">
+      <formula>NOT(ISERROR(SEARCH("金城",E53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:B56">
-    <cfRule type="expression" dxfId="38" priority="23" stopIfTrue="1">
-      <formula>$F47="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="24" stopIfTrue="1">
-      <formula>$F47="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="25" stopIfTrue="1">
-      <formula>OR($F47="終了",$F47="完了")</formula>
+  <conditionalFormatting sqref="E53:E63">
+    <cfRule type="containsText" dxfId="84" priority="65" operator="containsText" text="佐藤">
+      <formula>NOT(ISERROR(SEARCH("佐藤",E53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="66" operator="containsText" text="阿曽">
+      <formula>NOT(ISERROR(SEARCH("阿曽",E53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47:I56">
-    <cfRule type="expression" dxfId="35" priority="20" stopIfTrue="1">
-      <formula>$F47="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="21" stopIfTrue="1">
-      <formula>$F47="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="22" stopIfTrue="1">
-      <formula>OR($F47="終了",$F47="完了")</formula>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="containsText" dxfId="82" priority="62" operator="containsText" text="低">
+      <formula>NOT(ISERROR(SEARCH("低",D63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="63" operator="containsText" text="中">
+      <formula>NOT(ISERROR(SEARCH("中",D63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="64" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",D63)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E57">
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="佐藤">
-      <formula>NOT(ISERROR(SEARCH("佐藤",E47)))</formula>
+  <conditionalFormatting sqref="E53:E63">
+    <cfRule type="containsText" dxfId="79" priority="61" operator="containsText" text="未定">
+      <formula>NOT(ISERROR(SEARCH("未定",E53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D57">
-    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="絶">
-      <formula>NOT(ISERROR(SEARCH("絶",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="絶">
-      <formula>NOT(ISERROR(SEARCH("絶",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="無">
-      <formula>NOT(ISERROR(SEARCH("無",D47)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="18" operator="containsText" text="絶">
-      <formula>NOT(ISERROR(SEARCH("絶",D47)))</formula>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="78" priority="58" stopIfTrue="1">
+      <formula>$F63="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="59" stopIfTrue="1">
+      <formula>$F63="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="60" stopIfTrue="1">
+      <formula>OR($F63="終了",$F63="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:C57">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="D53:D62">
+    <cfRule type="expression" dxfId="75" priority="55" stopIfTrue="1">
+      <formula>$F53="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="56" stopIfTrue="1">
+      <formula>$F53="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="57" stopIfTrue="1">
+      <formula>OR($F53="終了",$F53="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:D62">
+    <cfRule type="containsText" dxfId="72" priority="52" operator="containsText" text="低">
+      <formula>NOT(ISERROR(SEARCH("低",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="53" operator="containsText" text="中">
+      <formula>NOT(ISERROR(SEARCH("中",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="54" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:B62">
+    <cfRule type="expression" dxfId="69" priority="49" stopIfTrue="1">
+      <formula>$F53="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="50" stopIfTrue="1">
+      <formula>$F53="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="51" stopIfTrue="1">
+      <formula>OR($F53="終了",$F53="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:I62">
+    <cfRule type="expression" dxfId="66" priority="46" stopIfTrue="1">
+      <formula>$F53="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="47" stopIfTrue="1">
+      <formula>$F53="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="48" stopIfTrue="1">
+      <formula>OR($F53="終了",$F53="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:E63">
+    <cfRule type="containsText" dxfId="63" priority="45" operator="containsText" text="佐藤">
+      <formula>NOT(ISERROR(SEARCH("佐藤",E53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:D63">
+    <cfRule type="containsText" dxfId="62" priority="41" operator="containsText" text="絶">
+      <formula>NOT(ISERROR(SEARCH("絶",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="42" operator="containsText" text="絶">
+      <formula>NOT(ISERROR(SEARCH("絶",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="43" operator="containsText" text="無">
+      <formula>NOT(ISERROR(SEARCH("無",D53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="44" operator="containsText" text="絶">
+      <formula>NOT(ISERROR(SEARCH("絶",D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:C63">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -29808,8 +30339,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:C57">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="C53:C63">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -29822,33 +30353,184 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
-    <cfRule type="expression" dxfId="21" priority="4" stopIfTrue="1">
-      <formula>$F57="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
-      <formula>$F57="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
-      <formula>OR($F57="終了",$F57="完了")</formula>
+  <conditionalFormatting sqref="J63">
+    <cfRule type="expression" dxfId="58" priority="30" stopIfTrue="1">
+      <formula>$F63="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="31" stopIfTrue="1">
+      <formula>$F63="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="32" stopIfTrue="1">
+      <formula>OR($F63="終了",$F63="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J56">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
-      <formula>$F48="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
-      <formula>$F48="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
-      <formula>OR($F48="終了",$F48="完了")</formula>
+  <conditionalFormatting sqref="J54:J62">
+    <cfRule type="expression" dxfId="55" priority="27" stopIfTrue="1">
+      <formula>$F54="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="28" stopIfTrue="1">
+      <formula>$F54="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="29" stopIfTrue="1">
+      <formula>OR($F54="終了",$F54="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B35">
+    <cfRule type="expression" dxfId="52" priority="2766" stopIfTrue="1">
+      <formula>$F28="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="2767" stopIfTrue="1">
+      <formula>$F28="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="2768" stopIfTrue="1">
+      <formula>OR($F28="終了",$F28="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31 F31:JT31">
+    <cfRule type="expression" dxfId="49" priority="18" stopIfTrue="1">
+      <formula>$F31="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="19" stopIfTrue="1">
+      <formula>$F31="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="20" stopIfTrue="1">
+      <formula>OR($F31="終了",$F31="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="containsText" dxfId="46" priority="13" stopIfTrue="1" operator="containsText" text="幸野">
+      <formula>NOT(ISERROR(SEARCH("幸野",E31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="14" stopIfTrue="1" operator="containsText" text="飯島">
+      <formula>NOT(ISERROR(SEARCH("飯島",E31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="15" stopIfTrue="1" operator="containsText" text="大高">
+      <formula>NOT(ISERROR(SEARCH("大高",E31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="16" stopIfTrue="1" operator="containsText" text="斉藤">
+      <formula>NOT(ISERROR(SEARCH("斉藤",E31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="17" stopIfTrue="1" operator="containsText" text="金城">
+      <formula>NOT(ISERROR(SEARCH("金城",E31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="佐藤">
+      <formula>NOT(ISERROR(SEARCH("佐藤",E31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="12" operator="containsText" text="阿曽">
+      <formula>NOT(ISERROR(SEARCH("阿曽",E31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="containsText" dxfId="39" priority="8" operator="containsText" text="低">
+      <formula>NOT(ISERROR(SEARCH("低",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="中">
+      <formula>NOT(ISERROR(SEARCH("中",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="10" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="未定">
+      <formula>NOT(ISERROR(SEARCH("未定",E31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="佐藤">
+      <formula>NOT(ISERROR(SEARCH("佐藤",E31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="絶">
+      <formula>NOT(ISERROR(SEARCH("絶",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="絶">
+      <formula>NOT(ISERROR(SEARCH("絶",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="無">
+      <formula>NOT(ISERROR(SEARCH("無",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="絶">
+      <formula>NOT(ISERROR(SEARCH("絶",D31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D944516C-1735-4BCF-98A5-4F369DB30F5A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="30" priority="21" stopIfTrue="1">
+      <formula>$F27="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="22" stopIfTrue="1">
+      <formula>$F27="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="23" stopIfTrue="1">
+      <formula>OR($F27="終了",$F27="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31 A34 A44 A47 A50 A53 A56 A59 A62 A66 A69 A72 A75 A78 A81 A84 A87">
+    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
+      <formula>$F37="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
+      <formula>$F37="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+      <formula>OR($F37="終了",$F37="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="24" priority="2783" stopIfTrue="1">
+      <formula>$F32="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="2784" stopIfTrue="1">
+      <formula>$F32="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2785" stopIfTrue="1">
+      <formula>OR($F32="終了",$F32="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D43 G42:J43 L42:JT43">
+    <cfRule type="expression" dxfId="5" priority="2792" stopIfTrue="1">
+      <formula>$F44="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2793" stopIfTrue="1">
+      <formula>$F44="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2794" stopIfTrue="1">
+      <formula>OR($F44="終了",$F44="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36 A41:A43 A38:A39">
+    <cfRule type="expression" dxfId="2" priority="2837" stopIfTrue="1">
+      <formula>$F44="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2838" stopIfTrue="1">
+      <formula>$F44="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2839" stopIfTrue="1">
+      <formula>OR($F44="終了",$F44="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E110">
       <formula1>"宮内,斉藤,SIM,桑原,杉浦,根岸,未定"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D110">
       <formula1>"絶,高,中,低,無"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29896,7 +30578,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C5:C22 C27:C46 C58:C104</xm:sqref>
+          <xm:sqref>C5:C22 C27:C30 C64:C110 C32:C52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{470012FE-40F3-454E-BBA5-134373083837}">
@@ -29922,7 +30604,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C47:C57</xm:sqref>
+          <xm:sqref>C53:C63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{16FD4F82-08FA-4C66-9E67-94D65BB3B6D1}">
@@ -29935,7 +30617,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C47:C57</xm:sqref>
+          <xm:sqref>C53:C63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D944516C-1735-4BCF-98A5-4F369DB30F5A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -29958,42 +30653,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="I1" s="108" t="s">
+      <c r="I1" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="108"/>
+      <c r="J1" s="109"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="109"/>
+      <c r="J2" s="110"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
       <c r="H3" s="34">
-        <f ca="1">COUNTIF('スプリントバックログ(全体) '!$F$5:$F$411,'スプリントバックログ（グラフ表）'!$H$2)</f>
+        <f ca="1">COUNTIF('スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
         <v>5</v>
       </c>
-      <c r="I3" s="106">
+      <c r="I3" s="107">
         <v>1</v>
       </c>
-      <c r="J3" s="106"/>
-      <c r="K3" s="109" t="s">
+      <c r="J3" s="107"/>
+      <c r="K3" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
@@ -30020,10 +30715,10 @@
       <c r="H4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="109" t="s">
+      <c r="I4" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="109"/>
+      <c r="J4" s="110"/>
       <c r="K4" s="33" t="s">
         <v>49</v>
       </c>
@@ -30045,15 +30740,15 @@
         <v>104</v>
       </c>
       <c r="B5" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A5,'スプリントバックログ(全体) '!$I$5:$I$404)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A5,'スプリントバックログ(全体) '!$I$5:$I$410)</f>
         <v>16</v>
       </c>
       <c r="C5" s="30">
-        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A5,'スプリントバックログ(全体) '!$K$5:$K$404)</f>
+        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A5,'スプリントバックログ(全体) '!$K$5:$K$410)</f>
         <v>0</v>
       </c>
       <c r="D5" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A5,'スプリントバックログ(全体) '!$J$5:$J$404)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A5,'スプリントバックログ(全体) '!$J$5:$J$410)</f>
         <v>10</v>
       </c>
       <c r="E5" s="31">
@@ -30065,18 +30760,18 @@
         <v>0</v>
       </c>
       <c r="G5" s="34">
-        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A5)</f>
-        <v>21</v>
+        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A5)</f>
+        <v>23</v>
       </c>
       <c r="H5" s="32" t="e">
-        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A5,'スプリントバックログ(全体) '!$F$5:$F$411,'スプリントバックログ（グラフ表）'!$H$2)</f>
+        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A5,'スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I5" s="106" t="e">
+      <c r="I5" s="107" t="e">
         <f>H5/G5</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J5" s="107"/>
+      <c r="J5" s="108"/>
       <c r="K5" s="57">
         <f>(11*6)-B5</f>
         <v>50</v>
@@ -30103,15 +30798,15 @@
         <v>105</v>
       </c>
       <c r="B6" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A6,'スプリントバックログ(全体) '!$I$5:$I$404)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A6,'スプリントバックログ(全体) '!$I$5:$I$410)</f>
         <v>38</v>
       </c>
       <c r="C6" s="30">
-        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A6,'スプリントバックログ(全体) '!$K$5:$K$404)</f>
+        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A6,'スプリントバックログ(全体) '!$K$5:$K$410)</f>
         <v>1</v>
       </c>
       <c r="D6" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A6,'スプリントバックログ(全体) '!$J$5:$J$404)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A6,'スプリントバックログ(全体) '!$J$5:$J$410)</f>
         <v>38</v>
       </c>
       <c r="E6" s="31">
@@ -30123,18 +30818,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="34">
-        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A6)</f>
+        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A6)</f>
         <v>11</v>
       </c>
       <c r="H6" s="32" t="e">
-        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A6,'スプリントバックログ(全体) '!$F$5:$F$411,'スプリントバックログ（グラフ表）'!$H$2)</f>
+        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A6,'スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I6" s="106" t="e">
+      <c r="I6" s="107" t="e">
         <f t="shared" ref="I6:I9" si="2">H6/G6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J6" s="107"/>
+      <c r="J6" s="108"/>
       <c r="K6" s="57">
         <f>(11*6)-B6</f>
         <v>28</v>
@@ -30161,15 +30856,15 @@
         <v>106</v>
       </c>
       <c r="B7" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A7,'スプリントバックログ(全体) '!$I$5:$I$404)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A7,'スプリントバックログ(全体) '!$I$5:$I$410)</f>
         <v>0</v>
       </c>
       <c r="C7" s="30">
-        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A7,'スプリントバックログ(全体) '!$K$5:$K$404)</f>
+        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A7,'スプリントバックログ(全体) '!$K$5:$K$410)</f>
         <v>0</v>
       </c>
       <c r="D7" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A7,'スプリントバックログ(全体) '!$J$5:$J$404)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A7,'スプリントバックログ(全体) '!$J$5:$J$410)</f>
         <v>0</v>
       </c>
       <c r="E7" s="31">
@@ -30181,18 +30876,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="34">
-        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A7)</f>
+        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A7)</f>
         <v>1</v>
       </c>
       <c r="H7" s="32" t="e">
-        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A7,'スプリントバックログ(全体) '!$F$5:$F$411,'スプリントバックログ（グラフ表）'!$H$2)</f>
+        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A7,'スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I7" s="106" t="e">
+      <c r="I7" s="107" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J7" s="107"/>
+      <c r="J7" s="108"/>
       <c r="K7" s="57">
         <f t="shared" ref="K7:K9" si="6">(11*6)-B7</f>
         <v>66</v>
@@ -30219,15 +30914,15 @@
         <v>107</v>
       </c>
       <c r="B8" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A8,'スプリントバックログ(全体) '!$I$5:$I$404)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A8,'スプリントバックログ(全体) '!$I$5:$I$410)</f>
         <v>0</v>
       </c>
       <c r="C8" s="30">
-        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A8,'スプリントバックログ(全体) '!$K$5:$K$404)</f>
+        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A8,'スプリントバックログ(全体) '!$K$5:$K$410)</f>
         <v>0</v>
       </c>
       <c r="D8" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A8,'スプリントバックログ(全体) '!$J$5:$J$404)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A8,'スプリントバックログ(全体) '!$J$5:$J$410)</f>
         <v>0</v>
       </c>
       <c r="E8" s="31">
@@ -30239,18 +30934,18 @@
         <v>0</v>
       </c>
       <c r="G8" s="34">
-        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A8)</f>
+        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A8)</f>
         <v>1</v>
       </c>
       <c r="H8" s="32" t="e">
-        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A8,'スプリントバックログ(全体) '!$F$5:$F$411,'スプリントバックログ（グラフ表）'!$H$2)</f>
+        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A8,'スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I8" s="106" t="e">
+      <c r="I8" s="107" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J8" s="107"/>
+      <c r="J8" s="108"/>
       <c r="K8" s="57">
         <f t="shared" si="6"/>
         <v>66</v>
@@ -30277,15 +30972,15 @@
         <v>108</v>
       </c>
       <c r="B9" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A9,'スプリントバックログ(全体) '!$I$5:$I$404)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A9,'スプリントバックログ(全体) '!$I$5:$I$410)</f>
         <v>0</v>
       </c>
       <c r="C9" s="30">
-        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A9,'スプリントバックログ(全体) '!$K$5:$K$404)</f>
+        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A9,'スプリントバックログ(全体) '!$K$5:$K$410)</f>
         <v>0</v>
       </c>
       <c r="D9" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A9,'スプリントバックログ(全体) '!$J$5:$J$404)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A9,'スプリントバックログ(全体) '!$J$5:$J$410)</f>
         <v>0</v>
       </c>
       <c r="E9" s="31">
@@ -30297,18 +30992,18 @@
         <v>0</v>
       </c>
       <c r="G9" s="34">
-        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A9)</f>
-        <v>2</v>
+        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A9)</f>
+        <v>3</v>
       </c>
       <c r="H9" s="32" t="e">
-        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A9,'スプリントバックログ(全体) '!$F$5:$F$411,'スプリントバックログ（グラフ表）'!$H$2)</f>
+        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A9,'スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I9" s="106" t="e">
+      <c r="I9" s="107" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J9" s="107"/>
+      <c r="J9" s="108"/>
       <c r="K9" s="57">
         <f t="shared" si="6"/>
         <v>66</v>
@@ -30335,15 +31030,15 @@
         <v>109</v>
       </c>
       <c r="B10" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A10,'スプリントバックログ(全体) '!$I$5:$I$404)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A10,'スプリントバックログ(全体) '!$I$5:$I$410)</f>
         <v>0</v>
       </c>
       <c r="C10" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A10,'スプリントバックログ(全体) '!$K$5:$K$404)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A10,'スプリントバックログ(全体) '!$K$5:$K$410)</f>
         <v>0</v>
       </c>
       <c r="D10" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$404,A10,'スプリントバックログ(全体) '!$J$5:$J$404)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A10,'スプリントバックログ(全体) '!$J$5:$J$410)</f>
         <v>0</v>
       </c>
       <c r="E10" s="31">
@@ -30355,18 +31050,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="34">
-        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A10)</f>
+        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A10)</f>
         <v>0</v>
       </c>
       <c r="H10" s="32" t="e">
-        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$410,'スプリントバックログ（グラフ表）'!A10,'スプリントバックログ(全体) '!$F$5:$F$411,'スプリントバックログ（グラフ表）'!$H$2)</f>
+        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A10,'スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I10" s="106" t="e">
+      <c r="I10" s="107" t="e">
         <f t="shared" ref="I10" si="7">H10/G10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J10" s="107"/>
+      <c r="J10" s="108"/>
       <c r="K10" s="57">
         <f t="shared" ref="K10" si="8">(11*6)-B10</f>
         <v>66</v>
@@ -30405,55 +31100,55 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="A6:A10">
-    <cfRule type="containsText" dxfId="15" priority="13" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="21" priority="13" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="20" priority="14" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="19" priority="15" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="18" priority="16" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="17" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="17" priority="17" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A10">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="宮内">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="宮内">
       <formula>NOT(ISERROR(SEARCH("宮内",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="13" priority="6" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="12" priority="7" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="11" priority="8" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="9" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="10" priority="9" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="10" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="9" priority="10" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30472,7 +31167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A10">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="宮内">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="宮内">
       <formula>NOT(ISERROR(SEARCH("宮内",A5)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/7班_スプリントバックログ.xlsx
+++ b/7班_スプリントバックログ.xlsx
@@ -2433,19 +2433,7 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2468,6 +2456,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2498,48 +2498,6 @@
   </cellStyles>
   <dxfs count="488">
     <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFFCC"/>
@@ -2650,6 +2608,48 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -10756,10 +10756,10 @@
   <dimension ref="A1:AL417"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10782,22 +10782,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="95" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="94" t="s">
@@ -10806,57 +10806,57 @@
       <c r="H1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
     </row>
     <row r="2" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="97"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="94"/>
       <c r="H2" s="94"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="54" t="s">
         <v>15</v>
       </c>
@@ -10940,17 +10940,17 @@
       </c>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="97"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="12">
         <f>INT(($L$4-(COLUMN()-COLUMN($L4))*($L$4/COUNTA($L$2:$AL$2))))</f>
         <v>1</v>
@@ -11061,123 +11061,123 @@
       </c>
     </row>
     <row r="4" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="97"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="97"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="94"/>
       <c r="H4" s="94"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="95"/>
       <c r="L4" s="13">
-        <f>SUM(L5:L410)</f>
+        <f t="shared" ref="L4:AL4" si="3">SUM(L5:L410)</f>
         <v>1</v>
       </c>
       <c r="M4" s="13">
-        <f>SUM(M5:M410)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N4" s="13">
-        <f>SUM(N5:N410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O4" s="13">
-        <f>SUM(O5:O410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P4" s="13">
-        <f>SUM(P5:P410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q4" s="13">
-        <f>SUM(Q5:Q410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R4" s="13">
-        <f>SUM(R5:R410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S4" s="13">
-        <f>SUM(S5:S410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T4" s="13">
-        <f>SUM(T5:T410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U4" s="13">
-        <f>SUM(U5:U410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V4" s="40">
-        <f>SUM(V5:V410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W4" s="43">
-        <f>SUM(W5:W410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X4" s="13">
-        <f>SUM(X5:X410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y4" s="13">
-        <f>SUM(Y5:Y410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z4" s="13">
-        <f>SUM(Z5:Z410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA4" s="40">
-        <f>SUM(AA5:AA410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB4" s="37">
-        <f>SUM(AB5:AB410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC4" s="13">
-        <f>SUM(AC5:AC410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD4" s="13">
-        <f>SUM(AD5:AD410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE4" s="13">
-        <f>SUM(AE5:AE410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF4" s="13">
-        <f>SUM(AF5:AF410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG4" s="40">
-        <f>SUM(AG5:AG410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH4" s="37">
-        <f>SUM(AH5:AH410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI4" s="13">
-        <f>SUM(AI5:AI410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="13">
-        <f>SUM(AJ5:AJ410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK4" s="13">
-        <f>SUM(AK5:AK410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL4" s="13">
-        <f>SUM(AL5:AL410)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -11194,7 +11194,7 @@
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" s="9" t="str">
-        <f t="shared" ref="F5:F74" si="3">IF(ISBLANK($B5),"",IF(ISBLANK($H5),"未着手",IF($K5=0,"完了","作業中")))</f>
+        <f t="shared" ref="F5:F74" si="4">IF(ISBLANK($B5),"",IF(ISBLANK($H5),"未着手",IF($K5=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G5" s="4"/>
@@ -11202,7 +11202,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="9" t="str">
-        <f t="shared" ref="K5:K63" ca="1" si="4">IF(ISBLANK(L5)=FALSE,OFFSET(K5,0,COUNTA(L5:AL5)),"")</f>
+        <f t="shared" ref="K5:K63" ca="1" si="5">IF(ISBLANK(L5)=FALSE,OFFSET(K5,0,COUNTA(L5:AL5)),"")</f>
         <v/>
       </c>
       <c r="L5" s="11"/>
@@ -11244,7 +11244,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G6" s="4"/>
@@ -11252,7 +11252,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L6" s="11"/>
@@ -11298,7 +11298,7 @@
         <v>104</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="G7" s="4">
@@ -11314,7 +11314,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="L7" s="9">
@@ -11362,7 +11362,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="G8" s="4">
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="L8" s="9">
@@ -11426,7 +11426,7 @@
         <v>104</v>
       </c>
       <c r="F9" s="9" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="G9" s="4">
@@ -11442,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="L9" s="9">
@@ -11490,7 +11490,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="G10" s="4">
@@ -11506,7 +11506,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="L10" s="9">
@@ -11554,7 +11554,7 @@
         <v>104</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="G11" s="4">
@@ -11570,7 +11570,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="L11" s="9">
@@ -11618,7 +11618,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G12" s="4"/>
@@ -11626,7 +11626,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L12" s="11"/>
@@ -11672,7 +11672,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G13" s="4"/>
@@ -11680,7 +11680,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L13" s="11"/>
@@ -11722,7 +11722,7 @@
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G14" s="4"/>
@@ -11730,7 +11730,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L14" s="11"/>
@@ -11776,7 +11776,7 @@
         <v>108</v>
       </c>
       <c r="F15" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G15" s="4"/>
@@ -11784,7 +11784,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L15" s="11"/>
@@ -11830,7 +11830,7 @@
         <v>104</v>
       </c>
       <c r="F16" s="9" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="G16" s="4">
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L16" s="11"/>
@@ -11892,7 +11892,7 @@
         <v>104</v>
       </c>
       <c r="F17" s="9" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="G17" s="4">
@@ -11908,7 +11908,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L17" s="11"/>
@@ -11954,7 +11954,7 @@
         <v>104</v>
       </c>
       <c r="F18" s="9" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="G18" s="4">
@@ -11970,7 +11970,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L18" s="11"/>
@@ -12016,7 +12016,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G19" s="4">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L19" s="11"/>
@@ -12074,7 +12074,7 @@
         <v>104</v>
       </c>
       <c r="F20" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G20" s="4">
@@ -12086,7 +12086,7 @@
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L20" s="11"/>
@@ -12132,7 +12132,7 @@
         <v>104</v>
       </c>
       <c r="F21" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G21" s="4">
@@ -12144,7 +12144,7 @@
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L21" s="11"/>
@@ -12190,7 +12190,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="9" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="G22" s="4">
@@ -12206,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L22" s="11"/>
@@ -12254,7 +12254,7 @@
         <v>104</v>
       </c>
       <c r="F23" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G23" s="4"/>
@@ -12262,7 +12262,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L23" s="11"/>
@@ -12306,7 +12306,7 @@
         <v>104</v>
       </c>
       <c r="F24" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G24" s="4"/>
@@ -12314,7 +12314,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L24" s="11"/>
@@ -12358,7 +12358,7 @@
         <v>104</v>
       </c>
       <c r="F25" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G25" s="4"/>
@@ -12366,7 +12366,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L25" s="11"/>
@@ -12410,7 +12410,7 @@
         <v>104</v>
       </c>
       <c r="F26" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G26" s="4"/>
@@ -12418,7 +12418,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L26" s="11"/>
@@ -12462,7 +12462,7 @@
         <v>104</v>
       </c>
       <c r="F27" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G27" s="4"/>
@@ -12470,7 +12470,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L27" s="11"/>
@@ -12514,7 +12514,7 @@
         <v>104</v>
       </c>
       <c r="F28" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G28" s="4"/>
@@ -12522,7 +12522,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L28" s="11"/>
@@ -12570,7 +12570,7 @@
         <v>104</v>
       </c>
       <c r="F29" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G29" s="4">
@@ -12580,7 +12580,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L29" s="11"/>
@@ -12624,7 +12624,7 @@
         <v>104</v>
       </c>
       <c r="F30" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="G30" s="4">
@@ -12683,7 +12683,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="9" t="str">
-        <f t="shared" ref="K31" ca="1" si="5">IF(ISBLANK(L31)=FALSE,OFFSET(K31,0,COUNTA(L31:AL31)),"")</f>
+        <f t="shared" ref="K31" ca="1" si="6">IF(ISBLANK(L31)=FALSE,OFFSET(K31,0,COUNTA(L31:AL31)),"")</f>
         <v/>
       </c>
       <c r="L31" s="11"/>
@@ -12735,7 +12735,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L32" s="11"/>
@@ -12913,7 +12913,7 @@
         <v>104</v>
       </c>
       <c r="F36" s="9" t="str">
-        <f>IF(ISBLANK($B36),"",IF(ISBLANK($H36),"未着手",IF($K36=0,"完了","作業中")))</f>
+        <f t="shared" ref="F36:F42" si="7">IF(ISBLANK($B36),"",IF(ISBLANK($H36),"未着手",IF($K36=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G36" s="4"/>
@@ -12921,7 +12921,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L36" s="11"/>
@@ -12963,7 +12963,7 @@
       <c r="D37" s="24"/>
       <c r="E37" s="25"/>
       <c r="F37" s="9" t="str">
-        <f>IF(ISBLANK($B37),"",IF(ISBLANK($H37),"未着手",IF($K37=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G37" s="4"/>
@@ -12971,7 +12971,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L37" s="11"/>
@@ -13013,7 +13013,7 @@
       <c r="D38" s="24"/>
       <c r="E38" s="25"/>
       <c r="F38" s="9" t="str">
-        <f>IF(ISBLANK($B38),"",IF(ISBLANK($H38),"未着手",IF($K38=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G38" s="4"/>
@@ -13021,7 +13021,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L38" s="11"/>
@@ -13063,7 +13063,7 @@
       <c r="D39" s="24"/>
       <c r="E39" s="25"/>
       <c r="F39" s="9" t="str">
-        <f>IF(ISBLANK($B39),"",IF(ISBLANK($H39),"未着手",IF($K39=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G39" s="4"/>
@@ -13071,7 +13071,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L39" s="11"/>
@@ -13113,7 +13113,7 @@
       <c r="D40" s="24"/>
       <c r="E40" s="25"/>
       <c r="F40" s="9" t="str">
-        <f>IF(ISBLANK($B40),"",IF(ISBLANK($H40),"未着手",IF($K40=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G40" s="4"/>
@@ -13121,7 +13121,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L40" s="11"/>
@@ -13163,7 +13163,7 @@
       <c r="D41" s="24"/>
       <c r="E41" s="25"/>
       <c r="F41" s="9" t="str">
-        <f>IF(ISBLANK($B41),"",IF(ISBLANK($H41),"未着手",IF($K41=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G41" s="4"/>
@@ -13171,7 +13171,7 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L41" s="11"/>
@@ -13213,7 +13213,7 @@
       <c r="D42" s="24"/>
       <c r="E42" s="25"/>
       <c r="F42" s="9" t="str">
-        <f>IF(ISBLANK($B42),"",IF(ISBLANK($H42),"未着手",IF($K42=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G42" s="4"/>
@@ -13221,7 +13221,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L42" s="11"/>
@@ -13305,7 +13305,7 @@
       <c r="D44" s="24"/>
       <c r="E44" s="25"/>
       <c r="F44" s="9" t="str">
-        <f>IF(ISBLANK($B44),"",IF(ISBLANK($H44),"未着手",IF($K44=0,"完了","作業中")))</f>
+        <f t="shared" ref="F44:F63" si="8">IF(ISBLANK($B44),"",IF(ISBLANK($H44),"未着手",IF($K44=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G44" s="4"/>
@@ -13313,7 +13313,7 @@
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L44" s="11"/>
@@ -13355,7 +13355,7 @@
       <c r="D45" s="24"/>
       <c r="E45" s="25"/>
       <c r="F45" s="9" t="str">
-        <f>IF(ISBLANK($B45),"",IF(ISBLANK($H45),"未着手",IF($K45=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G45" s="4"/>
@@ -13363,7 +13363,7 @@
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L45" s="11"/>
@@ -13405,7 +13405,7 @@
       <c r="D46" s="24"/>
       <c r="E46" s="25"/>
       <c r="F46" s="9" t="str">
-        <f>IF(ISBLANK($B46),"",IF(ISBLANK($H46),"未着手",IF($K46=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G46" s="4"/>
@@ -13413,7 +13413,7 @@
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L46" s="11"/>
@@ -13455,7 +13455,7 @@
       <c r="D47" s="24"/>
       <c r="E47" s="25"/>
       <c r="F47" s="9" t="str">
-        <f>IF(ISBLANK($B47),"",IF(ISBLANK($H47),"未着手",IF($K47=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G47" s="4"/>
@@ -13463,7 +13463,7 @@
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L47" s="11"/>
@@ -13507,7 +13507,7 @@
         <v>106</v>
       </c>
       <c r="F48" s="9" t="str">
-        <f>IF(ISBLANK($B48),"",IF(ISBLANK($H48),"未着手",IF($K48=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G48" s="4"/>
@@ -13515,7 +13515,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L48" s="11"/>
@@ -13557,7 +13557,7 @@
       <c r="D49" s="24"/>
       <c r="E49" s="25"/>
       <c r="F49" s="9" t="str">
-        <f>IF(ISBLANK($B49),"",IF(ISBLANK($H49),"未着手",IF($K49=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G49" s="4"/>
@@ -13565,7 +13565,7 @@
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L49" s="11"/>
@@ -13607,7 +13607,7 @@
       <c r="D50" s="24"/>
       <c r="E50" s="25"/>
       <c r="F50" s="9" t="str">
-        <f>IF(ISBLANK($B50),"",IF(ISBLANK($H50),"未着手",IF($K50=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G50" s="4"/>
@@ -13615,7 +13615,7 @@
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L50" s="11"/>
@@ -13657,7 +13657,7 @@
       <c r="D51" s="24"/>
       <c r="E51" s="25"/>
       <c r="F51" s="9" t="str">
-        <f>IF(ISBLANK($B51),"",IF(ISBLANK($H51),"未着手",IF($K51=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G51" s="4"/>
@@ -13665,7 +13665,7 @@
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L51" s="11"/>
@@ -13707,7 +13707,7 @@
       <c r="D52" s="24"/>
       <c r="E52" s="25"/>
       <c r="F52" s="9" t="str">
-        <f>IF(ISBLANK($B52),"",IF(ISBLANK($H52),"未着手",IF($K52=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G52" s="4"/>
@@ -13715,7 +13715,7 @@
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>z</v>
       </c>
       <c r="L52" s="11" t="s">
@@ -13765,7 +13765,7 @@
         <v>105</v>
       </c>
       <c r="F53" s="9" t="str">
-        <f ca="1">IF(ISBLANK($B53),"",IF(ISBLANK($H53),"未着手",IF($K53=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>作業中</v>
       </c>
       <c r="G53" s="4">
@@ -13781,7 +13781,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L53" s="11"/>
@@ -13829,7 +13829,7 @@
         <v>105</v>
       </c>
       <c r="F54" s="9" t="str">
-        <f ca="1">IF(ISBLANK($B54),"",IF(ISBLANK($H54),"未着手",IF($K54=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>作業中</v>
       </c>
       <c r="G54" s="4">
@@ -13845,7 +13845,7 @@
         <v>2</v>
       </c>
       <c r="K54" s="9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="L54" s="11">
@@ -13897,7 +13897,7 @@
         <v>105</v>
       </c>
       <c r="F55" s="9" t="str">
-        <f ca="1">IF(ISBLANK($B55),"",IF(ISBLANK($H55),"未着手",IF($K55=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>作業中</v>
       </c>
       <c r="G55" s="4">
@@ -13913,7 +13913,7 @@
         <v>3</v>
       </c>
       <c r="K55" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L55" s="11"/>
@@ -13961,7 +13961,7 @@
         <v>105</v>
       </c>
       <c r="F56" s="9" t="str">
-        <f>IF(ISBLANK($B56),"",IF(ISBLANK($H56),"未着手",IF($K56=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G56" s="4">
@@ -13975,7 +13975,7 @@
         <v>3</v>
       </c>
       <c r="K56" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L56" s="11"/>
@@ -14023,7 +14023,7 @@
         <v>105</v>
       </c>
       <c r="F57" s="9" t="str">
-        <f ca="1">IF(ISBLANK($B57),"",IF(ISBLANK($H57),"未着手",IF($K57=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>作業中</v>
       </c>
       <c r="G57" s="4">
@@ -14039,7 +14039,7 @@
         <v>3</v>
       </c>
       <c r="K57" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L57" s="11"/>
@@ -14087,7 +14087,7 @@
         <v>105</v>
       </c>
       <c r="F58" s="9" t="str">
-        <f>IF(ISBLANK($B58),"",IF(ISBLANK($H58),"未着手",IF($K58=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G58" s="4">
@@ -14101,7 +14101,7 @@
         <v>3</v>
       </c>
       <c r="K58" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L58" s="11"/>
@@ -14149,7 +14149,7 @@
         <v>105</v>
       </c>
       <c r="F59" s="9" t="str">
-        <f>IF(ISBLANK($B59),"",IF(ISBLANK($H59),"未着手",IF($K59=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G59" s="4">
@@ -14163,7 +14163,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L59" s="11"/>
@@ -14211,7 +14211,7 @@
         <v>105</v>
       </c>
       <c r="F60" s="9" t="str">
-        <f>IF(ISBLANK($B60),"",IF(ISBLANK($H60),"未着手",IF($K60=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G60" s="4">
@@ -14225,7 +14225,7 @@
         <v>3</v>
       </c>
       <c r="K60" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L60" s="11"/>
@@ -14273,7 +14273,7 @@
         <v>105</v>
       </c>
       <c r="F61" s="9" t="str">
-        <f>IF(ISBLANK($B61),"",IF(ISBLANK($H61),"未着手",IF($K61=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G61" s="4">
@@ -14287,7 +14287,7 @@
         <v>3</v>
       </c>
       <c r="K61" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L61" s="11"/>
@@ -14335,7 +14335,7 @@
         <v>105</v>
       </c>
       <c r="F62" s="9" t="str">
-        <f>IF(ISBLANK($B62),"",IF(ISBLANK($H62),"未着手",IF($K62=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G62" s="4">
@@ -14349,7 +14349,7 @@
         <v>3</v>
       </c>
       <c r="K62" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L62" s="11"/>
@@ -14397,7 +14397,7 @@
         <v>105</v>
       </c>
       <c r="F63" s="9" t="str">
-        <f>IF(ISBLANK($B63),"",IF(ISBLANK($H63),"未着手",IF($K63=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="G63" s="4">
@@ -14411,7 +14411,7 @@
         <v>6</v>
       </c>
       <c r="K63" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L63" s="11"/>
@@ -14451,7 +14451,7 @@
       <c r="D64" s="24"/>
       <c r="E64" s="25"/>
       <c r="F64" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G64" s="4"/>
@@ -14459,7 +14459,7 @@
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="9" t="str">
-        <f t="shared" ref="K64:K74" ca="1" si="6">IF(ISBLANK(L64)=FALSE,OFFSET(K64,0,COUNTA(L64:AL64)),"")</f>
+        <f t="shared" ref="K64:K74" ca="1" si="9">IF(ISBLANK(L64)=FALSE,OFFSET(K64,0,COUNTA(L64:AL64)),"")</f>
         <v/>
       </c>
       <c r="L64" s="11"/>
@@ -14499,7 +14499,7 @@
       <c r="D65" s="24"/>
       <c r="E65" s="25"/>
       <c r="F65" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G65" s="4"/>
@@ -14507,7 +14507,7 @@
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L65" s="11"/>
@@ -14547,7 +14547,7 @@
       <c r="D66" s="24"/>
       <c r="E66" s="25"/>
       <c r="F66" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G66" s="4"/>
@@ -14555,7 +14555,7 @@
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L66" s="11"/>
@@ -14595,7 +14595,7 @@
       <c r="D67" s="24"/>
       <c r="E67" s="25"/>
       <c r="F67" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G67" s="4"/>
@@ -14603,7 +14603,7 @@
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L67" s="11"/>
@@ -14643,7 +14643,7 @@
       <c r="D68" s="24"/>
       <c r="E68" s="25"/>
       <c r="F68" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G68" s="4"/>
@@ -14651,7 +14651,7 @@
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L68" s="11"/>
@@ -14691,7 +14691,7 @@
       <c r="D69" s="24"/>
       <c r="E69" s="25"/>
       <c r="F69" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G69" s="4"/>
@@ -14699,7 +14699,7 @@
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L69" s="11"/>
@@ -14739,7 +14739,7 @@
       <c r="D70" s="24"/>
       <c r="E70" s="25"/>
       <c r="F70" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G70" s="4"/>
@@ -14747,7 +14747,7 @@
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L70" s="11"/>
@@ -14787,7 +14787,7 @@
       <c r="D71" s="24"/>
       <c r="E71" s="25"/>
       <c r="F71" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G71" s="4"/>
@@ -14795,7 +14795,7 @@
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L71" s="11"/>
@@ -14835,7 +14835,7 @@
       <c r="D72" s="24"/>
       <c r="E72" s="25"/>
       <c r="F72" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G72" s="4"/>
@@ -14843,7 +14843,7 @@
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L72" s="11"/>
@@ -14883,7 +14883,7 @@
       <c r="D73" s="24"/>
       <c r="E73" s="25"/>
       <c r="F73" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G73" s="4"/>
@@ -14891,7 +14891,7 @@
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L73" s="11"/>
@@ -14931,7 +14931,7 @@
       <c r="D74" s="24"/>
       <c r="E74" s="25"/>
       <c r="F74" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G74" s="4"/>
@@ -14939,7 +14939,7 @@
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="9" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L74" s="11"/>
@@ -14979,7 +14979,7 @@
       <c r="D75" s="24"/>
       <c r="E75" s="25"/>
       <c r="F75" s="9" t="str">
-        <f t="shared" ref="F75:F80" si="7">IF(ISBLANK($B75),"",IF(ISBLANK($H75),"未着手",IF($K75=0,"完了","作業中")))</f>
+        <f t="shared" ref="F75:F80" si="10">IF(ISBLANK($B75),"",IF(ISBLANK($H75),"未着手",IF($K75=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="G75" s="4"/>
@@ -14987,7 +14987,7 @@
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="9" t="str">
-        <f t="shared" ref="K75:K106" ca="1" si="8">IF(ISBLANK(L75)=FALSE,OFFSET(K75,0,COUNTA(L75:AL75)),"")</f>
+        <f t="shared" ref="K75:K106" ca="1" si="11">IF(ISBLANK(L75)=FALSE,OFFSET(K75,0,COUNTA(L75:AL75)),"")</f>
         <v/>
       </c>
       <c r="L75" s="11"/>
@@ -15027,7 +15027,7 @@
       <c r="D76" s="24"/>
       <c r="E76" s="25"/>
       <c r="F76" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G76" s="4"/>
@@ -15035,7 +15035,7 @@
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L76" s="11"/>
@@ -15075,7 +15075,7 @@
       <c r="D77" s="24"/>
       <c r="E77" s="25"/>
       <c r="F77" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G77" s="4"/>
@@ -15083,7 +15083,7 @@
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L77" s="11"/>
@@ -15123,7 +15123,7 @@
       <c r="D78" s="24"/>
       <c r="E78" s="25"/>
       <c r="F78" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G78" s="4"/>
@@ -15131,7 +15131,7 @@
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="K78" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L78" s="11"/>
@@ -15171,7 +15171,7 @@
       <c r="D79" s="24"/>
       <c r="E79" s="25"/>
       <c r="F79" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G79" s="4"/>
@@ -15179,7 +15179,7 @@
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L79" s="11"/>
@@ -15219,7 +15219,7 @@
       <c r="D80" s="24"/>
       <c r="E80" s="25"/>
       <c r="F80" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G80" s="4"/>
@@ -15227,7 +15227,7 @@
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
       <c r="K80" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L80" s="11"/>
@@ -15267,7 +15267,7 @@
       <c r="D81" s="24"/>
       <c r="E81" s="25"/>
       <c r="F81" s="9" t="str">
-        <f t="shared" ref="F81:F111" si="9">IF(ISBLANK($B81),"",IF(ISBLANK($H80),"未着手",IF($K80=0,"完了","作業中")))</f>
+        <f t="shared" ref="F81:F111" si="12">IF(ISBLANK($B81),"",IF(ISBLANK($H80),"未着手",IF($K80=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="G81" s="4"/>
@@ -15275,7 +15275,7 @@
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="K81" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L81" s="11"/>
@@ -15315,7 +15315,7 @@
       <c r="D82" s="24"/>
       <c r="E82" s="25"/>
       <c r="F82" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G82" s="4"/>
@@ -15323,7 +15323,7 @@
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L82" s="11"/>
@@ -15363,7 +15363,7 @@
       <c r="D83" s="24"/>
       <c r="E83" s="25"/>
       <c r="F83" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G83" s="4"/>
@@ -15371,7 +15371,7 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L83" s="11"/>
@@ -15411,7 +15411,7 @@
       <c r="D84" s="24"/>
       <c r="E84" s="25"/>
       <c r="F84" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G84" s="4"/>
@@ -15419,7 +15419,7 @@
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="K84" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L84" s="11"/>
@@ -15459,7 +15459,7 @@
       <c r="D85" s="24"/>
       <c r="E85" s="25"/>
       <c r="F85" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G85" s="23"/>
@@ -15467,7 +15467,7 @@
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="K85" s="22" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L85" s="11"/>
@@ -15507,7 +15507,7 @@
       <c r="D86" s="24"/>
       <c r="E86" s="25"/>
       <c r="F86" s="22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G86" s="4"/>
@@ -15515,7 +15515,7 @@
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
       <c r="K86" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L86" s="11"/>
@@ -15555,7 +15555,7 @@
       <c r="D87" s="24"/>
       <c r="E87" s="25"/>
       <c r="F87" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G87" s="4"/>
@@ -15563,7 +15563,7 @@
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
       <c r="K87" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L87" s="11"/>
@@ -15603,7 +15603,7 @@
       <c r="D88" s="24"/>
       <c r="E88" s="25"/>
       <c r="F88" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G88" s="4"/>
@@ -15611,7 +15611,7 @@
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
       <c r="K88" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L88" s="11"/>
@@ -15651,7 +15651,7 @@
       <c r="D89" s="24"/>
       <c r="E89" s="25"/>
       <c r="F89" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G89" s="4"/>
@@ -15659,7 +15659,7 @@
       <c r="I89" s="11"/>
       <c r="J89" s="11"/>
       <c r="K89" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L89" s="11"/>
@@ -15699,7 +15699,7 @@
       <c r="D90" s="24"/>
       <c r="E90" s="25"/>
       <c r="F90" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G90" s="4"/>
@@ -15707,7 +15707,7 @@
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
       <c r="K90" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L90" s="11"/>
@@ -15747,7 +15747,7 @@
       <c r="D91" s="24"/>
       <c r="E91" s="25"/>
       <c r="F91" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G91" s="4"/>
@@ -15755,7 +15755,7 @@
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
       <c r="K91" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L91" s="11"/>
@@ -15795,7 +15795,7 @@
       <c r="D92" s="24"/>
       <c r="E92" s="25"/>
       <c r="F92" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G92" s="4"/>
@@ -15803,7 +15803,7 @@
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
       <c r="K92" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L92" s="11"/>
@@ -15843,7 +15843,7 @@
       <c r="D93" s="24"/>
       <c r="E93" s="25"/>
       <c r="F93" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G93" s="4"/>
@@ -15851,7 +15851,7 @@
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
       <c r="K93" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L93" s="11"/>
@@ -15891,7 +15891,7 @@
       <c r="D94" s="24"/>
       <c r="E94" s="25"/>
       <c r="F94" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G94" s="4"/>
@@ -15899,7 +15899,7 @@
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
       <c r="K94" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L94" s="11"/>
@@ -15939,7 +15939,7 @@
       <c r="D95" s="24"/>
       <c r="E95" s="25"/>
       <c r="F95" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G95" s="4"/>
@@ -15947,7 +15947,7 @@
       <c r="I95" s="11"/>
       <c r="J95" s="11"/>
       <c r="K95" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L95" s="11"/>
@@ -15987,7 +15987,7 @@
       <c r="D96" s="24"/>
       <c r="E96" s="25"/>
       <c r="F96" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G96" s="4"/>
@@ -15995,7 +15995,7 @@
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
       <c r="K96" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L96" s="11"/>
@@ -16035,7 +16035,7 @@
       <c r="D97" s="24"/>
       <c r="E97" s="25"/>
       <c r="F97" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G97" s="4"/>
@@ -16043,7 +16043,7 @@
       <c r="I97" s="11"/>
       <c r="J97" s="11"/>
       <c r="K97" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L97" s="11"/>
@@ -16083,7 +16083,7 @@
       <c r="D98" s="24"/>
       <c r="E98" s="25"/>
       <c r="F98" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G98" s="4"/>
@@ -16091,7 +16091,7 @@
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
       <c r="K98" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L98" s="11"/>
@@ -16131,7 +16131,7 @@
       <c r="D99" s="24"/>
       <c r="E99" s="25"/>
       <c r="F99" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G99" s="4"/>
@@ -16139,7 +16139,7 @@
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
       <c r="K99" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L99" s="11"/>
@@ -16179,7 +16179,7 @@
       <c r="D100" s="24"/>
       <c r="E100" s="25"/>
       <c r="F100" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G100" s="4"/>
@@ -16187,7 +16187,7 @@
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
       <c r="K100" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L100" s="11"/>
@@ -16227,7 +16227,7 @@
       <c r="D101" s="24"/>
       <c r="E101" s="25"/>
       <c r="F101" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G101" s="4"/>
@@ -16235,7 +16235,7 @@
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
       <c r="K101" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L101" s="11"/>
@@ -16275,7 +16275,7 @@
       <c r="D102" s="24"/>
       <c r="E102" s="25"/>
       <c r="F102" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G102" s="4"/>
@@ -16283,7 +16283,7 @@
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
       <c r="K102" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L102" s="11"/>
@@ -16323,7 +16323,7 @@
       <c r="D103" s="24"/>
       <c r="E103" s="25"/>
       <c r="F103" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G103" s="4"/>
@@ -16331,7 +16331,7 @@
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
       <c r="K103" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L103" s="11"/>
@@ -16371,7 +16371,7 @@
       <c r="D104" s="24"/>
       <c r="E104" s="25"/>
       <c r="F104" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G104" s="4"/>
@@ -16379,7 +16379,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
       <c r="K104" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L104" s="11"/>
@@ -16419,7 +16419,7 @@
       <c r="D105" s="24"/>
       <c r="E105" s="25"/>
       <c r="F105" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G105" s="4"/>
@@ -16427,7 +16427,7 @@
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
       <c r="K105" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L105" s="11"/>
@@ -16467,7 +16467,7 @@
       <c r="D106" s="24"/>
       <c r="E106" s="25"/>
       <c r="F106" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G106" s="4"/>
@@ -16475,7 +16475,7 @@
       <c r="I106" s="11"/>
       <c r="J106" s="11"/>
       <c r="K106" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L106" s="11"/>
@@ -16515,7 +16515,7 @@
       <c r="D107" s="24"/>
       <c r="E107" s="25"/>
       <c r="F107" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G107" s="4"/>
@@ -16523,7 +16523,7 @@
       <c r="I107" s="11"/>
       <c r="J107" s="11"/>
       <c r="K107" s="9" t="str">
-        <f t="shared" ref="K107:K110" ca="1" si="10">IF(ISBLANK(L107)=FALSE,OFFSET(K107,0,COUNTA(L107:AL107)),"")</f>
+        <f t="shared" ref="K107:K110" ca="1" si="13">IF(ISBLANK(L107)=FALSE,OFFSET(K107,0,COUNTA(L107:AL107)),"")</f>
         <v/>
       </c>
       <c r="L107" s="11"/>
@@ -16563,7 +16563,7 @@
       <c r="D108" s="24"/>
       <c r="E108" s="25"/>
       <c r="F108" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G108" s="4"/>
@@ -16571,7 +16571,7 @@
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
       <c r="K108" s="9" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="L108" s="11"/>
@@ -16611,7 +16611,7 @@
       <c r="D109" s="24"/>
       <c r="E109" s="25"/>
       <c r="F109" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G109" s="4"/>
@@ -16619,7 +16619,7 @@
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
       <c r="K109" s="9" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="L109" s="11"/>
@@ -16659,7 +16659,7 @@
       <c r="D110" s="24"/>
       <c r="E110" s="25"/>
       <c r="F110" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G110" s="4"/>
@@ -16667,7 +16667,7 @@
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
       <c r="K110" s="9" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="L110" s="11"/>
@@ -16704,7 +16704,7 @@
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G111"/>
@@ -28670,6 +28670,11 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:AL1"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
@@ -28677,11 +28682,6 @@
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="C1:C4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="L1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F418:F65543">
@@ -30505,24 +30505,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D43 G42:J43 L42:JT43">
-    <cfRule type="expression" dxfId="5" priority="2792" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="2792" stopIfTrue="1">
       <formula>$F44="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2793" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="2793" stopIfTrue="1">
       <formula>$F44="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2794" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2794" stopIfTrue="1">
       <formula>OR($F44="終了",$F44="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36 A41:A43 A38:A39">
-    <cfRule type="expression" dxfId="2" priority="2837" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="2837" stopIfTrue="1">
       <formula>$F44="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2838" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2838" stopIfTrue="1">
       <formula>$F44="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2839" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2839" stopIfTrue="1">
       <formula>OR($F44="終了",$F44="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31100,55 +31100,55 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="A6:A10">
-    <cfRule type="containsText" dxfId="21" priority="13" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="15" priority="13" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="14" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="14" priority="14" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="15" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="13" priority="15" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="16" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="12" priority="16" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="17" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="11" priority="17" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A10">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="宮内">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="宮内">
       <formula>NOT(ISERROR(SEARCH("宮内",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" stopIfTrue="1" operator="containsText" text="幸野">
+    <cfRule type="containsText" dxfId="7" priority="6" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="7" stopIfTrue="1" operator="containsText" text="飯島">
+    <cfRule type="containsText" dxfId="6" priority="7" stopIfTrue="1" operator="containsText" text="飯島">
       <formula>NOT(ISERROR(SEARCH("飯島",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="8" stopIfTrue="1" operator="containsText" text="大高">
+    <cfRule type="containsText" dxfId="5" priority="8" stopIfTrue="1" operator="containsText" text="大高">
       <formula>NOT(ISERROR(SEARCH("大高",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="9" stopIfTrue="1" operator="containsText" text="斉藤">
+    <cfRule type="containsText" dxfId="4" priority="9" stopIfTrue="1" operator="containsText" text="斉藤">
       <formula>NOT(ISERROR(SEARCH("斉藤",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" stopIfTrue="1" operator="containsText" text="金城">
+    <cfRule type="containsText" dxfId="3" priority="10" stopIfTrue="1" operator="containsText" text="金城">
       <formula>NOT(ISERROR(SEARCH("金城",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="佐藤">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="阿曽">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="阿曽">
       <formula>NOT(ISERROR(SEARCH("阿曽",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31167,7 +31167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A10">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="宮内">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="宮内">
       <formula>NOT(ISERROR(SEARCH("宮内",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31232,7 +31232,7 @@
       </c>
       <c r="F1" s="60">
         <f ca="1">TODAY()</f>
-        <v>42844</v>
+        <v>42845</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -31653,7 +31653,7 @@
       </c>
       <c r="F1" s="60">
         <f ca="1">TODAY()</f>
-        <v>42844</v>
+        <v>42845</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -32232,7 +32232,7 @@
       </c>
       <c r="F1" s="60">
         <f ca="1">TODAY()</f>
-        <v>42844</v>
+        <v>42845</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">

--- a/7班_スプリントバックログ.xlsx
+++ b/7班_スプリントバックログ.xlsx
@@ -2433,7 +2433,19 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2456,18 +2468,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7162,7 +7162,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7633,7 +7633,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -10756,10 +10756,10 @@
   <dimension ref="A1:AL417"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomRight" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10782,22 +10782,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="97" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="94" t="s">
@@ -10806,57 +10806,57 @@
       <c r="H1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="105" t="s">
+      <c r="L1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
     </row>
     <row r="2" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="95"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="94"/>
       <c r="H2" s="94"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="95"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
       <c r="L2" s="54" t="s">
         <v>15</v>
       </c>
@@ -10940,17 +10940,17 @@
       </c>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="95"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="97"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="95"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
       <c r="L3" s="12">
         <f>INT(($L$4-(COLUMN()-COLUMN($L4))*($L$4/COUNTA($L$2:$AL$2))))</f>
         <v>1</v>
@@ -11061,17 +11061,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="95"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="95"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="94"/>
       <c r="H4" s="94"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="95"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="13">
         <f t="shared" ref="L4:AL4" si="3">SUM(L5:L410)</f>
         <v>1</v>
@@ -13765,8 +13765,8 @@
         <v>105</v>
       </c>
       <c r="F53" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>作業中</v>
+        <f t="shared" si="8"/>
+        <v>完了</v>
       </c>
       <c r="G53" s="4">
         <v>42843</v>
@@ -13780,9 +13780,8 @@
       <c r="J53" s="11">
         <v>6</v>
       </c>
-      <c r="K53" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K53" s="9">
+        <v>0</v>
       </c>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
@@ -13829,8 +13828,8 @@
         <v>105</v>
       </c>
       <c r="F54" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>作業中</v>
+        <f t="shared" si="8"/>
+        <v>完了</v>
       </c>
       <c r="G54" s="4">
         <v>42844</v>
@@ -13845,8 +13844,7 @@
         <v>2</v>
       </c>
       <c r="K54" s="9">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="11">
         <v>1</v>
@@ -13888,7 +13886,7 @@
         <v>154</v>
       </c>
       <c r="C55" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>133</v>
@@ -13897,8 +13895,8 @@
         <v>105</v>
       </c>
       <c r="F55" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>作業中</v>
+        <f t="shared" si="8"/>
+        <v>完了</v>
       </c>
       <c r="G55" s="4">
         <v>42844</v>
@@ -13912,9 +13910,8 @@
       <c r="J55" s="11">
         <v>3</v>
       </c>
-      <c r="K55" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K55" s="9">
+        <v>0</v>
       </c>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
@@ -13952,7 +13949,7 @@
         <v>155</v>
       </c>
       <c r="C56" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>133</v>
@@ -13962,21 +13959,22 @@
       </c>
       <c r="F56" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="G56" s="4">
         <v>42845</v>
       </c>
-      <c r="H56" s="4"/>
+      <c r="H56" s="4">
+        <v>42845</v>
+      </c>
       <c r="I56" s="11">
         <v>3</v>
       </c>
       <c r="J56" s="11">
         <v>3</v>
       </c>
-      <c r="K56" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K56" s="9">
+        <v>0</v>
       </c>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
@@ -14014,7 +14012,7 @@
         <v>156</v>
       </c>
       <c r="C57" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>133</v>
@@ -14023,8 +14021,8 @@
         <v>105</v>
       </c>
       <c r="F57" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>作業中</v>
+        <f t="shared" si="8"/>
+        <v>完了</v>
       </c>
       <c r="G57" s="4">
         <v>42844</v>
@@ -14038,9 +14036,8 @@
       <c r="J57" s="11">
         <v>3</v>
       </c>
-      <c r="K57" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K57" s="9">
+        <v>0</v>
       </c>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
@@ -14078,7 +14075,7 @@
         <v>157</v>
       </c>
       <c r="C58" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>158</v>
@@ -14088,21 +14085,22 @@
       </c>
       <c r="F58" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="G58" s="4">
         <v>42845</v>
       </c>
-      <c r="H58" s="4"/>
+      <c r="H58" s="4">
+        <v>42845</v>
+      </c>
       <c r="I58" s="11">
         <v>3</v>
       </c>
       <c r="J58" s="11">
         <v>3</v>
       </c>
-      <c r="K58" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K58" s="9">
+        <v>0</v>
       </c>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
@@ -14149,13 +14147,15 @@
         <v>105</v>
       </c>
       <c r="F59" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>作業中</v>
       </c>
       <c r="G59" s="4">
         <v>42845</v>
       </c>
-      <c r="H59" s="4"/>
+      <c r="H59" s="4">
+        <v>42845</v>
+      </c>
       <c r="I59" s="11">
         <v>3</v>
       </c>
@@ -28670,11 +28670,6 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="L1:AL1"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
@@ -28682,6 +28677,11 @@
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="C1:C4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F418:F65543">
@@ -30676,7 +30676,7 @@
       <c r="E3" s="113"/>
       <c r="H3" s="34">
         <f ca="1">COUNTIF('スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I3" s="107">
         <v>1</v>
@@ -30803,7 +30803,7 @@
       </c>
       <c r="C6" s="30">
         <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A6,'スプリントバックログ(全体) '!$K$5:$K$410)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="30">
         <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A6,'スプリントバックログ(全体) '!$J$5:$J$410)</f>
@@ -30815,7 +30815,7 @@
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="34">
         <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A6)</f>

--- a/7班_スプリントバックログ.xlsx
+++ b/7班_スプリントバックログ.xlsx
@@ -19,7 +19,7 @@
     <sheet name="スケジュール（6月分）" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'スプリントバックログ(全体) '!$A$1:$AL$416</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'スプリントバックログ(全体) '!$A$1:$AL$417</definedName>
     <definedName name="重要度" localSheetId="0">OFFSET(#REF!,0,0,COUNTA(#REF!),1)</definedName>
     <definedName name="重要度">OFFSET(#REF!,0,0,COUNTA(#REF!),1)</definedName>
     <definedName name="状況" localSheetId="0">OFFSET(#REF!,0,0,COUNTA(#REF!),1)</definedName>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="174">
   <si>
     <t>番号</t>
   </si>
@@ -1664,6 +1664,16 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>ゲーム画面の仕様</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -2433,19 +2443,7 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2468,6 +2466,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7319,7 +7329,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7476,7 +7486,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -10753,13 +10763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL417"/>
+  <dimension ref="A1:AL418"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10782,22 +10792,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="95" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="94" t="s">
@@ -10806,57 +10816,57 @@
       <c r="H1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
     </row>
     <row r="2" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="97"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="94"/>
       <c r="H2" s="94"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="54" t="s">
         <v>15</v>
       </c>
@@ -10940,17 +10950,17 @@
       </c>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="97"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="12">
         <f>INT(($L$4-(COLUMN()-COLUMN($L4))*($L$4/COUNTA($L$2:$AL$2))))</f>
         <v>1</v>
@@ -11061,19 +11071,19 @@
       </c>
     </row>
     <row r="4" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="97"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="97"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="94"/>
       <c r="H4" s="94"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="95"/>
       <c r="L4" s="13">
-        <f t="shared" ref="L4:AL4" si="3">SUM(L5:L410)</f>
+        <f t="shared" ref="L4:AL4" si="3">SUM(L5:L411)</f>
         <v>1</v>
       </c>
       <c r="M4" s="13">
@@ -11194,7 +11204,7 @@
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" s="9" t="str">
-        <f t="shared" ref="F5:F74" si="4">IF(ISBLANK($B5),"",IF(ISBLANK($H5),"未着手",IF($K5=0,"完了","作業中")))</f>
+        <f t="shared" ref="F5:F75" si="4">IF(ISBLANK($B5),"",IF(ISBLANK($H5),"未着手",IF($K5=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G5" s="4"/>
@@ -11202,7 +11212,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="9" t="str">
-        <f t="shared" ref="K5:K63" ca="1" si="5">IF(ISBLANK(L5)=FALSE,OFFSET(K5,0,COUNTA(L5:AL5)),"")</f>
+        <f t="shared" ref="K5:K64" ca="1" si="5">IF(ISBLANK(L5)=FALSE,OFFSET(K5,0,COUNTA(L5:AL5)),"")</f>
         <v/>
       </c>
       <c r="L5" s="11"/>
@@ -13305,7 +13315,7 @@
       <c r="D44" s="24"/>
       <c r="E44" s="25"/>
       <c r="F44" s="9" t="str">
-        <f t="shared" ref="F44:F63" si="8">IF(ISBLANK($B44),"",IF(ISBLANK($H44),"未着手",IF($K44=0,"完了","作業中")))</f>
+        <f t="shared" ref="F44:F64" si="8">IF(ISBLANK($B44),"",IF(ISBLANK($H44),"未着手",IF($K44=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G44" s="4"/>
@@ -14075,7 +14085,7 @@
         <v>157</v>
       </c>
       <c r="C58" s="28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>158</v>
@@ -14138,7 +14148,7 @@
         <v>159</v>
       </c>
       <c r="C59" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>158</v>
@@ -14199,34 +14209,33 @@
         <v>55</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C60" s="28">
-        <v>0</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>161</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D60" s="24"/>
       <c r="E60" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F60" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="G60" s="4">
-        <v>42846</v>
-      </c>
-      <c r="H60" s="4"/>
+        <v>42845</v>
+      </c>
+      <c r="H60" s="4">
+        <v>42845</v>
+      </c>
       <c r="I60" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" s="11">
-        <v>3</v>
-      </c>
-      <c r="K60" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="K60" s="9">
+        <v>0</v>
       </c>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
@@ -14258,10 +14267,10 @@
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A61" s="27">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C61" s="28">
         <v>0</v>
@@ -14273,13 +14282,15 @@
         <v>105</v>
       </c>
       <c r="F61" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>作業中</v>
       </c>
       <c r="G61" s="4">
         <v>42846</v>
       </c>
-      <c r="H61" s="4"/>
+      <c r="H61" s="4">
+        <v>42845</v>
+      </c>
       <c r="I61" s="11">
         <v>3</v>
       </c>
@@ -14320,10 +14331,10 @@
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A62" s="27">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C62" s="28">
         <v>0</v>
@@ -14339,7 +14350,7 @@
         <v>未着手</v>
       </c>
       <c r="G62" s="4">
-        <v>42847</v>
+        <v>42846</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="11">
@@ -14378,20 +14389,20 @@
       <c r="AI62" s="11"/>
       <c r="AJ62" s="11"/>
       <c r="AK62" s="11"/>
-      <c r="AL62" s="11"/>
+      <c r="AL62" s="14"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A63" s="27">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C63" s="28">
         <v>0</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E63" s="25" t="s">
         <v>105</v>
@@ -14401,14 +14412,14 @@
         <v>未着手</v>
       </c>
       <c r="G63" s="4">
-        <v>42848</v>
+        <v>42847</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J63" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K63" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -14444,22 +14455,36 @@
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A64" s="27">
-        <v>59</v>
-      </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="25"/>
+        <v>58</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="28">
+        <v>0</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="F64" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G64" s="4"/>
+        <f t="shared" si="8"/>
+        <v>未着手</v>
+      </c>
+      <c r="G64" s="4">
+        <v>42848</v>
+      </c>
       <c r="H64" s="4"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
+      <c r="I64" s="11">
+        <v>6</v>
+      </c>
+      <c r="J64" s="11">
+        <v>6</v>
+      </c>
       <c r="K64" s="9" t="str">
-        <f t="shared" ref="K64:K74" ca="1" si="9">IF(ISBLANK(L64)=FALSE,OFFSET(K64,0,COUNTA(L64:AL64)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L64" s="11"/>
@@ -14492,7 +14517,7 @@
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A65" s="27">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="28"/>
@@ -14507,7 +14532,7 @@
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="9" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="K65:K75" ca="1" si="9">IF(ISBLANK(L65)=FALSE,OFFSET(K65,0,COUNTA(L65:AL65)),"")</f>
         <v/>
       </c>
       <c r="L65" s="11"/>
@@ -14540,7 +14565,7 @@
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A66" s="27">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="28"/>
@@ -14588,7 +14613,7 @@
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A67" s="27">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="28"/>
@@ -14636,7 +14661,7 @@
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A68" s="27">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="28"/>
@@ -14680,11 +14705,11 @@
       <c r="AI68" s="11"/>
       <c r="AJ68" s="11"/>
       <c r="AK68" s="11"/>
-      <c r="AL68" s="14"/>
+      <c r="AL68" s="11"/>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A69" s="27">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="28"/>
@@ -14732,9 +14757,9 @@
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A70" s="27">
-        <v>65</v>
-      </c>
-      <c r="B70" s="20"/>
+        <v>64</v>
+      </c>
+      <c r="B70" s="19"/>
       <c r="C70" s="28"/>
       <c r="D70" s="24"/>
       <c r="E70" s="25"/>
@@ -14780,9 +14805,9 @@
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A71" s="27">
-        <v>66</v>
-      </c>
-      <c r="B71" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="B71" s="20"/>
       <c r="C71" s="28"/>
       <c r="D71" s="24"/>
       <c r="E71" s="25"/>
@@ -14824,13 +14849,13 @@
       <c r="AI71" s="11"/>
       <c r="AJ71" s="11"/>
       <c r="AK71" s="11"/>
-      <c r="AL71" s="11"/>
+      <c r="AL71" s="14"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A72" s="27">
-        <v>67</v>
-      </c>
-      <c r="B72" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="B72" s="21"/>
       <c r="C72" s="28"/>
       <c r="D72" s="24"/>
       <c r="E72" s="25"/>
@@ -14876,9 +14901,9 @@
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A73" s="27">
-        <v>68</v>
-      </c>
-      <c r="B73" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="B73" s="20"/>
       <c r="C73" s="28"/>
       <c r="D73" s="24"/>
       <c r="E73" s="25"/>
@@ -14924,7 +14949,7 @@
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A74" s="27">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="28"/>
@@ -14972,14 +14997,14 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A75" s="27">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="28"/>
       <c r="D75" s="24"/>
       <c r="E75" s="25"/>
       <c r="F75" s="9" t="str">
-        <f t="shared" ref="F75:F80" si="10">IF(ISBLANK($B75),"",IF(ISBLANK($H75),"未着手",IF($K75=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G75" s="4"/>
@@ -14987,7 +15012,7 @@
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="9" t="str">
-        <f t="shared" ref="K75:K106" ca="1" si="11">IF(ISBLANK(L75)=FALSE,OFFSET(K75,0,COUNTA(L75:AL75)),"")</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L75" s="11"/>
@@ -15020,14 +15045,14 @@
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A76" s="27">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="28"/>
       <c r="D76" s="24"/>
       <c r="E76" s="25"/>
       <c r="F76" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F76:F81" si="10">IF(ISBLANK($B76),"",IF(ISBLANK($H76),"未着手",IF($K76=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="G76" s="4"/>
@@ -15035,7 +15060,7 @@
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="K76:K107" ca="1" si="11">IF(ISBLANK(L76)=FALSE,OFFSET(K76,0,COUNTA(L76:AL76)),"")</f>
         <v/>
       </c>
       <c r="L76" s="11"/>
@@ -15068,7 +15093,7 @@
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A77" s="27">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="28"/>
@@ -15116,7 +15141,7 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A78" s="27">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="28"/>
@@ -15164,7 +15189,7 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A79" s="27">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="28"/>
@@ -15212,7 +15237,7 @@
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A80" s="27">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="28"/>
@@ -15260,14 +15285,14 @@
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A81" s="27">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="28"/>
       <c r="D81" s="24"/>
       <c r="E81" s="25"/>
       <c r="F81" s="9" t="str">
-        <f t="shared" ref="F81:F111" si="12">IF(ISBLANK($B81),"",IF(ISBLANK($H80),"未着手",IF($K80=0,"完了","作業中")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G81" s="4"/>
@@ -15308,14 +15333,14 @@
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A82" s="27">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="28"/>
       <c r="D82" s="24"/>
       <c r="E82" s="25"/>
       <c r="F82" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F82:F112" si="12">IF(ISBLANK($B82),"",IF(ISBLANK($H81),"未着手",IF($K81=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="G82" s="4"/>
@@ -15356,7 +15381,7 @@
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A83" s="27">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="28"/>
@@ -15404,7 +15429,7 @@
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A84" s="27">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="28"/>
@@ -15452,7 +15477,7 @@
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A85" s="27">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="28"/>
@@ -15462,11 +15487,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="22" t="str">
+      <c r="K85" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
@@ -15500,21 +15525,21 @@
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A86" s="27">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="28"/>
       <c r="D86" s="24"/>
       <c r="E86" s="25"/>
-      <c r="F86" s="22" t="str">
+      <c r="F86" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="9" t="str">
+      <c r="K86" s="22" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
@@ -15548,13 +15573,13 @@
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A87" s="27">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="28"/>
       <c r="D87" s="24"/>
       <c r="E87" s="25"/>
-      <c r="F87" s="9" t="str">
+      <c r="F87" s="22" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -15596,7 +15621,7 @@
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A88" s="27">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="28"/>
@@ -15644,7 +15669,7 @@
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A89" s="27">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="28"/>
@@ -15692,7 +15717,7 @@
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A90" s="27">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="28"/>
@@ -15740,7 +15765,7 @@
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A91" s="27">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="28"/>
@@ -15788,7 +15813,7 @@
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A92" s="27">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="28"/>
@@ -15836,7 +15861,7 @@
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A93" s="27">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="28"/>
@@ -15884,7 +15909,7 @@
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A94" s="27">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="28"/>
@@ -15932,7 +15957,7 @@
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A95" s="27">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="28"/>
@@ -15980,7 +16005,7 @@
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A96" s="27">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="28"/>
@@ -16028,9 +16053,9 @@
     </row>
     <row r="97" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A97" s="27">
-        <v>87</v>
-      </c>
-      <c r="B97" s="26"/>
+        <v>86</v>
+      </c>
+      <c r="B97" s="19"/>
       <c r="C97" s="28"/>
       <c r="D97" s="24"/>
       <c r="E97" s="25"/>
@@ -16076,7 +16101,7 @@
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A98" s="27">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="28"/>
@@ -16124,7 +16149,7 @@
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A99" s="27">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="28"/>
@@ -16172,7 +16197,7 @@
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A100" s="27">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="28"/>
@@ -16220,7 +16245,7 @@
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A101" s="27">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="28"/>
@@ -16268,7 +16293,7 @@
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A102" s="27">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="28"/>
@@ -16316,7 +16341,7 @@
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A103" s="27">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="28"/>
@@ -16364,7 +16389,7 @@
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A104" s="27">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="28"/>
@@ -16412,7 +16437,7 @@
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A105" s="27">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="28"/>
@@ -16460,9 +16485,9 @@
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A106" s="27">
-        <v>96</v>
-      </c>
-      <c r="B106" s="19"/>
+        <v>95</v>
+      </c>
+      <c r="B106" s="26"/>
       <c r="C106" s="28"/>
       <c r="D106" s="24"/>
       <c r="E106" s="25"/>
@@ -16508,7 +16533,7 @@
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A107" s="27">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B107" s="19"/>
       <c r="C107" s="28"/>
@@ -16523,7 +16548,7 @@
       <c r="I107" s="11"/>
       <c r="J107" s="11"/>
       <c r="K107" s="9" t="str">
-        <f t="shared" ref="K107:K110" ca="1" si="13">IF(ISBLANK(L107)=FALSE,OFFSET(K107,0,COUNTA(L107:AL107)),"")</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L107" s="11"/>
@@ -16556,7 +16581,7 @@
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A108" s="27">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B108" s="19"/>
       <c r="C108" s="28"/>
@@ -16571,7 +16596,7 @@
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
       <c r="K108" s="9" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="K108:K111" ca="1" si="13">IF(ISBLANK(L108)=FALSE,OFFSET(K108,0,COUNTA(L108:AL108)),"")</f>
         <v/>
       </c>
       <c r="L108" s="11"/>
@@ -16604,7 +16629,7 @@
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A109" s="27">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B109" s="19"/>
       <c r="C109" s="28"/>
@@ -16650,9 +16675,9 @@
       <c r="AK109" s="11"/>
       <c r="AL109" s="11"/>
     </row>
-    <row r="110" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A110" s="27">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="28"/>
@@ -16681,13 +16706,13 @@
       <c r="T110" s="11"/>
       <c r="U110" s="11"/>
       <c r="V110" s="41"/>
-      <c r="W110" s="45"/>
-      <c r="X110" s="46"/>
-      <c r="Y110" s="46"/>
-      <c r="Z110" s="46"/>
-      <c r="AA110" s="47"/>
-      <c r="AB110" s="48"/>
-      <c r="AC110" s="46"/>
+      <c r="W110" s="44"/>
+      <c r="X110" s="11"/>
+      <c r="Y110" s="11"/>
+      <c r="Z110" s="11"/>
+      <c r="AA110" s="41"/>
+      <c r="AB110" s="38"/>
+      <c r="AC110" s="11"/>
       <c r="AD110" s="11"/>
       <c r="AE110" s="11"/>
       <c r="AF110" s="11"/>
@@ -16698,54 +16723,63 @@
       <c r="AK110" s="11"/>
       <c r="AL110" s="11"/>
     </row>
-    <row r="111" spans="1:38" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="27">
+        <v>100</v>
+      </c>
       <c r="B111" s="19"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="25"/>
       <c r="F111" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
-      <c r="K111"/>
-      <c r="L111"/>
-      <c r="M111"/>
-      <c r="N111"/>
-      <c r="O111"/>
-      <c r="P111"/>
-      <c r="Q111"/>
-      <c r="R111"/>
-      <c r="S111"/>
-      <c r="T111"/>
-      <c r="U111"/>
-      <c r="V111"/>
-      <c r="W111"/>
-      <c r="X111"/>
-      <c r="Y111"/>
-      <c r="Z111"/>
-      <c r="AA111"/>
-      <c r="AB111"/>
-      <c r="AC111"/>
-      <c r="AD111"/>
-      <c r="AE111"/>
-      <c r="AF111"/>
-      <c r="AG111"/>
-      <c r="AH111"/>
-      <c r="AI111"/>
-      <c r="AJ111"/>
-      <c r="AK111"/>
-      <c r="AL111"/>
-    </row>
-    <row r="112" spans="1:38" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B112"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+      <c r="R111" s="11"/>
+      <c r="S111" s="11"/>
+      <c r="T111" s="11"/>
+      <c r="U111" s="11"/>
+      <c r="V111" s="41"/>
+      <c r="W111" s="45"/>
+      <c r="X111" s="46"/>
+      <c r="Y111" s="46"/>
+      <c r="Z111" s="46"/>
+      <c r="AA111" s="47"/>
+      <c r="AB111" s="48"/>
+      <c r="AC111" s="46"/>
+      <c r="AD111" s="11"/>
+      <c r="AE111" s="11"/>
+      <c r="AF111" s="11"/>
+      <c r="AG111" s="41"/>
+      <c r="AH111" s="38"/>
+      <c r="AI111" s="11"/>
+      <c r="AJ111" s="11"/>
+      <c r="AK111" s="11"/>
+      <c r="AL111" s="11"/>
+    </row>
+    <row r="112" spans="1:38" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="19"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112"/>
-      <c r="F112"/>
+      <c r="F112" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="G112"/>
       <c r="H112"/>
       <c r="I112"/>
@@ -28635,12 +28669,51 @@
       <c r="AK416"/>
       <c r="AL416"/>
     </row>
-    <row r="417" spans="2:6" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B417"/>
+      <c r="C417"/>
+      <c r="D417"/>
+      <c r="E417"/>
       <c r="F417"/>
+      <c r="G417"/>
+      <c r="H417"/>
+      <c r="I417"/>
+      <c r="J417"/>
+      <c r="K417"/>
+      <c r="L417"/>
+      <c r="M417"/>
+      <c r="N417"/>
+      <c r="O417"/>
+      <c r="P417"/>
+      <c r="Q417"/>
+      <c r="R417"/>
+      <c r="S417"/>
+      <c r="T417"/>
+      <c r="U417"/>
+      <c r="V417"/>
+      <c r="W417"/>
+      <c r="X417"/>
+      <c r="Y417"/>
+      <c r="Z417"/>
+      <c r="AA417"/>
+      <c r="AB417"/>
+      <c r="AC417"/>
+      <c r="AD417"/>
+      <c r="AE417"/>
+      <c r="AF417"/>
+      <c r="AG417"/>
+      <c r="AH417"/>
+      <c r="AI417"/>
+      <c r="AJ417"/>
+      <c r="AK417"/>
+      <c r="AL417"/>
+    </row>
+    <row r="418" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B418"/>
+      <c r="F418"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL416">
+  <autoFilter ref="A1:AL417">
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" hiddenButton="1" showButton="0"/>
@@ -28670,6 +28743,11 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:AL1"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
@@ -28677,25 +28755,20 @@
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="C1:C4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="L1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="F418:F65543">
+  <conditionalFormatting sqref="F419:F65544">
     <cfRule type="expression" dxfId="487" priority="2652" stopIfTrue="1">
-      <formula>F418="未着手"</formula>
+      <formula>F419="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="486" priority="2653" stopIfTrue="1">
-      <formula>F418="作業中"</formula>
+      <formula>F419="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="485" priority="2654" stopIfTrue="1">
-      <formula>OR(F418="終了",F418="完了")</formula>
+      <formula>OR(F419="終了",F419="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:K5 J18:J19 AM5:AM10 AT5:JT10 D16 G37:J37 D20:D22 J6:J15 B6:B10 J38:J40 G38:H40 B73:B74 B94:B96 B91:B92 B42:B45 B66:B69 I39:I40 L39:AK40 AM11:JT28 A5:A28 AL5:AL28 AL37:JT40 G20:J28 D27:D28 D37:D40 D32:D35 G32:J35 B36 G6:H15 G16:J16 G17:H19 F64:F111 L7:AK16 L32:JT35 L20:AK28 L37:AK37 K6:K30 F6:F30 F32:F52 K32:K63">
+  <conditionalFormatting sqref="F5:K5 J18:J19 AM5:AM10 AT5:JT10 D16 G37:J37 D20:D22 J6:J15 B6:B10 J38:J40 G38:H40 B74:B75 B95:B97 B92:B93 B42:B45 B67:B70 I39:I40 L39:AK40 AM11:JT28 A5:A28 AL5:AL28 AL37:JT40 G20:J28 D27:D28 D37:D40 D32:D35 G32:J35 B36 G6:H15 G16:J16 G17:H19 F65:F112 L7:AK16 L32:JT35 L20:AK28 L37:AK37 K6:K30 F6:F30 F32:F52 K32:K64">
     <cfRule type="expression" dxfId="484" priority="2655" stopIfTrue="1">
       <formula>$F5="未着手"</formula>
     </cfRule>
@@ -28706,37 +28779,37 @@
       <formula>OR($F5="終了",$F5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D417:D65542">
+  <conditionalFormatting sqref="D418:D65543">
     <cfRule type="expression" dxfId="481" priority="2658" stopIfTrue="1">
-      <formula>G417="未着手"</formula>
+      <formula>G418="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="480" priority="2659" stopIfTrue="1">
-      <formula>G417="作業中"</formula>
+      <formula>G418="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="479" priority="2660" stopIfTrue="1">
-      <formula>OR(G417="終了",G417="完了")</formula>
+      <formula>OR(G418="終了",G418="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E417:E65542">
+  <conditionalFormatting sqref="E418:E65543">
     <cfRule type="expression" dxfId="478" priority="2661" stopIfTrue="1">
-      <formula>F418="未着手"</formula>
+      <formula>F419="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="477" priority="2662" stopIfTrue="1">
-      <formula>F418="作業中"</formula>
+      <formula>F419="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="476" priority="2663" stopIfTrue="1">
-      <formula>OR(F418="終了",F418="完了")</formula>
+      <formula>OR(F419="終了",F419="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G417:AL65542">
+  <conditionalFormatting sqref="G418:AL65543">
     <cfRule type="expression" dxfId="475" priority="2664" stopIfTrue="1">
-      <formula>$F418="未着手"</formula>
+      <formula>$F419="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="474" priority="2665" stopIfTrue="1">
-      <formula>$F418="作業中"</formula>
+      <formula>$F419="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="473" priority="2666" stopIfTrue="1">
-      <formula>OR($F418="終了",$F418="完了")</formula>
+      <formula>OR($F419="終了",$F419="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D4 C1">
@@ -28761,7 +28834,7 @@
       <formula>OR($F5="終了",$F5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5 E16 E20:E22 E42:E45 E52 E66:E68 E72:E73 E92:E110">
+  <conditionalFormatting sqref="E5 E16 E20:E22 E42:E45 E52 E67:E69 E73:E74 E93:E111">
     <cfRule type="containsText" dxfId="466" priority="2635" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E5)))</formula>
     </cfRule>
@@ -28778,7 +28851,7 @@
       <formula>NOT(ISERROR(SEARCH("金城",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5 E16 E20:E22 E42:E45 E52 E66:E68 E72:E73 E92:E110">
+  <conditionalFormatting sqref="E5 E16 E20:E22 E42:E45 E52 E67:E69 E73:E74 E93:E111">
     <cfRule type="containsText" dxfId="461" priority="2633" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E5)))</formula>
     </cfRule>
@@ -28786,7 +28859,7 @@
       <formula>NOT(ISERROR(SEARCH("阿曽",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5 D16 D20:D22 D42:D45 D52 D66:D68 D72:D73 D92:D110">
+  <conditionalFormatting sqref="D5 D16 D20:D22 D42:D45 D52 D67:D69 D73:D74 D93:D111">
     <cfRule type="containsText" dxfId="459" priority="2630" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D5)))</formula>
     </cfRule>
@@ -28797,7 +28870,7 @@
       <formula>NOT(ISERROR(SEARCH("高",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5 E16 E20:E22 E42:E45 E52 E66:E68 E72:E73 E92:E110">
+  <conditionalFormatting sqref="E5 E16 E20:E22 E42:E45 E52 E67:E69 E73:E74 E93:E111">
     <cfRule type="containsText" dxfId="456" priority="2629" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E5)))</formula>
     </cfRule>
@@ -28824,114 +28897,114 @@
       <formula>OR($F10="終了",$F10="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B68">
+  <conditionalFormatting sqref="B68:B69">
     <cfRule type="expression" dxfId="449" priority="2607" stopIfTrue="1">
-      <formula>$F67="未着手"</formula>
+      <formula>$F68="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="448" priority="2608" stopIfTrue="1">
-      <formula>$F67="作業中"</formula>
+      <formula>$F68="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="447" priority="2609" stopIfTrue="1">
-      <formula>OR($F67="終了",$F67="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="446" priority="2601" stopIfTrue="1">
-      <formula>$F73="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="445" priority="2602" stopIfTrue="1">
-      <formula>$F73="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="444" priority="2603" stopIfTrue="1">
-      <formula>OR($F73="終了",$F73="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="expression" dxfId="443" priority="2589" stopIfTrue="1">
-      <formula>$F93="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="442" priority="2590" stopIfTrue="1">
-      <formula>$F93="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="441" priority="2591" stopIfTrue="1">
-      <formula>OR($F93="終了",$F93="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B106:B109">
-    <cfRule type="expression" dxfId="440" priority="2586" stopIfTrue="1">
-      <formula>$F106="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="439" priority="2587" stopIfTrue="1">
-      <formula>$F106="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="438" priority="2588" stopIfTrue="1">
-      <formula>OR($F106="終了",$F106="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B110:B111">
-    <cfRule type="expression" dxfId="437" priority="2583" stopIfTrue="1">
-      <formula>$F110="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="436" priority="2584" stopIfTrue="1">
-      <formula>$F110="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="435" priority="2585" stopIfTrue="1">
-      <formula>OR($F110="終了",$F110="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B111">
-    <cfRule type="expression" dxfId="434" priority="2580" stopIfTrue="1">
-      <formula>$F111="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="433" priority="2581" stopIfTrue="1">
-      <formula>$F111="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="432" priority="2582" stopIfTrue="1">
-      <formula>OR($F111="終了",$F111="完了")</formula>
+      <formula>OR($F68="終了",$F68="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
+    <cfRule type="expression" dxfId="446" priority="2601" stopIfTrue="1">
+      <formula>$F74="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="445" priority="2602" stopIfTrue="1">
+      <formula>$F74="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="444" priority="2603" stopIfTrue="1">
+      <formula>OR($F74="終了",$F74="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="expression" dxfId="443" priority="2589" stopIfTrue="1">
+      <formula>$F94="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="442" priority="2590" stopIfTrue="1">
+      <formula>$F94="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="441" priority="2591" stopIfTrue="1">
+      <formula>OR($F94="終了",$F94="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B107:B110">
+    <cfRule type="expression" dxfId="440" priority="2586" stopIfTrue="1">
+      <formula>$F107="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="439" priority="2587" stopIfTrue="1">
+      <formula>$F107="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="438" priority="2588" stopIfTrue="1">
+      <formula>OR($F107="終了",$F107="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B111:B112">
+    <cfRule type="expression" dxfId="437" priority="2583" stopIfTrue="1">
+      <formula>$F111="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="436" priority="2584" stopIfTrue="1">
+      <formula>$F111="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="435" priority="2585" stopIfTrue="1">
+      <formula>OR($F111="終了",$F111="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112">
+    <cfRule type="expression" dxfId="434" priority="2580" stopIfTrue="1">
+      <formula>$F112="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="433" priority="2581" stopIfTrue="1">
+      <formula>$F112="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="432" priority="2582" stopIfTrue="1">
+      <formula>OR($F112="終了",$F112="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75">
     <cfRule type="expression" dxfId="431" priority="2478" stopIfTrue="1">
+      <formula>$F75="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="430" priority="2479" stopIfTrue="1">
+      <formula>$F75="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="429" priority="2480" stopIfTrue="1">
+      <formula>OR($F75="終了",$F75="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="expression" dxfId="428" priority="2475" stopIfTrue="1">
       <formula>$F74="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="2479" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="2476" stopIfTrue="1">
       <formula>$F74="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="2480" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="2477" stopIfTrue="1">
       <formula>OR($F74="終了",$F74="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="428" priority="2475" stopIfTrue="1">
-      <formula>$F73="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="427" priority="2476" stopIfTrue="1">
-      <formula>$F73="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="426" priority="2477" stopIfTrue="1">
-      <formula>OR($F73="終了",$F73="完了")</formula>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" dxfId="425" priority="2469" stopIfTrue="1">
+      <formula>$F68="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="424" priority="2470" stopIfTrue="1">
+      <formula>$F68="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="423" priority="2471" stopIfTrue="1">
+      <formula>OR($F68="終了",$F68="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="425" priority="2469" stopIfTrue="1">
-      <formula>$F67="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="424" priority="2470" stopIfTrue="1">
-      <formula>$F67="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="423" priority="2471" stopIfTrue="1">
-      <formula>OR($F67="終了",$F67="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B68">
+  <conditionalFormatting sqref="B68:B69">
     <cfRule type="expression" dxfId="422" priority="2466" stopIfTrue="1">
-      <formula>$F67="未着手"</formula>
+      <formula>$F68="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="421" priority="2467" stopIfTrue="1">
-      <formula>$F67="作業中"</formula>
+      <formula>$F68="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="420" priority="2468" stopIfTrue="1">
-      <formula>OR($F67="終了",$F67="完了")</formula>
+      <formula>OR($F68="終了",$F68="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D15">
@@ -29183,7 +29256,7 @@
       <formula>NOT(ISERROR(SEARCH("未定",E39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM65:AM75 AT65:JT75 G66:K68 J64:K65 K75:K91 G46:H51 G64:H65 G75:H91 G69:H71 A89:A110 D92:D110 J46:J51 J69:K71 G52:J52 L58:AK60 G72:AK74 G92:AK110 L65:AK68 D72:D73 D66:D68 AM76:JT110 L52:AK54 AM44:JT64 AL44:AL110 D41 D44:D52 G41:J41 G44:J45 L41:JT41 L44:AK45">
+  <conditionalFormatting sqref="AM66:AM76 AT66:JT76 G67:K69 J65:K66 K76:K92 G46:H51 G65:H66 G76:H92 G70:H72 A90:A111 D93:D111 J46:J51 J70:K72 G52:J52 G73:AK75 G93:AK111 L66:AK69 D73:D74 D67:D69 AM77:JT111 L52:AK54 D41 D44:D52 G41:J41 G44:J45 L41:JT41 L44:AK45 L58:AK58 L61:AK61 AM61:JT65 AL44:JT58 AL61:AL111">
     <cfRule type="expression" dxfId="352" priority="1308" stopIfTrue="1">
       <formula>$F42="未着手"</formula>
     </cfRule>
@@ -29235,215 +29308,215 @@
       <formula>NOT(ISERROR(SEARCH("未定",E46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64:D65">
+  <conditionalFormatting sqref="D65:D66">
     <cfRule type="expression" dxfId="338" priority="1238" stopIfTrue="1">
-      <formula>$F65="未着手"</formula>
+      <formula>$F66="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="337" priority="1239" stopIfTrue="1">
-      <formula>$F65="作業中"</formula>
+      <formula>$F66="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="336" priority="1240" stopIfTrue="1">
-      <formula>OR($F65="終了",$F65="完了")</formula>
+      <formula>OR($F66="終了",$F66="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65">
+  <conditionalFormatting sqref="E65:E66">
     <cfRule type="containsText" dxfId="335" priority="1233" stopIfTrue="1" operator="containsText" text="幸野">
-      <formula>NOT(ISERROR(SEARCH("幸野",E64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("幸野",E65)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="334" priority="1234" stopIfTrue="1" operator="containsText" text="飯島">
-      <formula>NOT(ISERROR(SEARCH("飯島",E64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("飯島",E65)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="333" priority="1235" stopIfTrue="1" operator="containsText" text="大高">
-      <formula>NOT(ISERROR(SEARCH("大高",E64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("大高",E65)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="332" priority="1236" stopIfTrue="1" operator="containsText" text="斉藤">
-      <formula>NOT(ISERROR(SEARCH("斉藤",E64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("斉藤",E65)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="331" priority="1237" stopIfTrue="1" operator="containsText" text="金城">
-      <formula>NOT(ISERROR(SEARCH("金城",E64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("金城",E65)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65">
+  <conditionalFormatting sqref="E65:E66">
     <cfRule type="containsText" dxfId="330" priority="1231" operator="containsText" text="佐藤">
-      <formula>NOT(ISERROR(SEARCH("佐藤",E64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("佐藤",E65)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="329" priority="1232" operator="containsText" text="阿曽">
-      <formula>NOT(ISERROR(SEARCH("阿曽",E64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("阿曽",E65)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64:D65">
+  <conditionalFormatting sqref="D65:D66">
     <cfRule type="containsText" dxfId="328" priority="1228" operator="containsText" text="低">
-      <formula>NOT(ISERROR(SEARCH("低",D64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("低",D65)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="327" priority="1229" operator="containsText" text="中">
-      <formula>NOT(ISERROR(SEARCH("中",D64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("中",D65)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="326" priority="1230" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",D64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("高",D65)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65">
+  <conditionalFormatting sqref="E65:E66">
     <cfRule type="containsText" dxfId="325" priority="1227" operator="containsText" text="未定">
-      <formula>NOT(ISERROR(SEARCH("未定",E64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("未定",E65)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D71">
+  <conditionalFormatting sqref="D70:D72">
     <cfRule type="expression" dxfId="324" priority="1224" stopIfTrue="1">
-      <formula>$F70="未着手"</formula>
+      <formula>$F71="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="323" priority="1225" stopIfTrue="1">
-      <formula>$F70="作業中"</formula>
+      <formula>$F71="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="322" priority="1226" stopIfTrue="1">
-      <formula>OR($F70="終了",$F70="完了")</formula>
+      <formula>OR($F71="終了",$F71="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:E71">
+  <conditionalFormatting sqref="E70:E72">
     <cfRule type="containsText" dxfId="321" priority="1219" stopIfTrue="1" operator="containsText" text="幸野">
-      <formula>NOT(ISERROR(SEARCH("幸野",E69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("幸野",E70)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="320" priority="1220" stopIfTrue="1" operator="containsText" text="飯島">
-      <formula>NOT(ISERROR(SEARCH("飯島",E69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("飯島",E70)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="319" priority="1221" stopIfTrue="1" operator="containsText" text="大高">
-      <formula>NOT(ISERROR(SEARCH("大高",E69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("大高",E70)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="318" priority="1222" stopIfTrue="1" operator="containsText" text="斉藤">
-      <formula>NOT(ISERROR(SEARCH("斉藤",E69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("斉藤",E70)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="317" priority="1223" stopIfTrue="1" operator="containsText" text="金城">
-      <formula>NOT(ISERROR(SEARCH("金城",E69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("金城",E70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:E71">
+  <conditionalFormatting sqref="E70:E72">
     <cfRule type="containsText" dxfId="316" priority="1217" operator="containsText" text="佐藤">
-      <formula>NOT(ISERROR(SEARCH("佐藤",E69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("佐藤",E70)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="315" priority="1218" operator="containsText" text="阿曽">
-      <formula>NOT(ISERROR(SEARCH("阿曽",E69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("阿曽",E70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D71">
+  <conditionalFormatting sqref="D70:D72">
     <cfRule type="containsText" dxfId="314" priority="1214" operator="containsText" text="低">
-      <formula>NOT(ISERROR(SEARCH("低",D69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("低",D70)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="313" priority="1215" operator="containsText" text="中">
-      <formula>NOT(ISERROR(SEARCH("中",D69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("中",D70)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="312" priority="1216" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",D69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("高",D70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:E71">
+  <conditionalFormatting sqref="E70:E72">
     <cfRule type="containsText" dxfId="311" priority="1213" operator="containsText" text="未定">
-      <formula>NOT(ISERROR(SEARCH("未定",E69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("未定",E70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B72">
+  <conditionalFormatting sqref="B71:B73">
     <cfRule type="expression" dxfId="310" priority="1210" stopIfTrue="1">
-      <formula>$F70="未着手"</formula>
+      <formula>$F71="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="309" priority="1211" stopIfTrue="1">
-      <formula>$F70="作業中"</formula>
+      <formula>$F71="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="308" priority="1212" stopIfTrue="1">
-      <formula>OR($F70="終了",$F70="完了")</formula>
+      <formula>OR($F71="終了",$F71="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D91">
+  <conditionalFormatting sqref="D75:D92">
     <cfRule type="expression" dxfId="307" priority="1207" stopIfTrue="1">
-      <formula>$F75="未着手"</formula>
+      <formula>$F76="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="306" priority="1208" stopIfTrue="1">
-      <formula>$F75="作業中"</formula>
+      <formula>$F76="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="305" priority="1209" stopIfTrue="1">
-      <formula>OR($F75="終了",$F75="完了")</formula>
+      <formula>OR($F76="終了",$F76="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:E91">
+  <conditionalFormatting sqref="E75:E92">
     <cfRule type="containsText" dxfId="304" priority="1202" stopIfTrue="1" operator="containsText" text="幸野">
-      <formula>NOT(ISERROR(SEARCH("幸野",E74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("幸野",E75)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="303" priority="1203" stopIfTrue="1" operator="containsText" text="飯島">
-      <formula>NOT(ISERROR(SEARCH("飯島",E74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("飯島",E75)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="302" priority="1204" stopIfTrue="1" operator="containsText" text="大高">
-      <formula>NOT(ISERROR(SEARCH("大高",E74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("大高",E75)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="301" priority="1205" stopIfTrue="1" operator="containsText" text="斉藤">
-      <formula>NOT(ISERROR(SEARCH("斉藤",E74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("斉藤",E75)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="300" priority="1206" stopIfTrue="1" operator="containsText" text="金城">
-      <formula>NOT(ISERROR(SEARCH("金城",E74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("金城",E75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:E91">
+  <conditionalFormatting sqref="E75:E92">
     <cfRule type="containsText" dxfId="299" priority="1200" operator="containsText" text="佐藤">
-      <formula>NOT(ISERROR(SEARCH("佐藤",E74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("佐藤",E75)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="298" priority="1201" operator="containsText" text="阿曽">
-      <formula>NOT(ISERROR(SEARCH("阿曽",E74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("阿曽",E75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D91">
+  <conditionalFormatting sqref="D75:D92">
     <cfRule type="containsText" dxfId="297" priority="1197" operator="containsText" text="低">
-      <formula>NOT(ISERROR(SEARCH("低",D74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("低",D75)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="296" priority="1198" operator="containsText" text="中">
-      <formula>NOT(ISERROR(SEARCH("中",D74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("中",D75)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="295" priority="1199" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",D74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("高",D75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:E91">
+  <conditionalFormatting sqref="E75:E92">
     <cfRule type="containsText" dxfId="294" priority="1196" operator="containsText" text="未定">
-      <formula>NOT(ISERROR(SEARCH("未定",E74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("未定",E75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75:B87">
+  <conditionalFormatting sqref="B76:B88">
     <cfRule type="expression" dxfId="293" priority="1193" stopIfTrue="1">
-      <formula>$F75="未着手"</formula>
+      <formula>$F76="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="292" priority="1194" stopIfTrue="1">
-      <formula>$F75="作業中"</formula>
+      <formula>$F76="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="291" priority="1195" stopIfTrue="1">
-      <formula>OR($F75="終了",$F75="完了")</formula>
+      <formula>OR($F76="終了",$F76="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B90">
+  <conditionalFormatting sqref="B89:B91">
     <cfRule type="expression" dxfId="290" priority="1190" stopIfTrue="1">
-      <formula>$F88="未着手"</formula>
+      <formula>$F89="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="289" priority="1191" stopIfTrue="1">
-      <formula>$F88="作業中"</formula>
+      <formula>$F89="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="288" priority="1192" stopIfTrue="1">
-      <formula>OR($F88="終了",$F88="完了")</formula>
+      <formula>OR($F89="終了",$F89="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89:B90">
+  <conditionalFormatting sqref="B90:B91">
     <cfRule type="expression" dxfId="287" priority="1187" stopIfTrue="1">
-      <formula>$F89="未着手"</formula>
+      <formula>$F90="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="286" priority="1188" stopIfTrue="1">
-      <formula>$F89="作業中"</formula>
+      <formula>$F90="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="285" priority="1189" stopIfTrue="1">
-      <formula>OR($F89="終了",$F89="完了")</formula>
+      <formula>OR($F90="終了",$F90="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B97:B105 B418:B65543">
+  <conditionalFormatting sqref="B98:B106 B419:B65544">
     <cfRule type="expression" dxfId="284" priority="1184" stopIfTrue="1">
-      <formula>F97="未着手"</formula>
+      <formula>F98="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="283" priority="1185" stopIfTrue="1">
-      <formula>F97="作業中"</formula>
+      <formula>F98="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="282" priority="1186" stopIfTrue="1">
-      <formula>OR(F97="終了",F97="完了")</formula>
+      <formula>OR(F98="終了",F98="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I15">
@@ -29501,37 +29574,37 @@
       <formula>OR($F47="終了",$F47="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:I65">
+  <conditionalFormatting sqref="I65:I66">
     <cfRule type="expression" dxfId="266" priority="582" stopIfTrue="1">
-      <formula>$F65="未着手"</formula>
+      <formula>$F66="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="265" priority="583" stopIfTrue="1">
-      <formula>$F65="作業中"</formula>
+      <formula>$F66="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="264" priority="584" stopIfTrue="1">
-      <formula>OR($F65="終了",$F65="完了")</formula>
+      <formula>OR($F66="終了",$F66="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:I71">
+  <conditionalFormatting sqref="I70:I72">
     <cfRule type="expression" dxfId="263" priority="579" stopIfTrue="1">
-      <formula>$F70="未着手"</formula>
+      <formula>$F71="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="262" priority="580" stopIfTrue="1">
-      <formula>$F70="作業中"</formula>
+      <formula>$F71="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="261" priority="581" stopIfTrue="1">
-      <formula>OR($F70="終了",$F70="完了")</formula>
+      <formula>OR($F71="終了",$F71="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75:J91">
+  <conditionalFormatting sqref="I76:J92">
     <cfRule type="expression" dxfId="260" priority="576" stopIfTrue="1">
-      <formula>$F76="未着手"</formula>
+      <formula>$F77="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="259" priority="577" stopIfTrue="1">
-      <formula>$F76="作業中"</formula>
+      <formula>$F77="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="258" priority="578" stopIfTrue="1">
-      <formula>OR($F76="終了",$F76="完了")</formula>
+      <formula>OR($F77="終了",$F77="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:AK5">
@@ -29611,56 +29684,56 @@
       <formula>OR($F56="終了",$F56="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L61:AK61">
+  <conditionalFormatting sqref="L62:AK62">
     <cfRule type="expression" dxfId="236" priority="513" stopIfTrue="1">
-      <formula>$F62="未着手"</formula>
+      <formula>$F63="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="235" priority="514" stopIfTrue="1">
-      <formula>$F62="作業中"</formula>
+      <formula>$F63="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="234" priority="515" stopIfTrue="1">
-      <formula>OR($F62="終了",$F62="完了")</formula>
+      <formula>OR($F63="終了",$F63="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L69:AK71">
+  <conditionalFormatting sqref="L70:AK72">
     <cfRule type="expression" dxfId="233" priority="510" stopIfTrue="1">
-      <formula>$F70="未着手"</formula>
+      <formula>$F71="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="232" priority="511" stopIfTrue="1">
-      <formula>$F70="作業中"</formula>
+      <formula>$F71="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="231" priority="512" stopIfTrue="1">
-      <formula>OR($F70="終了",$F70="完了")</formula>
+      <formula>OR($F71="終了",$F71="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L75:AK91">
+  <conditionalFormatting sqref="L76:AK92">
     <cfRule type="expression" dxfId="230" priority="507" stopIfTrue="1">
-      <formula>$F76="未着手"</formula>
+      <formula>$F77="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="229" priority="508" stopIfTrue="1">
-      <formula>$F76="作業中"</formula>
+      <formula>$F77="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="228" priority="509" stopIfTrue="1">
-      <formula>OR($F76="終了",$F76="完了")</formula>
+      <formula>OR($F77="終了",$F77="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L62:AK64">
+  <conditionalFormatting sqref="L63:AK65">
     <cfRule type="expression" dxfId="227" priority="292" stopIfTrue="1">
-      <formula>$F63="未着手"</formula>
+      <formula>$F64="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="226" priority="293" stopIfTrue="1">
-      <formula>$F63="作業中"</formula>
+      <formula>$F64="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="225" priority="294" stopIfTrue="1">
-      <formula>OR($F63="終了",$F63="完了")</formula>
+      <formula>OR($F64="終了",$F64="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E22 E27:E30 E64:E1048576 E32:E52">
+  <conditionalFormatting sqref="E1:E22 E27:E30 E65:E1048576 E32:E52">
     <cfRule type="containsText" dxfId="224" priority="246" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D22 C111:C1048576 C1 D27:D30 D64:D1048576 D32:D52">
+  <conditionalFormatting sqref="D1:D22 C112:C1048576 C1 D27:D30 D65:D1048576 D32:D52">
     <cfRule type="containsText" dxfId="223" priority="242" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",C1)))</formula>
     </cfRule>
@@ -29702,7 +29775,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C22 C27:C30 C64:C110 C32:C52">
+  <conditionalFormatting sqref="C5:C22 C27:C30 C65:C111 C32:C52">
     <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="min"/>
@@ -29727,15 +29800,15 @@
       <formula>OR($F5="終了",$F5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C417:C65542">
+  <conditionalFormatting sqref="C418:C65543">
     <cfRule type="expression" dxfId="216" priority="2670" stopIfTrue="1">
-      <formula>H417="未着手"</formula>
+      <formula>H418="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="215" priority="2671" stopIfTrue="1">
-      <formula>H417="作業中"</formula>
+      <formula>H418="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="214" priority="2672" stopIfTrue="1">
-      <formula>OR(H417="終了",H417="完了")</formula>
+      <formula>OR(H418="終了",H418="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
@@ -29990,18 +30063,18 @@
       <formula>OR($F45="終了",$F45="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:B65">
+  <conditionalFormatting sqref="B65:B66">
     <cfRule type="expression" dxfId="149" priority="132" stopIfTrue="1">
-      <formula>$F64="未着手"</formula>
+      <formula>$F65="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="148" priority="133" stopIfTrue="1">
-      <formula>$F64="作業中"</formula>
+      <formula>$F65="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="147" priority="134" stopIfTrue="1">
-      <formula>OR($F64="終了",$F64="完了")</formula>
+      <formula>OR($F65="終了",$F65="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D30 G29:J30 L29:JT30 A29:A30 A32:A33 A45:A46 A48:A49 A51:A52 A54:A55 A57:A58 A60:A61 A63:A65 A67:A68 A70:A71 A73:A74 A76:A77 A79:A80 A82:A83 A85:A86 A88 A35 A40 A37">
+  <conditionalFormatting sqref="D29:D30 G29:J30 L29:JT30 A29:A30 A32:A33 A45:A46 A48:A49 A51:A52 A64:A66 A68:A69 A71:A72 A74:A75 A77:A78 A80:A81 A83:A84 A86:A87 A89 A35 A40 A37 A59:A62 A56">
     <cfRule type="expression" dxfId="146" priority="2676" stopIfTrue="1">
       <formula>$F36="未着手"</formula>
     </cfRule>
@@ -30199,7 +30272,7 @@
       <formula>OR($F50="終了",$F50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63 F63:I63 F53:H62 J53">
+  <conditionalFormatting sqref="D64 F64:I64 J53 F53:H63">
     <cfRule type="expression" dxfId="92" priority="72" stopIfTrue="1">
       <formula>$F53="未着手"</formula>
     </cfRule>
@@ -30210,7 +30283,7 @@
       <formula>OR($F53="終了",$F53="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E63">
+  <conditionalFormatting sqref="E53:E64">
     <cfRule type="containsText" dxfId="89" priority="67" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E53)))</formula>
     </cfRule>
@@ -30227,7 +30300,7 @@
       <formula>NOT(ISERROR(SEARCH("金城",E53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E63">
+  <conditionalFormatting sqref="E53:E64">
     <cfRule type="containsText" dxfId="84" priority="65" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E53)))</formula>
     </cfRule>
@@ -30235,34 +30308,34 @@
       <formula>NOT(ISERROR(SEARCH("阿曽",E53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
+  <conditionalFormatting sqref="D64">
     <cfRule type="containsText" dxfId="82" priority="62" operator="containsText" text="低">
-      <formula>NOT(ISERROR(SEARCH("低",D63)))</formula>
+      <formula>NOT(ISERROR(SEARCH("低",D64)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="81" priority="63" operator="containsText" text="中">
-      <formula>NOT(ISERROR(SEARCH("中",D63)))</formula>
+      <formula>NOT(ISERROR(SEARCH("中",D64)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="80" priority="64" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",D63)))</formula>
+      <formula>NOT(ISERROR(SEARCH("高",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E63">
+  <conditionalFormatting sqref="E53:E64">
     <cfRule type="containsText" dxfId="79" priority="61" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
+  <conditionalFormatting sqref="B64">
     <cfRule type="expression" dxfId="78" priority="58" stopIfTrue="1">
-      <formula>$F63="未着手"</formula>
+      <formula>$F64="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="77" priority="59" stopIfTrue="1">
-      <formula>$F63="作業中"</formula>
+      <formula>$F64="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="76" priority="60" stopIfTrue="1">
-      <formula>OR($F63="終了",$F63="完了")</formula>
+      <formula>OR($F64="終了",$F64="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D62">
+  <conditionalFormatting sqref="D53:D63">
     <cfRule type="expression" dxfId="75" priority="55" stopIfTrue="1">
       <formula>$F53="未着手"</formula>
     </cfRule>
@@ -30273,7 +30346,7 @@
       <formula>OR($F53="終了",$F53="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D62">
+  <conditionalFormatting sqref="D53:D63">
     <cfRule type="containsText" dxfId="72" priority="52" operator="containsText" text="低">
       <formula>NOT(ISERROR(SEARCH("低",D53)))</formula>
     </cfRule>
@@ -30284,7 +30357,7 @@
       <formula>NOT(ISERROR(SEARCH("高",D53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:B62">
+  <conditionalFormatting sqref="B53:B63">
     <cfRule type="expression" dxfId="69" priority="49" stopIfTrue="1">
       <formula>$F53="未着手"</formula>
     </cfRule>
@@ -30295,7 +30368,7 @@
       <formula>OR($F53="終了",$F53="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:I62">
+  <conditionalFormatting sqref="I53:I63">
     <cfRule type="expression" dxfId="66" priority="46" stopIfTrue="1">
       <formula>$F53="未着手"</formula>
     </cfRule>
@@ -30306,12 +30379,12 @@
       <formula>OR($F53="終了",$F53="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E63">
+  <conditionalFormatting sqref="E53:E64">
     <cfRule type="containsText" dxfId="63" priority="45" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D63">
+  <conditionalFormatting sqref="D53:D64">
     <cfRule type="containsText" dxfId="62" priority="41" operator="containsText" text="絶">
       <formula>NOT(ISERROR(SEARCH("絶",D53)))</formula>
     </cfRule>
@@ -30325,7 +30398,7 @@
       <formula>NOT(ISERROR(SEARCH("絶",D53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C63">
+  <conditionalFormatting sqref="C53:C64">
     <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="min"/>
@@ -30339,7 +30412,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C63">
+  <conditionalFormatting sqref="C53:C64">
     <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
@@ -30353,18 +30426,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
+  <conditionalFormatting sqref="J64">
     <cfRule type="expression" dxfId="58" priority="30" stopIfTrue="1">
-      <formula>$F63="未着手"</formula>
+      <formula>$F64="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="57" priority="31" stopIfTrue="1">
-      <formula>$F63="作業中"</formula>
+      <formula>$F64="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="56" priority="32" stopIfTrue="1">
-      <formula>OR($F63="終了",$F63="完了")</formula>
+      <formula>OR($F64="終了",$F64="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54:J62">
+  <conditionalFormatting sqref="J54:J63">
     <cfRule type="expression" dxfId="55" priority="27" stopIfTrue="1">
       <formula>$F54="未着手"</formula>
     </cfRule>
@@ -30482,7 +30555,7 @@
       <formula>OR($F27="終了",$F27="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31 A34 A44 A47 A50 A53 A56 A59 A62 A66 A69 A72 A75 A78 A81 A84 A87">
+  <conditionalFormatting sqref="A31 A34 A44 A47 A50 A53 A63 A67 A70 A73 A76 A79 A82 A85 A88">
     <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
       <formula>$F37="未着手"</formula>
     </cfRule>
@@ -30504,7 +30577,7 @@
       <formula>OR($F32="終了",$F32="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D43 G42:J43 L42:JT43">
+  <conditionalFormatting sqref="D42:D43 G42:J43 L42:JT43 L59:JT60">
     <cfRule type="expression" dxfId="21" priority="2792" stopIfTrue="1">
       <formula>$F44="未着手"</formula>
     </cfRule>
@@ -30515,7 +30588,7 @@
       <formula>OR($F44="終了",$F44="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36 A41:A43 A38:A39">
+  <conditionalFormatting sqref="A36 A41:A43 A38:A39 A57:A58 A54:A55">
     <cfRule type="expression" dxfId="18" priority="2837" stopIfTrue="1">
       <formula>$F44="未着手"</formula>
     </cfRule>
@@ -30527,10 +30600,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E111">
       <formula1>"宮内,斉藤,SIM,桑原,杉浦,根岸,未定"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D111">
       <formula1>"絶,高,中,低,無"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30578,7 +30651,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C5:C22 C27:C30 C64:C110 C32:C52</xm:sqref>
+          <xm:sqref>C5:C22 C27:C30 C65:C111 C32:C52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{470012FE-40F3-454E-BBA5-134373083837}">
@@ -30604,7 +30677,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C53:C63</xm:sqref>
+          <xm:sqref>C53:C64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{16FD4F82-08FA-4C66-9E67-94D65BB3B6D1}">
@@ -30617,7 +30690,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C53:C63</xm:sqref>
+          <xm:sqref>C53:C64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D944516C-1735-4BCF-98A5-4F369DB30F5A}">
@@ -30675,8 +30748,8 @@
       <c r="D3" s="112"/>
       <c r="E3" s="113"/>
       <c r="H3" s="34">
-        <f ca="1">COUNTIF('スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
-        <v>11</v>
+        <f ca="1">COUNTIF('スプリントバックログ(全体) '!$F$5:$F$418,'スプリントバックログ（グラフ表）'!$H$2)</f>
+        <v>12</v>
       </c>
       <c r="I3" s="107">
         <v>1</v>
@@ -30740,15 +30813,15 @@
         <v>104</v>
       </c>
       <c r="B5" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A5,'スプリントバックログ(全体) '!$I$5:$I$410)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A5,'スプリントバックログ(全体) '!$I$5:$I$411)</f>
         <v>16</v>
       </c>
       <c r="C5" s="30">
-        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A5,'スプリントバックログ(全体) '!$K$5:$K$410)</f>
+        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A5,'スプリントバックログ(全体) '!$K$5:$K$411)</f>
         <v>0</v>
       </c>
       <c r="D5" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A5,'スプリントバックログ(全体) '!$J$5:$J$410)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A5,'スプリントバックログ(全体) '!$J$5:$J$411)</f>
         <v>10</v>
       </c>
       <c r="E5" s="31">
@@ -30760,11 +30833,11 @@
         <v>0</v>
       </c>
       <c r="G5" s="34">
-        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A5)</f>
+        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A5)</f>
         <v>23</v>
       </c>
       <c r="H5" s="32" t="e">
-        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A5,'スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
+        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A5,'スプリントバックログ(全体) '!$F$5:$F$418,'スプリントバックログ（グラフ表）'!$H$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I5" s="107" t="e">
@@ -30798,16 +30871,16 @@
         <v>105</v>
       </c>
       <c r="B6" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A6,'スプリントバックログ(全体) '!$I$5:$I$410)</f>
-        <v>38</v>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A6,'スプリントバックログ(全体) '!$I$5:$I$411)</f>
+        <v>39</v>
       </c>
       <c r="C6" s="30">
-        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A6,'スプリントバックログ(全体) '!$K$5:$K$410)</f>
+        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A6,'スプリントバックログ(全体) '!$K$5:$K$411)</f>
         <v>0</v>
       </c>
       <c r="D6" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A6,'スプリントバックログ(全体) '!$J$5:$J$410)</f>
-        <v>38</v>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A6,'スプリントバックログ(全体) '!$J$5:$J$411)</f>
+        <v>39</v>
       </c>
       <c r="E6" s="31">
         <f>COUNTA('スプリントバックログ(全体) '!$L$2:$AL$2)*6-COUNTA('スプリントバックログ(全体) '!$L$4:$AL$4)*6</f>
@@ -30818,11 +30891,11 @@
         <v>0</v>
       </c>
       <c r="G6" s="34">
-        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A6)</f>
-        <v>11</v>
+        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A6)</f>
+        <v>12</v>
       </c>
       <c r="H6" s="32" t="e">
-        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A6,'スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
+        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A6,'スプリントバックログ(全体) '!$F$5:$F$418,'スプリントバックログ（グラフ表）'!$H$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I6" s="107" t="e">
@@ -30832,7 +30905,7 @@
       <c r="J6" s="108"/>
       <c r="K6" s="57">
         <f>(11*6)-B6</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="57">
         <f t="shared" ref="L6:N10" si="3">(5*6)</f>
@@ -30848,7 +30921,7 @@
       </c>
       <c r="O6" s="57">
         <f t="shared" ref="O6:O9" si="5">(27*6)-B6</f>
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -30856,15 +30929,15 @@
         <v>106</v>
       </c>
       <c r="B7" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A7,'スプリントバックログ(全体) '!$I$5:$I$410)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A7,'スプリントバックログ(全体) '!$I$5:$I$411)</f>
         <v>0</v>
       </c>
       <c r="C7" s="30">
-        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A7,'スプリントバックログ(全体) '!$K$5:$K$410)</f>
+        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A7,'スプリントバックログ(全体) '!$K$5:$K$411)</f>
         <v>0</v>
       </c>
       <c r="D7" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A7,'スプリントバックログ(全体) '!$J$5:$J$410)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A7,'スプリントバックログ(全体) '!$J$5:$J$411)</f>
         <v>0</v>
       </c>
       <c r="E7" s="31">
@@ -30876,11 +30949,11 @@
         <v>0</v>
       </c>
       <c r="G7" s="34">
-        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A7)</f>
+        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A7)</f>
         <v>1</v>
       </c>
       <c r="H7" s="32" t="e">
-        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A7,'スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
+        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A7,'スプリントバックログ(全体) '!$F$5:$F$418,'スプリントバックログ（グラフ表）'!$H$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I7" s="107" t="e">
@@ -30914,15 +30987,15 @@
         <v>107</v>
       </c>
       <c r="B8" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A8,'スプリントバックログ(全体) '!$I$5:$I$410)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A8,'スプリントバックログ(全体) '!$I$5:$I$411)</f>
         <v>0</v>
       </c>
       <c r="C8" s="30">
-        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A8,'スプリントバックログ(全体) '!$K$5:$K$410)</f>
+        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A8,'スプリントバックログ(全体) '!$K$5:$K$411)</f>
         <v>0</v>
       </c>
       <c r="D8" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A8,'スプリントバックログ(全体) '!$J$5:$J$410)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A8,'スプリントバックログ(全体) '!$J$5:$J$411)</f>
         <v>0</v>
       </c>
       <c r="E8" s="31">
@@ -30934,11 +31007,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="34">
-        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A8)</f>
+        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A8)</f>
         <v>1</v>
       </c>
       <c r="H8" s="32" t="e">
-        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A8,'スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
+        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A8,'スプリントバックログ(全体) '!$F$5:$F$418,'スプリントバックログ（グラフ表）'!$H$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I8" s="107" t="e">
@@ -30972,15 +31045,15 @@
         <v>108</v>
       </c>
       <c r="B9" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A9,'スプリントバックログ(全体) '!$I$5:$I$410)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A9,'スプリントバックログ(全体) '!$I$5:$I$411)</f>
         <v>0</v>
       </c>
       <c r="C9" s="30">
-        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A9,'スプリントバックログ(全体) '!$K$5:$K$410)</f>
+        <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A9,'スプリントバックログ(全体) '!$K$5:$K$411)</f>
         <v>0</v>
       </c>
       <c r="D9" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A9,'スプリントバックログ(全体) '!$J$5:$J$410)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A9,'スプリントバックログ(全体) '!$J$5:$J$411)</f>
         <v>0</v>
       </c>
       <c r="E9" s="31">
@@ -30992,11 +31065,11 @@
         <v>0</v>
       </c>
       <c r="G9" s="34">
-        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A9)</f>
+        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A9)</f>
         <v>3</v>
       </c>
       <c r="H9" s="32" t="e">
-        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A9,'スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
+        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A9,'スプリントバックログ(全体) '!$F$5:$F$418,'スプリントバックログ（グラフ表）'!$H$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I9" s="107" t="e">
@@ -31030,15 +31103,15 @@
         <v>109</v>
       </c>
       <c r="B10" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A10,'スプリントバックログ(全体) '!$I$5:$I$410)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A10,'スプリントバックログ(全体) '!$I$5:$I$411)</f>
         <v>0</v>
       </c>
       <c r="C10" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A10,'スプリントバックログ(全体) '!$K$5:$K$410)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A10,'スプリントバックログ(全体) '!$K$5:$K$411)</f>
         <v>0</v>
       </c>
       <c r="D10" s="30">
-        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$410,A10,'スプリントバックログ(全体) '!$J$5:$J$410)</f>
+        <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A10,'スプリントバックログ(全体) '!$J$5:$J$411)</f>
         <v>0</v>
       </c>
       <c r="E10" s="31">
@@ -31050,11 +31123,11 @@
         <v>0</v>
       </c>
       <c r="G10" s="34">
-        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A10)</f>
+        <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A10)</f>
         <v>0</v>
       </c>
       <c r="H10" s="32" t="e">
-        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$416,'スプリントバックログ（グラフ表）'!A10,'スプリントバックログ(全体) '!$F$5:$F$417,'スプリントバックログ（グラフ表）'!$H$2)</f>
+        <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A10,'スプリントバックログ(全体) '!$F$5:$F$418,'スプリントバックログ（グラフ表）'!$H$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I10" s="107" t="e">

--- a/7班_スプリントバックログ.xlsx
+++ b/7班_スプリントバックログ.xlsx
@@ -2443,7 +2443,19 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2466,18 +2478,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10766,10 +10766,10 @@
   <dimension ref="A1:AL418"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="O50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10792,22 +10792,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="97" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="94" t="s">
@@ -10816,57 +10816,57 @@
       <c r="H1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="105" t="s">
+      <c r="L1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
     </row>
     <row r="2" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="95"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="94"/>
       <c r="H2" s="94"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="95"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
       <c r="L2" s="54" t="s">
         <v>15</v>
       </c>
@@ -10950,17 +10950,17 @@
       </c>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="95"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="97"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="95"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
       <c r="L3" s="12">
         <f>INT(($L$4-(COLUMN()-COLUMN($L4))*($L$4/COUNTA($L$2:$AL$2))))</f>
         <v>1</v>
@@ -11071,17 +11071,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="95"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="95"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="94"/>
       <c r="H4" s="94"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="95"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="13">
         <f t="shared" ref="L4:AL4" si="3">SUM(L5:L411)</f>
         <v>1</v>
@@ -14157,8 +14157,8 @@
         <v>105</v>
       </c>
       <c r="F59" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>作業中</v>
+        <f t="shared" si="8"/>
+        <v>完了</v>
       </c>
       <c r="G59" s="4">
         <v>42845</v>
@@ -14172,9 +14172,8 @@
       <c r="J59" s="11">
         <v>3</v>
       </c>
-      <c r="K59" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K59" s="9">
+        <v>0</v>
       </c>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
@@ -14282,8 +14281,8 @@
         <v>105</v>
       </c>
       <c r="F61" s="9" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>作業中</v>
+        <f t="shared" si="8"/>
+        <v>完了</v>
       </c>
       <c r="G61" s="4">
         <v>42846</v>
@@ -14297,9 +14296,8 @@
       <c r="J61" s="11">
         <v>3</v>
       </c>
-      <c r="K61" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K61" s="9">
+        <v>0</v>
       </c>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
@@ -14409,21 +14407,22 @@
       </c>
       <c r="F63" s="9" t="str">
         <f t="shared" si="8"/>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="G63" s="4">
         <v>42847</v>
       </c>
-      <c r="H63" s="4"/>
+      <c r="H63" s="4">
+        <v>42845</v>
+      </c>
       <c r="I63" s="11">
         <v>3</v>
       </c>
       <c r="J63" s="11">
         <v>3</v>
       </c>
-      <c r="K63" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K63" s="9">
+        <v>0</v>
       </c>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
@@ -28743,11 +28742,6 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="L1:AL1"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
@@ -28755,6 +28749,11 @@
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="C1:C4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F419:F65544">
@@ -30749,7 +30748,7 @@
       <c r="E3" s="113"/>
       <c r="H3" s="34">
         <f ca="1">COUNTIF('スプリントバックログ(全体) '!$F$5:$F$418,'スプリントバックログ（グラフ表）'!$H$2)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="107">
         <v>1</v>

--- a/7班_スプリントバックログ.xlsx
+++ b/7班_スプリントバックログ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G015A1347\Desktop\Soce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="172">
   <si>
     <t>番号</t>
   </si>
@@ -1160,19 +1160,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・2本発射の実装</t>
-    <rPh sb="2" eb="3">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハッシャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・Playerがズリ落ちる(10秒),、時間に応じて赤くなっていく</t>
     <rPh sb="10" eb="11">
       <t>オ</t>
@@ -1300,40 +1287,6 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・2本で噛み付いてる間は次にいけないように(片方を離すまで振り子が出来ない)</t>
-    <rPh sb="2" eb="3">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カタホウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>デキ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2443,19 +2396,7 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2478,6 +2419,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7326,7 +7279,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>39</c:v>
@@ -10766,10 +10719,10 @@
   <dimension ref="A1:AL418"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="O50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
+      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10792,22 +10745,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="95" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="94" t="s">
@@ -10816,57 +10769,57 @@
       <c r="H1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
     </row>
     <row r="2" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="97"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="94"/>
       <c r="H2" s="94"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="54" t="s">
         <v>15</v>
       </c>
@@ -10950,17 +10903,17 @@
       </c>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="97"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="12">
         <f>INT(($L$4-(COLUMN()-COLUMN($L4))*($L$4/COUNTA($L$2:$AL$2))))</f>
         <v>1</v>
@@ -11071,17 +11024,17 @@
       </c>
     </row>
     <row r="4" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="97"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="97"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="94"/>
       <c r="H4" s="94"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="95"/>
       <c r="L4" s="13">
         <f t="shared" ref="L4:AL4" si="3">SUM(L5:L411)</f>
         <v>1</v>
@@ -11830,7 +11783,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C16" s="28">
         <v>1</v>
@@ -11840,8 +11793,8 @@
         <v>104</v>
       </c>
       <c r="F16" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>作業中</v>
+        <f t="shared" si="4"/>
+        <v>完了</v>
       </c>
       <c r="G16" s="4">
         <v>42843</v>
@@ -11855,9 +11808,8 @@
       <c r="J16" s="11">
         <v>1</v>
       </c>
-      <c r="K16" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K16" s="9">
+        <v>0</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -11902,8 +11854,8 @@
         <v>104</v>
       </c>
       <c r="F17" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>作業中</v>
+        <f t="shared" si="4"/>
+        <v>完了</v>
       </c>
       <c r="G17" s="4">
         <v>42843</v>
@@ -11917,9 +11869,8 @@
       <c r="J17" s="11">
         <v>1</v>
       </c>
-      <c r="K17" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K17" s="9">
+        <v>0</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
@@ -11964,8 +11915,8 @@
         <v>104</v>
       </c>
       <c r="F18" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>作業中</v>
+        <f t="shared" si="4"/>
+        <v>完了</v>
       </c>
       <c r="G18" s="4">
         <v>42843</v>
@@ -11979,9 +11930,8 @@
       <c r="J18" s="11">
         <v>2</v>
       </c>
-      <c r="K18" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K18" s="9">
+        <v>0</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
@@ -12019,7 +11969,7 @@
         <v>123</v>
       </c>
       <c r="C19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="25" t="s">
@@ -12027,19 +11977,22 @@
       </c>
       <c r="F19" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="G19" s="4">
         <v>42844</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4">
+        <v>42844</v>
+      </c>
       <c r="I19" s="11">
         <v>2</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
@@ -12077,7 +12030,7 @@
         <v>124</v>
       </c>
       <c r="C20" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="25" t="s">
@@ -12085,19 +12038,22 @@
       </c>
       <c r="F20" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="G20" s="4">
         <v>42844</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4">
+        <v>42844</v>
+      </c>
       <c r="I20" s="11">
         <v>2</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -12132,10 +12088,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="25" t="s">
@@ -12143,19 +12099,20 @@
       </c>
       <c r="F21" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="G21" s="4">
         <v>42844</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4">
+        <v>42844</v>
+      </c>
       <c r="I21" s="11">
         <v>1</v>
       </c>
       <c r="J21" s="11"/>
-      <c r="K21" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K21" s="9">
+        <v>0</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
@@ -12193,15 +12150,15 @@
         <v>129</v>
       </c>
       <c r="C22" s="28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="25" t="s">
         <v>104</v>
       </c>
       <c r="F22" s="9" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>作業中</v>
+        <f t="shared" si="4"/>
+        <v>完了</v>
       </c>
       <c r="G22" s="4">
         <v>42844</v>
@@ -12215,9 +12172,8 @@
       <c r="J22" s="11">
         <v>1</v>
       </c>
-      <c r="K22" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K22" s="9">
+        <v>0</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -12271,10 +12227,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
+      <c r="K23" s="9"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -12308,24 +12261,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="28"/>
+        <v>133</v>
+      </c>
+      <c r="C24" s="28">
+        <v>1</v>
+      </c>
       <c r="D24" s="24"/>
       <c r="E24" s="25" t="s">
         <v>104</v>
       </c>
       <c r="F24" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+        <v>完了</v>
+      </c>
+      <c r="G24" s="4">
+        <v>42845</v>
+      </c>
+      <c r="H24" s="4">
+        <v>42845</v>
+      </c>
       <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="J24" s="11">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
       </c>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
@@ -12360,24 +12320,29 @@
         <v>21</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="28"/>
+        <v>130</v>
+      </c>
+      <c r="C25" s="28">
+        <v>1</v>
+      </c>
       <c r="D25" s="24"/>
       <c r="E25" s="25" t="s">
         <v>104</v>
       </c>
       <c r="F25" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+        <v>完了</v>
+      </c>
+      <c r="G25" s="4">
+        <v>42846</v>
+      </c>
+      <c r="H25" s="4">
+        <v>42846</v>
+      </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K25" s="9">
+        <v>0</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -12411,17 +12376,13 @@
       <c r="A26" s="27">
         <v>22</v>
       </c>
-      <c r="B26" s="93" t="s">
-        <v>130</v>
-      </c>
+      <c r="B26" s="93"/>
       <c r="C26" s="28"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="25" t="s">
-        <v>104</v>
-      </c>
+      <c r="E26" s="25"/>
       <c r="F26" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -12463,17 +12424,13 @@
       <c r="A27" s="27">
         <v>23</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>140</v>
-      </c>
+      <c r="B27" s="19"/>
       <c r="C27" s="28"/>
       <c r="D27" s="24"/>
-      <c r="E27" s="25" t="s">
-        <v>104</v>
-      </c>
+      <c r="E27" s="25"/>
       <c r="F27" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -12568,30 +12525,31 @@
         <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="28">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="C29" s="28">
-        <v>0</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>104</v>
       </c>
       <c r="F29" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="G29" s="4">
         <v>42845</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4">
+        <v>42845</v>
+      </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K29" s="9">
+        <v>0</v>
       </c>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -12626,24 +12584,30 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="28"/>
+        <v>165</v>
+      </c>
+      <c r="C30" s="28">
+        <v>1</v>
+      </c>
       <c r="D30" s="24"/>
       <c r="E30" s="25" t="s">
         <v>104</v>
       </c>
       <c r="F30" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>未着手</v>
+        <v>完了</v>
       </c>
       <c r="G30" s="4">
         <v>42845</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4">
+        <v>42845</v>
+      </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="9"/>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -12677,9 +12641,11 @@
         <v>27</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="28"/>
+        <v>139</v>
+      </c>
+      <c r="C31" s="28">
+        <v>0</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="25" t="s">
         <v>104</v>
@@ -12692,10 +12658,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="9" t="str">
-        <f t="shared" ref="K31" ca="1" si="6">IF(ISBLANK(L31)=FALSE,OFFSET(K31,0,COUNTA(L31:AL31)),"")</f>
-        <v/>
-      </c>
+      <c r="K31" s="9"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -12729,24 +12692,29 @@
         <v>28</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="28"/>
+        <v>166</v>
+      </c>
+      <c r="C32" s="28">
+        <v>1</v>
+      </c>
       <c r="D32" s="24"/>
       <c r="E32" s="25" t="s">
         <v>104</v>
       </c>
       <c r="F32" s="9" t="str">
         <f>IF(ISBLANK($B32),"",IF(ISBLANK($H32),"未着手",IF($K32=0,"完了","作業中")))</f>
-        <v>未着手</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+        <v>完了</v>
+      </c>
+      <c r="G32" s="4">
+        <v>42845</v>
+      </c>
+      <c r="H32" s="4">
+        <v>42845</v>
+      </c>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="K32" s="9">
+        <v>0</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
@@ -12781,7 +12749,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="24"/>
@@ -12827,17 +12795,27 @@
         <v>30</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="28"/>
+        <v>168</v>
+      </c>
+      <c r="C34" s="28">
+        <v>1</v>
+      </c>
       <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
+      <c r="E34" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="F34" s="9"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="G34" s="4">
+        <v>42845</v>
+      </c>
+      <c r="H34" s="4">
+        <v>42845</v>
+      </c>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="9"/>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -12871,17 +12849,27 @@
         <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="28"/>
+        <v>169</v>
+      </c>
+      <c r="C35" s="28">
+        <v>1</v>
+      </c>
       <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
+      <c r="E35" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="4">
+        <v>42846</v>
+      </c>
+      <c r="H35" s="4">
+        <v>42846</v>
+      </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="9"/>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
@@ -12915,15 +12903,17 @@
         <v>32</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="28"/>
+        <v>143</v>
+      </c>
+      <c r="C36" s="28">
+        <v>0</v>
+      </c>
       <c r="D36" s="24"/>
       <c r="E36" s="25" t="s">
         <v>104</v>
       </c>
       <c r="F36" s="9" t="str">
-        <f t="shared" ref="F36:F42" si="7">IF(ISBLANK($B36),"",IF(ISBLANK($H36),"未着手",IF($K36=0,"完了","作業中")))</f>
+        <f t="shared" ref="F36:F42" si="6">IF(ISBLANK($B36),"",IF(ISBLANK($H36),"未着手",IF($K36=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G36" s="4"/>
@@ -12973,7 +12963,7 @@
       <c r="D37" s="24"/>
       <c r="E37" s="25"/>
       <c r="F37" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="G37" s="4"/>
@@ -13023,7 +13013,7 @@
       <c r="D38" s="24"/>
       <c r="E38" s="25"/>
       <c r="F38" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="G38" s="4"/>
@@ -13067,13 +13057,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="24"/>
       <c r="E39" s="25"/>
       <c r="F39" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="G39" s="4"/>
@@ -13117,13 +13107,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="24"/>
       <c r="E40" s="25"/>
       <c r="F40" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="G40" s="4"/>
@@ -13167,13 +13157,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="24"/>
       <c r="E41" s="25"/>
       <c r="F41" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="G41" s="4"/>
@@ -13217,13 +13207,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="24"/>
       <c r="E42" s="25"/>
       <c r="F42" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="G42" s="4"/>
@@ -13265,7 +13255,7 @@
     <row r="43" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A43" s="27"/>
       <c r="B43" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="24"/>
@@ -13309,13 +13299,13 @@
         <v>39</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="24"/>
       <c r="E44" s="25"/>
       <c r="F44" s="9" t="str">
-        <f t="shared" ref="F44:F64" si="8">IF(ISBLANK($B44),"",IF(ISBLANK($H44),"未着手",IF($K44=0,"完了","作業中")))</f>
+        <f t="shared" ref="F44:F64" si="7">IF(ISBLANK($B44),"",IF(ISBLANK($H44),"未着手",IF($K44=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="G44" s="4"/>
@@ -13359,13 +13349,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="24"/>
       <c r="E45" s="25"/>
       <c r="F45" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G45" s="4"/>
@@ -13409,13 +13399,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="24"/>
       <c r="E46" s="25"/>
       <c r="F46" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G46" s="4"/>
@@ -13459,13 +13449,13 @@
         <v>42</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="24"/>
       <c r="E47" s="25"/>
       <c r="F47" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G47" s="4"/>
@@ -13509,7 +13499,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="24"/>
@@ -13517,7 +13507,7 @@
         <v>106</v>
       </c>
       <c r="F48" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G48" s="4"/>
@@ -13561,13 +13551,13 @@
         <v>44</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="24"/>
       <c r="E49" s="25"/>
       <c r="F49" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G49" s="4"/>
@@ -13611,13 +13601,13 @@
         <v>45</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="24"/>
       <c r="E50" s="25"/>
       <c r="F50" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G50" s="4"/>
@@ -13661,13 +13651,13 @@
         <v>46</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="24"/>
       <c r="E51" s="25"/>
       <c r="F51" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G51" s="4"/>
@@ -13711,13 +13701,13 @@
         <v>47</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C52" s="28"/>
       <c r="D52" s="24"/>
       <c r="E52" s="25"/>
       <c r="F52" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G52" s="4"/>
@@ -13729,7 +13719,7 @@
         <v>z</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
@@ -13763,19 +13753,19 @@
         <v>48</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C53" s="28">
         <v>1</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E53" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F53" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>完了</v>
       </c>
       <c r="G53" s="4">
@@ -13826,19 +13816,19 @@
         <v>49</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C54" s="28">
         <v>1</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F54" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>完了</v>
       </c>
       <c r="G54" s="4">
@@ -13893,19 +13883,19 @@
         <v>50</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C55" s="28">
         <v>1</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E55" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F55" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>完了</v>
       </c>
       <c r="G55" s="4">
@@ -13956,19 +13946,19 @@
         <v>51</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C56" s="28">
         <v>1</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E56" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F56" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>完了</v>
       </c>
       <c r="G56" s="4">
@@ -14019,19 +14009,19 @@
         <v>52</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C57" s="28">
         <v>1</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E57" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F57" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>完了</v>
       </c>
       <c r="G57" s="4">
@@ -14082,19 +14072,19 @@
         <v>53</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C58" s="28">
         <v>1</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F58" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>完了</v>
       </c>
       <c r="G58" s="4">
@@ -14145,19 +14135,19 @@
         <v>54</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C59" s="28">
         <v>0.5</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E59" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F59" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>完了</v>
       </c>
       <c r="G59" s="4">
@@ -14208,7 +14198,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C60" s="28">
         <v>1</v>
@@ -14218,7 +14208,7 @@
         <v>105</v>
       </c>
       <c r="F60" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>完了</v>
       </c>
       <c r="G60" s="4">
@@ -14269,19 +14259,19 @@
         <v>55</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C61" s="28">
         <v>0</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E61" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F61" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>完了</v>
       </c>
       <c r="G61" s="4">
@@ -14332,19 +14322,19 @@
         <v>56</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C62" s="28">
         <v>0</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E62" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F62" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G62" s="4">
@@ -14394,19 +14384,19 @@
         <v>57</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C63" s="28">
         <v>0</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E63" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F63" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>完了</v>
       </c>
       <c r="G63" s="4">
@@ -14457,19 +14447,19 @@
         <v>58</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C64" s="28">
         <v>0</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F64" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="G64" s="4">
@@ -14531,7 +14521,7 @@
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="9" t="str">
-        <f t="shared" ref="K65:K75" ca="1" si="9">IF(ISBLANK(L65)=FALSE,OFFSET(K65,0,COUNTA(L65:AL65)),"")</f>
+        <f t="shared" ref="K65:K75" ca="1" si="8">IF(ISBLANK(L65)=FALSE,OFFSET(K65,0,COUNTA(L65:AL65)),"")</f>
         <v/>
       </c>
       <c r="L65" s="11"/>
@@ -14579,7 +14569,7 @@
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="9" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L66" s="11"/>
@@ -14627,7 +14617,7 @@
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="9" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L67" s="11"/>
@@ -14675,7 +14665,7 @@
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="9" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L68" s="11"/>
@@ -14723,7 +14713,7 @@
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="9" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L69" s="11"/>
@@ -14771,7 +14761,7 @@
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="9" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L70" s="11"/>
@@ -14819,7 +14809,7 @@
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="9" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L71" s="11"/>
@@ -14867,7 +14857,7 @@
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="9" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L72" s="11"/>
@@ -14915,7 +14905,7 @@
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="9" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L73" s="11"/>
@@ -14963,7 +14953,7 @@
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="9" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L74" s="11"/>
@@ -15011,7 +15001,7 @@
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="9" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L75" s="11"/>
@@ -15051,7 +15041,7 @@
       <c r="D76" s="24"/>
       <c r="E76" s="25"/>
       <c r="F76" s="9" t="str">
-        <f t="shared" ref="F76:F81" si="10">IF(ISBLANK($B76),"",IF(ISBLANK($H76),"未着手",IF($K76=0,"完了","作業中")))</f>
+        <f t="shared" ref="F76:F81" si="9">IF(ISBLANK($B76),"",IF(ISBLANK($H76),"未着手",IF($K76=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="G76" s="4"/>
@@ -15059,7 +15049,7 @@
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="9" t="str">
-        <f t="shared" ref="K76:K107" ca="1" si="11">IF(ISBLANK(L76)=FALSE,OFFSET(K76,0,COUNTA(L76:AL76)),"")</f>
+        <f t="shared" ref="K76:K107" ca="1" si="10">IF(ISBLANK(L76)=FALSE,OFFSET(K76,0,COUNTA(L76:AL76)),"")</f>
         <v/>
       </c>
       <c r="L76" s="11"/>
@@ -15099,7 +15089,7 @@
       <c r="D77" s="24"/>
       <c r="E77" s="25"/>
       <c r="F77" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G77" s="4"/>
@@ -15107,7 +15097,7 @@
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L77" s="11"/>
@@ -15147,7 +15137,7 @@
       <c r="D78" s="24"/>
       <c r="E78" s="25"/>
       <c r="F78" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G78" s="4"/>
@@ -15155,7 +15145,7 @@
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="K78" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L78" s="11"/>
@@ -15195,7 +15185,7 @@
       <c r="D79" s="24"/>
       <c r="E79" s="25"/>
       <c r="F79" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G79" s="4"/>
@@ -15203,7 +15193,7 @@
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L79" s="11"/>
@@ -15243,7 +15233,7 @@
       <c r="D80" s="24"/>
       <c r="E80" s="25"/>
       <c r="F80" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G80" s="4"/>
@@ -15251,7 +15241,7 @@
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
       <c r="K80" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L80" s="11"/>
@@ -15291,7 +15281,7 @@
       <c r="D81" s="24"/>
       <c r="E81" s="25"/>
       <c r="F81" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G81" s="4"/>
@@ -15299,7 +15289,7 @@
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
       <c r="K81" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L81" s="11"/>
@@ -15339,7 +15329,7 @@
       <c r="D82" s="24"/>
       <c r="E82" s="25"/>
       <c r="F82" s="9" t="str">
-        <f t="shared" ref="F82:F112" si="12">IF(ISBLANK($B82),"",IF(ISBLANK($H81),"未着手",IF($K81=0,"完了","作業中")))</f>
+        <f t="shared" ref="F82:F112" si="11">IF(ISBLANK($B82),"",IF(ISBLANK($H81),"未着手",IF($K81=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="G82" s="4"/>
@@ -15347,7 +15337,7 @@
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L82" s="11"/>
@@ -15387,7 +15377,7 @@
       <c r="D83" s="24"/>
       <c r="E83" s="25"/>
       <c r="F83" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G83" s="4"/>
@@ -15395,7 +15385,7 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L83" s="11"/>
@@ -15435,7 +15425,7 @@
       <c r="D84" s="24"/>
       <c r="E84" s="25"/>
       <c r="F84" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G84" s="4"/>
@@ -15443,7 +15433,7 @@
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="K84" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L84" s="11"/>
@@ -15483,7 +15473,7 @@
       <c r="D85" s="24"/>
       <c r="E85" s="25"/>
       <c r="F85" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G85" s="4"/>
@@ -15491,7 +15481,7 @@
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="K85" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L85" s="11"/>
@@ -15531,7 +15521,7 @@
       <c r="D86" s="24"/>
       <c r="E86" s="25"/>
       <c r="F86" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G86" s="23"/>
@@ -15539,7 +15529,7 @@
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
       <c r="K86" s="22" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L86" s="11"/>
@@ -15579,7 +15569,7 @@
       <c r="D87" s="24"/>
       <c r="E87" s="25"/>
       <c r="F87" s="22" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G87" s="4"/>
@@ -15587,7 +15577,7 @@
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
       <c r="K87" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L87" s="11"/>
@@ -15627,7 +15617,7 @@
       <c r="D88" s="24"/>
       <c r="E88" s="25"/>
       <c r="F88" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G88" s="4"/>
@@ -15635,7 +15625,7 @@
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
       <c r="K88" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L88" s="11"/>
@@ -15675,7 +15665,7 @@
       <c r="D89" s="24"/>
       <c r="E89" s="25"/>
       <c r="F89" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G89" s="4"/>
@@ -15683,7 +15673,7 @@
       <c r="I89" s="11"/>
       <c r="J89" s="11"/>
       <c r="K89" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L89" s="11"/>
@@ -15723,7 +15713,7 @@
       <c r="D90" s="24"/>
       <c r="E90" s="25"/>
       <c r="F90" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G90" s="4"/>
@@ -15731,7 +15721,7 @@
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
       <c r="K90" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L90" s="11"/>
@@ -15771,7 +15761,7 @@
       <c r="D91" s="24"/>
       <c r="E91" s="25"/>
       <c r="F91" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G91" s="4"/>
@@ -15779,7 +15769,7 @@
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
       <c r="K91" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L91" s="11"/>
@@ -15819,7 +15809,7 @@
       <c r="D92" s="24"/>
       <c r="E92" s="25"/>
       <c r="F92" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G92" s="4"/>
@@ -15827,7 +15817,7 @@
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
       <c r="K92" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L92" s="11"/>
@@ -15867,7 +15857,7 @@
       <c r="D93" s="24"/>
       <c r="E93" s="25"/>
       <c r="F93" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G93" s="4"/>
@@ -15875,7 +15865,7 @@
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
       <c r="K93" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L93" s="11"/>
@@ -15915,7 +15905,7 @@
       <c r="D94" s="24"/>
       <c r="E94" s="25"/>
       <c r="F94" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G94" s="4"/>
@@ -15923,7 +15913,7 @@
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
       <c r="K94" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L94" s="11"/>
@@ -15963,7 +15953,7 @@
       <c r="D95" s="24"/>
       <c r="E95" s="25"/>
       <c r="F95" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G95" s="4"/>
@@ -15971,7 +15961,7 @@
       <c r="I95" s="11"/>
       <c r="J95" s="11"/>
       <c r="K95" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L95" s="11"/>
@@ -16011,7 +16001,7 @@
       <c r="D96" s="24"/>
       <c r="E96" s="25"/>
       <c r="F96" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G96" s="4"/>
@@ -16019,7 +16009,7 @@
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
       <c r="K96" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L96" s="11"/>
@@ -16059,7 +16049,7 @@
       <c r="D97" s="24"/>
       <c r="E97" s="25"/>
       <c r="F97" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G97" s="4"/>
@@ -16067,7 +16057,7 @@
       <c r="I97" s="11"/>
       <c r="J97" s="11"/>
       <c r="K97" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L97" s="11"/>
@@ -16107,7 +16097,7 @@
       <c r="D98" s="24"/>
       <c r="E98" s="25"/>
       <c r="F98" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G98" s="4"/>
@@ -16115,7 +16105,7 @@
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
       <c r="K98" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L98" s="11"/>
@@ -16155,7 +16145,7 @@
       <c r="D99" s="24"/>
       <c r="E99" s="25"/>
       <c r="F99" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G99" s="4"/>
@@ -16163,7 +16153,7 @@
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
       <c r="K99" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L99" s="11"/>
@@ -16203,7 +16193,7 @@
       <c r="D100" s="24"/>
       <c r="E100" s="25"/>
       <c r="F100" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G100" s="4"/>
@@ -16211,7 +16201,7 @@
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
       <c r="K100" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L100" s="11"/>
@@ -16251,7 +16241,7 @@
       <c r="D101" s="24"/>
       <c r="E101" s="25"/>
       <c r="F101" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G101" s="4"/>
@@ -16259,7 +16249,7 @@
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
       <c r="K101" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L101" s="11"/>
@@ -16299,7 +16289,7 @@
       <c r="D102" s="24"/>
       <c r="E102" s="25"/>
       <c r="F102" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G102" s="4"/>
@@ -16307,7 +16297,7 @@
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
       <c r="K102" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L102" s="11"/>
@@ -16347,7 +16337,7 @@
       <c r="D103" s="24"/>
       <c r="E103" s="25"/>
       <c r="F103" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G103" s="4"/>
@@ -16355,7 +16345,7 @@
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
       <c r="K103" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L103" s="11"/>
@@ -16395,7 +16385,7 @@
       <c r="D104" s="24"/>
       <c r="E104" s="25"/>
       <c r="F104" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G104" s="4"/>
@@ -16403,7 +16393,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
       <c r="K104" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L104" s="11"/>
@@ -16443,7 +16433,7 @@
       <c r="D105" s="24"/>
       <c r="E105" s="25"/>
       <c r="F105" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G105" s="4"/>
@@ -16451,7 +16441,7 @@
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
       <c r="K105" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L105" s="11"/>
@@ -16491,7 +16481,7 @@
       <c r="D106" s="24"/>
       <c r="E106" s="25"/>
       <c r="F106" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G106" s="4"/>
@@ -16499,7 +16489,7 @@
       <c r="I106" s="11"/>
       <c r="J106" s="11"/>
       <c r="K106" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L106" s="11"/>
@@ -16539,7 +16529,7 @@
       <c r="D107" s="24"/>
       <c r="E107" s="25"/>
       <c r="F107" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G107" s="4"/>
@@ -16547,7 +16537,7 @@
       <c r="I107" s="11"/>
       <c r="J107" s="11"/>
       <c r="K107" s="9" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L107" s="11"/>
@@ -16587,7 +16577,7 @@
       <c r="D108" s="24"/>
       <c r="E108" s="25"/>
       <c r="F108" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G108" s="4"/>
@@ -16595,7 +16585,7 @@
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
       <c r="K108" s="9" t="str">
-        <f t="shared" ref="K108:K111" ca="1" si="13">IF(ISBLANK(L108)=FALSE,OFFSET(K108,0,COUNTA(L108:AL108)),"")</f>
+        <f t="shared" ref="K108:K111" ca="1" si="12">IF(ISBLANK(L108)=FALSE,OFFSET(K108,0,COUNTA(L108:AL108)),"")</f>
         <v/>
       </c>
       <c r="L108" s="11"/>
@@ -16635,7 +16625,7 @@
       <c r="D109" s="24"/>
       <c r="E109" s="25"/>
       <c r="F109" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G109" s="4"/>
@@ -16643,7 +16633,7 @@
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
       <c r="K109" s="9" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L109" s="11"/>
@@ -16683,7 +16673,7 @@
       <c r="D110" s="24"/>
       <c r="E110" s="25"/>
       <c r="F110" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G110" s="4"/>
@@ -16691,7 +16681,7 @@
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
       <c r="K110" s="9" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L110" s="11"/>
@@ -16731,7 +16721,7 @@
       <c r="D111" s="24"/>
       <c r="E111" s="25"/>
       <c r="F111" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G111" s="4"/>
@@ -16739,7 +16729,7 @@
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="9" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L111" s="11"/>
@@ -16776,7 +16766,7 @@
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G112"/>
@@ -28742,6 +28732,11 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:AL1"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
@@ -28749,11 +28744,6 @@
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="C1:C4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="L1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F419:F65544">
@@ -30748,7 +30738,7 @@
       <c r="E3" s="113"/>
       <c r="H3" s="34">
         <f ca="1">COUNTIF('スプリントバックログ(全体) '!$F$5:$F$418,'スプリントバックログ（グラフ表）'!$H$2)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I3" s="107">
         <v>1</v>
@@ -30821,7 +30811,7 @@
       </c>
       <c r="D5" s="30">
         <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A5,'スプリントバックログ(全体) '!$J$5:$J$411)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="31">
         <f>COUNTA('スプリントバックログ(全体) '!$L$2:$AL$2)*6-COUNTA('スプリントバックログ(全体) '!$L$4:$AL$4)*6</f>
@@ -31304,7 +31294,7 @@
       </c>
       <c r="F1" s="60">
         <f ca="1">TODAY()</f>
-        <v>42845</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -31725,7 +31715,7 @@
       </c>
       <c r="F1" s="60">
         <f ca="1">TODAY()</f>
-        <v>42845</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -32304,7 +32294,7 @@
       </c>
       <c r="F1" s="60">
         <f ca="1">TODAY()</f>
-        <v>42845</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">

--- a/7班_スプリントバックログ.xlsx
+++ b/7班_スプリントバックログ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\team2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugi23\Desktop\TeamWork2017_07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" tabRatio="658"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" tabRatio="658"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ(全体) " sheetId="12" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="172">
   <si>
     <t>番号</t>
   </si>
@@ -2396,7 +2396,19 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2419,18 +2431,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6295,19 +6295,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -6505,70 +6505,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -7134,7 +7134,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -7291,7 +7291,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -7605,7 +7605,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -10719,48 +10719,48 @@
   <dimension ref="A1:AL418"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="69.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="69.109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.125" style="5" customWidth="1"/>
-    <col min="9" max="10" width="9.125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="2" customWidth="1"/>
-    <col min="12" max="38" width="8.75" style="15" customWidth="1"/>
-    <col min="39" max="39" width="2.875" customWidth="1"/>
-    <col min="40" max="40" width="10.75" customWidth="1"/>
-    <col min="50" max="50" width="14.25" customWidth="1"/>
-    <col min="51" max="51" width="4.75" customWidth="1"/>
-    <col min="52" max="52" width="3.75" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="5" customWidth="1"/>
+    <col min="9" max="10" width="9.109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2" customWidth="1"/>
+    <col min="12" max="38" width="8.77734375" style="15" customWidth="1"/>
+    <col min="39" max="39" width="2.88671875" customWidth="1"/>
+    <col min="40" max="40" width="10.77734375" customWidth="1"/>
+    <col min="50" max="50" width="14.21875" customWidth="1"/>
+    <col min="51" max="51" width="4.77734375" customWidth="1"/>
+    <col min="52" max="52" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="97" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="94" t="s">
@@ -10769,57 +10769,57 @@
       <c r="H1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="105" t="s">
+      <c r="L1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-    </row>
-    <row r="2" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="95"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99"/>
+    </row>
+    <row r="2" spans="1:38" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="97"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="94"/>
       <c r="H2" s="94"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="95"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
       <c r="L2" s="54" t="s">
         <v>15</v>
       </c>
@@ -10902,105 +10902,105 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="95"/>
+    <row r="3" spans="1:38" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="97"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="97"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="95"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
       <c r="L3" s="12">
         <f>INT(($L$4-(COLUMN()-COLUMN($L4))*($L$4/COUNTA($L$2:$AL$2))))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M3" s="12">
         <f t="shared" ref="M3:AL3" si="0">INT(($L$4-(COLUMN()-COLUMN($L4))*($L$4/COUNTA($L$2:$AL$2))))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V3" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="36">
         <f t="shared" si="0"/>
@@ -11023,37 +11023,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="95"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="95"/>
+    <row r="4" spans="1:38" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="97"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="94"/>
       <c r="H4" s="94"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="95"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="13">
         <f t="shared" ref="L4:AL4" si="3">SUM(L5:L411)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O4" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P4" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="13">
         <f t="shared" si="3"/>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="27">
         <v>1</v>
       </c>
@@ -11196,7 +11196,7 @@
       <c r="AK5" s="11"/>
       <c r="AL5" s="14"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
         <v>2</v>
       </c>
@@ -11246,7 +11246,7 @@
       <c r="AK6" s="11"/>
       <c r="AL6" s="11"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
         <v>3</v>
       </c>
@@ -11310,7 +11310,7 @@
       <c r="AK7" s="11"/>
       <c r="AL7" s="11"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
         <v>4</v>
       </c>
@@ -11374,7 +11374,7 @@
       <c r="AK8" s="11"/>
       <c r="AL8" s="11"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="27">
         <v>5</v>
       </c>
@@ -11438,7 +11438,7 @@
       <c r="AK9" s="11"/>
       <c r="AL9" s="11"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>6</v>
       </c>
@@ -11502,7 +11502,7 @@
       <c r="AK10" s="11"/>
       <c r="AL10" s="11"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="27">
         <v>7</v>
       </c>
@@ -11566,7 +11566,7 @@
       <c r="AK11" s="11"/>
       <c r="AL11" s="11"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="27">
         <v>8</v>
       </c>
@@ -11620,7 +11620,7 @@
       <c r="AK12" s="11"/>
       <c r="AL12" s="11"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
         <v>9</v>
       </c>
@@ -11674,7 +11674,7 @@
       <c r="AK13" s="11"/>
       <c r="AL13" s="11"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="27">
         <v>10</v>
       </c>
@@ -11724,7 +11724,7 @@
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="27">
         <v>11</v>
       </c>
@@ -11778,7 +11778,7 @@
       <c r="AK15" s="11"/>
       <c r="AL15" s="11"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
         <v>12</v>
       </c>
@@ -11839,7 +11839,7 @@
       <c r="AK16" s="11"/>
       <c r="AL16" s="11"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="27">
         <v>13</v>
       </c>
@@ -11900,7 +11900,7 @@
       <c r="AK17" s="11"/>
       <c r="AL17" s="11"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
         <v>14</v>
       </c>
@@ -11961,7 +11961,7 @@
       <c r="AK18" s="11"/>
       <c r="AL18" s="11"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <v>15</v>
       </c>
@@ -12022,7 +12022,7 @@
       <c r="AK19" s="11"/>
       <c r="AL19" s="11"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
         <v>16</v>
       </c>
@@ -12083,7 +12083,7 @@
       <c r="AK20" s="11"/>
       <c r="AL20" s="11"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="27">
         <v>17</v>
       </c>
@@ -12142,7 +12142,7 @@
       <c r="AK21" s="11"/>
       <c r="AL21" s="11"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
         <v>18</v>
       </c>
@@ -12203,7 +12203,7 @@
       <c r="AK22" s="11"/>
       <c r="AL22" s="11"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="27">
         <v>19</v>
       </c>
@@ -12256,7 +12256,7 @@
       <c r="AK23" s="11"/>
       <c r="AL23" s="11"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="27">
         <v>20</v>
       </c>
@@ -12315,7 +12315,7 @@
       <c r="AK24" s="11"/>
       <c r="AL24" s="11"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="27">
         <v>21</v>
       </c>
@@ -12372,7 +12372,7 @@
       <c r="AK25" s="11"/>
       <c r="AL25" s="11"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="27">
         <v>22</v>
       </c>
@@ -12420,7 +12420,7 @@
       <c r="AK26" s="11"/>
       <c r="AL26" s="11"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="27">
         <v>23</v>
       </c>
@@ -12468,7 +12468,7 @@
       <c r="AK27" s="11"/>
       <c r="AL27" s="11"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="27">
         <v>24</v>
       </c>
@@ -12520,7 +12520,7 @@
       <c r="AK28" s="11"/>
       <c r="AL28" s="11"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="27">
         <v>25</v>
       </c>
@@ -12579,7 +12579,7 @@
       <c r="AK29" s="11"/>
       <c r="AL29" s="11"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="27">
         <v>26</v>
       </c>
@@ -12636,7 +12636,7 @@
       <c r="AK30" s="11"/>
       <c r="AL30" s="11"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="27">
         <v>27</v>
       </c>
@@ -12687,7 +12687,7 @@
       <c r="AK31" s="11"/>
       <c r="AL31" s="11"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
         <v>28</v>
       </c>
@@ -12744,29 +12744,52 @@
       <c r="AK32" s="11"/>
       <c r="AL32" s="11"/>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="27">
         <v>29</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="28">
+        <v>0.5</v>
+      </c>
       <c r="D33" s="24"/>
       <c r="E33" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="F33" s="9" t="str">
+        <f>IF(ISBLANK($B33),"",IF(ISBLANK($H33),"未着手",IF($K33=0,"完了","作業中")))</f>
+        <v>作業中</v>
+      </c>
+      <c r="G33" s="4">
+        <v>42845</v>
+      </c>
+      <c r="H33" s="4">
+        <v>42845</v>
+      </c>
       <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
+      <c r="J33" s="11">
+        <v>2</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1</v>
+      </c>
+      <c r="L33" s="11">
+        <v>2</v>
+      </c>
+      <c r="M33" s="11">
+        <v>2</v>
+      </c>
+      <c r="N33" s="11">
+        <v>2</v>
+      </c>
+      <c r="O33" s="11">
+        <v>1</v>
+      </c>
+      <c r="P33" s="11">
+        <v>1</v>
+      </c>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
@@ -12790,7 +12813,7 @@
       <c r="AK33" s="11"/>
       <c r="AL33" s="11"/>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="27">
         <v>30</v>
       </c>
@@ -12844,7 +12867,7 @@
       <c r="AK34" s="11"/>
       <c r="AL34" s="11"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="27">
         <v>31</v>
       </c>
@@ -12898,7 +12921,7 @@
       <c r="AK35" s="11"/>
       <c r="AL35" s="11"/>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>32</v>
       </c>
@@ -12952,7 +12975,7 @@
       <c r="AK36" s="11"/>
       <c r="AL36" s="11"/>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
         <v>33</v>
       </c>
@@ -13002,33 +13025,53 @@
       <c r="AK37" s="11"/>
       <c r="AL37" s="11"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <v>34</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="28"/>
+      <c r="C38" s="28">
+        <v>1</v>
+      </c>
       <c r="D38" s="24"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="F38" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>未着手</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+        <f t="shared" ca="1" si="6"/>
+        <v>完了</v>
+      </c>
+      <c r="G38" s="4">
+        <v>42846</v>
+      </c>
+      <c r="H38" s="4">
+        <v>42846</v>
+      </c>
       <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="9" t="str">
+      <c r="J38" s="11">
+        <v>2</v>
+      </c>
+      <c r="K38" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>2</v>
+      </c>
+      <c r="M38" s="11">
+        <v>2</v>
+      </c>
+      <c r="N38" s="11">
+        <v>2</v>
+      </c>
+      <c r="O38" s="11">
+        <v>2</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
@@ -13052,16 +13095,20 @@
       <c r="AK38" s="11"/>
       <c r="AL38" s="11"/>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
         <v>35</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="28"/>
+      <c r="C39" s="28">
+        <v>0.1</v>
+      </c>
       <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
+      <c r="E39" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="F39" s="9" t="str">
         <f t="shared" si="6"/>
         <v>未着手</v>
@@ -13102,16 +13149,20 @@
       <c r="AK39" s="11"/>
       <c r="AL39" s="11"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
         <v>36</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="28"/>
+      <c r="C40" s="28">
+        <v>0.1</v>
+      </c>
       <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
+      <c r="E40" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="F40" s="9" t="str">
         <f t="shared" si="6"/>
         <v>未着手</v>
@@ -13152,16 +13203,20 @@
       <c r="AK40" s="11"/>
       <c r="AL40" s="11"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="27">
         <v>37</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="28"/>
+      <c r="C41" s="28">
+        <v>0.1</v>
+      </c>
       <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
+      <c r="E41" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="F41" s="9" t="str">
         <f t="shared" si="6"/>
         <v>未着手</v>
@@ -13202,16 +13257,20 @@
       <c r="AK41" s="11"/>
       <c r="AL41" s="11"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
         <v>38</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="28"/>
+      <c r="C42" s="28">
+        <v>0.1</v>
+      </c>
       <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
+      <c r="E42" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="F42" s="9" t="str">
         <f t="shared" si="6"/>
         <v>未着手</v>
@@ -13252,14 +13311,18 @@
       <c r="AK42" s="11"/>
       <c r="AL42" s="11"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="28"/>
+      <c r="C43" s="28">
+        <v>0.1</v>
+      </c>
       <c r="D43" s="24"/>
-      <c r="E43" s="25"/>
+      <c r="E43" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="F43" s="9"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -13294,16 +13357,20 @@
       <c r="AK43" s="11"/>
       <c r="AL43" s="11"/>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
         <v>39</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="28"/>
+      <c r="C44" s="28">
+        <v>0.1</v>
+      </c>
       <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
+      <c r="E44" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="F44" s="9" t="str">
         <f t="shared" ref="F44:F64" si="7">IF(ISBLANK($B44),"",IF(ISBLANK($H44),"未着手",IF($K44=0,"完了","作業中")))</f>
         <v>未着手</v>
@@ -13344,7 +13411,7 @@
       <c r="AK44" s="11"/>
       <c r="AL44" s="11"/>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
         <v>40</v>
       </c>
@@ -13394,7 +13461,7 @@
       <c r="AK45" s="11"/>
       <c r="AL45" s="11"/>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>41</v>
       </c>
@@ -13444,16 +13511,20 @@
       <c r="AK46" s="11"/>
       <c r="AL46" s="11"/>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="27">
         <v>42</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="28"/>
+      <c r="C47" s="28">
+        <v>0.8</v>
+      </c>
       <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
+      <c r="E47" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="F47" s="9" t="str">
         <f t="shared" si="7"/>
         <v>未着手</v>
@@ -13494,7 +13565,7 @@
       <c r="AK47" s="11"/>
       <c r="AL47" s="11"/>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="27">
         <v>43</v>
       </c>
@@ -13546,7 +13617,7 @@
       <c r="AK48" s="11"/>
       <c r="AL48" s="11"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="27">
         <v>44</v>
       </c>
@@ -13596,7 +13667,7 @@
       <c r="AK49" s="11"/>
       <c r="AL49" s="14"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
         <v>45</v>
       </c>
@@ -13646,7 +13717,7 @@
       <c r="AK50" s="11"/>
       <c r="AL50" s="14"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>46</v>
       </c>
@@ -13696,7 +13767,7 @@
       <c r="AK51" s="11"/>
       <c r="AL51" s="11"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
         <v>47</v>
       </c>
@@ -13748,7 +13819,7 @@
       <c r="AK52" s="11"/>
       <c r="AL52" s="11"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>48</v>
       </c>
@@ -13811,7 +13882,7 @@
       <c r="AK53" s="11"/>
       <c r="AL53" s="11"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
         <v>49</v>
       </c>
@@ -13878,7 +13949,7 @@
       <c r="AK54" s="11"/>
       <c r="AL54" s="14"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
         <v>50</v>
       </c>
@@ -13941,7 +14012,7 @@
       <c r="AK55" s="11"/>
       <c r="AL55" s="14"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>51</v>
       </c>
@@ -14004,7 +14075,7 @@
       <c r="AK56" s="11"/>
       <c r="AL56" s="14"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>52</v>
       </c>
@@ -14067,7 +14138,7 @@
       <c r="AK57" s="11"/>
       <c r="AL57" s="11"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>53</v>
       </c>
@@ -14130,7 +14201,7 @@
       <c r="AK58" s="11"/>
       <c r="AL58" s="11"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>54</v>
       </c>
@@ -14193,7 +14264,7 @@
       <c r="AK59" s="11"/>
       <c r="AL59" s="14"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>55</v>
       </c>
@@ -14254,7 +14325,7 @@
       <c r="AK60" s="11"/>
       <c r="AL60" s="14"/>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>55</v>
       </c>
@@ -14317,7 +14388,7 @@
       <c r="AK61" s="11"/>
       <c r="AL61" s="14"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
         <v>56</v>
       </c>
@@ -14379,7 +14450,7 @@
       <c r="AK62" s="11"/>
       <c r="AL62" s="14"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>57</v>
       </c>
@@ -14442,7 +14513,7 @@
       <c r="AK63" s="11"/>
       <c r="AL63" s="11"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>58</v>
       </c>
@@ -14504,7 +14575,7 @@
       <c r="AK64" s="11"/>
       <c r="AL64" s="11"/>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="27">
         <v>59</v>
       </c>
@@ -14552,7 +14623,7 @@
       <c r="AK65" s="11"/>
       <c r="AL65" s="11"/>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="27">
         <v>60</v>
       </c>
@@ -14600,7 +14671,7 @@
       <c r="AK66" s="11"/>
       <c r="AL66" s="11"/>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="27">
         <v>61</v>
       </c>
@@ -14648,7 +14719,7 @@
       <c r="AK67" s="11"/>
       <c r="AL67" s="11"/>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="27">
         <v>62</v>
       </c>
@@ -14696,7 +14767,7 @@
       <c r="AK68" s="11"/>
       <c r="AL68" s="11"/>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="27">
         <v>63</v>
       </c>
@@ -14744,7 +14815,7 @@
       <c r="AK69" s="11"/>
       <c r="AL69" s="14"/>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="27">
         <v>64</v>
       </c>
@@ -14792,7 +14863,7 @@
       <c r="AK70" s="11"/>
       <c r="AL70" s="14"/>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="27">
         <v>65</v>
       </c>
@@ -14840,7 +14911,7 @@
       <c r="AK71" s="11"/>
       <c r="AL71" s="14"/>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="27">
         <v>66</v>
       </c>
@@ -14888,7 +14959,7 @@
       <c r="AK72" s="11"/>
       <c r="AL72" s="11"/>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="27">
         <v>67</v>
       </c>
@@ -14936,7 +15007,7 @@
       <c r="AK73" s="11"/>
       <c r="AL73" s="11"/>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="27">
         <v>68</v>
       </c>
@@ -14984,7 +15055,7 @@
       <c r="AK74" s="11"/>
       <c r="AL74" s="11"/>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="27">
         <v>69</v>
       </c>
@@ -15032,7 +15103,7 @@
       <c r="AK75" s="11"/>
       <c r="AL75" s="11"/>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="27">
         <v>70</v>
       </c>
@@ -15080,7 +15151,7 @@
       <c r="AK76" s="11"/>
       <c r="AL76" s="11"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="27">
         <v>71</v>
       </c>
@@ -15128,7 +15199,7 @@
       <c r="AK77" s="11"/>
       <c r="AL77" s="11"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="27">
         <v>72</v>
       </c>
@@ -15176,7 +15247,7 @@
       <c r="AK78" s="11"/>
       <c r="AL78" s="11"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="27">
         <v>73</v>
       </c>
@@ -15224,7 +15295,7 @@
       <c r="AK79" s="11"/>
       <c r="AL79" s="11"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="27">
         <v>74</v>
       </c>
@@ -15272,7 +15343,7 @@
       <c r="AK80" s="11"/>
       <c r="AL80" s="11"/>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" s="27">
         <v>75</v>
       </c>
@@ -15320,7 +15391,7 @@
       <c r="AK81" s="11"/>
       <c r="AL81" s="11"/>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" s="27">
         <v>76</v>
       </c>
@@ -15368,7 +15439,7 @@
       <c r="AK82" s="11"/>
       <c r="AL82" s="11"/>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83" s="27">
         <v>77</v>
       </c>
@@ -15416,7 +15487,7 @@
       <c r="AK83" s="11"/>
       <c r="AL83" s="11"/>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84" s="27">
         <v>78</v>
       </c>
@@ -15464,7 +15535,7 @@
       <c r="AK84" s="11"/>
       <c r="AL84" s="11"/>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" s="27">
         <v>79</v>
       </c>
@@ -15512,7 +15583,7 @@
       <c r="AK85" s="11"/>
       <c r="AL85" s="11"/>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86" s="27">
         <v>80</v>
       </c>
@@ -15560,7 +15631,7 @@
       <c r="AK86" s="11"/>
       <c r="AL86" s="11"/>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" s="27">
         <v>81</v>
       </c>
@@ -15608,7 +15679,7 @@
       <c r="AK87" s="11"/>
       <c r="AL87" s="11"/>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88" s="27">
         <v>82</v>
       </c>
@@ -15656,7 +15727,7 @@
       <c r="AK88" s="11"/>
       <c r="AL88" s="11"/>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" s="27">
         <v>83</v>
       </c>
@@ -15704,7 +15775,7 @@
       <c r="AK89" s="11"/>
       <c r="AL89" s="11"/>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" s="27">
         <v>79</v>
       </c>
@@ -15752,7 +15823,7 @@
       <c r="AK90" s="11"/>
       <c r="AL90" s="11"/>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91" s="27">
         <v>80</v>
       </c>
@@ -15800,7 +15871,7 @@
       <c r="AK91" s="11"/>
       <c r="AL91" s="11"/>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92" s="27">
         <v>81</v>
       </c>
@@ -15848,7 +15919,7 @@
       <c r="AK92" s="11"/>
       <c r="AL92" s="11"/>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93" s="27">
         <v>82</v>
       </c>
@@ -15896,7 +15967,7 @@
       <c r="AK93" s="11"/>
       <c r="AL93" s="11"/>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="27">
         <v>83</v>
       </c>
@@ -15944,7 +16015,7 @@
       <c r="AK94" s="11"/>
       <c r="AL94" s="11"/>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95" s="27">
         <v>84</v>
       </c>
@@ -15992,7 +16063,7 @@
       <c r="AK95" s="11"/>
       <c r="AL95" s="11"/>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96" s="27">
         <v>85</v>
       </c>
@@ -16040,7 +16111,7 @@
       <c r="AK96" s="11"/>
       <c r="AL96" s="11"/>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97" s="27">
         <v>86</v>
       </c>
@@ -16088,7 +16159,7 @@
       <c r="AK97" s="11"/>
       <c r="AL97" s="11"/>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="27">
         <v>87</v>
       </c>
@@ -16136,7 +16207,7 @@
       <c r="AK98" s="11"/>
       <c r="AL98" s="11"/>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="27">
         <v>88</v>
       </c>
@@ -16184,7 +16255,7 @@
       <c r="AK99" s="11"/>
       <c r="AL99" s="11"/>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="27">
         <v>89</v>
       </c>
@@ -16232,7 +16303,7 @@
       <c r="AK100" s="11"/>
       <c r="AL100" s="11"/>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="27">
         <v>90</v>
       </c>
@@ -16280,7 +16351,7 @@
       <c r="AK101" s="11"/>
       <c r="AL101" s="11"/>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="27">
         <v>91</v>
       </c>
@@ -16328,7 +16399,7 @@
       <c r="AK102" s="11"/>
       <c r="AL102" s="11"/>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="27">
         <v>92</v>
       </c>
@@ -16376,7 +16447,7 @@
       <c r="AK103" s="11"/>
       <c r="AL103" s="11"/>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="27">
         <v>93</v>
       </c>
@@ -16424,7 +16495,7 @@
       <c r="AK104" s="11"/>
       <c r="AL104" s="11"/>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="27">
         <v>94</v>
       </c>
@@ -16472,7 +16543,7 @@
       <c r="AK105" s="11"/>
       <c r="AL105" s="11"/>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A106" s="27">
         <v>95</v>
       </c>
@@ -16520,7 +16591,7 @@
       <c r="AK106" s="11"/>
       <c r="AL106" s="11"/>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107" s="27">
         <v>96</v>
       </c>
@@ -16568,7 +16639,7 @@
       <c r="AK107" s="11"/>
       <c r="AL107" s="11"/>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108" s="27">
         <v>97</v>
       </c>
@@ -16616,7 +16687,7 @@
       <c r="AK108" s="11"/>
       <c r="AL108" s="11"/>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A109" s="27">
         <v>98</v>
       </c>
@@ -16664,7 +16735,7 @@
       <c r="AK109" s="11"/>
       <c r="AL109" s="11"/>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A110" s="27">
         <v>99</v>
       </c>
@@ -16712,7 +16783,7 @@
       <c r="AK110" s="11"/>
       <c r="AL110" s="11"/>
     </row>
-    <row r="111" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27">
         <v>100</v>
       </c>
@@ -16760,7 +16831,7 @@
       <c r="AK111" s="11"/>
       <c r="AL111" s="11"/>
     </row>
-    <row r="112" spans="1:38" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:38" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B112" s="19"/>
       <c r="C112"/>
       <c r="D112"/>
@@ -16802,7 +16873,7 @@
       <c r="AK112"/>
       <c r="AL112"/>
     </row>
-    <row r="113" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
@@ -16841,7 +16912,7 @@
       <c r="AK113"/>
       <c r="AL113"/>
     </row>
-    <row r="114" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
@@ -16880,7 +16951,7 @@
       <c r="AK114"/>
       <c r="AL114"/>
     </row>
-    <row r="115" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
@@ -16919,7 +16990,7 @@
       <c r="AK115"/>
       <c r="AL115"/>
     </row>
-    <row r="116" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
@@ -16958,7 +17029,7 @@
       <c r="AK116"/>
       <c r="AL116"/>
     </row>
-    <row r="117" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
@@ -16997,7 +17068,7 @@
       <c r="AK117"/>
       <c r="AL117"/>
     </row>
-    <row r="118" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
@@ -17036,7 +17107,7 @@
       <c r="AK118"/>
       <c r="AL118"/>
     </row>
-    <row r="119" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
@@ -17075,7 +17146,7 @@
       <c r="AK119"/>
       <c r="AL119"/>
     </row>
-    <row r="120" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
@@ -17114,7 +17185,7 @@
       <c r="AK120"/>
       <c r="AL120"/>
     </row>
-    <row r="121" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
@@ -17153,7 +17224,7 @@
       <c r="AK121"/>
       <c r="AL121"/>
     </row>
-    <row r="122" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
@@ -17192,7 +17263,7 @@
       <c r="AK122"/>
       <c r="AL122"/>
     </row>
-    <row r="123" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -17231,7 +17302,7 @@
       <c r="AK123"/>
       <c r="AL123"/>
     </row>
-    <row r="124" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -17270,7 +17341,7 @@
       <c r="AK124"/>
       <c r="AL124"/>
     </row>
-    <row r="125" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -17309,7 +17380,7 @@
       <c r="AK125"/>
       <c r="AL125"/>
     </row>
-    <row r="126" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -17348,7 +17419,7 @@
       <c r="AK126"/>
       <c r="AL126"/>
     </row>
-    <row r="127" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -17387,7 +17458,7 @@
       <c r="AK127"/>
       <c r="AL127"/>
     </row>
-    <row r="128" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -17426,7 +17497,7 @@
       <c r="AK128"/>
       <c r="AL128"/>
     </row>
-    <row r="129" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
@@ -17465,7 +17536,7 @@
       <c r="AK129"/>
       <c r="AL129"/>
     </row>
-    <row r="130" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
@@ -17504,7 +17575,7 @@
       <c r="AK130"/>
       <c r="AL130"/>
     </row>
-    <row r="131" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
@@ -17543,7 +17614,7 @@
       <c r="AK131"/>
       <c r="AL131"/>
     </row>
-    <row r="132" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
@@ -17582,7 +17653,7 @@
       <c r="AK132"/>
       <c r="AL132"/>
     </row>
-    <row r="133" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
@@ -17621,7 +17692,7 @@
       <c r="AK133"/>
       <c r="AL133"/>
     </row>
-    <row r="134" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B134"/>
       <c r="C134"/>
       <c r="D134"/>
@@ -17660,7 +17731,7 @@
       <c r="AK134"/>
       <c r="AL134"/>
     </row>
-    <row r="135" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B135"/>
       <c r="C135"/>
       <c r="D135"/>
@@ -17699,7 +17770,7 @@
       <c r="AK135"/>
       <c r="AL135"/>
     </row>
-    <row r="136" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B136"/>
       <c r="C136"/>
       <c r="D136"/>
@@ -17738,7 +17809,7 @@
       <c r="AK136"/>
       <c r="AL136"/>
     </row>
-    <row r="137" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B137"/>
       <c r="C137"/>
       <c r="D137"/>
@@ -17777,7 +17848,7 @@
       <c r="AK137"/>
       <c r="AL137"/>
     </row>
-    <row r="138" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B138"/>
       <c r="C138"/>
       <c r="D138"/>
@@ -17816,7 +17887,7 @@
       <c r="AK138"/>
       <c r="AL138"/>
     </row>
-    <row r="139" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139"/>
@@ -17855,7 +17926,7 @@
       <c r="AK139"/>
       <c r="AL139"/>
     </row>
-    <row r="140" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
@@ -17894,7 +17965,7 @@
       <c r="AK140"/>
       <c r="AL140"/>
     </row>
-    <row r="141" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
@@ -17933,7 +18004,7 @@
       <c r="AK141"/>
       <c r="AL141"/>
     </row>
-    <row r="142" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
@@ -17972,7 +18043,7 @@
       <c r="AK142"/>
       <c r="AL142"/>
     </row>
-    <row r="143" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
@@ -18011,7 +18082,7 @@
       <c r="AK143"/>
       <c r="AL143"/>
     </row>
-    <row r="144" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B144"/>
       <c r="C144"/>
       <c r="D144"/>
@@ -18050,7 +18121,7 @@
       <c r="AK144"/>
       <c r="AL144"/>
     </row>
-    <row r="145" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
@@ -18089,7 +18160,7 @@
       <c r="AK145"/>
       <c r="AL145"/>
     </row>
-    <row r="146" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B146"/>
       <c r="C146"/>
       <c r="D146"/>
@@ -18128,7 +18199,7 @@
       <c r="AK146"/>
       <c r="AL146"/>
     </row>
-    <row r="147" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B147"/>
       <c r="C147"/>
       <c r="D147"/>
@@ -18167,7 +18238,7 @@
       <c r="AK147"/>
       <c r="AL147"/>
     </row>
-    <row r="148" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B148"/>
       <c r="C148"/>
       <c r="D148"/>
@@ -18206,7 +18277,7 @@
       <c r="AK148"/>
       <c r="AL148"/>
     </row>
-    <row r="149" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B149"/>
       <c r="C149"/>
       <c r="D149"/>
@@ -18245,7 +18316,7 @@
       <c r="AK149"/>
       <c r="AL149"/>
     </row>
-    <row r="150" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B150"/>
       <c r="C150"/>
       <c r="D150"/>
@@ -18284,7 +18355,7 @@
       <c r="AK150"/>
       <c r="AL150"/>
     </row>
-    <row r="151" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B151"/>
       <c r="C151"/>
       <c r="D151"/>
@@ -18323,7 +18394,7 @@
       <c r="AK151"/>
       <c r="AL151"/>
     </row>
-    <row r="152" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B152"/>
       <c r="C152"/>
       <c r="D152"/>
@@ -18362,7 +18433,7 @@
       <c r="AK152"/>
       <c r="AL152"/>
     </row>
-    <row r="153" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B153"/>
       <c r="C153"/>
       <c r="D153"/>
@@ -18401,7 +18472,7 @@
       <c r="AK153"/>
       <c r="AL153"/>
     </row>
-    <row r="154" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B154"/>
       <c r="C154"/>
       <c r="D154"/>
@@ -18440,7 +18511,7 @@
       <c r="AK154"/>
       <c r="AL154"/>
     </row>
-    <row r="155" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B155"/>
       <c r="C155"/>
       <c r="D155"/>
@@ -18479,7 +18550,7 @@
       <c r="AK155"/>
       <c r="AL155"/>
     </row>
-    <row r="156" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B156"/>
       <c r="C156"/>
       <c r="D156"/>
@@ -18518,7 +18589,7 @@
       <c r="AK156"/>
       <c r="AL156"/>
     </row>
-    <row r="157" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B157"/>
       <c r="C157"/>
       <c r="D157"/>
@@ -18557,7 +18628,7 @@
       <c r="AK157"/>
       <c r="AL157"/>
     </row>
-    <row r="158" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B158"/>
       <c r="C158"/>
       <c r="D158"/>
@@ -18596,7 +18667,7 @@
       <c r="AK158"/>
       <c r="AL158"/>
     </row>
-    <row r="159" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B159"/>
       <c r="C159"/>
       <c r="D159"/>
@@ -18635,7 +18706,7 @@
       <c r="AK159"/>
       <c r="AL159"/>
     </row>
-    <row r="160" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B160"/>
       <c r="C160"/>
       <c r="D160"/>
@@ -18674,7 +18745,7 @@
       <c r="AK160"/>
       <c r="AL160"/>
     </row>
-    <row r="161" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B161"/>
       <c r="C161"/>
       <c r="D161"/>
@@ -18713,7 +18784,7 @@
       <c r="AK161"/>
       <c r="AL161"/>
     </row>
-    <row r="162" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B162"/>
       <c r="C162"/>
       <c r="D162"/>
@@ -18752,7 +18823,7 @@
       <c r="AK162"/>
       <c r="AL162"/>
     </row>
-    <row r="163" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B163"/>
       <c r="C163"/>
       <c r="D163"/>
@@ -18791,7 +18862,7 @@
       <c r="AK163"/>
       <c r="AL163"/>
     </row>
-    <row r="164" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B164"/>
       <c r="C164"/>
       <c r="D164"/>
@@ -18830,7 +18901,7 @@
       <c r="AK164"/>
       <c r="AL164"/>
     </row>
-    <row r="165" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B165"/>
       <c r="C165"/>
       <c r="D165"/>
@@ -18869,7 +18940,7 @@
       <c r="AK165"/>
       <c r="AL165"/>
     </row>
-    <row r="166" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B166"/>
       <c r="C166"/>
       <c r="D166"/>
@@ -18908,7 +18979,7 @@
       <c r="AK166"/>
       <c r="AL166"/>
     </row>
-    <row r="167" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B167"/>
       <c r="C167"/>
       <c r="D167"/>
@@ -18947,7 +19018,7 @@
       <c r="AK167"/>
       <c r="AL167"/>
     </row>
-    <row r="168" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B168"/>
       <c r="C168"/>
       <c r="D168"/>
@@ -18986,7 +19057,7 @@
       <c r="AK168"/>
       <c r="AL168"/>
     </row>
-    <row r="169" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B169"/>
       <c r="C169"/>
       <c r="D169"/>
@@ -19025,7 +19096,7 @@
       <c r="AK169"/>
       <c r="AL169"/>
     </row>
-    <row r="170" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B170"/>
       <c r="C170"/>
       <c r="D170"/>
@@ -19064,7 +19135,7 @@
       <c r="AK170"/>
       <c r="AL170"/>
     </row>
-    <row r="171" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B171"/>
       <c r="C171"/>
       <c r="D171"/>
@@ -19103,7 +19174,7 @@
       <c r="AK171"/>
       <c r="AL171"/>
     </row>
-    <row r="172" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B172"/>
       <c r="C172"/>
       <c r="D172"/>
@@ -19142,7 +19213,7 @@
       <c r="AK172"/>
       <c r="AL172"/>
     </row>
-    <row r="173" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B173"/>
       <c r="C173"/>
       <c r="D173"/>
@@ -19181,7 +19252,7 @@
       <c r="AK173"/>
       <c r="AL173"/>
     </row>
-    <row r="174" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B174"/>
       <c r="C174"/>
       <c r="D174"/>
@@ -19220,7 +19291,7 @@
       <c r="AK174"/>
       <c r="AL174"/>
     </row>
-    <row r="175" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B175"/>
       <c r="C175"/>
       <c r="D175"/>
@@ -19259,7 +19330,7 @@
       <c r="AK175"/>
       <c r="AL175"/>
     </row>
-    <row r="176" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B176"/>
       <c r="C176"/>
       <c r="D176"/>
@@ -19298,7 +19369,7 @@
       <c r="AK176"/>
       <c r="AL176"/>
     </row>
-    <row r="177" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177"/>
@@ -19337,7 +19408,7 @@
       <c r="AK177"/>
       <c r="AL177"/>
     </row>
-    <row r="178" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B178"/>
       <c r="C178"/>
       <c r="D178"/>
@@ -19376,7 +19447,7 @@
       <c r="AK178"/>
       <c r="AL178"/>
     </row>
-    <row r="179" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179"/>
@@ -19415,7 +19486,7 @@
       <c r="AK179"/>
       <c r="AL179"/>
     </row>
-    <row r="180" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B180"/>
       <c r="C180"/>
       <c r="D180"/>
@@ -19454,7 +19525,7 @@
       <c r="AK180"/>
       <c r="AL180"/>
     </row>
-    <row r="181" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B181"/>
       <c r="C181"/>
       <c r="D181"/>
@@ -19493,7 +19564,7 @@
       <c r="AK181"/>
       <c r="AL181"/>
     </row>
-    <row r="182" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B182"/>
       <c r="C182"/>
       <c r="D182"/>
@@ -19532,7 +19603,7 @@
       <c r="AK182"/>
       <c r="AL182"/>
     </row>
-    <row r="183" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183"/>
@@ -19571,7 +19642,7 @@
       <c r="AK183"/>
       <c r="AL183"/>
     </row>
-    <row r="184" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B184"/>
       <c r="C184"/>
       <c r="D184"/>
@@ -19610,7 +19681,7 @@
       <c r="AK184"/>
       <c r="AL184"/>
     </row>
-    <row r="185" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B185"/>
       <c r="C185"/>
       <c r="D185"/>
@@ -19649,7 +19720,7 @@
       <c r="AK185"/>
       <c r="AL185"/>
     </row>
-    <row r="186" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B186"/>
       <c r="C186"/>
       <c r="D186"/>
@@ -19688,7 +19759,7 @@
       <c r="AK186"/>
       <c r="AL186"/>
     </row>
-    <row r="187" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="187" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B187"/>
       <c r="C187"/>
       <c r="D187"/>
@@ -19727,7 +19798,7 @@
       <c r="AK187"/>
       <c r="AL187"/>
     </row>
-    <row r="188" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="188" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B188"/>
       <c r="C188"/>
       <c r="D188"/>
@@ -19766,7 +19837,7 @@
       <c r="AK188"/>
       <c r="AL188"/>
     </row>
-    <row r="189" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="189" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B189"/>
       <c r="C189"/>
       <c r="D189"/>
@@ -19805,7 +19876,7 @@
       <c r="AK189"/>
       <c r="AL189"/>
     </row>
-    <row r="190" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="190" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B190"/>
       <c r="C190"/>
       <c r="D190"/>
@@ -19844,7 +19915,7 @@
       <c r="AK190"/>
       <c r="AL190"/>
     </row>
-    <row r="191" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="191" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B191"/>
       <c r="C191"/>
       <c r="D191"/>
@@ -19883,7 +19954,7 @@
       <c r="AK191"/>
       <c r="AL191"/>
     </row>
-    <row r="192" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="192" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B192"/>
       <c r="C192"/>
       <c r="D192"/>
@@ -19922,7 +19993,7 @@
       <c r="AK192"/>
       <c r="AL192"/>
     </row>
-    <row r="193" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B193"/>
       <c r="C193"/>
       <c r="D193"/>
@@ -19961,7 +20032,7 @@
       <c r="AK193"/>
       <c r="AL193"/>
     </row>
-    <row r="194" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="194" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B194"/>
       <c r="C194"/>
       <c r="D194"/>
@@ -20000,7 +20071,7 @@
       <c r="AK194"/>
       <c r="AL194"/>
     </row>
-    <row r="195" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B195"/>
       <c r="C195"/>
       <c r="D195"/>
@@ -20039,7 +20110,7 @@
       <c r="AK195"/>
       <c r="AL195"/>
     </row>
-    <row r="196" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B196"/>
       <c r="C196"/>
       <c r="D196"/>
@@ -20078,7 +20149,7 @@
       <c r="AK196"/>
       <c r="AL196"/>
     </row>
-    <row r="197" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B197"/>
       <c r="C197"/>
       <c r="D197"/>
@@ -20117,7 +20188,7 @@
       <c r="AK197"/>
       <c r="AL197"/>
     </row>
-    <row r="198" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B198"/>
       <c r="C198"/>
       <c r="D198"/>
@@ -20156,7 +20227,7 @@
       <c r="AK198"/>
       <c r="AL198"/>
     </row>
-    <row r="199" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B199"/>
       <c r="C199"/>
       <c r="D199"/>
@@ -20195,7 +20266,7 @@
       <c r="AK199"/>
       <c r="AL199"/>
     </row>
-    <row r="200" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B200"/>
       <c r="C200"/>
       <c r="D200"/>
@@ -20234,7 +20305,7 @@
       <c r="AK200"/>
       <c r="AL200"/>
     </row>
-    <row r="201" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B201"/>
       <c r="C201"/>
       <c r="D201"/>
@@ -20273,7 +20344,7 @@
       <c r="AK201"/>
       <c r="AL201"/>
     </row>
-    <row r="202" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B202"/>
       <c r="C202"/>
       <c r="D202"/>
@@ -20312,7 +20383,7 @@
       <c r="AK202"/>
       <c r="AL202"/>
     </row>
-    <row r="203" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B203"/>
       <c r="C203"/>
       <c r="D203"/>
@@ -20351,7 +20422,7 @@
       <c r="AK203"/>
       <c r="AL203"/>
     </row>
-    <row r="204" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B204"/>
       <c r="C204"/>
       <c r="D204"/>
@@ -20390,7 +20461,7 @@
       <c r="AK204"/>
       <c r="AL204"/>
     </row>
-    <row r="205" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B205"/>
       <c r="C205"/>
       <c r="D205"/>
@@ -20429,7 +20500,7 @@
       <c r="AK205"/>
       <c r="AL205"/>
     </row>
-    <row r="206" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B206"/>
       <c r="C206"/>
       <c r="D206"/>
@@ -20468,7 +20539,7 @@
       <c r="AK206"/>
       <c r="AL206"/>
     </row>
-    <row r="207" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B207"/>
       <c r="C207"/>
       <c r="D207"/>
@@ -20507,7 +20578,7 @@
       <c r="AK207"/>
       <c r="AL207"/>
     </row>
-    <row r="208" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B208"/>
       <c r="C208"/>
       <c r="D208"/>
@@ -20546,7 +20617,7 @@
       <c r="AK208"/>
       <c r="AL208"/>
     </row>
-    <row r="209" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B209"/>
       <c r="C209"/>
       <c r="D209"/>
@@ -20585,7 +20656,7 @@
       <c r="AK209"/>
       <c r="AL209"/>
     </row>
-    <row r="210" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B210"/>
       <c r="C210"/>
       <c r="D210"/>
@@ -20624,7 +20695,7 @@
       <c r="AK210"/>
       <c r="AL210"/>
     </row>
-    <row r="211" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B211"/>
       <c r="C211"/>
       <c r="D211"/>
@@ -20663,7 +20734,7 @@
       <c r="AK211"/>
       <c r="AL211"/>
     </row>
-    <row r="212" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B212"/>
       <c r="C212"/>
       <c r="D212"/>
@@ -20702,7 +20773,7 @@
       <c r="AK212"/>
       <c r="AL212"/>
     </row>
-    <row r="213" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B213"/>
       <c r="C213"/>
       <c r="D213"/>
@@ -20741,7 +20812,7 @@
       <c r="AK213"/>
       <c r="AL213"/>
     </row>
-    <row r="214" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B214"/>
       <c r="C214"/>
       <c r="D214"/>
@@ -20780,7 +20851,7 @@
       <c r="AK214"/>
       <c r="AL214"/>
     </row>
-    <row r="215" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B215"/>
       <c r="C215"/>
       <c r="D215"/>
@@ -20819,7 +20890,7 @@
       <c r="AK215"/>
       <c r="AL215"/>
     </row>
-    <row r="216" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B216"/>
       <c r="C216"/>
       <c r="D216"/>
@@ -20858,7 +20929,7 @@
       <c r="AK216"/>
       <c r="AL216"/>
     </row>
-    <row r="217" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B217"/>
       <c r="C217"/>
       <c r="D217"/>
@@ -20897,7 +20968,7 @@
       <c r="AK217"/>
       <c r="AL217"/>
     </row>
-    <row r="218" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B218"/>
       <c r="C218"/>
       <c r="D218"/>
@@ -20936,7 +21007,7 @@
       <c r="AK218"/>
       <c r="AL218"/>
     </row>
-    <row r="219" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B219"/>
       <c r="C219"/>
       <c r="D219"/>
@@ -20975,7 +21046,7 @@
       <c r="AK219"/>
       <c r="AL219"/>
     </row>
-    <row r="220" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B220"/>
       <c r="C220"/>
       <c r="D220"/>
@@ -21014,7 +21085,7 @@
       <c r="AK220"/>
       <c r="AL220"/>
     </row>
-    <row r="221" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B221"/>
       <c r="C221"/>
       <c r="D221"/>
@@ -21053,7 +21124,7 @@
       <c r="AK221"/>
       <c r="AL221"/>
     </row>
-    <row r="222" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="222" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B222"/>
       <c r="C222"/>
       <c r="D222"/>
@@ -21092,7 +21163,7 @@
       <c r="AK222"/>
       <c r="AL222"/>
     </row>
-    <row r="223" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="223" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B223"/>
       <c r="C223"/>
       <c r="D223"/>
@@ -21131,7 +21202,7 @@
       <c r="AK223"/>
       <c r="AL223"/>
     </row>
-    <row r="224" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B224"/>
       <c r="C224"/>
       <c r="D224"/>
@@ -21170,7 +21241,7 @@
       <c r="AK224"/>
       <c r="AL224"/>
     </row>
-    <row r="225" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B225"/>
       <c r="C225"/>
       <c r="D225"/>
@@ -21209,7 +21280,7 @@
       <c r="AK225"/>
       <c r="AL225"/>
     </row>
-    <row r="226" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B226"/>
       <c r="C226"/>
       <c r="D226"/>
@@ -21248,7 +21319,7 @@
       <c r="AK226"/>
       <c r="AL226"/>
     </row>
-    <row r="227" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227"/>
@@ -21287,7 +21358,7 @@
       <c r="AK227"/>
       <c r="AL227"/>
     </row>
-    <row r="228" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B228"/>
       <c r="C228"/>
       <c r="D228"/>
@@ -21326,7 +21397,7 @@
       <c r="AK228"/>
       <c r="AL228"/>
     </row>
-    <row r="229" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B229"/>
       <c r="C229"/>
       <c r="D229"/>
@@ -21365,7 +21436,7 @@
       <c r="AK229"/>
       <c r="AL229"/>
     </row>
-    <row r="230" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B230"/>
       <c r="C230"/>
       <c r="D230"/>
@@ -21404,7 +21475,7 @@
       <c r="AK230"/>
       <c r="AL230"/>
     </row>
-    <row r="231" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B231"/>
       <c r="C231"/>
       <c r="D231"/>
@@ -21443,7 +21514,7 @@
       <c r="AK231"/>
       <c r="AL231"/>
     </row>
-    <row r="232" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B232"/>
       <c r="C232"/>
       <c r="D232"/>
@@ -21482,7 +21553,7 @@
       <c r="AK232"/>
       <c r="AL232"/>
     </row>
-    <row r="233" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B233"/>
       <c r="C233"/>
       <c r="D233"/>
@@ -21521,7 +21592,7 @@
       <c r="AK233"/>
       <c r="AL233"/>
     </row>
-    <row r="234" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B234"/>
       <c r="C234"/>
       <c r="D234"/>
@@ -21560,7 +21631,7 @@
       <c r="AK234"/>
       <c r="AL234"/>
     </row>
-    <row r="235" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B235"/>
       <c r="C235"/>
       <c r="D235"/>
@@ -21599,7 +21670,7 @@
       <c r="AK235"/>
       <c r="AL235"/>
     </row>
-    <row r="236" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B236"/>
       <c r="C236"/>
       <c r="D236"/>
@@ -21638,7 +21709,7 @@
       <c r="AK236"/>
       <c r="AL236"/>
     </row>
-    <row r="237" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B237"/>
       <c r="C237"/>
       <c r="D237"/>
@@ -21677,7 +21748,7 @@
       <c r="AK237"/>
       <c r="AL237"/>
     </row>
-    <row r="238" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B238"/>
       <c r="C238"/>
       <c r="D238"/>
@@ -21716,7 +21787,7 @@
       <c r="AK238"/>
       <c r="AL238"/>
     </row>
-    <row r="239" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="239" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B239"/>
       <c r="C239"/>
       <c r="D239"/>
@@ -21755,7 +21826,7 @@
       <c r="AK239"/>
       <c r="AL239"/>
     </row>
-    <row r="240" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="240" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B240"/>
       <c r="C240"/>
       <c r="D240"/>
@@ -21794,7 +21865,7 @@
       <c r="AK240"/>
       <c r="AL240"/>
     </row>
-    <row r="241" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="241" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B241"/>
       <c r="C241"/>
       <c r="D241"/>
@@ -21833,7 +21904,7 @@
       <c r="AK241"/>
       <c r="AL241"/>
     </row>
-    <row r="242" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="242" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B242"/>
       <c r="C242"/>
       <c r="D242"/>
@@ -21872,7 +21943,7 @@
       <c r="AK242"/>
       <c r="AL242"/>
     </row>
-    <row r="243" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="243" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B243"/>
       <c r="C243"/>
       <c r="D243"/>
@@ -21911,7 +21982,7 @@
       <c r="AK243"/>
       <c r="AL243"/>
     </row>
-    <row r="244" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="244" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B244"/>
       <c r="C244"/>
       <c r="D244"/>
@@ -21950,7 +22021,7 @@
       <c r="AK244"/>
       <c r="AL244"/>
     </row>
-    <row r="245" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="245" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B245"/>
       <c r="C245"/>
       <c r="D245"/>
@@ -21989,7 +22060,7 @@
       <c r="AK245"/>
       <c r="AL245"/>
     </row>
-    <row r="246" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="246" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B246"/>
       <c r="C246"/>
       <c r="D246"/>
@@ -22028,7 +22099,7 @@
       <c r="AK246"/>
       <c r="AL246"/>
     </row>
-    <row r="247" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="247" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B247"/>
       <c r="C247"/>
       <c r="D247"/>
@@ -22067,7 +22138,7 @@
       <c r="AK247"/>
       <c r="AL247"/>
     </row>
-    <row r="248" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="248" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B248"/>
       <c r="C248"/>
       <c r="D248"/>
@@ -22106,7 +22177,7 @@
       <c r="AK248"/>
       <c r="AL248"/>
     </row>
-    <row r="249" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B249"/>
       <c r="C249"/>
       <c r="D249"/>
@@ -22145,7 +22216,7 @@
       <c r="AK249"/>
       <c r="AL249"/>
     </row>
-    <row r="250" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B250"/>
       <c r="C250"/>
       <c r="D250"/>
@@ -22184,7 +22255,7 @@
       <c r="AK250"/>
       <c r="AL250"/>
     </row>
-    <row r="251" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B251"/>
       <c r="C251"/>
       <c r="D251"/>
@@ -22223,7 +22294,7 @@
       <c r="AK251"/>
       <c r="AL251"/>
     </row>
-    <row r="252" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="252" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B252"/>
       <c r="C252"/>
       <c r="D252"/>
@@ -22262,7 +22333,7 @@
       <c r="AK252"/>
       <c r="AL252"/>
     </row>
-    <row r="253" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="253" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B253"/>
       <c r="C253"/>
       <c r="D253"/>
@@ -22301,7 +22372,7 @@
       <c r="AK253"/>
       <c r="AL253"/>
     </row>
-    <row r="254" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="254" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B254"/>
       <c r="C254"/>
       <c r="D254"/>
@@ -22340,7 +22411,7 @@
       <c r="AK254"/>
       <c r="AL254"/>
     </row>
-    <row r="255" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="255" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B255"/>
       <c r="C255"/>
       <c r="D255"/>
@@ -22379,7 +22450,7 @@
       <c r="AK255"/>
       <c r="AL255"/>
     </row>
-    <row r="256" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="256" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B256"/>
       <c r="C256"/>
       <c r="D256"/>
@@ -22418,7 +22489,7 @@
       <c r="AK256"/>
       <c r="AL256"/>
     </row>
-    <row r="257" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="257" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B257"/>
       <c r="C257"/>
       <c r="D257"/>
@@ -22457,7 +22528,7 @@
       <c r="AK257"/>
       <c r="AL257"/>
     </row>
-    <row r="258" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="258" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B258"/>
       <c r="C258"/>
       <c r="D258"/>
@@ -22496,7 +22567,7 @@
       <c r="AK258"/>
       <c r="AL258"/>
     </row>
-    <row r="259" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="259" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B259"/>
       <c r="C259"/>
       <c r="D259"/>
@@ -22535,7 +22606,7 @@
       <c r="AK259"/>
       <c r="AL259"/>
     </row>
-    <row r="260" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="260" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B260"/>
       <c r="C260"/>
       <c r="D260"/>
@@ -22574,7 +22645,7 @@
       <c r="AK260"/>
       <c r="AL260"/>
     </row>
-    <row r="261" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="261" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B261"/>
       <c r="C261"/>
       <c r="D261"/>
@@ -22613,7 +22684,7 @@
       <c r="AK261"/>
       <c r="AL261"/>
     </row>
-    <row r="262" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="262" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B262"/>
       <c r="C262"/>
       <c r="D262"/>
@@ -22652,7 +22723,7 @@
       <c r="AK262"/>
       <c r="AL262"/>
     </row>
-    <row r="263" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="263" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B263"/>
       <c r="C263"/>
       <c r="D263"/>
@@ -22691,7 +22762,7 @@
       <c r="AK263"/>
       <c r="AL263"/>
     </row>
-    <row r="264" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="264" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B264"/>
       <c r="C264"/>
       <c r="D264"/>
@@ -22730,7 +22801,7 @@
       <c r="AK264"/>
       <c r="AL264"/>
     </row>
-    <row r="265" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="265" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B265"/>
       <c r="C265"/>
       <c r="D265"/>
@@ -22769,7 +22840,7 @@
       <c r="AK265"/>
       <c r="AL265"/>
     </row>
-    <row r="266" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="266" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B266"/>
       <c r="C266"/>
       <c r="D266"/>
@@ -22808,7 +22879,7 @@
       <c r="AK266"/>
       <c r="AL266"/>
     </row>
-    <row r="267" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="267" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B267"/>
       <c r="C267"/>
       <c r="D267"/>
@@ -22847,7 +22918,7 @@
       <c r="AK267"/>
       <c r="AL267"/>
     </row>
-    <row r="268" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="268" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B268"/>
       <c r="C268"/>
       <c r="D268"/>
@@ -22886,7 +22957,7 @@
       <c r="AK268"/>
       <c r="AL268"/>
     </row>
-    <row r="269" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="269" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B269"/>
       <c r="C269"/>
       <c r="D269"/>
@@ -22925,7 +22996,7 @@
       <c r="AK269"/>
       <c r="AL269"/>
     </row>
-    <row r="270" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="270" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B270"/>
       <c r="C270"/>
       <c r="D270"/>
@@ -22964,7 +23035,7 @@
       <c r="AK270"/>
       <c r="AL270"/>
     </row>
-    <row r="271" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="271" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B271"/>
       <c r="C271"/>
       <c r="D271"/>
@@ -23003,7 +23074,7 @@
       <c r="AK271"/>
       <c r="AL271"/>
     </row>
-    <row r="272" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="272" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B272"/>
       <c r="C272"/>
       <c r="D272"/>
@@ -23042,7 +23113,7 @@
       <c r="AK272"/>
       <c r="AL272"/>
     </row>
-    <row r="273" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="273" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B273"/>
       <c r="C273"/>
       <c r="D273"/>
@@ -23081,7 +23152,7 @@
       <c r="AK273"/>
       <c r="AL273"/>
     </row>
-    <row r="274" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="274" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B274"/>
       <c r="C274"/>
       <c r="D274"/>
@@ -23120,7 +23191,7 @@
       <c r="AK274"/>
       <c r="AL274"/>
     </row>
-    <row r="275" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="275" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B275"/>
       <c r="C275"/>
       <c r="D275"/>
@@ -23159,7 +23230,7 @@
       <c r="AK275"/>
       <c r="AL275"/>
     </row>
-    <row r="276" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="276" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B276"/>
       <c r="C276"/>
       <c r="D276"/>
@@ -23198,7 +23269,7 @@
       <c r="AK276"/>
       <c r="AL276"/>
     </row>
-    <row r="277" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="277" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B277"/>
       <c r="C277"/>
       <c r="D277"/>
@@ -23237,7 +23308,7 @@
       <c r="AK277"/>
       <c r="AL277"/>
     </row>
-    <row r="278" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="278" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B278"/>
       <c r="C278"/>
       <c r="D278"/>
@@ -23276,7 +23347,7 @@
       <c r="AK278"/>
       <c r="AL278"/>
     </row>
-    <row r="279" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="279" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B279"/>
       <c r="C279"/>
       <c r="D279"/>
@@ -23315,7 +23386,7 @@
       <c r="AK279"/>
       <c r="AL279"/>
     </row>
-    <row r="280" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="280" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B280"/>
       <c r="C280"/>
       <c r="D280"/>
@@ -23354,7 +23425,7 @@
       <c r="AK280"/>
       <c r="AL280"/>
     </row>
-    <row r="281" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="281" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B281"/>
       <c r="C281"/>
       <c r="D281"/>
@@ -23393,7 +23464,7 @@
       <c r="AK281"/>
       <c r="AL281"/>
     </row>
-    <row r="282" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="282" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B282"/>
       <c r="C282"/>
       <c r="D282"/>
@@ -23432,7 +23503,7 @@
       <c r="AK282"/>
       <c r="AL282"/>
     </row>
-    <row r="283" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="283" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B283"/>
       <c r="C283"/>
       <c r="D283"/>
@@ -23471,7 +23542,7 @@
       <c r="AK283"/>
       <c r="AL283"/>
     </row>
-    <row r="284" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="284" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B284"/>
       <c r="C284"/>
       <c r="D284"/>
@@ -23510,7 +23581,7 @@
       <c r="AK284"/>
       <c r="AL284"/>
     </row>
-    <row r="285" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="285" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B285"/>
       <c r="C285"/>
       <c r="D285"/>
@@ -23549,7 +23620,7 @@
       <c r="AK285"/>
       <c r="AL285"/>
     </row>
-    <row r="286" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="286" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B286"/>
       <c r="C286"/>
       <c r="D286"/>
@@ -23588,7 +23659,7 @@
       <c r="AK286"/>
       <c r="AL286"/>
     </row>
-    <row r="287" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="287" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B287"/>
       <c r="C287"/>
       <c r="D287"/>
@@ -23627,7 +23698,7 @@
       <c r="AK287"/>
       <c r="AL287"/>
     </row>
-    <row r="288" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="288" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B288"/>
       <c r="C288"/>
       <c r="D288"/>
@@ -23666,7 +23737,7 @@
       <c r="AK288"/>
       <c r="AL288"/>
     </row>
-    <row r="289" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B289"/>
       <c r="C289"/>
       <c r="D289"/>
@@ -23705,7 +23776,7 @@
       <c r="AK289"/>
       <c r="AL289"/>
     </row>
-    <row r="290" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B290"/>
       <c r="C290"/>
       <c r="D290"/>
@@ -23744,7 +23815,7 @@
       <c r="AK290"/>
       <c r="AL290"/>
     </row>
-    <row r="291" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="291" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B291"/>
       <c r="C291"/>
       <c r="D291"/>
@@ -23783,7 +23854,7 @@
       <c r="AK291"/>
       <c r="AL291"/>
     </row>
-    <row r="292" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="292" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B292"/>
       <c r="C292"/>
       <c r="D292"/>
@@ -23822,7 +23893,7 @@
       <c r="AK292"/>
       <c r="AL292"/>
     </row>
-    <row r="293" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="293" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B293"/>
       <c r="C293"/>
       <c r="D293"/>
@@ -23861,7 +23932,7 @@
       <c r="AK293"/>
       <c r="AL293"/>
     </row>
-    <row r="294" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="294" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B294"/>
       <c r="C294"/>
       <c r="D294"/>
@@ -23900,7 +23971,7 @@
       <c r="AK294"/>
       <c r="AL294"/>
     </row>
-    <row r="295" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="295" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B295"/>
       <c r="C295"/>
       <c r="D295"/>
@@ -23939,7 +24010,7 @@
       <c r="AK295"/>
       <c r="AL295"/>
     </row>
-    <row r="296" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="296" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B296"/>
       <c r="C296"/>
       <c r="D296"/>
@@ -23978,7 +24049,7 @@
       <c r="AK296"/>
       <c r="AL296"/>
     </row>
-    <row r="297" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="297" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B297"/>
       <c r="C297"/>
       <c r="D297"/>
@@ -24017,7 +24088,7 @@
       <c r="AK297"/>
       <c r="AL297"/>
     </row>
-    <row r="298" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="298" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B298"/>
       <c r="C298"/>
       <c r="D298"/>
@@ -24056,7 +24127,7 @@
       <c r="AK298"/>
       <c r="AL298"/>
     </row>
-    <row r="299" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="299" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B299"/>
       <c r="C299"/>
       <c r="D299"/>
@@ -24095,7 +24166,7 @@
       <c r="AK299"/>
       <c r="AL299"/>
     </row>
-    <row r="300" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="300" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B300"/>
       <c r="C300"/>
       <c r="D300"/>
@@ -24134,7 +24205,7 @@
       <c r="AK300"/>
       <c r="AL300"/>
     </row>
-    <row r="301" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="301" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B301"/>
       <c r="C301"/>
       <c r="D301"/>
@@ -24173,7 +24244,7 @@
       <c r="AK301"/>
       <c r="AL301"/>
     </row>
-    <row r="302" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="302" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B302"/>
       <c r="C302"/>
       <c r="D302"/>
@@ -24212,7 +24283,7 @@
       <c r="AK302"/>
       <c r="AL302"/>
     </row>
-    <row r="303" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B303"/>
       <c r="C303"/>
       <c r="D303"/>
@@ -24251,7 +24322,7 @@
       <c r="AK303"/>
       <c r="AL303"/>
     </row>
-    <row r="304" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="304" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B304"/>
       <c r="C304"/>
       <c r="D304"/>
@@ -24290,7 +24361,7 @@
       <c r="AK304"/>
       <c r="AL304"/>
     </row>
-    <row r="305" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="305" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B305"/>
       <c r="C305"/>
       <c r="D305"/>
@@ -24329,7 +24400,7 @@
       <c r="AK305"/>
       <c r="AL305"/>
     </row>
-    <row r="306" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="306" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B306"/>
       <c r="C306"/>
       <c r="D306"/>
@@ -24368,7 +24439,7 @@
       <c r="AK306"/>
       <c r="AL306"/>
     </row>
-    <row r="307" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="307" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B307"/>
       <c r="C307"/>
       <c r="D307"/>
@@ -24407,7 +24478,7 @@
       <c r="AK307"/>
       <c r="AL307"/>
     </row>
-    <row r="308" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="308" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B308"/>
       <c r="C308"/>
       <c r="D308"/>
@@ -24446,7 +24517,7 @@
       <c r="AK308"/>
       <c r="AL308"/>
     </row>
-    <row r="309" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="309" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B309"/>
       <c r="C309"/>
       <c r="D309"/>
@@ -24485,7 +24556,7 @@
       <c r="AK309"/>
       <c r="AL309"/>
     </row>
-    <row r="310" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="310" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B310"/>
       <c r="C310"/>
       <c r="D310"/>
@@ -24524,7 +24595,7 @@
       <c r="AK310"/>
       <c r="AL310"/>
     </row>
-    <row r="311" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="311" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B311"/>
       <c r="C311"/>
       <c r="D311"/>
@@ -24563,7 +24634,7 @@
       <c r="AK311"/>
       <c r="AL311"/>
     </row>
-    <row r="312" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="312" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B312"/>
       <c r="C312"/>
       <c r="D312"/>
@@ -24602,7 +24673,7 @@
       <c r="AK312"/>
       <c r="AL312"/>
     </row>
-    <row r="313" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="313" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B313"/>
       <c r="C313"/>
       <c r="D313"/>
@@ -24641,7 +24712,7 @@
       <c r="AK313"/>
       <c r="AL313"/>
     </row>
-    <row r="314" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="314" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B314"/>
       <c r="C314"/>
       <c r="D314"/>
@@ -24680,7 +24751,7 @@
       <c r="AK314"/>
       <c r="AL314"/>
     </row>
-    <row r="315" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="315" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B315"/>
       <c r="C315"/>
       <c r="D315"/>
@@ -24719,7 +24790,7 @@
       <c r="AK315"/>
       <c r="AL315"/>
     </row>
-    <row r="316" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="316" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B316"/>
       <c r="C316"/>
       <c r="D316"/>
@@ -24758,7 +24829,7 @@
       <c r="AK316"/>
       <c r="AL316"/>
     </row>
-    <row r="317" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="317" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B317"/>
       <c r="C317"/>
       <c r="D317"/>
@@ -24797,7 +24868,7 @@
       <c r="AK317"/>
       <c r="AL317"/>
     </row>
-    <row r="318" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="318" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B318"/>
       <c r="C318"/>
       <c r="D318"/>
@@ -24836,7 +24907,7 @@
       <c r="AK318"/>
       <c r="AL318"/>
     </row>
-    <row r="319" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="319" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B319"/>
       <c r="C319"/>
       <c r="D319"/>
@@ -24875,7 +24946,7 @@
       <c r="AK319"/>
       <c r="AL319"/>
     </row>
-    <row r="320" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="320" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B320"/>
       <c r="C320"/>
       <c r="D320"/>
@@ -24914,7 +24985,7 @@
       <c r="AK320"/>
       <c r="AL320"/>
     </row>
-    <row r="321" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="321" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B321"/>
       <c r="C321"/>
       <c r="D321"/>
@@ -24953,7 +25024,7 @@
       <c r="AK321"/>
       <c r="AL321"/>
     </row>
-    <row r="322" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="322" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B322"/>
       <c r="C322"/>
       <c r="D322"/>
@@ -24992,7 +25063,7 @@
       <c r="AK322"/>
       <c r="AL322"/>
     </row>
-    <row r="323" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="323" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B323"/>
       <c r="C323"/>
       <c r="D323"/>
@@ -25031,7 +25102,7 @@
       <c r="AK323"/>
       <c r="AL323"/>
     </row>
-    <row r="324" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="324" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B324"/>
       <c r="C324"/>
       <c r="D324"/>
@@ -25070,7 +25141,7 @@
       <c r="AK324"/>
       <c r="AL324"/>
     </row>
-    <row r="325" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="325" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B325"/>
       <c r="C325"/>
       <c r="D325"/>
@@ -25109,7 +25180,7 @@
       <c r="AK325"/>
       <c r="AL325"/>
     </row>
-    <row r="326" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="326" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B326"/>
       <c r="C326"/>
       <c r="D326"/>
@@ -25148,7 +25219,7 @@
       <c r="AK326"/>
       <c r="AL326"/>
     </row>
-    <row r="327" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="327" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B327"/>
       <c r="C327"/>
       <c r="D327"/>
@@ -25187,7 +25258,7 @@
       <c r="AK327"/>
       <c r="AL327"/>
     </row>
-    <row r="328" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="328" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B328"/>
       <c r="C328"/>
       <c r="D328"/>
@@ -25226,7 +25297,7 @@
       <c r="AK328"/>
       <c r="AL328"/>
     </row>
-    <row r="329" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="329" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B329"/>
       <c r="C329"/>
       <c r="D329"/>
@@ -25265,7 +25336,7 @@
       <c r="AK329"/>
       <c r="AL329"/>
     </row>
-    <row r="330" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="330" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B330"/>
       <c r="C330"/>
       <c r="D330"/>
@@ -25304,7 +25375,7 @@
       <c r="AK330"/>
       <c r="AL330"/>
     </row>
-    <row r="331" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="331" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B331"/>
       <c r="C331"/>
       <c r="D331"/>
@@ -25343,7 +25414,7 @@
       <c r="AK331"/>
       <c r="AL331"/>
     </row>
-    <row r="332" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="332" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B332"/>
       <c r="C332"/>
       <c r="D332"/>
@@ -25382,7 +25453,7 @@
       <c r="AK332"/>
       <c r="AL332"/>
     </row>
-    <row r="333" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="333" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B333"/>
       <c r="C333"/>
       <c r="D333"/>
@@ -25421,7 +25492,7 @@
       <c r="AK333"/>
       <c r="AL333"/>
     </row>
-    <row r="334" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="334" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B334"/>
       <c r="C334"/>
       <c r="D334"/>
@@ -25460,7 +25531,7 @@
       <c r="AK334"/>
       <c r="AL334"/>
     </row>
-    <row r="335" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="335" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B335"/>
       <c r="C335"/>
       <c r="D335"/>
@@ -25499,7 +25570,7 @@
       <c r="AK335"/>
       <c r="AL335"/>
     </row>
-    <row r="336" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="336" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B336"/>
       <c r="C336"/>
       <c r="D336"/>
@@ -25538,7 +25609,7 @@
       <c r="AK336"/>
       <c r="AL336"/>
     </row>
-    <row r="337" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="337" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B337"/>
       <c r="C337"/>
       <c r="D337"/>
@@ -25577,7 +25648,7 @@
       <c r="AK337"/>
       <c r="AL337"/>
     </row>
-    <row r="338" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="338" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B338"/>
       <c r="C338"/>
       <c r="D338"/>
@@ -25616,7 +25687,7 @@
       <c r="AK338"/>
       <c r="AL338"/>
     </row>
-    <row r="339" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="339" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B339"/>
       <c r="C339"/>
       <c r="D339"/>
@@ -25655,7 +25726,7 @@
       <c r="AK339"/>
       <c r="AL339"/>
     </row>
-    <row r="340" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="340" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B340"/>
       <c r="C340"/>
       <c r="D340"/>
@@ -25694,7 +25765,7 @@
       <c r="AK340"/>
       <c r="AL340"/>
     </row>
-    <row r="341" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="341" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B341"/>
       <c r="C341"/>
       <c r="D341"/>
@@ -25733,7 +25804,7 @@
       <c r="AK341"/>
       <c r="AL341"/>
     </row>
-    <row r="342" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="342" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B342"/>
       <c r="C342"/>
       <c r="D342"/>
@@ -25772,7 +25843,7 @@
       <c r="AK342"/>
       <c r="AL342"/>
     </row>
-    <row r="343" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="343" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B343"/>
       <c r="C343"/>
       <c r="D343"/>
@@ -25811,7 +25882,7 @@
       <c r="AK343"/>
       <c r="AL343"/>
     </row>
-    <row r="344" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="344" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B344"/>
       <c r="C344"/>
       <c r="D344"/>
@@ -25850,7 +25921,7 @@
       <c r="AK344"/>
       <c r="AL344"/>
     </row>
-    <row r="345" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="345" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B345"/>
       <c r="C345"/>
       <c r="D345"/>
@@ -25889,7 +25960,7 @@
       <c r="AK345"/>
       <c r="AL345"/>
     </row>
-    <row r="346" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="346" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B346"/>
       <c r="C346"/>
       <c r="D346"/>
@@ -25928,7 +25999,7 @@
       <c r="AK346"/>
       <c r="AL346"/>
     </row>
-    <row r="347" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="347" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B347"/>
       <c r="C347"/>
       <c r="D347"/>
@@ -25967,7 +26038,7 @@
       <c r="AK347"/>
       <c r="AL347"/>
     </row>
-    <row r="348" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="348" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B348"/>
       <c r="C348"/>
       <c r="D348"/>
@@ -26006,7 +26077,7 @@
       <c r="AK348"/>
       <c r="AL348"/>
     </row>
-    <row r="349" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="349" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B349"/>
       <c r="C349"/>
       <c r="D349"/>
@@ -26045,7 +26116,7 @@
       <c r="AK349"/>
       <c r="AL349"/>
     </row>
-    <row r="350" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="350" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B350"/>
       <c r="C350"/>
       <c r="D350"/>
@@ -26084,7 +26155,7 @@
       <c r="AK350"/>
       <c r="AL350"/>
     </row>
-    <row r="351" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="351" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B351"/>
       <c r="C351"/>
       <c r="D351"/>
@@ -26123,7 +26194,7 @@
       <c r="AK351"/>
       <c r="AL351"/>
     </row>
-    <row r="352" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="352" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B352"/>
       <c r="C352"/>
       <c r="D352"/>
@@ -26162,7 +26233,7 @@
       <c r="AK352"/>
       <c r="AL352"/>
     </row>
-    <row r="353" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="353" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B353"/>
       <c r="C353"/>
       <c r="D353"/>
@@ -26201,7 +26272,7 @@
       <c r="AK353"/>
       <c r="AL353"/>
     </row>
-    <row r="354" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="354" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B354"/>
       <c r="C354"/>
       <c r="D354"/>
@@ -26240,7 +26311,7 @@
       <c r="AK354"/>
       <c r="AL354"/>
     </row>
-    <row r="355" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="355" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B355"/>
       <c r="C355"/>
       <c r="D355"/>
@@ -26279,7 +26350,7 @@
       <c r="AK355"/>
       <c r="AL355"/>
     </row>
-    <row r="356" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="356" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B356"/>
       <c r="C356"/>
       <c r="D356"/>
@@ -26318,7 +26389,7 @@
       <c r="AK356"/>
       <c r="AL356"/>
     </row>
-    <row r="357" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="357" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B357"/>
       <c r="C357"/>
       <c r="D357"/>
@@ -26357,7 +26428,7 @@
       <c r="AK357"/>
       <c r="AL357"/>
     </row>
-    <row r="358" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="358" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B358"/>
       <c r="C358"/>
       <c r="D358"/>
@@ -26396,7 +26467,7 @@
       <c r="AK358"/>
       <c r="AL358"/>
     </row>
-    <row r="359" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="359" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B359"/>
       <c r="C359"/>
       <c r="D359"/>
@@ -26435,7 +26506,7 @@
       <c r="AK359"/>
       <c r="AL359"/>
     </row>
-    <row r="360" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="360" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B360"/>
       <c r="C360"/>
       <c r="D360"/>
@@ -26474,7 +26545,7 @@
       <c r="AK360"/>
       <c r="AL360"/>
     </row>
-    <row r="361" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="361" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B361"/>
       <c r="C361"/>
       <c r="D361"/>
@@ -26513,7 +26584,7 @@
       <c r="AK361"/>
       <c r="AL361"/>
     </row>
-    <row r="362" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="362" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B362"/>
       <c r="C362"/>
       <c r="D362"/>
@@ -26552,7 +26623,7 @@
       <c r="AK362"/>
       <c r="AL362"/>
     </row>
-    <row r="363" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="363" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B363"/>
       <c r="C363"/>
       <c r="D363"/>
@@ -26591,7 +26662,7 @@
       <c r="AK363"/>
       <c r="AL363"/>
     </row>
-    <row r="364" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="364" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B364"/>
       <c r="C364"/>
       <c r="D364"/>
@@ -26630,7 +26701,7 @@
       <c r="AK364"/>
       <c r="AL364"/>
     </row>
-    <row r="365" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="365" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B365"/>
       <c r="C365"/>
       <c r="D365"/>
@@ -26669,7 +26740,7 @@
       <c r="AK365"/>
       <c r="AL365"/>
     </row>
-    <row r="366" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="366" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B366"/>
       <c r="C366"/>
       <c r="D366"/>
@@ -26708,7 +26779,7 @@
       <c r="AK366"/>
       <c r="AL366"/>
     </row>
-    <row r="367" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="367" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B367"/>
       <c r="C367"/>
       <c r="D367"/>
@@ -26747,7 +26818,7 @@
       <c r="AK367"/>
       <c r="AL367"/>
     </row>
-    <row r="368" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="368" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B368"/>
       <c r="C368"/>
       <c r="D368"/>
@@ -26786,7 +26857,7 @@
       <c r="AK368"/>
       <c r="AL368"/>
     </row>
-    <row r="369" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="369" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B369"/>
       <c r="C369"/>
       <c r="D369"/>
@@ -26825,7 +26896,7 @@
       <c r="AK369"/>
       <c r="AL369"/>
     </row>
-    <row r="370" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="370" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B370"/>
       <c r="C370"/>
       <c r="D370"/>
@@ -26864,7 +26935,7 @@
       <c r="AK370"/>
       <c r="AL370"/>
     </row>
-    <row r="371" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="371" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B371"/>
       <c r="C371"/>
       <c r="D371"/>
@@ -26903,7 +26974,7 @@
       <c r="AK371"/>
       <c r="AL371"/>
     </row>
-    <row r="372" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="372" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B372"/>
       <c r="C372"/>
       <c r="D372"/>
@@ -26942,7 +27013,7 @@
       <c r="AK372"/>
       <c r="AL372"/>
     </row>
-    <row r="373" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="373" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B373"/>
       <c r="C373"/>
       <c r="D373"/>
@@ -26981,7 +27052,7 @@
       <c r="AK373"/>
       <c r="AL373"/>
     </row>
-    <row r="374" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="374" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B374"/>
       <c r="C374"/>
       <c r="D374"/>
@@ -27020,7 +27091,7 @@
       <c r="AK374"/>
       <c r="AL374"/>
     </row>
-    <row r="375" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="375" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B375"/>
       <c r="C375"/>
       <c r="D375"/>
@@ -27059,7 +27130,7 @@
       <c r="AK375"/>
       <c r="AL375"/>
     </row>
-    <row r="376" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="376" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B376"/>
       <c r="C376"/>
       <c r="D376"/>
@@ -27098,7 +27169,7 @@
       <c r="AK376"/>
       <c r="AL376"/>
     </row>
-    <row r="377" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="377" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B377"/>
       <c r="C377"/>
       <c r="D377"/>
@@ -27137,7 +27208,7 @@
       <c r="AK377"/>
       <c r="AL377"/>
     </row>
-    <row r="378" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="378" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B378"/>
       <c r="C378"/>
       <c r="D378"/>
@@ -27176,7 +27247,7 @@
       <c r="AK378"/>
       <c r="AL378"/>
     </row>
-    <row r="379" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="379" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B379"/>
       <c r="C379"/>
       <c r="D379"/>
@@ -27215,7 +27286,7 @@
       <c r="AK379"/>
       <c r="AL379"/>
     </row>
-    <row r="380" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="380" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B380"/>
       <c r="C380"/>
       <c r="D380"/>
@@ -27254,7 +27325,7 @@
       <c r="AK380"/>
       <c r="AL380"/>
     </row>
-    <row r="381" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="381" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B381"/>
       <c r="C381"/>
       <c r="D381"/>
@@ -27293,7 +27364,7 @@
       <c r="AK381"/>
       <c r="AL381"/>
     </row>
-    <row r="382" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="382" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B382"/>
       <c r="C382"/>
       <c r="D382"/>
@@ -27332,7 +27403,7 @@
       <c r="AK382"/>
       <c r="AL382"/>
     </row>
-    <row r="383" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="383" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B383"/>
       <c r="C383"/>
       <c r="D383"/>
@@ -27371,7 +27442,7 @@
       <c r="AK383"/>
       <c r="AL383"/>
     </row>
-    <row r="384" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="384" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
@@ -27410,7 +27481,7 @@
       <c r="AK384"/>
       <c r="AL384"/>
     </row>
-    <row r="385" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="385" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385"/>
@@ -27449,7 +27520,7 @@
       <c r="AK385"/>
       <c r="AL385"/>
     </row>
-    <row r="386" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="386" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386"/>
@@ -27488,7 +27559,7 @@
       <c r="AK386"/>
       <c r="AL386"/>
     </row>
-    <row r="387" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="387" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387"/>
@@ -27527,7 +27598,7 @@
       <c r="AK387"/>
       <c r="AL387"/>
     </row>
-    <row r="388" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="388" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388"/>
@@ -27566,7 +27637,7 @@
       <c r="AK388"/>
       <c r="AL388"/>
     </row>
-    <row r="389" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="389" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B389"/>
       <c r="C389"/>
       <c r="D389"/>
@@ -27605,7 +27676,7 @@
       <c r="AK389"/>
       <c r="AL389"/>
     </row>
-    <row r="390" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="390" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B390"/>
       <c r="C390"/>
       <c r="D390"/>
@@ -27644,7 +27715,7 @@
       <c r="AK390"/>
       <c r="AL390"/>
     </row>
-    <row r="391" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="391" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B391"/>
       <c r="C391"/>
       <c r="D391"/>
@@ -27683,7 +27754,7 @@
       <c r="AK391"/>
       <c r="AL391"/>
     </row>
-    <row r="392" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="392" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B392"/>
       <c r="C392"/>
       <c r="D392"/>
@@ -27722,7 +27793,7 @@
       <c r="AK392"/>
       <c r="AL392"/>
     </row>
-    <row r="393" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="393" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B393"/>
       <c r="C393"/>
       <c r="D393"/>
@@ -27761,7 +27832,7 @@
       <c r="AK393"/>
       <c r="AL393"/>
     </row>
-    <row r="394" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="394" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B394"/>
       <c r="C394"/>
       <c r="D394"/>
@@ -27800,7 +27871,7 @@
       <c r="AK394"/>
       <c r="AL394"/>
     </row>
-    <row r="395" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="395" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B395"/>
       <c r="C395"/>
       <c r="D395"/>
@@ -27839,7 +27910,7 @@
       <c r="AK395"/>
       <c r="AL395"/>
     </row>
-    <row r="396" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="396" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B396"/>
       <c r="C396"/>
       <c r="D396"/>
@@ -27878,7 +27949,7 @@
       <c r="AK396"/>
       <c r="AL396"/>
     </row>
-    <row r="397" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="397" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B397"/>
       <c r="C397"/>
       <c r="D397"/>
@@ -27917,7 +27988,7 @@
       <c r="AK397"/>
       <c r="AL397"/>
     </row>
-    <row r="398" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="398" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B398"/>
       <c r="C398"/>
       <c r="D398"/>
@@ -27956,7 +28027,7 @@
       <c r="AK398"/>
       <c r="AL398"/>
     </row>
-    <row r="399" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="399" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B399"/>
       <c r="C399"/>
       <c r="D399"/>
@@ -27995,7 +28066,7 @@
       <c r="AK399"/>
       <c r="AL399"/>
     </row>
-    <row r="400" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="400" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B400"/>
       <c r="C400"/>
       <c r="D400"/>
@@ -28034,7 +28105,7 @@
       <c r="AK400"/>
       <c r="AL400"/>
     </row>
-    <row r="401" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="401" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B401"/>
       <c r="C401"/>
       <c r="D401"/>
@@ -28073,7 +28144,7 @@
       <c r="AK401"/>
       <c r="AL401"/>
     </row>
-    <row r="402" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="402" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B402"/>
       <c r="C402"/>
       <c r="D402"/>
@@ -28112,7 +28183,7 @@
       <c r="AK402"/>
       <c r="AL402"/>
     </row>
-    <row r="403" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="403" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B403"/>
       <c r="C403"/>
       <c r="D403"/>
@@ -28151,7 +28222,7 @@
       <c r="AK403"/>
       <c r="AL403"/>
     </row>
-    <row r="404" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="404" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B404"/>
       <c r="C404"/>
       <c r="D404"/>
@@ -28190,7 +28261,7 @@
       <c r="AK404"/>
       <c r="AL404"/>
     </row>
-    <row r="405" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="405" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B405"/>
       <c r="C405"/>
       <c r="D405"/>
@@ -28229,7 +28300,7 @@
       <c r="AK405"/>
       <c r="AL405"/>
     </row>
-    <row r="406" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="406" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B406"/>
       <c r="C406"/>
       <c r="D406"/>
@@ -28268,7 +28339,7 @@
       <c r="AK406"/>
       <c r="AL406"/>
     </row>
-    <row r="407" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="407" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B407"/>
       <c r="C407"/>
       <c r="D407"/>
@@ -28307,7 +28378,7 @@
       <c r="AK407"/>
       <c r="AL407"/>
     </row>
-    <row r="408" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="408" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B408"/>
       <c r="C408"/>
       <c r="D408"/>
@@ -28346,7 +28417,7 @@
       <c r="AK408"/>
       <c r="AL408"/>
     </row>
-    <row r="409" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="409" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B409"/>
       <c r="C409"/>
       <c r="D409"/>
@@ -28385,7 +28456,7 @@
       <c r="AK409"/>
       <c r="AL409"/>
     </row>
-    <row r="410" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="410" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B410"/>
       <c r="C410"/>
       <c r="D410"/>
@@ -28424,7 +28495,7 @@
       <c r="AK410"/>
       <c r="AL410"/>
     </row>
-    <row r="411" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="411" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B411"/>
       <c r="C411"/>
       <c r="D411"/>
@@ -28463,7 +28534,7 @@
       <c r="AK411"/>
       <c r="AL411"/>
     </row>
-    <row r="412" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="412" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B412"/>
       <c r="C412"/>
       <c r="D412"/>
@@ -28502,7 +28573,7 @@
       <c r="AK412"/>
       <c r="AL412"/>
     </row>
-    <row r="413" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="413" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B413"/>
       <c r="C413"/>
       <c r="D413"/>
@@ -28541,7 +28612,7 @@
       <c r="AK413"/>
       <c r="AL413"/>
     </row>
-    <row r="414" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="414" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B414"/>
       <c r="C414"/>
       <c r="D414"/>
@@ -28580,7 +28651,7 @@
       <c r="AK414"/>
       <c r="AL414"/>
     </row>
-    <row r="415" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="415" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B415"/>
       <c r="C415"/>
       <c r="D415"/>
@@ -28619,7 +28690,7 @@
       <c r="AK415"/>
       <c r="AL415"/>
     </row>
-    <row r="416" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="416" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B416"/>
       <c r="C416"/>
       <c r="D416"/>
@@ -28658,7 +28729,7 @@
       <c r="AK416"/>
       <c r="AL416"/>
     </row>
-    <row r="417" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="417" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B417"/>
       <c r="C417"/>
       <c r="D417"/>
@@ -28697,7 +28768,7 @@
       <c r="AK417"/>
       <c r="AL417"/>
     </row>
-    <row r="418" spans="2:38" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="418" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
       <c r="B418"/>
       <c r="F418"/>
     </row>
@@ -28732,11 +28803,6 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="L1:AL1"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
@@ -28744,6 +28810,11 @@
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="C1:C4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F419:F65544">
@@ -29163,7 +29234,7 @@
       <formula>OR($F18="終了",$F18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E30 E32:E38">
+  <conditionalFormatting sqref="E27:E30 E32:E44">
     <cfRule type="containsText" dxfId="374" priority="1340" stopIfTrue="1" operator="containsText" text="幸野">
       <formula>NOT(ISERROR(SEARCH("幸野",E27)))</formula>
     </cfRule>
@@ -29180,7 +29251,7 @@
       <formula>NOT(ISERROR(SEARCH("金城",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E30 E32:E38">
+  <conditionalFormatting sqref="E27:E30 E32:E44">
     <cfRule type="containsText" dxfId="369" priority="1338" operator="containsText" text="佐藤">
       <formula>NOT(ISERROR(SEARCH("佐藤",E27)))</formula>
     </cfRule>
@@ -29199,7 +29270,7 @@
       <formula>NOT(ISERROR(SEARCH("高",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E30 E32:E38">
+  <conditionalFormatting sqref="E27:E30 E32:E44">
     <cfRule type="containsText" dxfId="364" priority="1334" operator="containsText" text="未定">
       <formula>NOT(ISERROR(SEARCH("未定",E27)))</formula>
     </cfRule>
@@ -30708,19 +30779,19 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I1" s="109" t="s">
         <v>55</v>
       </c>
       <c r="J1" s="109"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H2" s="33" t="s">
         <v>26</v>
       </c>
@@ -30729,7 +30800,7 @@
       </c>
       <c r="J2" s="110"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="111" t="s">
         <v>54</v>
       </c>
@@ -30738,7 +30809,7 @@
       <c r="E3" s="113"/>
       <c r="H3" s="34">
         <f ca="1">COUNTIF('スプリントバックログ(全体) '!$F$5:$F$418,'スプリントバックログ（グラフ表）'!$H$2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="107">
         <v>1</v>
@@ -30752,7 +30823,7 @@
       <c r="N3" s="110"/>
       <c r="O3" s="110"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -30797,7 +30868,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>104</v>
       </c>
@@ -30855,7 +30926,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>105</v>
       </c>
@@ -30913,7 +30984,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>106</v>
       </c>
@@ -30971,7 +31042,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>107</v>
       </c>
@@ -31029,7 +31100,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>108</v>
       </c>
@@ -31039,11 +31110,11 @@
       </c>
       <c r="C9" s="30">
         <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A9,'スプリントバックログ(全体) '!$K$5:$K$411)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="30">
         <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A9,'スプリントバックログ(全体) '!$J$5:$J$411)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="31">
         <f>COUNTA('スプリントバックログ(全体) '!$L$2:$AL$2)*6-COUNTA('スプリントバックログ(全体) '!$L$4:$AL$4)*6</f>
@@ -31051,11 +31122,11 @@
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="34">
         <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A9)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H9" s="32" t="e">
         <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A9,'スプリントバックログ(全体) '!$F$5:$F$418,'スプリントバックログ（グラフ表）'!$H$2)</f>
@@ -31087,7 +31158,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>109</v>
       </c>
@@ -31274,15 +31345,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="8" width="24.75" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="8" width="24.77734375" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>56</v>
       </c>
@@ -31297,7 +31368,7 @@
         <v>42846</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="34" t="s">
         <v>59</v>
       </c>
@@ -31320,7 +31391,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="34">
         <v>10</v>
       </c>
@@ -31343,7 +31414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="63" t="s">
         <v>66</v>
       </c>
@@ -31362,7 +31433,7 @@
       <c r="G6" s="65"/>
       <c r="H6" s="65"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="66"/>
       <c r="C7" s="64" t="s">
         <v>68</v>
@@ -31377,7 +31448,7 @@
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="66"/>
       <c r="C8" s="66" t="s">
         <v>70</v>
@@ -31388,7 +31459,7 @@
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="66"/>
       <c r="C9" s="66"/>
       <c r="D9" s="66"/>
@@ -31397,7 +31468,7 @@
       <c r="G9" s="66"/>
       <c r="H9" s="66"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="66"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -31406,7 +31477,7 @@
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="66"/>
       <c r="C11" s="66"/>
       <c r="D11" s="66"/>
@@ -31415,7 +31486,7 @@
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
@@ -31424,12 +31495,12 @@
       <c r="G12" s="67"/>
       <c r="H12" s="67"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="34" t="s">
         <v>59</v>
       </c>
@@ -31452,7 +31523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="34">
         <v>17</v>
       </c>
@@ -31475,7 +31546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="63"/>
       <c r="C17" s="64" t="s">
         <v>67</v>
@@ -31490,7 +31561,7 @@
       <c r="G17" s="71"/>
       <c r="H17" s="72"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="64"/>
       <c r="C18" s="66" t="s">
         <v>69</v>
@@ -31503,7 +31574,7 @@
       <c r="G18" s="76"/>
       <c r="H18" s="77"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="78"/>
       <c r="C19" s="73"/>
       <c r="D19" s="74"/>
@@ -31512,7 +31583,7 @@
       <c r="G19" s="76"/>
       <c r="H19" s="77"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="78"/>
       <c r="C20" s="73"/>
       <c r="D20" s="74"/>
@@ -31521,7 +31592,7 @@
       <c r="G20" s="76"/>
       <c r="H20" s="77"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="73"/>
       <c r="C21" s="73"/>
       <c r="D21" s="74"/>
@@ -31532,7 +31603,7 @@
       <c r="G21" s="76"/>
       <c r="H21" s="77"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="73"/>
       <c r="C22" s="81"/>
       <c r="D22" s="82"/>
@@ -31543,7 +31614,7 @@
       <c r="G22" s="76"/>
       <c r="H22" s="77"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="83"/>
       <c r="C23" s="83"/>
       <c r="D23" s="84"/>
@@ -31552,7 +31623,7 @@
       <c r="G23" s="86"/>
       <c r="H23" s="87"/>
     </row>
-    <row r="26" spans="2:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="34" t="s">
         <v>59</v>
       </c>
@@ -31575,7 +31646,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="34">
         <v>24</v>
       </c>
@@ -31598,7 +31669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="88"/>
       <c r="C28" s="68" t="s">
         <v>67</v>
@@ -31617,7 +31688,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="74"/>
       <c r="C29" s="74"/>
       <c r="D29" s="74"/>
@@ -31628,7 +31699,7 @@
       <c r="G29" s="74"/>
       <c r="H29" s="77"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="74"/>
       <c r="C30" s="74"/>
       <c r="D30" s="74"/>
@@ -31639,7 +31710,7 @@
       </c>
       <c r="H30" s="77"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="74"/>
       <c r="C31" s="74"/>
       <c r="D31" s="74"/>
@@ -31648,7 +31719,7 @@
       <c r="G31" s="74"/>
       <c r="H31" s="77"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="74"/>
       <c r="C32" s="74"/>
       <c r="D32" s="74"/>
@@ -31657,7 +31728,7 @@
       <c r="G32" s="74"/>
       <c r="H32" s="77"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="74"/>
       <c r="C33" s="74"/>
       <c r="D33" s="74"/>
@@ -31666,7 +31737,7 @@
       <c r="G33" s="74"/>
       <c r="H33" s="77"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="84"/>
       <c r="C34" s="84"/>
       <c r="D34" s="84"/>
@@ -31675,7 +31746,7 @@
       <c r="G34" s="84"/>
       <c r="H34" s="87"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
         <v>78</v>
       </c>
@@ -31695,15 +31766,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="8" width="24.75" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="8" width="24.77734375" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>56</v>
       </c>
@@ -31718,7 +31789,7 @@
         <v>42846</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="62" t="s">
         <v>59</v>
       </c>
@@ -31741,7 +31812,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="34">
         <v>1</v>
       </c>
@@ -31764,7 +31835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="70" t="s">
         <v>80</v>
       </c>
@@ -31783,7 +31854,7 @@
       <c r="G6" s="88"/>
       <c r="H6" s="72"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="74"/>
       <c r="C7" s="74"/>
       <c r="D7" s="74"/>
@@ -31792,7 +31863,7 @@
       <c r="G7" s="74"/>
       <c r="H7" s="77"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="74"/>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
@@ -31801,7 +31872,7 @@
       <c r="G8" s="74"/>
       <c r="H8" s="77"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="74"/>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -31810,7 +31881,7 @@
       <c r="G9" s="74"/>
       <c r="H9" s="77"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="74"/>
       <c r="C10" s="74"/>
       <c r="D10" s="74"/>
@@ -31819,7 +31890,7 @@
       <c r="G10" s="74"/>
       <c r="H10" s="77"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="74"/>
       <c r="C11" s="74"/>
       <c r="D11" s="74"/>
@@ -31828,7 +31899,7 @@
       <c r="G11" s="74"/>
       <c r="H11" s="77"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
       <c r="D12" s="84"/>
@@ -31837,10 +31908,10 @@
       <c r="G12" s="84"/>
       <c r="H12" s="87"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="90"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="34" t="s">
         <v>59</v>
       </c>
@@ -31863,7 +31934,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="34">
         <v>8</v>
       </c>
@@ -31886,7 +31957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="70" t="s">
         <v>85</v>
       </c>
@@ -31901,7 +31972,7 @@
       <c r="G17" s="88"/>
       <c r="H17" s="72"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
@@ -31910,7 +31981,7 @@
       <c r="G18" s="74"/>
       <c r="H18" s="77"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="74"/>
       <c r="C19" s="74"/>
       <c r="D19" s="74"/>
@@ -31919,7 +31990,7 @@
       <c r="G19" s="74"/>
       <c r="H19" s="77"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
       <c r="D20" s="74"/>
@@ -31928,7 +31999,7 @@
       <c r="G20" s="74"/>
       <c r="H20" s="77"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
@@ -31937,7 +32008,7 @@
       <c r="G21" s="74"/>
       <c r="H21" s="77"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="74"/>
       <c r="C22" s="74"/>
       <c r="D22" s="74"/>
@@ -31946,7 +32017,7 @@
       <c r="G22" s="74"/>
       <c r="H22" s="77"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="84"/>
       <c r="C23" s="84"/>
       <c r="D23" s="84"/>
@@ -31955,12 +32026,12 @@
       <c r="G23" s="84"/>
       <c r="H23" s="87"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="34" t="s">
         <v>59</v>
       </c>
@@ -31983,7 +32054,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="34">
         <v>15</v>
       </c>
@@ -32006,7 +32077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="88"/>
       <c r="C28" s="74" t="s">
         <v>87</v>
@@ -32019,7 +32090,7 @@
       <c r="G28" s="88"/>
       <c r="H28" s="72"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="74"/>
       <c r="C29" s="74"/>
       <c r="D29" s="74"/>
@@ -32028,7 +32099,7 @@
       <c r="G29" s="74"/>
       <c r="H29" s="77"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="74"/>
       <c r="C30" s="74"/>
       <c r="D30" s="74"/>
@@ -32037,7 +32108,7 @@
       <c r="G30" s="74"/>
       <c r="H30" s="77"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="74"/>
       <c r="C31" s="74"/>
       <c r="D31" s="74"/>
@@ -32046,7 +32117,7 @@
       <c r="G31" s="74"/>
       <c r="H31" s="77"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="74"/>
       <c r="C32" s="74"/>
       <c r="D32" s="74"/>
@@ -32055,7 +32126,7 @@
       <c r="G32" s="74"/>
       <c r="H32" s="77"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="74"/>
       <c r="C33" s="74"/>
       <c r="D33" s="74"/>
@@ -32064,7 +32135,7 @@
       <c r="G33" s="74"/>
       <c r="H33" s="77"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="84"/>
       <c r="C34" s="84"/>
       <c r="D34" s="84"/>
@@ -32073,7 +32144,7 @@
       <c r="G34" s="84"/>
       <c r="H34" s="87"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="34" t="s">
         <v>59</v>
       </c>
@@ -32096,7 +32167,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="34">
         <v>22</v>
       </c>
@@ -32119,7 +32190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="88"/>
       <c r="C39" s="82" t="s">
         <v>89</v>
@@ -32136,7 +32207,7 @@
       <c r="G39" s="88"/>
       <c r="H39" s="72"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="74"/>
       <c r="C40" s="74"/>
       <c r="D40" s="74"/>
@@ -32145,7 +32216,7 @@
       <c r="G40" s="74"/>
       <c r="H40" s="77"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="74"/>
       <c r="C41" s="74"/>
       <c r="D41" s="74"/>
@@ -32154,7 +32225,7 @@
       <c r="G41" s="74"/>
       <c r="H41" s="77"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="74"/>
       <c r="C42" s="74"/>
       <c r="D42" s="74"/>
@@ -32163,7 +32234,7 @@
       <c r="G42" s="74"/>
       <c r="H42" s="77"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="74"/>
       <c r="C43" s="74"/>
       <c r="D43" s="74"/>
@@ -32172,7 +32243,7 @@
       <c r="G43" s="74"/>
       <c r="H43" s="77"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="74"/>
       <c r="C44" s="74"/>
       <c r="D44" s="74"/>
@@ -32181,7 +32252,7 @@
       <c r="G44" s="74"/>
       <c r="H44" s="77"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="84"/>
       <c r="C45" s="84"/>
       <c r="D45" s="84"/>
@@ -32190,12 +32261,12 @@
       <c r="G45" s="84"/>
       <c r="H45" s="87"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="34" t="s">
         <v>59</v>
       </c>
@@ -32206,7 +32277,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="34">
         <v>29</v>
       </c>
@@ -32217,44 +32288,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="88"/>
       <c r="C50" s="74" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="74"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="74"/>
       <c r="C51" s="74"/>
       <c r="D51" s="74"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="74"/>
       <c r="C52" s="74"/>
       <c r="D52" s="74"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="74"/>
       <c r="C53" s="74"/>
       <c r="D53" s="74"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="74"/>
       <c r="C54" s="74"/>
       <c r="D54" s="74"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="74"/>
       <c r="C55" s="74"/>
       <c r="D55" s="74"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="84"/>
       <c r="C56" s="84"/>
       <c r="D56" s="84"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>93</v>
       </c>
@@ -32274,15 +32345,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="8" width="24.75" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="8" width="24.77734375" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>56</v>
       </c>
@@ -32297,7 +32368,7 @@
         <v>42846</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E4" s="34" t="s">
         <v>62</v>
       </c>
@@ -32311,7 +32382,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E5" s="34">
         <v>1</v>
       </c>
@@ -32325,7 +32396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E6" s="88"/>
       <c r="F6" s="88" t="s">
         <v>87</v>
@@ -32333,7 +32404,7 @@
       <c r="G6" s="88"/>
       <c r="H6" s="72"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E7" s="74"/>
       <c r="F7" s="74" t="s">
         <v>94</v>
@@ -32341,41 +32412,41 @@
       <c r="G7" s="74"/>
       <c r="H7" s="77"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
       <c r="G8" s="74"/>
       <c r="H8" s="77"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
       <c r="G9" s="74"/>
       <c r="H9" s="77"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E10" s="74"/>
       <c r="F10" s="74"/>
       <c r="G10" s="74"/>
       <c r="H10" s="77"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
       <c r="G11" s="74"/>
       <c r="H11" s="77"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12" s="84"/>
       <c r="F12" s="84"/>
       <c r="G12" s="84"/>
       <c r="H12" s="87"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="90"/>
       <c r="C14" s="91"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="34" t="s">
         <v>59</v>
       </c>
@@ -32398,7 +32469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="34">
         <v>5</v>
       </c>
@@ -32421,7 +32492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="88"/>
       <c r="C17" s="74" t="s">
         <v>87</v>
@@ -32434,7 +32505,7 @@
       <c r="G17" s="88"/>
       <c r="H17" s="72"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
@@ -32443,7 +32514,7 @@
       <c r="G18" s="74"/>
       <c r="H18" s="77"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="74"/>
       <c r="C19" s="74"/>
       <c r="D19" s="74"/>
@@ -32452,7 +32523,7 @@
       <c r="G19" s="74"/>
       <c r="H19" s="77"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
       <c r="D20" s="74"/>
@@ -32461,7 +32532,7 @@
       <c r="G20" s="74"/>
       <c r="H20" s="77"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
@@ -32470,7 +32541,7 @@
       <c r="G21" s="74"/>
       <c r="H21" s="77"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="74"/>
       <c r="C22" s="74"/>
       <c r="D22" s="74"/>
@@ -32479,7 +32550,7 @@
       <c r="G22" s="74"/>
       <c r="H22" s="77"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="84"/>
       <c r="C23" s="84"/>
       <c r="D23" s="84"/>
@@ -32488,10 +32559,10 @@
       <c r="G23" s="84"/>
       <c r="H23" s="87"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E24" s="91"/>
     </row>
-    <row r="26" spans="2:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="34" t="s">
         <v>59</v>
       </c>
@@ -32514,7 +32585,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="34">
         <v>12</v>
       </c>
@@ -32537,7 +32608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="88"/>
       <c r="C28" s="82" t="s">
         <v>95</v>
@@ -32550,7 +32621,7 @@
       <c r="G28" s="88"/>
       <c r="H28" s="72"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="74"/>
       <c r="C29" s="74"/>
       <c r="D29" s="74"/>
@@ -32561,7 +32632,7 @@
       <c r="G29" s="74"/>
       <c r="H29" s="77"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="74"/>
       <c r="C30" s="74"/>
       <c r="D30" s="74"/>
@@ -32570,7 +32641,7 @@
       <c r="G30" s="74"/>
       <c r="H30" s="77"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="74"/>
       <c r="C31" s="74"/>
       <c r="D31" s="74"/>
@@ -32579,7 +32650,7 @@
       <c r="G31" s="74"/>
       <c r="H31" s="77"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="74"/>
       <c r="C32" s="74"/>
       <c r="D32" s="74"/>
@@ -32588,7 +32659,7 @@
       <c r="G32" s="74"/>
       <c r="H32" s="77"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="74"/>
       <c r="C33" s="74"/>
       <c r="D33" s="74"/>
@@ -32597,7 +32668,7 @@
       <c r="G33" s="74"/>
       <c r="H33" s="77"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="84"/>
       <c r="C34" s="84"/>
       <c r="D34" s="84"/>
@@ -32606,12 +32677,12 @@
       <c r="G34" s="84"/>
       <c r="H34" s="87"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="34" t="s">
         <v>59</v>
       </c>
@@ -32634,7 +32705,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="34">
         <v>19</v>
       </c>
@@ -32657,7 +32728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="88"/>
       <c r="C39" s="82" t="s">
         <v>98</v>
@@ -32670,7 +32741,7 @@
       <c r="G39" s="88"/>
       <c r="H39" s="72"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="74"/>
       <c r="C40" s="74"/>
       <c r="D40" s="74"/>
@@ -32679,7 +32750,7 @@
       <c r="G40" s="74"/>
       <c r="H40" s="77"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="74"/>
       <c r="C41" s="74"/>
       <c r="D41" s="74"/>
@@ -32688,7 +32759,7 @@
       <c r="G41" s="74"/>
       <c r="H41" s="77"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="74"/>
       <c r="C42" s="74"/>
       <c r="D42" s="74"/>
@@ -32697,7 +32768,7 @@
       <c r="G42" s="74"/>
       <c r="H42" s="77"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="74"/>
       <c r="C43" s="74"/>
       <c r="D43" s="74"/>
@@ -32706,7 +32777,7 @@
       <c r="G43" s="74"/>
       <c r="H43" s="77"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="74"/>
       <c r="C44" s="74"/>
       <c r="D44" s="74"/>
@@ -32715,7 +32786,7 @@
       <c r="G44" s="74"/>
       <c r="H44" s="77"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="84"/>
       <c r="C45" s="84"/>
       <c r="D45" s="84"/>
@@ -32724,10 +32795,10 @@
       <c r="G45" s="84"/>
       <c r="H45" s="87"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C46" s="91"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="34" t="s">
         <v>59</v>
       </c>
@@ -32744,7 +32815,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="34">
         <v>26</v>
       </c>
@@ -32761,7 +32832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="88"/>
       <c r="C50" s="82" t="s">
         <v>99</v>
@@ -32774,7 +32845,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="74"/>
       <c r="C51" s="82" t="s">
         <v>102</v>
@@ -32783,42 +32854,42 @@
       <c r="E51" s="74"/>
       <c r="F51" s="74"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="74"/>
       <c r="C52" s="74"/>
       <c r="D52" s="74"/>
       <c r="E52" s="74"/>
       <c r="F52" s="74"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="74"/>
       <c r="C53" s="74"/>
       <c r="D53" s="74"/>
       <c r="E53" s="74"/>
       <c r="F53" s="74"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="74"/>
       <c r="C54" s="74"/>
       <c r="D54" s="74"/>
       <c r="E54" s="74"/>
       <c r="F54" s="74"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="74"/>
       <c r="C55" s="74"/>
       <c r="D55" s="74"/>
       <c r="E55" s="74"/>
       <c r="F55" s="74"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="84"/>
       <c r="C56" s="84"/>
       <c r="D56" s="84"/>
       <c r="E56" s="84"/>
       <c r="F56" s="84"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D57" s="91"/>
     </row>
   </sheetData>

--- a/7班_スプリントバックログ.xlsx
+++ b/7班_スプリントバックログ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugi23\Desktop\TeamWork2017_07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuwabarajui\Desktop\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" tabRatio="658"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9100" tabRatio="658"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ(全体) " sheetId="12" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="172">
   <si>
     <t>番号</t>
   </si>
@@ -2396,19 +2396,7 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2431,6 +2419,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6295,16 +6295,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -6505,46 +6505,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2</c:v>
@@ -6556,10 +6556,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1</c:v>
@@ -6571,7 +6571,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -7288,7 +7288,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
@@ -7445,7 +7445,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -10719,48 +10719,48 @@
   <dimension ref="A1:AL418"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="M44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="69.109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="2" max="2" width="69.08984375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.453125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="5" customWidth="1"/>
-    <col min="9" max="10" width="9.109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2" customWidth="1"/>
-    <col min="12" max="38" width="8.77734375" style="15" customWidth="1"/>
-    <col min="39" max="39" width="2.88671875" customWidth="1"/>
-    <col min="40" max="40" width="10.77734375" customWidth="1"/>
-    <col min="50" max="50" width="14.21875" customWidth="1"/>
-    <col min="51" max="51" width="4.77734375" customWidth="1"/>
-    <col min="52" max="52" width="3.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.08984375" style="5" customWidth="1"/>
+    <col min="9" max="10" width="9.08984375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="2" customWidth="1"/>
+    <col min="12" max="38" width="8.81640625" style="15" customWidth="1"/>
+    <col min="39" max="39" width="2.90625" customWidth="1"/>
+    <col min="40" max="40" width="10.81640625" customWidth="1"/>
+    <col min="50" max="50" width="14.1796875" customWidth="1"/>
+    <col min="51" max="51" width="4.81640625" customWidth="1"/>
+    <col min="52" max="52" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="95" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="94" t="s">
@@ -10769,57 +10769,57 @@
       <c r="H1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
     </row>
     <row r="2" spans="1:38" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="97"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="94"/>
       <c r="H2" s="94"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="54" t="s">
         <v>15</v>
       </c>
@@ -10903,36 +10903,36 @@
       </c>
     </row>
     <row r="3" spans="1:38" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="97"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="12">
         <f>INT(($L$4-(COLUMN()-COLUMN($L4))*($L$4/COUNTA($L$2:$AL$2))))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" s="12">
         <f t="shared" ref="M3:AL3" si="0">INT(($L$4-(COLUMN()-COLUMN($L4))*($L$4/COUNTA($L$2:$AL$2))))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="12">
         <f t="shared" si="0"/>
@@ -10940,19 +10940,19 @@
       </c>
       <c r="R3" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T3" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U3" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V3" s="39">
         <f t="shared" si="0"/>
@@ -10960,15 +10960,15 @@
       </c>
       <c r="W3" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X3" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="12">
         <f t="shared" si="0"/>
@@ -10984,11 +10984,11 @@
       </c>
       <c r="AC3" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" si="0"/>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="AH3" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" s="12">
         <f t="shared" si="0"/>
@@ -11024,32 +11024,32 @@
       </c>
     </row>
     <row r="4" spans="1:38" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="97"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="94"/>
       <c r="H4" s="94"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="95"/>
       <c r="L4" s="13">
         <f t="shared" ref="L4:AL4" si="3">SUM(L5:L411)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4" s="13">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O4" s="13">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" s="13">
         <f t="shared" si="3"/>
@@ -13624,26 +13624,48 @@
       <c r="B49" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="28"/>
+      <c r="C49" s="28">
+        <v>0.5</v>
+      </c>
       <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
+      <c r="E49" s="25" t="s">
+        <v>107</v>
+      </c>
       <c r="F49" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>未着手</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>完了</v>
+      </c>
+      <c r="G49" s="4">
+        <v>42846</v>
+      </c>
+      <c r="H49" s="4">
+        <v>42846</v>
+      </c>
+      <c r="I49" s="11">
+        <v>1</v>
+      </c>
+      <c r="J49" s="11">
+        <v>1</v>
+      </c>
+      <c r="K49" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="11">
+        <v>1</v>
+      </c>
+      <c r="M49" s="11">
+        <v>1</v>
+      </c>
+      <c r="N49" s="11">
+        <v>1</v>
+      </c>
+      <c r="O49" s="11">
+        <v>1</v>
+      </c>
+      <c r="P49" s="11">
+        <v>0</v>
+      </c>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
@@ -16783,7 +16805,7 @@
       <c r="AK110" s="11"/>
       <c r="AL110" s="11"/>
     </row>
-    <row r="111" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" ht="14.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27">
         <v>100</v>
       </c>
@@ -16873,7 +16895,7 @@
       <c r="AK112"/>
       <c r="AL112"/>
     </row>
-    <row r="113" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
@@ -16912,7 +16934,7 @@
       <c r="AK113"/>
       <c r="AL113"/>
     </row>
-    <row r="114" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
@@ -16951,7 +16973,7 @@
       <c r="AK114"/>
       <c r="AL114"/>
     </row>
-    <row r="115" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
@@ -16990,7 +17012,7 @@
       <c r="AK115"/>
       <c r="AL115"/>
     </row>
-    <row r="116" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
@@ -17029,7 +17051,7 @@
       <c r="AK116"/>
       <c r="AL116"/>
     </row>
-    <row r="117" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
@@ -17068,7 +17090,7 @@
       <c r="AK117"/>
       <c r="AL117"/>
     </row>
-    <row r="118" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
@@ -17107,7 +17129,7 @@
       <c r="AK118"/>
       <c r="AL118"/>
     </row>
-    <row r="119" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
@@ -17146,7 +17168,7 @@
       <c r="AK119"/>
       <c r="AL119"/>
     </row>
-    <row r="120" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
@@ -17185,7 +17207,7 @@
       <c r="AK120"/>
       <c r="AL120"/>
     </row>
-    <row r="121" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
@@ -17224,7 +17246,7 @@
       <c r="AK121"/>
       <c r="AL121"/>
     </row>
-    <row r="122" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
@@ -17263,7 +17285,7 @@
       <c r="AK122"/>
       <c r="AL122"/>
     </row>
-    <row r="123" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -17302,7 +17324,7 @@
       <c r="AK123"/>
       <c r="AL123"/>
     </row>
-    <row r="124" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -17341,7 +17363,7 @@
       <c r="AK124"/>
       <c r="AL124"/>
     </row>
-    <row r="125" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -17380,7 +17402,7 @@
       <c r="AK125"/>
       <c r="AL125"/>
     </row>
-    <row r="126" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -17419,7 +17441,7 @@
       <c r="AK126"/>
       <c r="AL126"/>
     </row>
-    <row r="127" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -17458,7 +17480,7 @@
       <c r="AK127"/>
       <c r="AL127"/>
     </row>
-    <row r="128" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -17497,7 +17519,7 @@
       <c r="AK128"/>
       <c r="AL128"/>
     </row>
-    <row r="129" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
@@ -17536,7 +17558,7 @@
       <c r="AK129"/>
       <c r="AL129"/>
     </row>
-    <row r="130" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
@@ -17575,7 +17597,7 @@
       <c r="AK130"/>
       <c r="AL130"/>
     </row>
-    <row r="131" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
@@ -17614,7 +17636,7 @@
       <c r="AK131"/>
       <c r="AL131"/>
     </row>
-    <row r="132" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
@@ -17653,7 +17675,7 @@
       <c r="AK132"/>
       <c r="AL132"/>
     </row>
-    <row r="133" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
@@ -17692,7 +17714,7 @@
       <c r="AK133"/>
       <c r="AL133"/>
     </row>
-    <row r="134" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B134"/>
       <c r="C134"/>
       <c r="D134"/>
@@ -17731,7 +17753,7 @@
       <c r="AK134"/>
       <c r="AL134"/>
     </row>
-    <row r="135" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B135"/>
       <c r="C135"/>
       <c r="D135"/>
@@ -17770,7 +17792,7 @@
       <c r="AK135"/>
       <c r="AL135"/>
     </row>
-    <row r="136" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B136"/>
       <c r="C136"/>
       <c r="D136"/>
@@ -17809,7 +17831,7 @@
       <c r="AK136"/>
       <c r="AL136"/>
     </row>
-    <row r="137" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B137"/>
       <c r="C137"/>
       <c r="D137"/>
@@ -17848,7 +17870,7 @@
       <c r="AK137"/>
       <c r="AL137"/>
     </row>
-    <row r="138" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B138"/>
       <c r="C138"/>
       <c r="D138"/>
@@ -17887,7 +17909,7 @@
       <c r="AK138"/>
       <c r="AL138"/>
     </row>
-    <row r="139" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139"/>
@@ -17926,7 +17948,7 @@
       <c r="AK139"/>
       <c r="AL139"/>
     </row>
-    <row r="140" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
@@ -17965,7 +17987,7 @@
       <c r="AK140"/>
       <c r="AL140"/>
     </row>
-    <row r="141" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
@@ -18004,7 +18026,7 @@
       <c r="AK141"/>
       <c r="AL141"/>
     </row>
-    <row r="142" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
@@ -18043,7 +18065,7 @@
       <c r="AK142"/>
       <c r="AL142"/>
     </row>
-    <row r="143" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
@@ -18082,7 +18104,7 @@
       <c r="AK143"/>
       <c r="AL143"/>
     </row>
-    <row r="144" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B144"/>
       <c r="C144"/>
       <c r="D144"/>
@@ -18121,7 +18143,7 @@
       <c r="AK144"/>
       <c r="AL144"/>
     </row>
-    <row r="145" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
@@ -18160,7 +18182,7 @@
       <c r="AK145"/>
       <c r="AL145"/>
     </row>
-    <row r="146" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B146"/>
       <c r="C146"/>
       <c r="D146"/>
@@ -18199,7 +18221,7 @@
       <c r="AK146"/>
       <c r="AL146"/>
     </row>
-    <row r="147" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B147"/>
       <c r="C147"/>
       <c r="D147"/>
@@ -18238,7 +18260,7 @@
       <c r="AK147"/>
       <c r="AL147"/>
     </row>
-    <row r="148" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B148"/>
       <c r="C148"/>
       <c r="D148"/>
@@ -18277,7 +18299,7 @@
       <c r="AK148"/>
       <c r="AL148"/>
     </row>
-    <row r="149" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B149"/>
       <c r="C149"/>
       <c r="D149"/>
@@ -18316,7 +18338,7 @@
       <c r="AK149"/>
       <c r="AL149"/>
     </row>
-    <row r="150" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B150"/>
       <c r="C150"/>
       <c r="D150"/>
@@ -18355,7 +18377,7 @@
       <c r="AK150"/>
       <c r="AL150"/>
     </row>
-    <row r="151" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B151"/>
       <c r="C151"/>
       <c r="D151"/>
@@ -18394,7 +18416,7 @@
       <c r="AK151"/>
       <c r="AL151"/>
     </row>
-    <row r="152" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B152"/>
       <c r="C152"/>
       <c r="D152"/>
@@ -18433,7 +18455,7 @@
       <c r="AK152"/>
       <c r="AL152"/>
     </row>
-    <row r="153" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B153"/>
       <c r="C153"/>
       <c r="D153"/>
@@ -18472,7 +18494,7 @@
       <c r="AK153"/>
       <c r="AL153"/>
     </row>
-    <row r="154" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B154"/>
       <c r="C154"/>
       <c r="D154"/>
@@ -18511,7 +18533,7 @@
       <c r="AK154"/>
       <c r="AL154"/>
     </row>
-    <row r="155" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B155"/>
       <c r="C155"/>
       <c r="D155"/>
@@ -18550,7 +18572,7 @@
       <c r="AK155"/>
       <c r="AL155"/>
     </row>
-    <row r="156" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B156"/>
       <c r="C156"/>
       <c r="D156"/>
@@ -18589,7 +18611,7 @@
       <c r="AK156"/>
       <c r="AL156"/>
     </row>
-    <row r="157" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B157"/>
       <c r="C157"/>
       <c r="D157"/>
@@ -18628,7 +18650,7 @@
       <c r="AK157"/>
       <c r="AL157"/>
     </row>
-    <row r="158" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B158"/>
       <c r="C158"/>
       <c r="D158"/>
@@ -18667,7 +18689,7 @@
       <c r="AK158"/>
       <c r="AL158"/>
     </row>
-    <row r="159" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B159"/>
       <c r="C159"/>
       <c r="D159"/>
@@ -18706,7 +18728,7 @@
       <c r="AK159"/>
       <c r="AL159"/>
     </row>
-    <row r="160" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B160"/>
       <c r="C160"/>
       <c r="D160"/>
@@ -18745,7 +18767,7 @@
       <c r="AK160"/>
       <c r="AL160"/>
     </row>
-    <row r="161" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B161"/>
       <c r="C161"/>
       <c r="D161"/>
@@ -18784,7 +18806,7 @@
       <c r="AK161"/>
       <c r="AL161"/>
     </row>
-    <row r="162" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B162"/>
       <c r="C162"/>
       <c r="D162"/>
@@ -18823,7 +18845,7 @@
       <c r="AK162"/>
       <c r="AL162"/>
     </row>
-    <row r="163" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B163"/>
       <c r="C163"/>
       <c r="D163"/>
@@ -18862,7 +18884,7 @@
       <c r="AK163"/>
       <c r="AL163"/>
     </row>
-    <row r="164" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B164"/>
       <c r="C164"/>
       <c r="D164"/>
@@ -18901,7 +18923,7 @@
       <c r="AK164"/>
       <c r="AL164"/>
     </row>
-    <row r="165" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B165"/>
       <c r="C165"/>
       <c r="D165"/>
@@ -18940,7 +18962,7 @@
       <c r="AK165"/>
       <c r="AL165"/>
     </row>
-    <row r="166" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B166"/>
       <c r="C166"/>
       <c r="D166"/>
@@ -18979,7 +19001,7 @@
       <c r="AK166"/>
       <c r="AL166"/>
     </row>
-    <row r="167" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B167"/>
       <c r="C167"/>
       <c r="D167"/>
@@ -19018,7 +19040,7 @@
       <c r="AK167"/>
       <c r="AL167"/>
     </row>
-    <row r="168" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B168"/>
       <c r="C168"/>
       <c r="D168"/>
@@ -19057,7 +19079,7 @@
       <c r="AK168"/>
       <c r="AL168"/>
     </row>
-    <row r="169" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B169"/>
       <c r="C169"/>
       <c r="D169"/>
@@ -19096,7 +19118,7 @@
       <c r="AK169"/>
       <c r="AL169"/>
     </row>
-    <row r="170" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B170"/>
       <c r="C170"/>
       <c r="D170"/>
@@ -19135,7 +19157,7 @@
       <c r="AK170"/>
       <c r="AL170"/>
     </row>
-    <row r="171" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B171"/>
       <c r="C171"/>
       <c r="D171"/>
@@ -19174,7 +19196,7 @@
       <c r="AK171"/>
       <c r="AL171"/>
     </row>
-    <row r="172" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B172"/>
       <c r="C172"/>
       <c r="D172"/>
@@ -19213,7 +19235,7 @@
       <c r="AK172"/>
       <c r="AL172"/>
     </row>
-    <row r="173" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B173"/>
       <c r="C173"/>
       <c r="D173"/>
@@ -19252,7 +19274,7 @@
       <c r="AK173"/>
       <c r="AL173"/>
     </row>
-    <row r="174" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B174"/>
       <c r="C174"/>
       <c r="D174"/>
@@ -19291,7 +19313,7 @@
       <c r="AK174"/>
       <c r="AL174"/>
     </row>
-    <row r="175" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B175"/>
       <c r="C175"/>
       <c r="D175"/>
@@ -19330,7 +19352,7 @@
       <c r="AK175"/>
       <c r="AL175"/>
     </row>
-    <row r="176" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B176"/>
       <c r="C176"/>
       <c r="D176"/>
@@ -19369,7 +19391,7 @@
       <c r="AK176"/>
       <c r="AL176"/>
     </row>
-    <row r="177" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177"/>
@@ -19408,7 +19430,7 @@
       <c r="AK177"/>
       <c r="AL177"/>
     </row>
-    <row r="178" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B178"/>
       <c r="C178"/>
       <c r="D178"/>
@@ -19447,7 +19469,7 @@
       <c r="AK178"/>
       <c r="AL178"/>
     </row>
-    <row r="179" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179"/>
@@ -19486,7 +19508,7 @@
       <c r="AK179"/>
       <c r="AL179"/>
     </row>
-    <row r="180" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B180"/>
       <c r="C180"/>
       <c r="D180"/>
@@ -19525,7 +19547,7 @@
       <c r="AK180"/>
       <c r="AL180"/>
     </row>
-    <row r="181" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B181"/>
       <c r="C181"/>
       <c r="D181"/>
@@ -19564,7 +19586,7 @@
       <c r="AK181"/>
       <c r="AL181"/>
     </row>
-    <row r="182" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B182"/>
       <c r="C182"/>
       <c r="D182"/>
@@ -19603,7 +19625,7 @@
       <c r="AK182"/>
       <c r="AL182"/>
     </row>
-    <row r="183" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183"/>
@@ -19642,7 +19664,7 @@
       <c r="AK183"/>
       <c r="AL183"/>
     </row>
-    <row r="184" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B184"/>
       <c r="C184"/>
       <c r="D184"/>
@@ -19681,7 +19703,7 @@
       <c r="AK184"/>
       <c r="AL184"/>
     </row>
-    <row r="185" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B185"/>
       <c r="C185"/>
       <c r="D185"/>
@@ -19720,7 +19742,7 @@
       <c r="AK185"/>
       <c r="AL185"/>
     </row>
-    <row r="186" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B186"/>
       <c r="C186"/>
       <c r="D186"/>
@@ -19759,7 +19781,7 @@
       <c r="AK186"/>
       <c r="AL186"/>
     </row>
-    <row r="187" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B187"/>
       <c r="C187"/>
       <c r="D187"/>
@@ -19798,7 +19820,7 @@
       <c r="AK187"/>
       <c r="AL187"/>
     </row>
-    <row r="188" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B188"/>
       <c r="C188"/>
       <c r="D188"/>
@@ -19837,7 +19859,7 @@
       <c r="AK188"/>
       <c r="AL188"/>
     </row>
-    <row r="189" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B189"/>
       <c r="C189"/>
       <c r="D189"/>
@@ -19876,7 +19898,7 @@
       <c r="AK189"/>
       <c r="AL189"/>
     </row>
-    <row r="190" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B190"/>
       <c r="C190"/>
       <c r="D190"/>
@@ -19915,7 +19937,7 @@
       <c r="AK190"/>
       <c r="AL190"/>
     </row>
-    <row r="191" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B191"/>
       <c r="C191"/>
       <c r="D191"/>
@@ -19954,7 +19976,7 @@
       <c r="AK191"/>
       <c r="AL191"/>
     </row>
-    <row r="192" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B192"/>
       <c r="C192"/>
       <c r="D192"/>
@@ -19993,7 +20015,7 @@
       <c r="AK192"/>
       <c r="AL192"/>
     </row>
-    <row r="193" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B193"/>
       <c r="C193"/>
       <c r="D193"/>
@@ -20032,7 +20054,7 @@
       <c r="AK193"/>
       <c r="AL193"/>
     </row>
-    <row r="194" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B194"/>
       <c r="C194"/>
       <c r="D194"/>
@@ -20071,7 +20093,7 @@
       <c r="AK194"/>
       <c r="AL194"/>
     </row>
-    <row r="195" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B195"/>
       <c r="C195"/>
       <c r="D195"/>
@@ -20110,7 +20132,7 @@
       <c r="AK195"/>
       <c r="AL195"/>
     </row>
-    <row r="196" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B196"/>
       <c r="C196"/>
       <c r="D196"/>
@@ -20149,7 +20171,7 @@
       <c r="AK196"/>
       <c r="AL196"/>
     </row>
-    <row r="197" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B197"/>
       <c r="C197"/>
       <c r="D197"/>
@@ -20188,7 +20210,7 @@
       <c r="AK197"/>
       <c r="AL197"/>
     </row>
-    <row r="198" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B198"/>
       <c r="C198"/>
       <c r="D198"/>
@@ -20227,7 +20249,7 @@
       <c r="AK198"/>
       <c r="AL198"/>
     </row>
-    <row r="199" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B199"/>
       <c r="C199"/>
       <c r="D199"/>
@@ -20266,7 +20288,7 @@
       <c r="AK199"/>
       <c r="AL199"/>
     </row>
-    <row r="200" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B200"/>
       <c r="C200"/>
       <c r="D200"/>
@@ -20305,7 +20327,7 @@
       <c r="AK200"/>
       <c r="AL200"/>
     </row>
-    <row r="201" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B201"/>
       <c r="C201"/>
       <c r="D201"/>
@@ -20344,7 +20366,7 @@
       <c r="AK201"/>
       <c r="AL201"/>
     </row>
-    <row r="202" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B202"/>
       <c r="C202"/>
       <c r="D202"/>
@@ -20383,7 +20405,7 @@
       <c r="AK202"/>
       <c r="AL202"/>
     </row>
-    <row r="203" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B203"/>
       <c r="C203"/>
       <c r="D203"/>
@@ -20422,7 +20444,7 @@
       <c r="AK203"/>
       <c r="AL203"/>
     </row>
-    <row r="204" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B204"/>
       <c r="C204"/>
       <c r="D204"/>
@@ -20461,7 +20483,7 @@
       <c r="AK204"/>
       <c r="AL204"/>
     </row>
-    <row r="205" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B205"/>
       <c r="C205"/>
       <c r="D205"/>
@@ -20500,7 +20522,7 @@
       <c r="AK205"/>
       <c r="AL205"/>
     </row>
-    <row r="206" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B206"/>
       <c r="C206"/>
       <c r="D206"/>
@@ -20539,7 +20561,7 @@
       <c r="AK206"/>
       <c r="AL206"/>
     </row>
-    <row r="207" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B207"/>
       <c r="C207"/>
       <c r="D207"/>
@@ -20578,7 +20600,7 @@
       <c r="AK207"/>
       <c r="AL207"/>
     </row>
-    <row r="208" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B208"/>
       <c r="C208"/>
       <c r="D208"/>
@@ -20617,7 +20639,7 @@
       <c r="AK208"/>
       <c r="AL208"/>
     </row>
-    <row r="209" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B209"/>
       <c r="C209"/>
       <c r="D209"/>
@@ -20656,7 +20678,7 @@
       <c r="AK209"/>
       <c r="AL209"/>
     </row>
-    <row r="210" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B210"/>
       <c r="C210"/>
       <c r="D210"/>
@@ -20695,7 +20717,7 @@
       <c r="AK210"/>
       <c r="AL210"/>
     </row>
-    <row r="211" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B211"/>
       <c r="C211"/>
       <c r="D211"/>
@@ -20734,7 +20756,7 @@
       <c r="AK211"/>
       <c r="AL211"/>
     </row>
-    <row r="212" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B212"/>
       <c r="C212"/>
       <c r="D212"/>
@@ -20773,7 +20795,7 @@
       <c r="AK212"/>
       <c r="AL212"/>
     </row>
-    <row r="213" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B213"/>
       <c r="C213"/>
       <c r="D213"/>
@@ -20812,7 +20834,7 @@
       <c r="AK213"/>
       <c r="AL213"/>
     </row>
-    <row r="214" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B214"/>
       <c r="C214"/>
       <c r="D214"/>
@@ -20851,7 +20873,7 @@
       <c r="AK214"/>
       <c r="AL214"/>
     </row>
-    <row r="215" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B215"/>
       <c r="C215"/>
       <c r="D215"/>
@@ -20890,7 +20912,7 @@
       <c r="AK215"/>
       <c r="AL215"/>
     </row>
-    <row r="216" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B216"/>
       <c r="C216"/>
       <c r="D216"/>
@@ -20929,7 +20951,7 @@
       <c r="AK216"/>
       <c r="AL216"/>
     </row>
-    <row r="217" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B217"/>
       <c r="C217"/>
       <c r="D217"/>
@@ -20968,7 +20990,7 @@
       <c r="AK217"/>
       <c r="AL217"/>
     </row>
-    <row r="218" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B218"/>
       <c r="C218"/>
       <c r="D218"/>
@@ -21007,7 +21029,7 @@
       <c r="AK218"/>
       <c r="AL218"/>
     </row>
-    <row r="219" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B219"/>
       <c r="C219"/>
       <c r="D219"/>
@@ -21046,7 +21068,7 @@
       <c r="AK219"/>
       <c r="AL219"/>
     </row>
-    <row r="220" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B220"/>
       <c r="C220"/>
       <c r="D220"/>
@@ -21085,7 +21107,7 @@
       <c r="AK220"/>
       <c r="AL220"/>
     </row>
-    <row r="221" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B221"/>
       <c r="C221"/>
       <c r="D221"/>
@@ -21124,7 +21146,7 @@
       <c r="AK221"/>
       <c r="AL221"/>
     </row>
-    <row r="222" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B222"/>
       <c r="C222"/>
       <c r="D222"/>
@@ -21163,7 +21185,7 @@
       <c r="AK222"/>
       <c r="AL222"/>
     </row>
-    <row r="223" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B223"/>
       <c r="C223"/>
       <c r="D223"/>
@@ -21202,7 +21224,7 @@
       <c r="AK223"/>
       <c r="AL223"/>
     </row>
-    <row r="224" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B224"/>
       <c r="C224"/>
       <c r="D224"/>
@@ -21241,7 +21263,7 @@
       <c r="AK224"/>
       <c r="AL224"/>
     </row>
-    <row r="225" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B225"/>
       <c r="C225"/>
       <c r="D225"/>
@@ -21280,7 +21302,7 @@
       <c r="AK225"/>
       <c r="AL225"/>
     </row>
-    <row r="226" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B226"/>
       <c r="C226"/>
       <c r="D226"/>
@@ -21319,7 +21341,7 @@
       <c r="AK226"/>
       <c r="AL226"/>
     </row>
-    <row r="227" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227"/>
@@ -21358,7 +21380,7 @@
       <c r="AK227"/>
       <c r="AL227"/>
     </row>
-    <row r="228" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B228"/>
       <c r="C228"/>
       <c r="D228"/>
@@ -21397,7 +21419,7 @@
       <c r="AK228"/>
       <c r="AL228"/>
     </row>
-    <row r="229" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B229"/>
       <c r="C229"/>
       <c r="D229"/>
@@ -21436,7 +21458,7 @@
       <c r="AK229"/>
       <c r="AL229"/>
     </row>
-    <row r="230" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B230"/>
       <c r="C230"/>
       <c r="D230"/>
@@ -21475,7 +21497,7 @@
       <c r="AK230"/>
       <c r="AL230"/>
     </row>
-    <row r="231" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B231"/>
       <c r="C231"/>
       <c r="D231"/>
@@ -21514,7 +21536,7 @@
       <c r="AK231"/>
       <c r="AL231"/>
     </row>
-    <row r="232" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B232"/>
       <c r="C232"/>
       <c r="D232"/>
@@ -21553,7 +21575,7 @@
       <c r="AK232"/>
       <c r="AL232"/>
     </row>
-    <row r="233" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B233"/>
       <c r="C233"/>
       <c r="D233"/>
@@ -21592,7 +21614,7 @@
       <c r="AK233"/>
       <c r="AL233"/>
     </row>
-    <row r="234" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B234"/>
       <c r="C234"/>
       <c r="D234"/>
@@ -21631,7 +21653,7 @@
       <c r="AK234"/>
       <c r="AL234"/>
     </row>
-    <row r="235" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B235"/>
       <c r="C235"/>
       <c r="D235"/>
@@ -21670,7 +21692,7 @@
       <c r="AK235"/>
       <c r="AL235"/>
     </row>
-    <row r="236" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B236"/>
       <c r="C236"/>
       <c r="D236"/>
@@ -21709,7 +21731,7 @@
       <c r="AK236"/>
       <c r="AL236"/>
     </row>
-    <row r="237" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B237"/>
       <c r="C237"/>
       <c r="D237"/>
@@ -21748,7 +21770,7 @@
       <c r="AK237"/>
       <c r="AL237"/>
     </row>
-    <row r="238" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B238"/>
       <c r="C238"/>
       <c r="D238"/>
@@ -21787,7 +21809,7 @@
       <c r="AK238"/>
       <c r="AL238"/>
     </row>
-    <row r="239" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B239"/>
       <c r="C239"/>
       <c r="D239"/>
@@ -21826,7 +21848,7 @@
       <c r="AK239"/>
       <c r="AL239"/>
     </row>
-    <row r="240" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B240"/>
       <c r="C240"/>
       <c r="D240"/>
@@ -21865,7 +21887,7 @@
       <c r="AK240"/>
       <c r="AL240"/>
     </row>
-    <row r="241" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B241"/>
       <c r="C241"/>
       <c r="D241"/>
@@ -21904,7 +21926,7 @@
       <c r="AK241"/>
       <c r="AL241"/>
     </row>
-    <row r="242" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B242"/>
       <c r="C242"/>
       <c r="D242"/>
@@ -21943,7 +21965,7 @@
       <c r="AK242"/>
       <c r="AL242"/>
     </row>
-    <row r="243" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B243"/>
       <c r="C243"/>
       <c r="D243"/>
@@ -21982,7 +22004,7 @@
       <c r="AK243"/>
       <c r="AL243"/>
     </row>
-    <row r="244" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B244"/>
       <c r="C244"/>
       <c r="D244"/>
@@ -22021,7 +22043,7 @@
       <c r="AK244"/>
       <c r="AL244"/>
     </row>
-    <row r="245" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B245"/>
       <c r="C245"/>
       <c r="D245"/>
@@ -22060,7 +22082,7 @@
       <c r="AK245"/>
       <c r="AL245"/>
     </row>
-    <row r="246" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B246"/>
       <c r="C246"/>
       <c r="D246"/>
@@ -22099,7 +22121,7 @@
       <c r="AK246"/>
       <c r="AL246"/>
     </row>
-    <row r="247" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B247"/>
       <c r="C247"/>
       <c r="D247"/>
@@ -22138,7 +22160,7 @@
       <c r="AK247"/>
       <c r="AL247"/>
     </row>
-    <row r="248" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B248"/>
       <c r="C248"/>
       <c r="D248"/>
@@ -22177,7 +22199,7 @@
       <c r="AK248"/>
       <c r="AL248"/>
     </row>
-    <row r="249" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B249"/>
       <c r="C249"/>
       <c r="D249"/>
@@ -22216,7 +22238,7 @@
       <c r="AK249"/>
       <c r="AL249"/>
     </row>
-    <row r="250" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B250"/>
       <c r="C250"/>
       <c r="D250"/>
@@ -22255,7 +22277,7 @@
       <c r="AK250"/>
       <c r="AL250"/>
     </row>
-    <row r="251" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B251"/>
       <c r="C251"/>
       <c r="D251"/>
@@ -22294,7 +22316,7 @@
       <c r="AK251"/>
       <c r="AL251"/>
     </row>
-    <row r="252" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B252"/>
       <c r="C252"/>
       <c r="D252"/>
@@ -22333,7 +22355,7 @@
       <c r="AK252"/>
       <c r="AL252"/>
     </row>
-    <row r="253" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B253"/>
       <c r="C253"/>
       <c r="D253"/>
@@ -22372,7 +22394,7 @@
       <c r="AK253"/>
       <c r="AL253"/>
     </row>
-    <row r="254" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B254"/>
       <c r="C254"/>
       <c r="D254"/>
@@ -22411,7 +22433,7 @@
       <c r="AK254"/>
       <c r="AL254"/>
     </row>
-    <row r="255" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B255"/>
       <c r="C255"/>
       <c r="D255"/>
@@ -22450,7 +22472,7 @@
       <c r="AK255"/>
       <c r="AL255"/>
     </row>
-    <row r="256" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B256"/>
       <c r="C256"/>
       <c r="D256"/>
@@ -22489,7 +22511,7 @@
       <c r="AK256"/>
       <c r="AL256"/>
     </row>
-    <row r="257" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B257"/>
       <c r="C257"/>
       <c r="D257"/>
@@ -22528,7 +22550,7 @@
       <c r="AK257"/>
       <c r="AL257"/>
     </row>
-    <row r="258" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B258"/>
       <c r="C258"/>
       <c r="D258"/>
@@ -22567,7 +22589,7 @@
       <c r="AK258"/>
       <c r="AL258"/>
     </row>
-    <row r="259" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B259"/>
       <c r="C259"/>
       <c r="D259"/>
@@ -22606,7 +22628,7 @@
       <c r="AK259"/>
       <c r="AL259"/>
     </row>
-    <row r="260" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B260"/>
       <c r="C260"/>
       <c r="D260"/>
@@ -22645,7 +22667,7 @@
       <c r="AK260"/>
       <c r="AL260"/>
     </row>
-    <row r="261" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B261"/>
       <c r="C261"/>
       <c r="D261"/>
@@ -22684,7 +22706,7 @@
       <c r="AK261"/>
       <c r="AL261"/>
     </row>
-    <row r="262" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B262"/>
       <c r="C262"/>
       <c r="D262"/>
@@ -22723,7 +22745,7 @@
       <c r="AK262"/>
       <c r="AL262"/>
     </row>
-    <row r="263" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B263"/>
       <c r="C263"/>
       <c r="D263"/>
@@ -22762,7 +22784,7 @@
       <c r="AK263"/>
       <c r="AL263"/>
     </row>
-    <row r="264" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B264"/>
       <c r="C264"/>
       <c r="D264"/>
@@ -22801,7 +22823,7 @@
       <c r="AK264"/>
       <c r="AL264"/>
     </row>
-    <row r="265" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B265"/>
       <c r="C265"/>
       <c r="D265"/>
@@ -22840,7 +22862,7 @@
       <c r="AK265"/>
       <c r="AL265"/>
     </row>
-    <row r="266" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B266"/>
       <c r="C266"/>
       <c r="D266"/>
@@ -22879,7 +22901,7 @@
       <c r="AK266"/>
       <c r="AL266"/>
     </row>
-    <row r="267" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B267"/>
       <c r="C267"/>
       <c r="D267"/>
@@ -22918,7 +22940,7 @@
       <c r="AK267"/>
       <c r="AL267"/>
     </row>
-    <row r="268" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B268"/>
       <c r="C268"/>
       <c r="D268"/>
@@ -22957,7 +22979,7 @@
       <c r="AK268"/>
       <c r="AL268"/>
     </row>
-    <row r="269" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B269"/>
       <c r="C269"/>
       <c r="D269"/>
@@ -22996,7 +23018,7 @@
       <c r="AK269"/>
       <c r="AL269"/>
     </row>
-    <row r="270" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B270"/>
       <c r="C270"/>
       <c r="D270"/>
@@ -23035,7 +23057,7 @@
       <c r="AK270"/>
       <c r="AL270"/>
     </row>
-    <row r="271" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B271"/>
       <c r="C271"/>
       <c r="D271"/>
@@ -23074,7 +23096,7 @@
       <c r="AK271"/>
       <c r="AL271"/>
     </row>
-    <row r="272" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B272"/>
       <c r="C272"/>
       <c r="D272"/>
@@ -23113,7 +23135,7 @@
       <c r="AK272"/>
       <c r="AL272"/>
     </row>
-    <row r="273" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B273"/>
       <c r="C273"/>
       <c r="D273"/>
@@ -23152,7 +23174,7 @@
       <c r="AK273"/>
       <c r="AL273"/>
     </row>
-    <row r="274" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B274"/>
       <c r="C274"/>
       <c r="D274"/>
@@ -23191,7 +23213,7 @@
       <c r="AK274"/>
       <c r="AL274"/>
     </row>
-    <row r="275" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B275"/>
       <c r="C275"/>
       <c r="D275"/>
@@ -23230,7 +23252,7 @@
       <c r="AK275"/>
       <c r="AL275"/>
     </row>
-    <row r="276" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B276"/>
       <c r="C276"/>
       <c r="D276"/>
@@ -23269,7 +23291,7 @@
       <c r="AK276"/>
       <c r="AL276"/>
     </row>
-    <row r="277" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B277"/>
       <c r="C277"/>
       <c r="D277"/>
@@ -23308,7 +23330,7 @@
       <c r="AK277"/>
       <c r="AL277"/>
     </row>
-    <row r="278" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B278"/>
       <c r="C278"/>
       <c r="D278"/>
@@ -23347,7 +23369,7 @@
       <c r="AK278"/>
       <c r="AL278"/>
     </row>
-    <row r="279" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B279"/>
       <c r="C279"/>
       <c r="D279"/>
@@ -23386,7 +23408,7 @@
       <c r="AK279"/>
       <c r="AL279"/>
     </row>
-    <row r="280" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B280"/>
       <c r="C280"/>
       <c r="D280"/>
@@ -23425,7 +23447,7 @@
       <c r="AK280"/>
       <c r="AL280"/>
     </row>
-    <row r="281" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B281"/>
       <c r="C281"/>
       <c r="D281"/>
@@ -23464,7 +23486,7 @@
       <c r="AK281"/>
       <c r="AL281"/>
     </row>
-    <row r="282" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B282"/>
       <c r="C282"/>
       <c r="D282"/>
@@ -23503,7 +23525,7 @@
       <c r="AK282"/>
       <c r="AL282"/>
     </row>
-    <row r="283" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B283"/>
       <c r="C283"/>
       <c r="D283"/>
@@ -23542,7 +23564,7 @@
       <c r="AK283"/>
       <c r="AL283"/>
     </row>
-    <row r="284" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B284"/>
       <c r="C284"/>
       <c r="D284"/>
@@ -23581,7 +23603,7 @@
       <c r="AK284"/>
       <c r="AL284"/>
     </row>
-    <row r="285" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B285"/>
       <c r="C285"/>
       <c r="D285"/>
@@ -23620,7 +23642,7 @@
       <c r="AK285"/>
       <c r="AL285"/>
     </row>
-    <row r="286" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B286"/>
       <c r="C286"/>
       <c r="D286"/>
@@ -23659,7 +23681,7 @@
       <c r="AK286"/>
       <c r="AL286"/>
     </row>
-    <row r="287" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B287"/>
       <c r="C287"/>
       <c r="D287"/>
@@ -23698,7 +23720,7 @@
       <c r="AK287"/>
       <c r="AL287"/>
     </row>
-    <row r="288" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B288"/>
       <c r="C288"/>
       <c r="D288"/>
@@ -23737,7 +23759,7 @@
       <c r="AK288"/>
       <c r="AL288"/>
     </row>
-    <row r="289" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B289"/>
       <c r="C289"/>
       <c r="D289"/>
@@ -23776,7 +23798,7 @@
       <c r="AK289"/>
       <c r="AL289"/>
     </row>
-    <row r="290" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B290"/>
       <c r="C290"/>
       <c r="D290"/>
@@ -23815,7 +23837,7 @@
       <c r="AK290"/>
       <c r="AL290"/>
     </row>
-    <row r="291" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B291"/>
       <c r="C291"/>
       <c r="D291"/>
@@ -23854,7 +23876,7 @@
       <c r="AK291"/>
       <c r="AL291"/>
     </row>
-    <row r="292" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B292"/>
       <c r="C292"/>
       <c r="D292"/>
@@ -23893,7 +23915,7 @@
       <c r="AK292"/>
       <c r="AL292"/>
     </row>
-    <row r="293" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B293"/>
       <c r="C293"/>
       <c r="D293"/>
@@ -23932,7 +23954,7 @@
       <c r="AK293"/>
       <c r="AL293"/>
     </row>
-    <row r="294" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B294"/>
       <c r="C294"/>
       <c r="D294"/>
@@ -23971,7 +23993,7 @@
       <c r="AK294"/>
       <c r="AL294"/>
     </row>
-    <row r="295" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B295"/>
       <c r="C295"/>
       <c r="D295"/>
@@ -24010,7 +24032,7 @@
       <c r="AK295"/>
       <c r="AL295"/>
     </row>
-    <row r="296" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B296"/>
       <c r="C296"/>
       <c r="D296"/>
@@ -24049,7 +24071,7 @@
       <c r="AK296"/>
       <c r="AL296"/>
     </row>
-    <row r="297" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B297"/>
       <c r="C297"/>
       <c r="D297"/>
@@ -24088,7 +24110,7 @@
       <c r="AK297"/>
       <c r="AL297"/>
     </row>
-    <row r="298" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B298"/>
       <c r="C298"/>
       <c r="D298"/>
@@ -24127,7 +24149,7 @@
       <c r="AK298"/>
       <c r="AL298"/>
     </row>
-    <row r="299" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B299"/>
       <c r="C299"/>
       <c r="D299"/>
@@ -24166,7 +24188,7 @@
       <c r="AK299"/>
       <c r="AL299"/>
     </row>
-    <row r="300" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B300"/>
       <c r="C300"/>
       <c r="D300"/>
@@ -24205,7 +24227,7 @@
       <c r="AK300"/>
       <c r="AL300"/>
     </row>
-    <row r="301" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B301"/>
       <c r="C301"/>
       <c r="D301"/>
@@ -24244,7 +24266,7 @@
       <c r="AK301"/>
       <c r="AL301"/>
     </row>
-    <row r="302" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B302"/>
       <c r="C302"/>
       <c r="D302"/>
@@ -24283,7 +24305,7 @@
       <c r="AK302"/>
       <c r="AL302"/>
     </row>
-    <row r="303" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B303"/>
       <c r="C303"/>
       <c r="D303"/>
@@ -24322,7 +24344,7 @@
       <c r="AK303"/>
       <c r="AL303"/>
     </row>
-    <row r="304" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B304"/>
       <c r="C304"/>
       <c r="D304"/>
@@ -24361,7 +24383,7 @@
       <c r="AK304"/>
       <c r="AL304"/>
     </row>
-    <row r="305" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B305"/>
       <c r="C305"/>
       <c r="D305"/>
@@ -24400,7 +24422,7 @@
       <c r="AK305"/>
       <c r="AL305"/>
     </row>
-    <row r="306" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B306"/>
       <c r="C306"/>
       <c r="D306"/>
@@ -24439,7 +24461,7 @@
       <c r="AK306"/>
       <c r="AL306"/>
     </row>
-    <row r="307" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B307"/>
       <c r="C307"/>
       <c r="D307"/>
@@ -24478,7 +24500,7 @@
       <c r="AK307"/>
       <c r="AL307"/>
     </row>
-    <row r="308" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B308"/>
       <c r="C308"/>
       <c r="D308"/>
@@ -24517,7 +24539,7 @@
       <c r="AK308"/>
       <c r="AL308"/>
     </row>
-    <row r="309" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B309"/>
       <c r="C309"/>
       <c r="D309"/>
@@ -24556,7 +24578,7 @@
       <c r="AK309"/>
       <c r="AL309"/>
     </row>
-    <row r="310" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B310"/>
       <c r="C310"/>
       <c r="D310"/>
@@ -24595,7 +24617,7 @@
       <c r="AK310"/>
       <c r="AL310"/>
     </row>
-    <row r="311" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B311"/>
       <c r="C311"/>
       <c r="D311"/>
@@ -24634,7 +24656,7 @@
       <c r="AK311"/>
       <c r="AL311"/>
     </row>
-    <row r="312" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B312"/>
       <c r="C312"/>
       <c r="D312"/>
@@ -24673,7 +24695,7 @@
       <c r="AK312"/>
       <c r="AL312"/>
     </row>
-    <row r="313" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B313"/>
       <c r="C313"/>
       <c r="D313"/>
@@ -24712,7 +24734,7 @@
       <c r="AK313"/>
       <c r="AL313"/>
     </row>
-    <row r="314" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B314"/>
       <c r="C314"/>
       <c r="D314"/>
@@ -24751,7 +24773,7 @@
       <c r="AK314"/>
       <c r="AL314"/>
     </row>
-    <row r="315" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B315"/>
       <c r="C315"/>
       <c r="D315"/>
@@ -24790,7 +24812,7 @@
       <c r="AK315"/>
       <c r="AL315"/>
     </row>
-    <row r="316" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B316"/>
       <c r="C316"/>
       <c r="D316"/>
@@ -24829,7 +24851,7 @@
       <c r="AK316"/>
       <c r="AL316"/>
     </row>
-    <row r="317" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B317"/>
       <c r="C317"/>
       <c r="D317"/>
@@ -24868,7 +24890,7 @@
       <c r="AK317"/>
       <c r="AL317"/>
     </row>
-    <row r="318" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B318"/>
       <c r="C318"/>
       <c r="D318"/>
@@ -24907,7 +24929,7 @@
       <c r="AK318"/>
       <c r="AL318"/>
     </row>
-    <row r="319" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B319"/>
       <c r="C319"/>
       <c r="D319"/>
@@ -24946,7 +24968,7 @@
       <c r="AK319"/>
       <c r="AL319"/>
     </row>
-    <row r="320" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B320"/>
       <c r="C320"/>
       <c r="D320"/>
@@ -24985,7 +25007,7 @@
       <c r="AK320"/>
       <c r="AL320"/>
     </row>
-    <row r="321" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B321"/>
       <c r="C321"/>
       <c r="D321"/>
@@ -25024,7 +25046,7 @@
       <c r="AK321"/>
       <c r="AL321"/>
     </row>
-    <row r="322" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B322"/>
       <c r="C322"/>
       <c r="D322"/>
@@ -25063,7 +25085,7 @@
       <c r="AK322"/>
       <c r="AL322"/>
     </row>
-    <row r="323" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B323"/>
       <c r="C323"/>
       <c r="D323"/>
@@ -25102,7 +25124,7 @@
       <c r="AK323"/>
       <c r="AL323"/>
     </row>
-    <row r="324" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B324"/>
       <c r="C324"/>
       <c r="D324"/>
@@ -25141,7 +25163,7 @@
       <c r="AK324"/>
       <c r="AL324"/>
     </row>
-    <row r="325" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B325"/>
       <c r="C325"/>
       <c r="D325"/>
@@ -25180,7 +25202,7 @@
       <c r="AK325"/>
       <c r="AL325"/>
     </row>
-    <row r="326" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B326"/>
       <c r="C326"/>
       <c r="D326"/>
@@ -25219,7 +25241,7 @@
       <c r="AK326"/>
       <c r="AL326"/>
     </row>
-    <row r="327" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B327"/>
       <c r="C327"/>
       <c r="D327"/>
@@ -25258,7 +25280,7 @@
       <c r="AK327"/>
       <c r="AL327"/>
     </row>
-    <row r="328" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B328"/>
       <c r="C328"/>
       <c r="D328"/>
@@ -25297,7 +25319,7 @@
       <c r="AK328"/>
       <c r="AL328"/>
     </row>
-    <row r="329" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B329"/>
       <c r="C329"/>
       <c r="D329"/>
@@ -25336,7 +25358,7 @@
       <c r="AK329"/>
       <c r="AL329"/>
     </row>
-    <row r="330" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B330"/>
       <c r="C330"/>
       <c r="D330"/>
@@ -25375,7 +25397,7 @@
       <c r="AK330"/>
       <c r="AL330"/>
     </row>
-    <row r="331" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B331"/>
       <c r="C331"/>
       <c r="D331"/>
@@ -25414,7 +25436,7 @@
       <c r="AK331"/>
       <c r="AL331"/>
     </row>
-    <row r="332" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B332"/>
       <c r="C332"/>
       <c r="D332"/>
@@ -25453,7 +25475,7 @@
       <c r="AK332"/>
       <c r="AL332"/>
     </row>
-    <row r="333" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B333"/>
       <c r="C333"/>
       <c r="D333"/>
@@ -25492,7 +25514,7 @@
       <c r="AK333"/>
       <c r="AL333"/>
     </row>
-    <row r="334" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B334"/>
       <c r="C334"/>
       <c r="D334"/>
@@ -25531,7 +25553,7 @@
       <c r="AK334"/>
       <c r="AL334"/>
     </row>
-    <row r="335" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B335"/>
       <c r="C335"/>
       <c r="D335"/>
@@ -25570,7 +25592,7 @@
       <c r="AK335"/>
       <c r="AL335"/>
     </row>
-    <row r="336" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B336"/>
       <c r="C336"/>
       <c r="D336"/>
@@ -25609,7 +25631,7 @@
       <c r="AK336"/>
       <c r="AL336"/>
     </row>
-    <row r="337" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B337"/>
       <c r="C337"/>
       <c r="D337"/>
@@ -25648,7 +25670,7 @@
       <c r="AK337"/>
       <c r="AL337"/>
     </row>
-    <row r="338" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B338"/>
       <c r="C338"/>
       <c r="D338"/>
@@ -25687,7 +25709,7 @@
       <c r="AK338"/>
       <c r="AL338"/>
     </row>
-    <row r="339" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B339"/>
       <c r="C339"/>
       <c r="D339"/>
@@ -25726,7 +25748,7 @@
       <c r="AK339"/>
       <c r="AL339"/>
     </row>
-    <row r="340" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B340"/>
       <c r="C340"/>
       <c r="D340"/>
@@ -25765,7 +25787,7 @@
       <c r="AK340"/>
       <c r="AL340"/>
     </row>
-    <row r="341" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B341"/>
       <c r="C341"/>
       <c r="D341"/>
@@ -25804,7 +25826,7 @@
       <c r="AK341"/>
       <c r="AL341"/>
     </row>
-    <row r="342" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B342"/>
       <c r="C342"/>
       <c r="D342"/>
@@ -25843,7 +25865,7 @@
       <c r="AK342"/>
       <c r="AL342"/>
     </row>
-    <row r="343" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B343"/>
       <c r="C343"/>
       <c r="D343"/>
@@ -25882,7 +25904,7 @@
       <c r="AK343"/>
       <c r="AL343"/>
     </row>
-    <row r="344" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B344"/>
       <c r="C344"/>
       <c r="D344"/>
@@ -25921,7 +25943,7 @@
       <c r="AK344"/>
       <c r="AL344"/>
     </row>
-    <row r="345" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B345"/>
       <c r="C345"/>
       <c r="D345"/>
@@ -25960,7 +25982,7 @@
       <c r="AK345"/>
       <c r="AL345"/>
     </row>
-    <row r="346" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B346"/>
       <c r="C346"/>
       <c r="D346"/>
@@ -25999,7 +26021,7 @@
       <c r="AK346"/>
       <c r="AL346"/>
     </row>
-    <row r="347" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B347"/>
       <c r="C347"/>
       <c r="D347"/>
@@ -26038,7 +26060,7 @@
       <c r="AK347"/>
       <c r="AL347"/>
     </row>
-    <row r="348" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B348"/>
       <c r="C348"/>
       <c r="D348"/>
@@ -26077,7 +26099,7 @@
       <c r="AK348"/>
       <c r="AL348"/>
     </row>
-    <row r="349" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B349"/>
       <c r="C349"/>
       <c r="D349"/>
@@ -26116,7 +26138,7 @@
       <c r="AK349"/>
       <c r="AL349"/>
     </row>
-    <row r="350" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B350"/>
       <c r="C350"/>
       <c r="D350"/>
@@ -26155,7 +26177,7 @@
       <c r="AK350"/>
       <c r="AL350"/>
     </row>
-    <row r="351" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B351"/>
       <c r="C351"/>
       <c r="D351"/>
@@ -26194,7 +26216,7 @@
       <c r="AK351"/>
       <c r="AL351"/>
     </row>
-    <row r="352" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B352"/>
       <c r="C352"/>
       <c r="D352"/>
@@ -26233,7 +26255,7 @@
       <c r="AK352"/>
       <c r="AL352"/>
     </row>
-    <row r="353" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B353"/>
       <c r="C353"/>
       <c r="D353"/>
@@ -26272,7 +26294,7 @@
       <c r="AK353"/>
       <c r="AL353"/>
     </row>
-    <row r="354" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B354"/>
       <c r="C354"/>
       <c r="D354"/>
@@ -26311,7 +26333,7 @@
       <c r="AK354"/>
       <c r="AL354"/>
     </row>
-    <row r="355" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B355"/>
       <c r="C355"/>
       <c r="D355"/>
@@ -26350,7 +26372,7 @@
       <c r="AK355"/>
       <c r="AL355"/>
     </row>
-    <row r="356" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B356"/>
       <c r="C356"/>
       <c r="D356"/>
@@ -26389,7 +26411,7 @@
       <c r="AK356"/>
       <c r="AL356"/>
     </row>
-    <row r="357" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B357"/>
       <c r="C357"/>
       <c r="D357"/>
@@ -26428,7 +26450,7 @@
       <c r="AK357"/>
       <c r="AL357"/>
     </row>
-    <row r="358" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B358"/>
       <c r="C358"/>
       <c r="D358"/>
@@ -26467,7 +26489,7 @@
       <c r="AK358"/>
       <c r="AL358"/>
     </row>
-    <row r="359" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B359"/>
       <c r="C359"/>
       <c r="D359"/>
@@ -26506,7 +26528,7 @@
       <c r="AK359"/>
       <c r="AL359"/>
     </row>
-    <row r="360" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B360"/>
       <c r="C360"/>
       <c r="D360"/>
@@ -26545,7 +26567,7 @@
       <c r="AK360"/>
       <c r="AL360"/>
     </row>
-    <row r="361" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B361"/>
       <c r="C361"/>
       <c r="D361"/>
@@ -26584,7 +26606,7 @@
       <c r="AK361"/>
       <c r="AL361"/>
     </row>
-    <row r="362" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B362"/>
       <c r="C362"/>
       <c r="D362"/>
@@ -26623,7 +26645,7 @@
       <c r="AK362"/>
       <c r="AL362"/>
     </row>
-    <row r="363" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B363"/>
       <c r="C363"/>
       <c r="D363"/>
@@ -26662,7 +26684,7 @@
       <c r="AK363"/>
       <c r="AL363"/>
     </row>
-    <row r="364" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B364"/>
       <c r="C364"/>
       <c r="D364"/>
@@ -26701,7 +26723,7 @@
       <c r="AK364"/>
       <c r="AL364"/>
     </row>
-    <row r="365" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B365"/>
       <c r="C365"/>
       <c r="D365"/>
@@ -26740,7 +26762,7 @@
       <c r="AK365"/>
       <c r="AL365"/>
     </row>
-    <row r="366" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B366"/>
       <c r="C366"/>
       <c r="D366"/>
@@ -26779,7 +26801,7 @@
       <c r="AK366"/>
       <c r="AL366"/>
     </row>
-    <row r="367" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B367"/>
       <c r="C367"/>
       <c r="D367"/>
@@ -26818,7 +26840,7 @@
       <c r="AK367"/>
       <c r="AL367"/>
     </row>
-    <row r="368" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B368"/>
       <c r="C368"/>
       <c r="D368"/>
@@ -26857,7 +26879,7 @@
       <c r="AK368"/>
       <c r="AL368"/>
     </row>
-    <row r="369" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B369"/>
       <c r="C369"/>
       <c r="D369"/>
@@ -26896,7 +26918,7 @@
       <c r="AK369"/>
       <c r="AL369"/>
     </row>
-    <row r="370" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B370"/>
       <c r="C370"/>
       <c r="D370"/>
@@ -26935,7 +26957,7 @@
       <c r="AK370"/>
       <c r="AL370"/>
     </row>
-    <row r="371" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B371"/>
       <c r="C371"/>
       <c r="D371"/>
@@ -26974,7 +26996,7 @@
       <c r="AK371"/>
       <c r="AL371"/>
     </row>
-    <row r="372" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B372"/>
       <c r="C372"/>
       <c r="D372"/>
@@ -27013,7 +27035,7 @@
       <c r="AK372"/>
       <c r="AL372"/>
     </row>
-    <row r="373" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B373"/>
       <c r="C373"/>
       <c r="D373"/>
@@ -27052,7 +27074,7 @@
       <c r="AK373"/>
       <c r="AL373"/>
     </row>
-    <row r="374" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B374"/>
       <c r="C374"/>
       <c r="D374"/>
@@ -27091,7 +27113,7 @@
       <c r="AK374"/>
       <c r="AL374"/>
     </row>
-    <row r="375" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B375"/>
       <c r="C375"/>
       <c r="D375"/>
@@ -27130,7 +27152,7 @@
       <c r="AK375"/>
       <c r="AL375"/>
     </row>
-    <row r="376" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B376"/>
       <c r="C376"/>
       <c r="D376"/>
@@ -27169,7 +27191,7 @@
       <c r="AK376"/>
       <c r="AL376"/>
     </row>
-    <row r="377" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B377"/>
       <c r="C377"/>
       <c r="D377"/>
@@ -27208,7 +27230,7 @@
       <c r="AK377"/>
       <c r="AL377"/>
     </row>
-    <row r="378" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B378"/>
       <c r="C378"/>
       <c r="D378"/>
@@ -27247,7 +27269,7 @@
       <c r="AK378"/>
       <c r="AL378"/>
     </row>
-    <row r="379" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B379"/>
       <c r="C379"/>
       <c r="D379"/>
@@ -27286,7 +27308,7 @@
       <c r="AK379"/>
       <c r="AL379"/>
     </row>
-    <row r="380" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B380"/>
       <c r="C380"/>
       <c r="D380"/>
@@ -27325,7 +27347,7 @@
       <c r="AK380"/>
       <c r="AL380"/>
     </row>
-    <row r="381" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B381"/>
       <c r="C381"/>
       <c r="D381"/>
@@ -27364,7 +27386,7 @@
       <c r="AK381"/>
       <c r="AL381"/>
     </row>
-    <row r="382" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B382"/>
       <c r="C382"/>
       <c r="D382"/>
@@ -27403,7 +27425,7 @@
       <c r="AK382"/>
       <c r="AL382"/>
     </row>
-    <row r="383" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B383"/>
       <c r="C383"/>
       <c r="D383"/>
@@ -27442,7 +27464,7 @@
       <c r="AK383"/>
       <c r="AL383"/>
     </row>
-    <row r="384" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
@@ -27481,7 +27503,7 @@
       <c r="AK384"/>
       <c r="AL384"/>
     </row>
-    <row r="385" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385"/>
@@ -27520,7 +27542,7 @@
       <c r="AK385"/>
       <c r="AL385"/>
     </row>
-    <row r="386" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386"/>
@@ -27559,7 +27581,7 @@
       <c r="AK386"/>
       <c r="AL386"/>
     </row>
-    <row r="387" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387"/>
@@ -27598,7 +27620,7 @@
       <c r="AK387"/>
       <c r="AL387"/>
     </row>
-    <row r="388" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388"/>
@@ -27637,7 +27659,7 @@
       <c r="AK388"/>
       <c r="AL388"/>
     </row>
-    <row r="389" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B389"/>
       <c r="C389"/>
       <c r="D389"/>
@@ -27676,7 +27698,7 @@
       <c r="AK389"/>
       <c r="AL389"/>
     </row>
-    <row r="390" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B390"/>
       <c r="C390"/>
       <c r="D390"/>
@@ -27715,7 +27737,7 @@
       <c r="AK390"/>
       <c r="AL390"/>
     </row>
-    <row r="391" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B391"/>
       <c r="C391"/>
       <c r="D391"/>
@@ -27754,7 +27776,7 @@
       <c r="AK391"/>
       <c r="AL391"/>
     </row>
-    <row r="392" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B392"/>
       <c r="C392"/>
       <c r="D392"/>
@@ -27793,7 +27815,7 @@
       <c r="AK392"/>
       <c r="AL392"/>
     </row>
-    <row r="393" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B393"/>
       <c r="C393"/>
       <c r="D393"/>
@@ -27832,7 +27854,7 @@
       <c r="AK393"/>
       <c r="AL393"/>
     </row>
-    <row r="394" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B394"/>
       <c r="C394"/>
       <c r="D394"/>
@@ -27871,7 +27893,7 @@
       <c r="AK394"/>
       <c r="AL394"/>
     </row>
-    <row r="395" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B395"/>
       <c r="C395"/>
       <c r="D395"/>
@@ -27910,7 +27932,7 @@
       <c r="AK395"/>
       <c r="AL395"/>
     </row>
-    <row r="396" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B396"/>
       <c r="C396"/>
       <c r="D396"/>
@@ -27949,7 +27971,7 @@
       <c r="AK396"/>
       <c r="AL396"/>
     </row>
-    <row r="397" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B397"/>
       <c r="C397"/>
       <c r="D397"/>
@@ -27988,7 +28010,7 @@
       <c r="AK397"/>
       <c r="AL397"/>
     </row>
-    <row r="398" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B398"/>
       <c r="C398"/>
       <c r="D398"/>
@@ -28027,7 +28049,7 @@
       <c r="AK398"/>
       <c r="AL398"/>
     </row>
-    <row r="399" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B399"/>
       <c r="C399"/>
       <c r="D399"/>
@@ -28066,7 +28088,7 @@
       <c r="AK399"/>
       <c r="AL399"/>
     </row>
-    <row r="400" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B400"/>
       <c r="C400"/>
       <c r="D400"/>
@@ -28105,7 +28127,7 @@
       <c r="AK400"/>
       <c r="AL400"/>
     </row>
-    <row r="401" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B401"/>
       <c r="C401"/>
       <c r="D401"/>
@@ -28144,7 +28166,7 @@
       <c r="AK401"/>
       <c r="AL401"/>
     </row>
-    <row r="402" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B402"/>
       <c r="C402"/>
       <c r="D402"/>
@@ -28183,7 +28205,7 @@
       <c r="AK402"/>
       <c r="AL402"/>
     </row>
-    <row r="403" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B403"/>
       <c r="C403"/>
       <c r="D403"/>
@@ -28222,7 +28244,7 @@
       <c r="AK403"/>
       <c r="AL403"/>
     </row>
-    <row r="404" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B404"/>
       <c r="C404"/>
       <c r="D404"/>
@@ -28261,7 +28283,7 @@
       <c r="AK404"/>
       <c r="AL404"/>
     </row>
-    <row r="405" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B405"/>
       <c r="C405"/>
       <c r="D405"/>
@@ -28300,7 +28322,7 @@
       <c r="AK405"/>
       <c r="AL405"/>
     </row>
-    <row r="406" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B406"/>
       <c r="C406"/>
       <c r="D406"/>
@@ -28339,7 +28361,7 @@
       <c r="AK406"/>
       <c r="AL406"/>
     </row>
-    <row r="407" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B407"/>
       <c r="C407"/>
       <c r="D407"/>
@@ -28378,7 +28400,7 @@
       <c r="AK407"/>
       <c r="AL407"/>
     </row>
-    <row r="408" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B408"/>
       <c r="C408"/>
       <c r="D408"/>
@@ -28417,7 +28439,7 @@
       <c r="AK408"/>
       <c r="AL408"/>
     </row>
-    <row r="409" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B409"/>
       <c r="C409"/>
       <c r="D409"/>
@@ -28456,7 +28478,7 @@
       <c r="AK409"/>
       <c r="AL409"/>
     </row>
-    <row r="410" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B410"/>
       <c r="C410"/>
       <c r="D410"/>
@@ -28495,7 +28517,7 @@
       <c r="AK410"/>
       <c r="AL410"/>
     </row>
-    <row r="411" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B411"/>
       <c r="C411"/>
       <c r="D411"/>
@@ -28534,7 +28556,7 @@
       <c r="AK411"/>
       <c r="AL411"/>
     </row>
-    <row r="412" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B412"/>
       <c r="C412"/>
       <c r="D412"/>
@@ -28573,7 +28595,7 @@
       <c r="AK412"/>
       <c r="AL412"/>
     </row>
-    <row r="413" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B413"/>
       <c r="C413"/>
       <c r="D413"/>
@@ -28612,7 +28634,7 @@
       <c r="AK413"/>
       <c r="AL413"/>
     </row>
-    <row r="414" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B414"/>
       <c r="C414"/>
       <c r="D414"/>
@@ -28651,7 +28673,7 @@
       <c r="AK414"/>
       <c r="AL414"/>
     </row>
-    <row r="415" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B415"/>
       <c r="C415"/>
       <c r="D415"/>
@@ -28690,7 +28712,7 @@
       <c r="AK415"/>
       <c r="AL415"/>
     </row>
-    <row r="416" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B416"/>
       <c r="C416"/>
       <c r="D416"/>
@@ -28729,7 +28751,7 @@
       <c r="AK416"/>
       <c r="AL416"/>
     </row>
-    <row r="417" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B417"/>
       <c r="C417"/>
       <c r="D417"/>
@@ -28768,7 +28790,7 @@
       <c r="AK417"/>
       <c r="AL417"/>
     </row>
-    <row r="418" spans="2:38" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:38" ht="13" x14ac:dyDescent="0.2">
       <c r="B418"/>
       <c r="F418"/>
     </row>
@@ -28803,6 +28825,11 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:AL1"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
@@ -28810,11 +28837,6 @@
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="C1:C4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="L1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F419:F65544">
@@ -30779,10 +30801,10 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -30809,7 +30831,7 @@
       <c r="E3" s="113"/>
       <c r="H3" s="34">
         <f ca="1">COUNTIF('スプリントバックログ(全体) '!$F$5:$F$418,'スプリントバックログ（グラフ表）'!$H$2)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="107">
         <v>1</v>
@@ -31048,7 +31070,7 @@
       </c>
       <c r="B8" s="30">
         <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A8,'スプリントバックログ(全体) '!$I$5:$I$411)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="30">
         <f ca="1">SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A8,'スプリントバックログ(全体) '!$K$5:$K$411)</f>
@@ -31056,7 +31078,7 @@
       </c>
       <c r="D8" s="30">
         <f>SUMIF('スプリントバックログ(全体) '!$E$5:$E$411,A8,'スプリントバックログ(全体) '!$J$5:$J$411)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="31">
         <f>COUNTA('スプリントバックログ(全体) '!$L$2:$AL$2)*6-COUNTA('スプリントバックログ(全体) '!$L$4:$AL$4)*6</f>
@@ -31068,7 +31090,7 @@
       </c>
       <c r="G8" s="34">
         <f>COUNTIF('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="32" t="e">
         <f>COUNTIFS('スプリントバックログ(全体) '!$E$5:$E$417,'スプリントバックログ（グラフ表）'!A8,'スプリントバックログ(全体) '!$F$5:$F$418,'スプリントバックログ（グラフ表）'!$H$2)</f>
@@ -31081,7 +31103,7 @@
       <c r="J8" s="108"/>
       <c r="K8" s="57">
         <f t="shared" si="6"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L8" s="57">
         <f t="shared" si="3"/>
@@ -31097,7 +31119,7 @@
       </c>
       <c r="O8" s="57">
         <f t="shared" si="5"/>
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -31345,15 +31367,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="8" width="24.77734375" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="8" width="24.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>56</v>
       </c>
@@ -31623,7 +31645,7 @@
       <c r="G23" s="86"/>
       <c r="H23" s="87"/>
     </row>
-    <row r="26" spans="2:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="34" t="s">
         <v>59</v>
       </c>
@@ -31766,15 +31788,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="8" width="24.77734375" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="8" width="24.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>56</v>
       </c>
@@ -32031,7 +32053,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="34" t="s">
         <v>59</v>
       </c>
@@ -32345,15 +32367,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="8" width="24.77734375" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="8" width="24.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>56</v>
       </c>
@@ -32562,7 +32584,7 @@
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E24" s="91"/>
     </row>
-    <row r="26" spans="2:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="34" t="s">
         <v>59</v>
       </c>
